--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\5-Njësite-banesore\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Sojevë\INXHINIERIKE\Dior\5-Njësite-banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="25">
   <si>
     <t>Nr</t>
   </si>
@@ -73,12 +73,6 @@
 </t>
   </si>
   <si>
-    <t>Përdhesa</t>
-  </si>
-  <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>PERDHESA</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>KATI1</t>
-  </si>
-  <si>
     <t>KATI2</t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>KATI-NK</t>
+  </si>
+  <si>
+    <t>Liridon Sejdiu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hyrje</t>
   </si>
 </sst>
 </file>
@@ -595,33 +595,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,18 +621,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -665,12 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -689,120 +649,123 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,7 +962,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Ferizaj</a:t>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1074,7 +1037,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00565-6</a:t>
+            <a:t>: 01997-0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1505,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A105" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="C13:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,468 +1485,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7517930.4069999997</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="F14" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G14" s="9">
+        <v>40</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C14" s="17">
-        <v>14</v>
-      </c>
-      <c r="D14" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E14" s="18">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F14" s="18">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G14" s="19">
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7517928.9910000004</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4692671.3689999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G15" s="9">
         <v>40</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C15" s="17">
-        <v>91</v>
-      </c>
-      <c r="D15" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E15" s="18">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F15" s="18">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F16" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G16" s="9">
         <v>40</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="17">
-        <v>92</v>
-      </c>
-      <c r="D16" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E16" s="18">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F16" s="18">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7517928.4419999998</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4692673.07</v>
+      </c>
+      <c r="F17" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G17" s="9">
         <v>40</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="17">
-        <v>95</v>
-      </c>
-      <c r="D17" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E17" s="18">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F17" s="18">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7517929.8169999998</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F18" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G18" s="9">
         <v>40</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="21">
-        <v>93</v>
-      </c>
-      <c r="D18" s="22">
-        <v>7510829.3601000002</v>
-      </c>
-      <c r="E18" s="22">
-        <v>4693751.9517000001</v>
-      </c>
-      <c r="F18" s="22">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7517929.96</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F19" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G19" s="9">
         <v>40</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I19" s="10"/>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F20" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G20" s="9">
+        <v>40</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F21" s="71">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G21" s="71" t="s">
+      <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7517930.7450000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F21" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G21" s="9">
+        <v>40</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F22" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G22" s="9">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C22" s="5">
-        <v>91</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C23" s="5">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F23" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G23" s="9">
+        <v>40</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C24" s="5">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="10"/>
+      <c r="C24" s="7">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7517953.7189999996</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="F24" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G24" s="9">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <v>96</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7510828.4807000002</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4693752.8400999997</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="10"/>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7517955.8949999996</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4692681.023</v>
+      </c>
+      <c r="F25" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G25" s="9">
+        <v>40</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="C26" s="5">
-        <v>97</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7510830.2862</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4693754.6363000004</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="10"/>
+      <c r="C26" s="7">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G26" s="9">
+        <v>40</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="C27" s="5">
-        <v>98</v>
-      </c>
-      <c r="D27" s="4">
-        <v>7510832.0494999997</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4693752.8640000001</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="10"/>
+      <c r="C27" s="7">
+        <v>59</v>
+      </c>
+      <c r="D27" s="8">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F27" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G27" s="9">
+        <v>40</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="C28" s="5">
-        <v>99</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7510830.2395000001</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4693751.0632999996</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="10"/>
+      <c r="C28" s="7">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F28" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G28" s="9">
+        <v>40</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="6">
-        <v>93</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7510829.3601000002</v>
-      </c>
-      <c r="E29" s="7">
-        <v>4693751.9517000001</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="12" t="s">
-        <v>8</v>
+      <c r="C29" s="7">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F29" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G29" s="9">
+        <v>40</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
+      <c r="C30" s="7">
+        <v>62</v>
+      </c>
+      <c r="D30" s="8">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F30" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G30" s="9">
+        <v>40</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>3</v>
+      <c r="C31" s="7">
+        <v>63</v>
+      </c>
+      <c r="D31" s="8">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F31" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G31" s="9">
+        <v>40</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1991,23 +2051,26 @@
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="5">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="F32" s="74">
-        <v>584.09</v>
-      </c>
-      <c r="G32" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>8</v>
+      <c r="C32" s="7">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8">
+        <v>7517927.5023999996</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4692687.0555999996</v>
+      </c>
+      <c r="F32" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2015,19 +2078,26 @@
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="5">
-        <v>91</v>
-      </c>
-      <c r="D33" s="4">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="29" t="s">
-        <v>8</v>
+      <c r="C33" s="7">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8">
+        <v>7517945.1684999997</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4692693.0225999998</v>
+      </c>
+      <c r="F33" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2035,39 +2105,53 @@
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="5">
-        <v>92</v>
-      </c>
-      <c r="D34" s="4">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="E34" s="4">
-        <v>4693757.18</v>
-      </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="29" t="s">
-        <v>8</v>
+      <c r="C34" s="7">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8">
+        <v>7517953.4539999999</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4692680.1963</v>
+      </c>
+      <c r="F34" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="5">
-        <v>95</v>
-      </c>
-      <c r="D35" s="4">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="29" t="s">
-        <v>8</v>
+      <c r="C35" s="59">
+        <v>102</v>
+      </c>
+      <c r="D35" s="60">
+        <v>7517929.6986999996</v>
+      </c>
+      <c r="E35" s="60">
+        <v>4692671.5919000003</v>
+      </c>
+      <c r="F35" s="60">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>17</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2075,220 +2159,132 @@
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="5">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4">
-        <v>7510827.6716</v>
-      </c>
-      <c r="E36" s="4">
-        <v>4693753.6573000001</v>
-      </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="13"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="5">
-        <v>97</v>
-      </c>
-      <c r="D37" s="4">
-        <v>7510831.7936000004</v>
-      </c>
-      <c r="E37" s="4">
-        <v>4693757.7377000004</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="13"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="5">
-        <v>98</v>
-      </c>
-      <c r="D38" s="4">
-        <v>7510835.1705</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4693754.3263999997</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="13"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="5">
-        <v>99</v>
-      </c>
-      <c r="D39" s="4">
-        <v>7510831.0484999996</v>
-      </c>
-      <c r="E39" s="4">
-        <v>4693750.2460000003</v>
-      </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="13"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="5">
-        <v>100</v>
-      </c>
-      <c r="D40" s="4">
-        <v>7510833.4488000004</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4693756.0656000003</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="13"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="5">
-        <v>101</v>
-      </c>
-      <c r="D41" s="4">
-        <v>7510838.6793999998</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4693761.3486000001</v>
-      </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="13"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="5">
-        <v>102</v>
-      </c>
-      <c r="D42" s="4">
-        <v>7510827.4069999997</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4693753.9248000002</v>
-      </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="13"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="5">
-        <v>103</v>
-      </c>
-      <c r="D43" s="4">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4693752.9923</v>
-      </c>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="13"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="5">
-        <v>104</v>
-      </c>
-      <c r="D44" s="4">
-        <v>7510828.4380000001</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4693751.0044999998</v>
-      </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="13"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="5">
-        <v>105</v>
-      </c>
-      <c r="D45" s="4">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="13"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="5">
-        <v>106</v>
-      </c>
-      <c r="D46" s="4">
-        <v>7510831.3317</v>
-      </c>
-      <c r="E46" s="4">
-        <v>4693749.9599000001</v>
-      </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2296,20 +2292,12 @@
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="5">
-        <v>107</v>
-      </c>
-      <c r="D47" s="4">
-        <v>7510830.8696999997</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4693756.8230999997</v>
-      </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2317,75 +2305,43 @@
     <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="5">
-        <v>108</v>
-      </c>
-      <c r="D48" s="4">
-        <v>7510834.2466000002</v>
-      </c>
-      <c r="E48" s="4">
-        <v>4693753.4117999999</v>
-      </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="5">
-        <v>109</v>
-      </c>
-      <c r="D49" s="4">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4693767.4611</v>
-      </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="13"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="5">
-        <v>110</v>
-      </c>
-      <c r="D50" s="4">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="13"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="6">
-        <v>111</v>
-      </c>
-      <c r="D51" s="7">
-        <v>7510829.3679</v>
-      </c>
-      <c r="E51" s="7">
-        <v>4693751.9436999997</v>
-      </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2393,12 +2349,12 @@
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2406,174 +2362,123 @@
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>4</v>
@@ -2581,1443 +2486,1440 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="60" t="s">
+      <c r="E66" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="61"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="68"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="53"/>
     </row>
     <row r="67" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45">
-        <v>152</v>
-      </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="70"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49">
+        <v>140</v>
+      </c>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="55"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="34" t="s">
+      <c r="F75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="35" t="s">
+      <c r="H75" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="36">
+      <c r="C76" s="20">
         <v>14</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="22">
         <v>7510834.5436000004</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="22">
         <v>4693744.8530999999</v>
       </c>
-      <c r="F76" s="50">
+      <c r="F76" s="57">
         <v>587.16200000000003</v>
       </c>
-      <c r="G76" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="25"/>
+      <c r="G76" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="11"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="36">
+      <c r="C77" s="20">
         <v>91</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="22">
         <v>7510831.7971999999</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="22">
         <v>4693766.6201999998</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="25"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="11"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="36">
+      <c r="C78" s="20">
         <v>92</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="22">
         <v>7510822.3084000004</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="22">
         <v>4693757.18</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="25"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="11"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="36">
+      <c r="C79" s="20">
         <v>95</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="22">
         <v>7510843.9336000001</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="22">
         <v>4693754.3136</v>
       </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="25"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="11"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="36">
+      <c r="C80" s="20">
         <v>96</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="22">
         <v>7510827.6716999998</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="22">
         <v>4693753.6573999999</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="25"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="11"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="36">
+      <c r="C81" s="20">
         <v>97</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="22">
         <v>7510831.9460000005</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="22">
         <v>4693757.8739</v>
       </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="25"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="11"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="36">
+      <c r="C82" s="20">
         <v>98</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="22">
         <v>7510835.3169999998</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="22">
         <v>4693754.4567999998</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="25"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="11"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="36">
+      <c r="C83" s="20">
         <v>99</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="22">
         <v>7510831.0484999996</v>
       </c>
-      <c r="E83" s="38">
+      <c r="E83" s="22">
         <v>4693750.2460000003</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="25"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="11"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="36">
+      <c r="C84" s="20">
         <v>101</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="22">
         <v>7510838.6793999998</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="22">
         <v>4693761.3486000001</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="25"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="11"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="36">
+      <c r="C85" s="20">
         <v>102</v>
       </c>
-      <c r="D85" s="38">
+      <c r="D85" s="22">
         <v>7510823.2538000001</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="22">
         <v>4693758.1205000002</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="25"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="11"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="36">
+      <c r="C86" s="20">
         <v>106</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="22">
         <v>7510835.4665000001</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="22">
         <v>4693745.7829</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="25"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="11"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="36">
+      <c r="C87" s="20">
         <v>109</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="22">
         <v>7510832.6496000001</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="22">
         <v>4693767.4611</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I87" s="25"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="11"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="36">
+      <c r="C88" s="20">
         <v>110</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="22">
         <v>7510844.7790999999</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="22">
         <v>4693755.1654000003</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" s="25"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E90" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F90" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="34" t="s">
+      <c r="F90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I90" s="25"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="36">
+      <c r="C91" s="20">
         <v>14</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="22">
         <v>7510834.5436000004</v>
       </c>
-      <c r="E91" s="38">
+      <c r="E91" s="22">
         <v>4693744.8530999999</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="25">
         <v>590.18700000000001</v>
       </c>
-      <c r="G91" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="25"/>
+      <c r="G91" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="11"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="36">
+      <c r="C92" s="20">
         <v>91</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="22">
         <v>7510831.7971999999</v>
       </c>
-      <c r="E92" s="38">
+      <c r="E92" s="22">
         <v>4693766.6201999998</v>
       </c>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" s="25"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="11"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="36">
+      <c r="C93" s="20">
         <v>92</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="22">
         <v>7510822.3084000004</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E93" s="22">
         <v>4693757.18</v>
       </c>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="25"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="11"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="36">
+      <c r="C94" s="20">
         <v>95</v>
       </c>
-      <c r="D94" s="38">
+      <c r="D94" s="22">
         <v>7510843.9336000001</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="22">
         <v>4693754.3136</v>
       </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="25"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="11"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="36">
+      <c r="C95" s="20">
         <v>96</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="22">
         <v>7510827.6716999998</v>
       </c>
-      <c r="E95" s="38">
+      <c r="E95" s="22">
         <v>4693753.6573999999</v>
       </c>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="25"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="11"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="36">
+      <c r="C96" s="20">
         <v>97</v>
       </c>
-      <c r="D96" s="38">
+      <c r="D96" s="22">
         <v>7510831.9460000005</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="22">
         <v>4693757.8739</v>
       </c>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="25"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="11"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="36">
+      <c r="C97" s="20">
         <v>98</v>
       </c>
-      <c r="D97" s="38">
+      <c r="D97" s="22">
         <v>7510835.3169999998</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="22">
         <v>4693754.4567999998</v>
       </c>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="25"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="11"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="36">
+      <c r="C98" s="20">
         <v>99</v>
       </c>
-      <c r="D98" s="38">
+      <c r="D98" s="22">
         <v>7510831.0484999996</v>
       </c>
-      <c r="E98" s="38">
+      <c r="E98" s="22">
         <v>4693750.2460000003</v>
       </c>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="25"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="11"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="36">
+      <c r="C99" s="20">
         <v>102</v>
       </c>
-      <c r="D99" s="38">
+      <c r="D99" s="22">
         <v>7510823.2538000001</v>
       </c>
-      <c r="E99" s="38">
+      <c r="E99" s="22">
         <v>4693758.1205000002</v>
       </c>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="25"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="11"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="36">
+      <c r="C100" s="20">
         <v>106</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="22">
         <v>7510835.4665000001</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="22">
         <v>4693745.7829</v>
       </c>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="11"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="36">
+      <c r="C101" s="20">
         <v>109</v>
       </c>
-      <c r="D101" s="38">
+      <c r="D101" s="22">
         <v>7510832.6496000001</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="22">
         <v>4693767.4611</v>
       </c>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="25"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="11"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="36">
+      <c r="C102" s="20">
         <v>110</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="22">
         <v>7510844.7790999999</v>
       </c>
-      <c r="E102" s="38">
+      <c r="E102" s="22">
         <v>4693755.1654000003</v>
       </c>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="25"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="11"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D104" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="34" t="s">
+      <c r="F104" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="35" t="s">
+      <c r="H104" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I104" s="25"/>
+      <c r="I104" s="11"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="36">
+      <c r="C105" s="20">
         <v>14</v>
       </c>
-      <c r="D105" s="38">
+      <c r="D105" s="22">
         <v>7510834.5436000004</v>
       </c>
-      <c r="E105" s="38">
+      <c r="E105" s="22">
         <v>4693744.8530999999</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="25">
         <v>593.27200000000005</v>
       </c>
-      <c r="G105" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="25"/>
+      <c r="G105" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="11"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="36">
+      <c r="C106" s="20">
         <v>91</v>
       </c>
-      <c r="D106" s="38">
+      <c r="D106" s="22">
         <v>7510831.7971999999</v>
       </c>
-      <c r="E106" s="38">
+      <c r="E106" s="22">
         <v>4693766.6201999998</v>
       </c>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="25"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="11"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="36">
+      <c r="C107" s="20">
         <v>92</v>
       </c>
-      <c r="D107" s="38">
+      <c r="D107" s="22">
         <v>7510822.3084000004</v>
       </c>
-      <c r="E107" s="38">
+      <c r="E107" s="22">
         <v>4693757.18</v>
       </c>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="25"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="11"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="36">
+      <c r="C108" s="20">
         <v>95</v>
       </c>
-      <c r="D108" s="38">
+      <c r="D108" s="22">
         <v>7510843.9336000001</v>
       </c>
-      <c r="E108" s="38">
+      <c r="E108" s="22">
         <v>4693754.3136</v>
       </c>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="25"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="11"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="36">
+      <c r="C109" s="20">
         <v>96</v>
       </c>
-      <c r="D109" s="38">
+      <c r="D109" s="22">
         <v>7510827.6716999998</v>
       </c>
-      <c r="E109" s="38">
+      <c r="E109" s="22">
         <v>4693753.6573999999</v>
       </c>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="25"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="11"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="36">
+      <c r="C110" s="20">
         <v>97</v>
       </c>
-      <c r="D110" s="38">
+      <c r="D110" s="22">
         <v>7510831.9460000005</v>
       </c>
-      <c r="E110" s="38">
+      <c r="E110" s="22">
         <v>4693757.8739</v>
       </c>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="25"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="11"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="36">
+      <c r="C111" s="20">
         <v>98</v>
       </c>
-      <c r="D111" s="38">
+      <c r="D111" s="22">
         <v>7510835.3169999998</v>
       </c>
-      <c r="E111" s="38">
+      <c r="E111" s="22">
         <v>4693754.4567999998</v>
       </c>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="25"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="11"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="36">
+      <c r="C112" s="20">
         <v>99</v>
       </c>
-      <c r="D112" s="38">
+      <c r="D112" s="22">
         <v>7510831.0484999996</v>
       </c>
-      <c r="E112" s="38">
+      <c r="E112" s="22">
         <v>4693750.2460000003</v>
       </c>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" s="25"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="11"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="36">
+      <c r="C113" s="20">
         <v>102</v>
       </c>
-      <c r="D113" s="38">
+      <c r="D113" s="22">
         <v>7510823.2538000001</v>
       </c>
-      <c r="E113" s="38">
+      <c r="E113" s="22">
         <v>4693758.1205000002</v>
       </c>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="25"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="11"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="36">
+      <c r="C114" s="20">
         <v>106</v>
       </c>
-      <c r="D114" s="38">
+      <c r="D114" s="22">
         <v>7510835.4665000001</v>
       </c>
-      <c r="E114" s="38">
+      <c r="E114" s="22">
         <v>4693745.7829</v>
       </c>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H114" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="25"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="11"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="36">
+      <c r="C115" s="20">
         <v>109</v>
       </c>
-      <c r="D115" s="38">
+      <c r="D115" s="22">
         <v>7510832.6496000001</v>
       </c>
-      <c r="E115" s="38">
+      <c r="E115" s="22">
         <v>4693767.4611</v>
       </c>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="25"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="11"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="36">
+      <c r="C116" s="20">
         <v>110</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D116" s="22">
         <v>7510844.7790999999</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="22">
         <v>4693755.1654000003</v>
       </c>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="25"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="11"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="26"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="12"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="37" t="s">
+      <c r="D118" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E118" s="37" t="s">
+      <c r="E118" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="37" t="s">
+      <c r="F118" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="35" t="s">
+      <c r="H118" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I118" s="26"/>
+      <c r="I118" s="12"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="36">
+      <c r="C119" s="20">
         <v>7</v>
       </c>
-      <c r="D119" s="38">
+      <c r="D119" s="22">
         <v>7510825.8598999996</v>
       </c>
-      <c r="E119" s="38">
+      <c r="E119" s="22">
         <v>4693760.7132999999</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="25">
         <v>595.572</v>
       </c>
-      <c r="G119" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I119" s="26"/>
+      <c r="G119" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="12"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="36">
+      <c r="C120" s="20">
         <v>12</v>
       </c>
-      <c r="D120" s="38">
+      <c r="D120" s="22">
         <v>7510843.0706000002</v>
       </c>
-      <c r="E120" s="38">
+      <c r="E120" s="22">
         <v>4693753.4441</v>
       </c>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="12"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="36">
+      <c r="C121" s="20">
         <v>13</v>
       </c>
-      <c r="D121" s="38">
+      <c r="D121" s="22">
         <v>7510838.0334000001</v>
       </c>
-      <c r="E121" s="38">
+      <c r="E121" s="22">
         <v>4693748.3690999998</v>
       </c>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="12"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="36">
+      <c r="C122" s="20">
         <v>19</v>
       </c>
-      <c r="D122" s="38">
+      <c r="D122" s="22">
         <v>7510830.9287</v>
       </c>
-      <c r="E122" s="38">
+      <c r="E122" s="22">
         <v>4693765.7561999997</v>
       </c>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H122" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="12"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="36">
+      <c r="C123" s="20">
         <v>105</v>
       </c>
-      <c r="D123" s="38">
+      <c r="D123" s="22">
         <v>7510833.7575000003</v>
       </c>
-      <c r="E123" s="38">
+      <c r="E123" s="22">
         <v>4693752.7050000001</v>
       </c>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="12"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="36">
+      <c r="C124" s="20">
         <v>106</v>
       </c>
-      <c r="D124" s="38">
+      <c r="D124" s="22">
         <v>7510832.0308999997</v>
       </c>
-      <c r="E124" s="38">
+      <c r="E124" s="22">
         <v>4693751.0022</v>
       </c>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="12"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="36">
+      <c r="C125" s="20">
         <v>107</v>
       </c>
-      <c r="D125" s="38">
+      <c r="D125" s="22">
         <v>7510828.3795999996</v>
       </c>
-      <c r="E125" s="38">
+      <c r="E125" s="22">
         <v>4693754.7046999997</v>
       </c>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="12"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="36">
+      <c r="C126" s="20">
         <v>108</v>
       </c>
-      <c r="D126" s="38">
+      <c r="D126" s="22">
         <v>7510830.1062000003</v>
       </c>
-      <c r="E126" s="38">
+      <c r="E126" s="22">
         <v>4693756.4073999999</v>
       </c>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="12"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="36">
+      <c r="C127" s="20">
         <v>109</v>
       </c>
-      <c r="D127" s="38">
+      <c r="D127" s="22">
         <v>7510832.8096000003</v>
       </c>
-      <c r="E127" s="38">
+      <c r="E127" s="22">
         <v>4693753.6661999999</v>
       </c>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="12"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="36">
+      <c r="C128" s="20">
         <v>110</v>
       </c>
-      <c r="D128" s="38">
+      <c r="D128" s="22">
         <v>7510835.2126000002</v>
       </c>
-      <c r="E128" s="38">
+      <c r="E128" s="22">
         <v>4693756.0360000003</v>
       </c>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="12"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="36">
+      <c r="C129" s="20">
         <v>111</v>
       </c>
-      <c r="D129" s="38">
+      <c r="D129" s="22">
         <v>7510834.3349000001</v>
       </c>
-      <c r="E129" s="38">
+      <c r="E129" s="22">
         <v>4693756.926</v>
       </c>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="12"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="36">
+      <c r="C130" s="20">
         <v>112</v>
       </c>
-      <c r="D130" s="38">
+      <c r="D130" s="22">
         <v>7510831.9319000002</v>
       </c>
-      <c r="E130" s="38">
+      <c r="E130" s="22">
         <v>4693754.5562000005</v>
       </c>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H130" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="25"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="11"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="65"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="60" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="44"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I133" s="61"/>
-      <c r="J133" s="67"/>
-      <c r="K133" s="68"/>
-    </row>
-    <row r="134" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="42" t="s">
+      <c r="I132" s="40"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="53"/>
+    </row>
+    <row r="133" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="45">
-        <v>152</v>
-      </c>
-      <c r="F134" s="46"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="63"/>
-      <c r="J134" s="69"/>
-      <c r="K134" s="70"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="49">
+        <v>140</v>
+      </c>
+      <c r="F133" s="50"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="55"/>
     </row>
     <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K135" s="1"/>
@@ -4029,28 +3931,7 @@
       <c r="K137" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F119:F130"/>
-    <mergeCell ref="G119:G130"/>
-    <mergeCell ref="C8:I10"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H133:I134"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="E134:G134"/>
-    <mergeCell ref="J133:K134"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="C53:I54"/>
-    <mergeCell ref="F32:F51"/>
-    <mergeCell ref="G32:G51"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="F91:F102"/>
-    <mergeCell ref="G91:G102"/>
-    <mergeCell ref="F105:F116"/>
+  <mergeCells count="24">
     <mergeCell ref="G105:G116"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="E67:G67"/>
@@ -4058,6 +3939,23 @@
     <mergeCell ref="A70:K73"/>
     <mergeCell ref="F76:F88"/>
     <mergeCell ref="G76:G88"/>
+    <mergeCell ref="H132:I133"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="J132:K133"/>
+    <mergeCell ref="F119:F130"/>
+    <mergeCell ref="G119:G130"/>
+    <mergeCell ref="C8:I10"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C53:I54"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="F91:F102"/>
+    <mergeCell ref="G91:G102"/>
+    <mergeCell ref="F105:F116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4089,7 +3987,7 @@
         <v>665.279</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
@@ -4106,7 +4004,7 @@
         <v>665.279</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
@@ -4123,7 +4021,7 @@
         <v>665.279</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -4140,7 +4038,7 @@
         <v>665.279</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -4157,7 +4055,7 @@
         <v>665.279</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -4174,7 +4072,7 @@
         <v>665.279</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -4191,7 +4089,7 @@
         <v>665.279</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -4208,7 +4106,7 @@
         <v>665.279</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -4225,7 +4123,7 @@
         <v>665.279</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -4242,7 +4140,7 @@
         <v>665.279</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -4259,7 +4157,7 @@
         <v>665.279</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -4276,7 +4174,7 @@
         <v>665.279</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
@@ -4293,7 +4191,7 @@
         <v>665.279</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
@@ -4310,7 +4208,7 @@
         <v>665.279</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
@@ -4327,7 +4225,7 @@
         <v>665.279</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -4344,7 +4242,7 @@
         <v>665.279</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>Nr</t>
   </si>
@@ -94,18 +94,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>KATI2</t>
-  </si>
-  <si>
-    <t>KATI3</t>
-  </si>
-  <si>
-    <t>KATI4</t>
-  </si>
-  <si>
-    <t>KATI-NK</t>
-  </si>
-  <si>
     <t>Liridon Sejdiu</t>
   </si>
   <si>
@@ -113,6 +101,12 @@
   </si>
   <si>
     <t>Hyrje</t>
+  </si>
+  <si>
+    <t>Htrje</t>
+  </si>
+  <si>
+    <t>Përdhesa</t>
   </si>
 </sst>
 </file>
@@ -122,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +172,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -630,29 +631,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +670,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -689,83 +754,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +856,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2975170" cy="298800"/>
@@ -912,7 +917,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>839686</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>43127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2953749" cy="298800"/>
@@ -973,7 +978,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606643</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3298607" cy="298800"/>
@@ -1048,7 +1053,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>842998</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>105246</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3051603" cy="298800"/>
@@ -1109,13 +1114,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>451310</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>16719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1466,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="C13:I35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,146 +1490,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7517930.4069999997</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="F12" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G12" s="9">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7517928.9910000004</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4692671.3689999999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G13" s="9">
+        <v>40</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>7517930.4069999997</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="E14" s="8">
-        <v>4692671.8150000004</v>
+        <v>4692685.9060000004</v>
       </c>
       <c r="F14" s="8">
         <v>616.38300000000004</v>
@@ -1641,13 +1691,13 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8">
-        <v>7517928.9910000004</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="E15" s="8">
-        <v>4692671.3689999999</v>
+        <v>4692673.07</v>
       </c>
       <c r="F15" s="8">
         <v>616.38300000000004</v>
@@ -1664,13 +1714,13 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8">
-        <v>7517924.0990000004</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="E16" s="8">
-        <v>4692685.9060000004</v>
+        <v>4692673.5259999996</v>
       </c>
       <c r="F16" s="8">
         <v>616.38300000000004</v>
@@ -1687,13 +1737,13 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8">
-        <v>7517928.4419999998</v>
+        <v>7517929.96</v>
       </c>
       <c r="E17" s="8">
-        <v>4692673.07</v>
+        <v>4692673.2819999997</v>
       </c>
       <c r="F17" s="8">
         <v>616.38300000000004</v>
@@ -1710,13 +1760,13 @@
     </row>
     <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8">
-        <v>7517929.8169999998</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="E18" s="8">
-        <v>4692673.5259999996</v>
+        <v>4692672.9689999996</v>
       </c>
       <c r="F18" s="8">
         <v>616.38300000000004</v>
@@ -1733,13 +1783,13 @@
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="8">
-        <v>7517929.96</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="E19" s="8">
-        <v>4692673.2819999997</v>
+        <v>4692672.7690000003</v>
       </c>
       <c r="F19" s="8">
         <v>616.38300000000004</v>
@@ -1756,13 +1806,13 @@
     </row>
     <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="8">
-        <v>7517930.2989999996</v>
+        <v>7517931.2220000001</v>
       </c>
       <c r="E20" s="8">
-        <v>4692672.9689999996</v>
+        <v>4692672.7319999998</v>
       </c>
       <c r="F20" s="8">
         <v>616.38300000000004</v>
@@ -1779,13 +1829,13 @@
     </row>
     <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C21" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8">
-        <v>7517930.7450000001</v>
+        <v>7517931.6050000004</v>
       </c>
       <c r="E21" s="8">
-        <v>4692672.7690000003</v>
+        <v>4692672.7970000003</v>
       </c>
       <c r="F21" s="8">
         <v>616.38300000000004</v>
@@ -1802,13 +1852,13 @@
     </row>
     <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8">
-        <v>7517931.2220000001</v>
+        <v>7517953.7189999996</v>
       </c>
       <c r="E22" s="8">
-        <v>4692672.7319999998</v>
+        <v>4692687.3470000001</v>
       </c>
       <c r="F22" s="8">
         <v>616.38300000000004</v>
@@ -1825,13 +1875,13 @@
     </row>
     <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D23" s="8">
-        <v>7517931.6050000004</v>
+        <v>7517955.8949999996</v>
       </c>
       <c r="E23" s="8">
-        <v>4692672.7970000003</v>
+        <v>4692681.023</v>
       </c>
       <c r="F23" s="8">
         <v>616.38300000000004</v>
@@ -1846,15 +1896,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="C24" s="7">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D24" s="8">
-        <v>7517953.7189999996</v>
+        <v>7517951.3300000001</v>
       </c>
       <c r="E24" s="8">
-        <v>4692687.3470000001</v>
+        <v>4692686.5060000001</v>
       </c>
       <c r="F24" s="8">
         <v>616.38300000000004</v>
@@ -1868,16 +1919,18 @@
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D25" s="8">
-        <v>7517955.8949999996</v>
+        <v>7517951.9790000003</v>
       </c>
       <c r="E25" s="8">
-        <v>4692681.023</v>
+        <v>4692687.1399999997</v>
       </c>
       <c r="F25" s="8">
         <v>616.38300000000004</v>
@@ -1891,17 +1944,18 @@
       <c r="I25" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="8">
-        <v>7517951.3300000001</v>
+        <v>7517952.0760000004</v>
       </c>
       <c r="E26" s="8">
-        <v>4692686.5060000001</v>
+        <v>4692688.1239999998</v>
       </c>
       <c r="F26" s="8">
         <v>616.38300000000004</v>
@@ -1919,14 +1973,15 @@
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="8">
-        <v>7517951.9790000003</v>
+        <v>7517950.1849999996</v>
       </c>
       <c r="E27" s="8">
-        <v>4692687.1399999997</v>
+        <v>4692693.4919999996</v>
       </c>
       <c r="F27" s="8">
         <v>616.38300000000004</v>
@@ -1940,18 +1995,20 @@
       <c r="I27" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="8">
-        <v>7517952.0760000004</v>
+        <v>7517949.5559999999</v>
       </c>
       <c r="E28" s="8">
-        <v>4692688.1239999998</v>
+        <v>4692694.1169999996</v>
       </c>
       <c r="F28" s="8">
         <v>616.38300000000004</v>
@@ -1965,19 +2022,20 @@
       <c r="I28" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" s="8">
-        <v>7517950.1849999996</v>
+        <v>7517948.5300000003</v>
       </c>
       <c r="E29" s="8">
-        <v>4692693.4919999996</v>
+        <v>4692694.1579999998</v>
       </c>
       <c r="F29" s="8">
         <v>616.38300000000004</v>
@@ -1998,22 +2056,22 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8">
-        <v>7517949.5559999999</v>
+        <v>7517927.5023999996</v>
       </c>
       <c r="E30" s="8">
-        <v>4692694.1169999996</v>
+        <v>4692687.0555999996</v>
       </c>
       <c r="F30" s="8">
         <v>616.38300000000004</v>
       </c>
-      <c r="G30" s="9">
-        <v>40</v>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>17</v>
@@ -2025,22 +2083,22 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8">
-        <v>7517948.5300000003</v>
+        <v>7517945.1684999997</v>
       </c>
       <c r="E31" s="8">
-        <v>4692694.1579999998</v>
+        <v>4692693.0225999998</v>
       </c>
       <c r="F31" s="8">
         <v>616.38300000000004</v>
       </c>
-      <c r="G31" s="9">
-        <v>40</v>
+      <c r="G31" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>17</v>
@@ -2052,22 +2110,22 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8">
-        <v>7517927.5023999996</v>
+        <v>7517953.4539999999</v>
       </c>
       <c r="E32" s="8">
-        <v>4692687.0555999996</v>
+        <v>4692680.1963</v>
       </c>
       <c r="F32" s="8">
         <v>616.38300000000004</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
@@ -2075,28 +2133,28 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="7">
-        <v>104</v>
-      </c>
-      <c r="D33" s="8">
-        <v>7517945.1684999997</v>
-      </c>
-      <c r="E33" s="8">
-        <v>4692693.0225999998</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="C33" s="22">
+        <v>102</v>
+      </c>
+      <c r="D33" s="23">
+        <v>7517929.6986999996</v>
+      </c>
+      <c r="E33" s="23">
+        <v>4692671.5919000003</v>
+      </c>
+      <c r="F33" s="23">
         <v>616.38300000000004</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="G33" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="1"/>
@@ -2105,53 +2163,35 @@
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="7">
-        <v>101</v>
-      </c>
-      <c r="D34" s="8">
-        <v>7517953.4539999999</v>
-      </c>
-      <c r="E34" s="8">
-        <v>4692680.1963</v>
-      </c>
-      <c r="F34" s="8">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="13"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="59">
-        <v>102</v>
-      </c>
-      <c r="D35" s="60">
-        <v>7517929.6986999996</v>
-      </c>
-      <c r="E35" s="60">
-        <v>4692671.5919000003</v>
-      </c>
-      <c r="F35" s="60">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="62" t="s">
-        <v>17</v>
+      <c r="C35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2159,11 +2199,11 @@
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="13"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2171,11 +2211,11 @@
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="13"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2183,11 +2223,11 @@
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="13"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2195,11 +2235,11 @@
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="13"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2207,11 +2247,11 @@
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="13"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2219,11 +2259,11 @@
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="13"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2231,11 +2271,11 @@
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="13"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2243,11 +2283,11 @@
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="13"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2255,135 +2295,121 @@
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="13"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="13"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="13"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="13"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="13"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
@@ -2426,184 +2452,219 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="39" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="40"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="53"/>
-    </row>
-    <row r="67" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="46" t="s">
+      <c r="I64" s="38"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32">
         <v>140</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="55"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="47"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-    </row>
-    <row r="69" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
+      <c r="A68" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="C74" s="20">
+        <v>101</v>
+      </c>
+      <c r="D74" s="62">
+        <v>7517952.1813000003</v>
+      </c>
+      <c r="E74" s="62">
+        <v>4692679.7653000001</v>
+      </c>
+      <c r="F74" s="26">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="I74" s="11"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -2611,23 +2672,19 @@
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="18" t="s">
+      <c r="C75" s="20">
         <v>2</v>
       </c>
-      <c r="F75" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>3</v>
+      <c r="D75" s="62">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E75" s="62">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="1"/>
@@ -2637,21 +2694,17 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="20">
-        <v>14</v>
-      </c>
-      <c r="D76" s="22">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="E76" s="22">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="F76" s="57">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="G76" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="62">
+        <v>7517928.4419999998</v>
+      </c>
+      <c r="E76" s="62">
+        <v>4692673.07</v>
+      </c>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="11"/>
@@ -2662,19 +2715,17 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="20">
-        <v>91</v>
-      </c>
-      <c r="D77" s="22">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E77" s="22">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="62">
+        <v>7517929.8169999998</v>
+      </c>
+      <c r="E77" s="62">
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="11"/>
@@ -2685,19 +2736,17 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="20">
-        <v>92</v>
-      </c>
-      <c r="D78" s="22">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="E78" s="22">
-        <v>4693757.18</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="62">
+        <v>7517929.96</v>
+      </c>
+      <c r="E78" s="62">
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="11"/>
@@ -2708,19 +2757,17 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="20">
-        <v>95</v>
-      </c>
-      <c r="D79" s="22">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E79" s="22">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="62">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E79" s="62">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I79" s="11"/>
@@ -2731,19 +2778,17 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="20">
-        <v>96</v>
-      </c>
-      <c r="D80" s="22">
-        <v>7510827.6716999998</v>
-      </c>
-      <c r="E80" s="22">
-        <v>4693753.6573999999</v>
-      </c>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="62">
+        <v>7517930.7450000001</v>
+      </c>
+      <c r="E80" s="62">
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="11"/>
@@ -2754,19 +2799,17 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="20">
-        <v>97</v>
-      </c>
-      <c r="D81" s="22">
-        <v>7510831.9460000005</v>
-      </c>
-      <c r="E81" s="22">
-        <v>4693757.8739</v>
-      </c>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="62">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E81" s="62">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="11"/>
@@ -2777,19 +2820,17 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="20">
-        <v>98</v>
-      </c>
-      <c r="D82" s="22">
-        <v>7510835.3169999998</v>
-      </c>
-      <c r="E82" s="22">
-        <v>4693754.4567999998</v>
-      </c>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="62">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E82" s="62">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="11"/>
@@ -2800,19 +2841,17 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="20">
-        <v>99</v>
-      </c>
-      <c r="D83" s="22">
-        <v>7510831.0484999996</v>
-      </c>
-      <c r="E83" s="22">
-        <v>4693750.2460000003</v>
-      </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="62">
+        <v>7517953.7189999996</v>
+      </c>
+      <c r="E83" s="62">
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="11"/>
@@ -2823,19 +2862,17 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="20">
-        <v>101</v>
-      </c>
-      <c r="D84" s="22">
-        <v>7510838.6793999998</v>
-      </c>
-      <c r="E84" s="22">
-        <v>4693761.3486000001</v>
-      </c>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="62">
+        <v>7517955.8949999996</v>
+      </c>
+      <c r="E84" s="62">
+        <v>4692681.023</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="11"/>
@@ -2846,19 +2883,17 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="20">
-        <v>102</v>
-      </c>
-      <c r="D85" s="22">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E85" s="22">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="62">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E85" s="62">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="11"/>
@@ -2869,19 +2904,17 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="20">
-        <v>106</v>
-      </c>
-      <c r="D86" s="22">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E86" s="22">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="62">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="E86" s="62">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="11"/>
@@ -2892,19 +2925,17 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="20">
-        <v>109</v>
-      </c>
-      <c r="D87" s="22">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="E87" s="22">
-        <v>4693767.4611</v>
-      </c>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="62">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E87" s="62">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="11"/>
@@ -2915,19 +2946,17 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="20">
-        <v>110</v>
-      </c>
-      <c r="D88" s="22">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="E88" s="22">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="62">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E88" s="62">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="11"/>
@@ -2937,12 +2966,20 @@
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="C89" s="20">
+        <v>62</v>
+      </c>
+      <c r="D89" s="62">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E89" s="62">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="62" t="s">
+        <v>8</v>
+      </c>
       <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -2950,23 +2987,19 @@
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>3</v>
+      <c r="C90" s="20">
+        <v>63</v>
+      </c>
+      <c r="D90" s="62">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E90" s="62">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="1"/>
@@ -2976,21 +3009,17 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="20">
-        <v>14</v>
-      </c>
-      <c r="D91" s="22">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="E91" s="22">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="F91" s="25">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="62">
+        <v>7517927.7654999997</v>
+      </c>
+      <c r="E91" s="62">
+        <v>4692687.1445000004</v>
+      </c>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="11"/>
@@ -3001,19 +3030,17 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="20">
-        <v>91</v>
-      </c>
-      <c r="D92" s="22">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E92" s="22">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="62">
+        <v>7517928.7182999998</v>
+      </c>
+      <c r="E92" s="62">
+        <v>4692684.3208999997</v>
+      </c>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="11"/>
@@ -3024,19 +3051,17 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="20">
-        <v>92</v>
-      </c>
-      <c r="D93" s="22">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="E93" s="22">
-        <v>4693757.18</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="62">
+        <v>7517927.7045</v>
+      </c>
+      <c r="E93" s="62">
+        <v>4692683.9785000002</v>
+      </c>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="11"/>
@@ -3047,19 +3072,17 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="20">
-        <v>95</v>
-      </c>
-      <c r="D94" s="22">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E94" s="22">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="62">
+        <v>7517925.0517999995</v>
+      </c>
+      <c r="E94" s="62">
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="11"/>
@@ -3070,19 +3093,17 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="20">
-        <v>96</v>
-      </c>
-      <c r="D95" s="22">
-        <v>7510827.6716999998</v>
-      </c>
-      <c r="E95" s="22">
-        <v>4693753.6573999999</v>
-      </c>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="62">
+        <v>7517926.6694</v>
+      </c>
+      <c r="E95" s="62">
+        <v>4692678.2884999998</v>
+      </c>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="11"/>
@@ -3093,19 +3114,17 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="20">
-        <v>97</v>
-      </c>
-      <c r="D96" s="22">
-        <v>7510831.9460000005</v>
-      </c>
-      <c r="E96" s="22">
-        <v>4693757.8739</v>
-      </c>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="62">
+        <v>7517928.0525000002</v>
+      </c>
+      <c r="E96" s="62">
+        <v>4692678.7551999995</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="11"/>
@@ -3116,19 +3135,17 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="20">
-        <v>98</v>
-      </c>
-      <c r="D97" s="22">
-        <v>7510835.3169999998</v>
-      </c>
-      <c r="E97" s="22">
-        <v>4693754.4567999998</v>
-      </c>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="62">
+        <v>7517929.3223999999</v>
+      </c>
+      <c r="E97" s="62">
+        <v>4692679.1836999999</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="11"/>
@@ -3139,19 +3156,17 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="20">
-        <v>99</v>
-      </c>
-      <c r="D98" s="22">
-        <v>7510831.0484999996</v>
-      </c>
-      <c r="E98" s="22">
-        <v>4693750.2460000003</v>
-      </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="62">
+        <v>7517950.6852000002</v>
+      </c>
+      <c r="E98" s="62">
+        <v>4692679.26</v>
+      </c>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="11"/>
@@ -3162,19 +3177,17 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="20">
-        <v>102</v>
-      </c>
-      <c r="D99" s="22">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E99" s="22">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="62">
+        <v>7517953.2906999998</v>
+      </c>
+      <c r="E99" s="62">
+        <v>4692680.1398</v>
+      </c>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I99" s="11"/>
@@ -3185,19 +3198,17 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="20">
-        <v>106</v>
-      </c>
-      <c r="D100" s="22">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E100" s="22">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="62">
+        <v>7517948.5182999996</v>
+      </c>
+      <c r="E100" s="62">
+        <v>4692685.5575999999</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="11"/>
@@ -3208,19 +3219,17 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="20">
-        <v>109</v>
-      </c>
-      <c r="D101" s="22">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="E101" s="22">
-        <v>4693767.4611</v>
-      </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="62">
+        <v>7517951.1238000002</v>
+      </c>
+      <c r="E101" s="62">
+        <v>4692686.4374000002</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="11"/>
@@ -3231,19 +3240,17 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="20">
-        <v>110</v>
-      </c>
-      <c r="D102" s="22">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="E102" s="22">
-        <v>4693755.1654000003</v>
+        <v>116</v>
+      </c>
+      <c r="D102" s="62">
+        <v>7517946.1694999998</v>
+      </c>
+      <c r="E102" s="62">
+        <v>4692690.9013999999</v>
       </c>
       <c r="F102" s="27"/>
-      <c r="G102" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="14" t="s">
+      <c r="G102" s="27"/>
+      <c r="H102" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="11"/>
@@ -3253,12 +3260,20 @@
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+      <c r="C103" s="20">
+        <v>117</v>
+      </c>
+      <c r="D103" s="62">
+        <v>7517945.4238999998</v>
+      </c>
+      <c r="E103" s="62">
+        <v>4692693.1089000003</v>
+      </c>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="62" t="s">
+        <v>8</v>
+      </c>
       <c r="I103" s="11"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -3266,23 +3281,19 @@
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>3</v>
+      <c r="C104" s="20">
+        <v>118</v>
+      </c>
+      <c r="D104" s="62">
+        <v>7517941.9455000004</v>
+      </c>
+      <c r="E104" s="62">
+        <v>4692689.4746000003</v>
+      </c>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="1"/>
@@ -3292,21 +3303,17 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="20">
-        <v>14</v>
-      </c>
-      <c r="D105" s="22">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="E105" s="22">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="F105" s="25">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="62">
+        <v>7517936.9005000005</v>
+      </c>
+      <c r="E105" s="62">
+        <v>4692687.7706000004</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="11"/>
@@ -3317,19 +3324,17 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="20">
-        <v>91</v>
-      </c>
-      <c r="D106" s="22">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E106" s="22">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="62">
+        <v>7517936.1549000004</v>
+      </c>
+      <c r="E106" s="62">
+        <v>4692689.9780000001</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="11"/>
@@ -3340,19 +3345,17 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="20">
-        <v>92</v>
-      </c>
-      <c r="D107" s="22">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="E107" s="22">
-        <v>4693757.18</v>
-      </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="62">
+        <v>7517930.4069999997</v>
+      </c>
+      <c r="E107" s="62">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="62" t="s">
         <v>8</v>
       </c>
       <c r="I107" s="11"/>
@@ -3362,22 +3365,12 @@
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="20">
-        <v>95</v>
-      </c>
-      <c r="D108" s="22">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E108" s="22">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="13"/>
       <c r="I108" s="11"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -3385,22 +3378,12 @@
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="20">
-        <v>96</v>
-      </c>
-      <c r="D109" s="22">
-        <v>7510827.6716999998</v>
-      </c>
-      <c r="E109" s="22">
-        <v>4693753.6573999999</v>
-      </c>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="13"/>
       <c r="I109" s="11"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -3408,22 +3391,12 @@
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="20">
-        <v>97</v>
-      </c>
-      <c r="D110" s="22">
-        <v>7510831.9460000005</v>
-      </c>
-      <c r="E110" s="22">
-        <v>4693757.8739</v>
-      </c>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="13"/>
       <c r="I110" s="11"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -3431,22 +3404,12 @@
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="20">
-        <v>98</v>
-      </c>
-      <c r="D111" s="22">
-        <v>7510835.3169999998</v>
-      </c>
-      <c r="E111" s="22">
-        <v>4693754.4567999998</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="13"/>
       <c r="I111" s="11"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -3454,22 +3417,12 @@
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="20">
-        <v>99</v>
-      </c>
-      <c r="D112" s="22">
-        <v>7510831.0484999996</v>
-      </c>
-      <c r="E112" s="22">
-        <v>4693750.2460000003</v>
-      </c>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="13"/>
       <c r="I112" s="11"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -3477,22 +3430,12 @@
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="20">
-        <v>102</v>
-      </c>
-      <c r="D113" s="22">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E113" s="22">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="13"/>
       <c r="I113" s="11"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -3500,22 +3443,12 @@
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="20">
-        <v>106</v>
-      </c>
-      <c r="D114" s="22">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E114" s="22">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="13"/>
       <c r="I114" s="11"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -3523,57 +3456,37 @@
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="20">
-        <v>109</v>
-      </c>
-      <c r="D115" s="22">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="E115" s="22">
-        <v>4693767.4611</v>
-      </c>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="11"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="12"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="20">
-        <v>110</v>
-      </c>
-      <c r="D116" s="22">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="E116" s="22">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="11"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="12"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
       <c r="H117" s="13"/>
       <c r="I117" s="12"/>
       <c r="J117" s="1"/>
@@ -3582,24 +3495,12 @@
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="13"/>
       <c r="I118" s="12"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -3607,24 +3508,12 @@
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="20">
-        <v>7</v>
-      </c>
-      <c r="D119" s="22">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="E119" s="22">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="F119" s="25">
-        <v>595.572</v>
-      </c>
-      <c r="G119" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="13"/>
       <c r="I119" s="12"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -3632,22 +3521,12 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="20">
-        <v>12</v>
-      </c>
-      <c r="D120" s="22">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="E120" s="22">
-        <v>4693753.4441</v>
-      </c>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="13"/>
       <c r="I120" s="12"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -3655,22 +3534,12 @@
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="20">
-        <v>13</v>
-      </c>
-      <c r="D121" s="22">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="E121" s="22">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="13"/>
       <c r="I121" s="12"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -3678,22 +3547,12 @@
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="20">
-        <v>19</v>
-      </c>
-      <c r="D122" s="22">
-        <v>7510830.9287</v>
-      </c>
-      <c r="E122" s="22">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="13"/>
       <c r="I122" s="12"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -3701,22 +3560,12 @@
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="20">
-        <v>105</v>
-      </c>
-      <c r="D123" s="22">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="E123" s="22">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="13"/>
       <c r="I123" s="12"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -3724,22 +3573,12 @@
     <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="20">
-        <v>106</v>
-      </c>
-      <c r="D124" s="22">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="E124" s="22">
-        <v>4693751.0022</v>
-      </c>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="13"/>
       <c r="I124" s="12"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -3747,68 +3586,40 @@
     <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="20">
-        <v>107</v>
-      </c>
-      <c r="D125" s="22">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="E125" s="22">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="13"/>
       <c r="I125" s="12"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="20">
-        <v>108</v>
-      </c>
-      <c r="D126" s="22">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="E126" s="22">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H126" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B126" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="57"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
       <c r="I126" s="12"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="20">
-        <v>109</v>
-      </c>
-      <c r="D127" s="22">
-        <v>7510832.8096000003</v>
-      </c>
-      <c r="E127" s="22">
-        <v>4693753.6661999999</v>
-      </c>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B127" s="57"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
       <c r="I127" s="12"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -3816,146 +3627,85 @@
     <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="20">
-        <v>110</v>
-      </c>
-      <c r="D128" s="22">
-        <v>7510835.2126000002</v>
-      </c>
-      <c r="E128" s="22">
-        <v>4693756.0360000003</v>
-      </c>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="12"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="11"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="20">
-        <v>111</v>
-      </c>
-      <c r="D129" s="22">
-        <v>7510834.3349000001</v>
-      </c>
-      <c r="E129" s="22">
-        <v>4693756.926</v>
-      </c>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="1"/>
+    <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="20">
-        <v>112</v>
-      </c>
-      <c r="D130" s="22">
-        <v>7510831.9319000002</v>
-      </c>
-      <c r="E130" s="22">
-        <v>4693754.5562000005</v>
-      </c>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="11"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="42"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="38"/>
+      <c r="J130" s="44"/>
+      <c r="K130" s="45"/>
     </row>
     <row r="131" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I132" s="40"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="53"/>
-    </row>
-    <row r="133" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="46" t="s">
+      <c r="A131" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="49">
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="32">
         <v>140</v>
       </c>
-      <c r="F133" s="50"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="55"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="47"/>
+    </row>
+    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K137" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G105:G116"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="A68:K69"/>
-    <mergeCell ref="A70:K73"/>
-    <mergeCell ref="F76:F88"/>
-    <mergeCell ref="G76:G88"/>
-    <mergeCell ref="H132:I133"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="J132:K133"/>
-    <mergeCell ref="F119:F130"/>
-    <mergeCell ref="G119:G130"/>
-    <mergeCell ref="C8:I10"/>
+  <mergeCells count="19">
+    <mergeCell ref="B126:H127"/>
+    <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
     <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C53:I54"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="F91:F102"/>
-    <mergeCell ref="G91:G102"/>
-    <mergeCell ref="F105:F116"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I65"/>
+    <mergeCell ref="J64:K65"/>
+    <mergeCell ref="F74:F107"/>
+    <mergeCell ref="G74:G107"/>
+    <mergeCell ref="H130:I131"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="J130:K131"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A66:K67"/>
+    <mergeCell ref="A68:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
   <si>
     <t>Nr</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Përdhesa</t>
+  </si>
+  <si>
+    <t>BODRUM</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -633,9 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,6 +667,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,90 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N1:AM1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,111 +1496,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2133,287 +2139,774 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>102</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>7517929.6986999996</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>4692671.5919000003</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>616.38300000000004</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="24" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="13"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="16" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>7517924.1610000003</v>
+      </c>
+      <c r="Q35">
+        <v>4692685.9009999996</v>
+      </c>
+      <c r="R35">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="13"/>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7517924.1610000003</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4692685.9009999996</v>
+      </c>
+      <c r="F36" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="9"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>7517926.7680000002</v>
+      </c>
+      <c r="Q36">
+        <v>4692678.1229999997</v>
+      </c>
+      <c r="R36">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="13"/>
+      <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7517926.7680000002</v>
+      </c>
+      <c r="E37" s="8">
+        <v>4692678.1229999997</v>
+      </c>
+      <c r="F37" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="9"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>7517929.4824999999</v>
+      </c>
+      <c r="Q37">
+        <v>4692679.0022999998</v>
+      </c>
+      <c r="R37">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="13"/>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8">
+        <v>7517929.4824999999</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4692679.0022999998</v>
+      </c>
+      <c r="F38" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="9"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38">
+        <v>7517931.1023000004</v>
+      </c>
+      <c r="Q38">
+        <v>4692674.0017999997</v>
+      </c>
+      <c r="R38">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="13"/>
+      <c r="C39" s="7">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7517931.1023000004</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4692674.0017999997</v>
+      </c>
+      <c r="F39" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="9"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>56</v>
+      </c>
+      <c r="P39">
+        <v>7517948.5199999996</v>
+      </c>
+      <c r="Q39">
+        <v>4692694.1529999999</v>
+      </c>
+      <c r="R39">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="13"/>
+      <c r="C40" s="7">
+        <v>56</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7517948.5199999996</v>
+      </c>
+      <c r="E40" s="8">
+        <v>4692694.1529999999</v>
+      </c>
+      <c r="F40" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="9"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>57</v>
+      </c>
+      <c r="P40">
+        <v>7517952.9117999999</v>
+      </c>
+      <c r="Q40">
+        <v>4692681.6829000004</v>
+      </c>
+      <c r="R40">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="13"/>
+      <c r="C41" s="7">
+        <v>57</v>
+      </c>
+      <c r="D41" s="8">
+        <v>7517952.9117999999</v>
+      </c>
+      <c r="E41" s="8">
+        <v>4692681.6829000004</v>
+      </c>
+      <c r="F41" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="9"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>122</v>
+      </c>
+      <c r="P41">
+        <v>7517949.3603999997</v>
+      </c>
+      <c r="Q41">
+        <v>4692691.7666999996</v>
+      </c>
+      <c r="R41">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="13"/>
+      <c r="C42" s="7">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8">
+        <v>7517949.3603999997</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4692691.7666999996</v>
+      </c>
+      <c r="F42" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="9"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>123</v>
+      </c>
+      <c r="P42">
+        <v>7517951.3054</v>
+      </c>
+      <c r="Q42">
+        <v>4692686.2441999996</v>
+      </c>
+      <c r="R42">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="13"/>
+      <c r="C43" s="7">
+        <v>123</v>
+      </c>
+      <c r="D43" s="8">
+        <v>7517951.3054</v>
+      </c>
+      <c r="E43" s="8">
+        <v>4692686.2441999996</v>
+      </c>
+      <c r="F43" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="9"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>124</v>
+      </c>
+      <c r="P43">
+        <v>7517950.0350000001</v>
+      </c>
+      <c r="Q43">
+        <v>4692680.6697000004</v>
+      </c>
+      <c r="R43">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="13"/>
+      <c r="C44" s="7">
+        <v>124</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7517950.0350000001</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4692680.6697000004</v>
+      </c>
+      <c r="F44" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>125</v>
+      </c>
+      <c r="P44">
+        <v>7517948.4286000002</v>
+      </c>
+      <c r="Q44">
+        <v>4692685.2309999997</v>
+      </c>
+      <c r="R44">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="13"/>
+      <c r="C45" s="7">
+        <v>125</v>
+      </c>
+      <c r="D45" s="8">
+        <v>7517948.4286000002</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4692685.2309999997</v>
+      </c>
+      <c r="F45" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="9"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>126</v>
+      </c>
+      <c r="P45">
+        <v>7517946.4715</v>
+      </c>
+      <c r="Q45">
+        <v>4692690.7879999997</v>
+      </c>
+      <c r="R45">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="13"/>
+      <c r="C46" s="7">
+        <v>126</v>
+      </c>
+      <c r="D46" s="8">
+        <v>7517946.4715</v>
+      </c>
+      <c r="E46" s="8">
+        <v>4692690.7879999997</v>
+      </c>
+      <c r="F46" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="9"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="13"/>
+      <c r="O46">
+        <v>127</v>
+      </c>
+      <c r="P46">
+        <v>7517941.8687000005</v>
+      </c>
+      <c r="Q46">
+        <v>4692689.2286999999</v>
+      </c>
+      <c r="R46">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="7">
+        <v>127</v>
+      </c>
+      <c r="D47" s="8">
+        <v>7517941.8687000005</v>
+      </c>
+      <c r="E47" s="8">
+        <v>4692689.2286999999</v>
+      </c>
+      <c r="F47" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="9"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="13"/>
+      <c r="O47">
+        <v>128</v>
+      </c>
+      <c r="P47">
+        <v>7517941.0272000004</v>
+      </c>
+      <c r="Q47">
+        <v>4692691.6179</v>
+      </c>
+      <c r="R47">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="7">
+        <v>128</v>
+      </c>
+      <c r="D48" s="8">
+        <v>7517941.0272000004</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4692691.6179</v>
+      </c>
+      <c r="F48" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="9"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>129</v>
+      </c>
+      <c r="P48">
+        <v>7517926.9834000003</v>
+      </c>
+      <c r="Q48">
+        <v>4692686.8570999997</v>
+      </c>
+      <c r="R48">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="13"/>
+      <c r="C49" s="7">
+        <v>129</v>
+      </c>
+      <c r="D49" s="8">
+        <v>7517926.9834000003</v>
+      </c>
+      <c r="E49" s="8">
+        <v>4692686.8570999997</v>
+      </c>
+      <c r="F49" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>130</v>
+      </c>
+      <c r="P49">
+        <v>7517925.7034</v>
+      </c>
+      <c r="Q49">
+        <v>4692686.4281000001</v>
+      </c>
+      <c r="R49">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="13"/>
+      <c r="C50" s="7">
+        <v>130</v>
+      </c>
+      <c r="D50" s="8">
+        <v>7517925.7034</v>
+      </c>
+      <c r="E50" s="8">
+        <v>4692686.4281000001</v>
+      </c>
+      <c r="F50" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>131</v>
+      </c>
+      <c r="P50">
+        <v>7517927.4121000003</v>
+      </c>
+      <c r="Q50">
+        <v>4692681.3301999997</v>
+      </c>
+      <c r="R50">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
+      <c r="C51" s="7">
+        <v>131</v>
+      </c>
+      <c r="D51" s="8">
+        <v>7517927.4121000003</v>
+      </c>
+      <c r="E51" s="8">
+        <v>4692681.3301999997</v>
+      </c>
+      <c r="F51" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="9"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>132</v>
+      </c>
+      <c r="P51">
+        <v>7517928.6359000001</v>
+      </c>
+      <c r="Q51">
+        <v>4692681.7456999999</v>
+      </c>
+      <c r="R51">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
+      <c r="C52" s="7">
+        <v>132</v>
+      </c>
+      <c r="D52" s="8">
+        <v>7517928.6359000001</v>
+      </c>
+      <c r="E52" s="8">
+        <v>4692681.7456999999</v>
+      </c>
+      <c r="F52" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="9"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>104</v>
+      </c>
+      <c r="P52">
+        <v>7517945.1684999997</v>
+      </c>
+      <c r="Q52">
+        <v>4692693.0225999998</v>
+      </c>
+      <c r="R52">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="S52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="C53" s="7">
+        <v>104</v>
+      </c>
+      <c r="D53" s="8">
+        <v>7517945.1684999997</v>
+      </c>
+      <c r="E53" s="8">
+        <v>4692693.0225999998</v>
+      </c>
+      <c r="F53" s="8">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="9"/>
       <c r="I53" s="11"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>103</v>
+      </c>
+      <c r="P53">
+        <v>7517926.4434000002</v>
+      </c>
+      <c r="Q53">
+        <v>4692686.6742000002</v>
+      </c>
+      <c r="R53">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C54" s="7">
+        <v>103</v>
+      </c>
+      <c r="D54" s="8">
+        <v>7517926.4434000002</v>
+      </c>
+      <c r="E54" s="8">
+        <v>4692686.6742000002</v>
+      </c>
+      <c r="F54" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="9"/>
       <c r="I54" s="11"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
@@ -2426,7 +2919,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
@@ -2439,7 +2932,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
@@ -2452,7 +2945,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
@@ -2465,146 +2958,146 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="41" t="s">
+      <c r="E64" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="37" t="s">
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="38"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="45"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="32">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59">
         <v>140</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="47"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
@@ -2622,22 +3115,22 @@
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="61" t="s">
+      <c r="H73" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I73" s="11"/>
@@ -2647,22 +3140,22 @@
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <v>101</v>
       </c>
-      <c r="D74" s="62">
+      <c r="D74" s="29">
         <v>7517952.1813000003</v>
       </c>
-      <c r="E74" s="62">
+      <c r="E74" s="29">
         <v>4692679.7653000001</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="53">
         <v>616.38300000000004</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="H74" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="11"/>
@@ -2672,18 +3165,18 @@
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>2</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="29">
         <v>7517924.0990000004</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="29">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="62" t="s">
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="11"/>
@@ -2693,18 +3186,18 @@
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>5</v>
       </c>
-      <c r="D76" s="62">
+      <c r="D76" s="29">
         <v>7517928.4419999998</v>
       </c>
-      <c r="E76" s="62">
+      <c r="E76" s="29">
         <v>4692673.07</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="62" t="s">
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="11"/>
@@ -2714,18 +3207,18 @@
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>6</v>
       </c>
-      <c r="D77" s="62">
+      <c r="D77" s="29">
         <v>7517929.8169999998</v>
       </c>
-      <c r="E77" s="62">
+      <c r="E77" s="29">
         <v>4692673.5259999996</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="62" t="s">
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="11"/>
@@ -2735,18 +3228,18 @@
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="20">
+      <c r="C78" s="19">
         <v>7</v>
       </c>
-      <c r="D78" s="62">
+      <c r="D78" s="29">
         <v>7517929.96</v>
       </c>
-      <c r="E78" s="62">
+      <c r="E78" s="29">
         <v>4692673.2819999997</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="62" t="s">
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="11"/>
@@ -2756,18 +3249,18 @@
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <v>8</v>
       </c>
-      <c r="D79" s="62">
+      <c r="D79" s="29">
         <v>7517930.2989999996</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="29">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="62" t="s">
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I79" s="11"/>
@@ -2777,18 +3270,18 @@
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="20">
+      <c r="C80" s="19">
         <v>9</v>
       </c>
-      <c r="D80" s="62">
+      <c r="D80" s="29">
         <v>7517930.7450000001</v>
       </c>
-      <c r="E80" s="62">
+      <c r="E80" s="29">
         <v>4692672.7690000003</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="62" t="s">
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="11"/>
@@ -2798,18 +3291,18 @@
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <v>10</v>
       </c>
-      <c r="D81" s="62">
+      <c r="D81" s="29">
         <v>7517931.2220000001</v>
       </c>
-      <c r="E81" s="62">
+      <c r="E81" s="29">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="62" t="s">
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="11"/>
@@ -2819,18 +3312,18 @@
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="20">
+      <c r="C82" s="19">
         <v>11</v>
       </c>
-      <c r="D82" s="62">
+      <c r="D82" s="29">
         <v>7517931.6050000004</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="29">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="62" t="s">
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="11"/>
@@ -2840,18 +3333,18 @@
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>34</v>
       </c>
-      <c r="D83" s="62">
+      <c r="D83" s="29">
         <v>7517953.7189999996</v>
       </c>
-      <c r="E83" s="62">
+      <c r="E83" s="29">
         <v>4692687.3470000001</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="62" t="s">
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="11"/>
@@ -2861,18 +3354,18 @@
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="20">
+      <c r="C84" s="19">
         <v>35</v>
       </c>
-      <c r="D84" s="62">
+      <c r="D84" s="29">
         <v>7517955.8949999996</v>
       </c>
-      <c r="E84" s="62">
+      <c r="E84" s="29">
         <v>4692681.023</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="62" t="s">
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="11"/>
@@ -2882,18 +3375,18 @@
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <v>58</v>
       </c>
-      <c r="D85" s="62">
+      <c r="D85" s="29">
         <v>7517951.3300000001</v>
       </c>
-      <c r="E85" s="62">
+      <c r="E85" s="29">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="62" t="s">
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="11"/>
@@ -2903,18 +3396,18 @@
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="20">
+      <c r="C86" s="19">
         <v>59</v>
       </c>
-      <c r="D86" s="62">
+      <c r="D86" s="29">
         <v>7517951.9790000003</v>
       </c>
-      <c r="E86" s="62">
+      <c r="E86" s="29">
         <v>4692687.1399999997</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="62" t="s">
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="11"/>
@@ -2924,18 +3417,18 @@
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>60</v>
       </c>
-      <c r="D87" s="62">
+      <c r="D87" s="29">
         <v>7517952.0760000004</v>
       </c>
-      <c r="E87" s="62">
+      <c r="E87" s="29">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="62" t="s">
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="11"/>
@@ -2945,18 +3438,18 @@
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="20">
+      <c r="C88" s="19">
         <v>61</v>
       </c>
-      <c r="D88" s="62">
+      <c r="D88" s="29">
         <v>7517950.1849999996</v>
       </c>
-      <c r="E88" s="62">
+      <c r="E88" s="29">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="62" t="s">
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="11"/>
@@ -2966,18 +3459,18 @@
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <v>62</v>
       </c>
-      <c r="D89" s="62">
+      <c r="D89" s="29">
         <v>7517949.5559999999</v>
       </c>
-      <c r="E89" s="62">
+      <c r="E89" s="29">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="62" t="s">
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="11"/>
@@ -2987,18 +3480,18 @@
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="20">
+      <c r="C90" s="19">
         <v>63</v>
       </c>
-      <c r="D90" s="62">
+      <c r="D90" s="29">
         <v>7517948.5300000003</v>
       </c>
-      <c r="E90" s="62">
+      <c r="E90" s="29">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="62" t="s">
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="11"/>
@@ -3008,18 +3501,18 @@
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <v>105</v>
       </c>
-      <c r="D91" s="62">
+      <c r="D91" s="29">
         <v>7517927.7654999997</v>
       </c>
-      <c r="E91" s="62">
+      <c r="E91" s="29">
         <v>4692687.1445000004</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="62" t="s">
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="11"/>
@@ -3029,18 +3522,18 @@
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <v>106</v>
       </c>
-      <c r="D92" s="62">
+      <c r="D92" s="29">
         <v>7517928.7182999998</v>
       </c>
-      <c r="E92" s="62">
+      <c r="E92" s="29">
         <v>4692684.3208999997</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="62" t="s">
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="11"/>
@@ -3050,18 +3543,18 @@
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>107</v>
       </c>
-      <c r="D93" s="62">
+      <c r="D93" s="29">
         <v>7517927.7045</v>
       </c>
-      <c r="E93" s="62">
+      <c r="E93" s="29">
         <v>4692683.9785000002</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="62" t="s">
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="11"/>
@@ -3071,18 +3564,18 @@
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="20">
+      <c r="C94" s="19">
         <v>108</v>
       </c>
-      <c r="D94" s="62">
+      <c r="D94" s="29">
         <v>7517925.0517999995</v>
       </c>
-      <c r="E94" s="62">
+      <c r="E94" s="29">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="62" t="s">
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="11"/>
@@ -3092,18 +3585,18 @@
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>109</v>
       </c>
-      <c r="D95" s="62">
+      <c r="D95" s="29">
         <v>7517926.6694</v>
       </c>
-      <c r="E95" s="62">
+      <c r="E95" s="29">
         <v>4692678.2884999998</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="62" t="s">
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="11"/>
@@ -3113,18 +3606,18 @@
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="20">
+      <c r="C96" s="19">
         <v>110</v>
       </c>
-      <c r="D96" s="62">
+      <c r="D96" s="29">
         <v>7517928.0525000002</v>
       </c>
-      <c r="E96" s="62">
+      <c r="E96" s="29">
         <v>4692678.7551999995</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="62" t="s">
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="11"/>
@@ -3134,18 +3627,18 @@
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>111</v>
       </c>
-      <c r="D97" s="62">
+      <c r="D97" s="29">
         <v>7517929.3223999999</v>
       </c>
-      <c r="E97" s="62">
+      <c r="E97" s="29">
         <v>4692679.1836999999</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="62" t="s">
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="11"/>
@@ -3155,18 +3648,18 @@
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="20">
+      <c r="C98" s="19">
         <v>112</v>
       </c>
-      <c r="D98" s="62">
+      <c r="D98" s="29">
         <v>7517950.6852000002</v>
       </c>
-      <c r="E98" s="62">
+      <c r="E98" s="29">
         <v>4692679.26</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="62" t="s">
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="11"/>
@@ -3176,18 +3669,18 @@
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>113</v>
       </c>
-      <c r="D99" s="62">
+      <c r="D99" s="29">
         <v>7517953.2906999998</v>
       </c>
-      <c r="E99" s="62">
+      <c r="E99" s="29">
         <v>4692680.1398</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="62" t="s">
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I99" s="11"/>
@@ -3197,18 +3690,18 @@
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="20">
+      <c r="C100" s="19">
         <v>114</v>
       </c>
-      <c r="D100" s="62">
+      <c r="D100" s="29">
         <v>7517948.5182999996</v>
       </c>
-      <c r="E100" s="62">
+      <c r="E100" s="29">
         <v>4692685.5575999999</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="62" t="s">
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="11"/>
@@ -3218,18 +3711,18 @@
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <v>115</v>
       </c>
-      <c r="D101" s="62">
+      <c r="D101" s="29">
         <v>7517951.1238000002</v>
       </c>
-      <c r="E101" s="62">
+      <c r="E101" s="29">
         <v>4692686.4374000002</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="62" t="s">
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="11"/>
@@ -3239,18 +3732,18 @@
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="20">
+      <c r="C102" s="19">
         <v>116</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="29">
         <v>7517946.1694999998</v>
       </c>
-      <c r="E102" s="62">
+      <c r="E102" s="29">
         <v>4692690.9013999999</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="62" t="s">
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="11"/>
@@ -3260,18 +3753,18 @@
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="20">
+      <c r="C103" s="19">
         <v>117</v>
       </c>
-      <c r="D103" s="62">
+      <c r="D103" s="29">
         <v>7517945.4238999998</v>
       </c>
-      <c r="E103" s="62">
+      <c r="E103" s="29">
         <v>4692693.1089000003</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="62" t="s">
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I103" s="11"/>
@@ -3281,18 +3774,18 @@
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="20">
+      <c r="C104" s="19">
         <v>118</v>
       </c>
-      <c r="D104" s="62">
+      <c r="D104" s="29">
         <v>7517941.9455000004</v>
       </c>
-      <c r="E104" s="62">
+      <c r="E104" s="29">
         <v>4692689.4746000003</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="62" t="s">
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I104" s="11"/>
@@ -3302,18 +3795,18 @@
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="20">
+      <c r="C105" s="19">
         <v>119</v>
       </c>
-      <c r="D105" s="62">
+      <c r="D105" s="29">
         <v>7517936.9005000005</v>
       </c>
-      <c r="E105" s="62">
+      <c r="E105" s="29">
         <v>4692687.7706000004</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="62" t="s">
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="11"/>
@@ -3323,18 +3816,18 @@
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="20">
+      <c r="C106" s="19">
         <v>120</v>
       </c>
-      <c r="D106" s="62">
+      <c r="D106" s="29">
         <v>7517936.1549000004</v>
       </c>
-      <c r="E106" s="62">
+      <c r="E106" s="29">
         <v>4692689.9780000001</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="62" t="s">
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="11"/>
@@ -3344,18 +3837,18 @@
     <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="20">
+      <c r="C107" s="19">
         <v>14</v>
       </c>
-      <c r="D107" s="62">
+      <c r="D107" s="29">
         <v>7517930.4069999997</v>
       </c>
-      <c r="E107" s="62">
+      <c r="E107" s="29">
         <v>4692671.8150000004</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="62" t="s">
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I107" s="11"/>
@@ -3366,10 +3859,10 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
       <c r="H108" s="13"/>
       <c r="I108" s="11"/>
       <c r="J108" s="1"/>
@@ -3379,10 +3872,10 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
       <c r="H109" s="13"/>
       <c r="I109" s="11"/>
       <c r="J109" s="1"/>
@@ -3392,10 +3885,10 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
       <c r="H110" s="13"/>
       <c r="I110" s="11"/>
       <c r="J110" s="1"/>
@@ -3405,10 +3898,10 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
       <c r="H111" s="13"/>
       <c r="I111" s="11"/>
       <c r="J111" s="1"/>
@@ -3418,10 +3911,10 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
       <c r="H112" s="13"/>
       <c r="I112" s="11"/>
       <c r="J112" s="1"/>
@@ -3431,10 +3924,10 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
       <c r="H113" s="13"/>
       <c r="I113" s="11"/>
       <c r="J113" s="1"/>
@@ -3444,10 +3937,10 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
       <c r="H114" s="13"/>
       <c r="I114" s="11"/>
       <c r="J114" s="1"/>
@@ -3457,10 +3950,10 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
       <c r="H115" s="13"/>
       <c r="I115" s="12"/>
       <c r="J115" s="1"/>
@@ -3469,12 +3962,12 @@
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="58"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="12"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -3483,10 +3976,10 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
       <c r="H117" s="13"/>
       <c r="I117" s="12"/>
       <c r="J117" s="1"/>
@@ -3496,10 +3989,10 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
       <c r="H118" s="13"/>
       <c r="I118" s="12"/>
       <c r="J118" s="1"/>
@@ -3509,10 +4002,10 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
       <c r="H119" s="13"/>
       <c r="I119" s="12"/>
       <c r="J119" s="1"/>
@@ -3522,10 +4015,10 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
       <c r="H120" s="13"/>
       <c r="I120" s="12"/>
       <c r="J120" s="1"/>
@@ -3535,10 +4028,10 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
       <c r="H121" s="13"/>
       <c r="I121" s="12"/>
       <c r="J121" s="1"/>
@@ -3548,10 +4041,10 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
       <c r="H122" s="13"/>
       <c r="I122" s="12"/>
       <c r="J122" s="1"/>
@@ -3561,10 +4054,10 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
       <c r="H123" s="13"/>
       <c r="I123" s="12"/>
       <c r="J123" s="1"/>
@@ -3574,10 +4067,10 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="59"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
       <c r="H124" s="13"/>
       <c r="I124" s="12"/>
       <c r="J124" s="1"/>
@@ -3587,10 +4080,10 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="59"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
       <c r="H125" s="13"/>
       <c r="I125" s="12"/>
       <c r="J125" s="1"/>
@@ -3598,28 +4091,28 @@
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
       <c r="I126" s="12"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="12"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -3628,10 +4121,10 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="14"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
       <c r="H128" s="13"/>
       <c r="I128" s="11"/>
       <c r="J128" s="1"/>
@@ -3647,34 +4140,34 @@
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="41" t="s">
+      <c r="E130" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="42"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="37" t="s">
+      <c r="F130" s="43"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I130" s="38"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="45"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="50"/>
     </row>
     <row r="131" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="32">
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="59">
         <v>140</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="47"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="52"/>
     </row>
     <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K133" s="1"/>
@@ -3687,6 +4180,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H130:I131"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="J130:K131"/>
     <mergeCell ref="B126:H127"/>
     <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
@@ -3697,11 +4195,6 @@
     <mergeCell ref="J64:K65"/>
     <mergeCell ref="F74:F107"/>
     <mergeCell ref="G74:G107"/>
-    <mergeCell ref="H130:I131"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="J130:K131"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="A66:K67"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$192</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="25">
   <si>
     <t>Nr</t>
   </si>
@@ -112,10 +112,7 @@
     <t>BODRUM</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
+    <t>KATI1</t>
   </si>
 </sst>
 </file>
@@ -605,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -667,6 +664,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,6 +777,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,6 +1186,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4506239" y="16005112"/>
+          <a:ext cx="859056" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1477,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S135"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:H54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E142" sqref="C139:H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,111 +1566,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2139,7 +2209,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="21">
@@ -2166,7 +2236,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -2178,7 +2248,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="19" t="s">
@@ -2201,26 +2271,11 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>7517924.1610000003</v>
-      </c>
-      <c r="Q35">
-        <v>4692685.9009999996</v>
-      </c>
-      <c r="R35">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>1</v>
       </c>
       <c r="D36" s="8">
@@ -2232,32 +2287,19 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="O36">
-        <v>3</v>
-      </c>
-      <c r="P36">
-        <v>7517926.7680000002</v>
-      </c>
-      <c r="Q36">
-        <v>4692678.1229999997</v>
-      </c>
-      <c r="R36">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>3</v>
       </c>
       <c r="D37" s="8">
@@ -2269,32 +2311,17 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="9"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>7517929.4824999999</v>
-      </c>
-      <c r="Q37">
-        <v>4692679.0022999998</v>
-      </c>
-      <c r="R37">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>4</v>
       </c>
       <c r="D38" s="8">
@@ -2306,32 +2333,17 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="9"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="O38">
-        <v>12</v>
-      </c>
-      <c r="P38">
-        <v>7517931.1023000004</v>
-      </c>
-      <c r="Q38">
-        <v>4692674.0017999997</v>
-      </c>
-      <c r="R38">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>12</v>
       </c>
       <c r="D39" s="8">
@@ -2343,32 +2355,17 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="9"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="O39">
-        <v>56</v>
-      </c>
-      <c r="P39">
-        <v>7517948.5199999996</v>
-      </c>
-      <c r="Q39">
-        <v>4692694.1529999999</v>
-      </c>
-      <c r="R39">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>56</v>
       </c>
       <c r="D40" s="8">
@@ -2380,32 +2377,17 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="9"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="O40">
-        <v>57</v>
-      </c>
-      <c r="P40">
-        <v>7517952.9117999999</v>
-      </c>
-      <c r="Q40">
-        <v>4692681.6829000004</v>
-      </c>
-      <c r="R40">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>57</v>
       </c>
       <c r="D41" s="8">
@@ -2417,32 +2399,17 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="9"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="O41">
-        <v>122</v>
-      </c>
-      <c r="P41">
-        <v>7517949.3603999997</v>
-      </c>
-      <c r="Q41">
-        <v>4692691.7666999996</v>
-      </c>
-      <c r="R41">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>122</v>
       </c>
       <c r="D42" s="8">
@@ -2454,32 +2421,17 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="9"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="O42">
-        <v>123</v>
-      </c>
-      <c r="P42">
-        <v>7517951.3054</v>
-      </c>
-      <c r="Q42">
-        <v>4692686.2441999996</v>
-      </c>
-      <c r="R42">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>123</v>
       </c>
       <c r="D43" s="8">
@@ -2491,32 +2443,17 @@
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="9"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="O43">
-        <v>124</v>
-      </c>
-      <c r="P43">
-        <v>7517950.0350000001</v>
-      </c>
-      <c r="Q43">
-        <v>4692680.6697000004</v>
-      </c>
-      <c r="R43">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>124</v>
       </c>
       <c r="D44" s="8">
@@ -2528,33 +2465,18 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="O44">
-        <v>125</v>
-      </c>
-      <c r="P44">
-        <v>7517948.4286000002</v>
-      </c>
-      <c r="Q44">
-        <v>4692685.2309999997</v>
-      </c>
-      <c r="R44">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>125</v>
       </c>
       <c r="D45" s="8">
@@ -2566,33 +2488,18 @@
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="9"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="O45">
-        <v>126</v>
-      </c>
-      <c r="P45">
-        <v>7517946.4715</v>
-      </c>
-      <c r="Q45">
-        <v>4692690.7879999997</v>
-      </c>
-      <c r="R45">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="7">
+      <c r="C46" s="9">
         <v>126</v>
       </c>
       <c r="D46" s="8">
@@ -2604,31 +2511,16 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="9"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="O46">
-        <v>127</v>
-      </c>
-      <c r="P46">
-        <v>7517941.8687000005</v>
-      </c>
-      <c r="Q46">
-        <v>4692689.2286999999</v>
-      </c>
-      <c r="R46">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="7">
+    </row>
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="9">
         <v>127</v>
       </c>
       <c r="D47" s="8">
@@ -2640,29 +2532,14 @@
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="9"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K47" s="1"/>
-      <c r="O47">
-        <v>128</v>
-      </c>
-      <c r="P47">
-        <v>7517941.0272000004</v>
-      </c>
-      <c r="Q47">
-        <v>4692691.6179</v>
-      </c>
-      <c r="R47">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="7">
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="9">
         <v>128</v>
       </c>
       <c r="D48" s="8">
@@ -2674,31 +2551,16 @@
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="9"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K48" s="1"/>
-      <c r="O48">
-        <v>129</v>
-      </c>
-      <c r="P48">
-        <v>7517926.9834000003</v>
-      </c>
-      <c r="Q48">
-        <v>4692686.8570999997</v>
-      </c>
-      <c r="R48">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="7">
+      <c r="C49" s="9">
         <v>129</v>
       </c>
       <c r="D49" s="8">
@@ -2710,33 +2572,18 @@
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="9"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="O49">
-        <v>130</v>
-      </c>
-      <c r="P49">
-        <v>7517925.7034</v>
-      </c>
-      <c r="Q49">
-        <v>4692686.4281000001</v>
-      </c>
-      <c r="R49">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="7">
+      <c r="C50" s="9">
         <v>130</v>
       </c>
       <c r="D50" s="8">
@@ -2748,33 +2595,18 @@
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="9"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="O50">
-        <v>131</v>
-      </c>
-      <c r="P50">
-        <v>7517927.4121000003</v>
-      </c>
-      <c r="Q50">
-        <v>4692681.3301999997</v>
-      </c>
-      <c r="R50">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="7">
+      <c r="C51" s="9">
         <v>131</v>
       </c>
       <c r="D51" s="8">
@@ -2786,32 +2618,17 @@
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="9"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="O51">
-        <v>132</v>
-      </c>
-      <c r="P51">
-        <v>7517928.6359000001</v>
-      </c>
-      <c r="Q51">
-        <v>4692681.7456999999</v>
-      </c>
-      <c r="R51">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="7">
+      <c r="C52" s="9">
         <v>132</v>
       </c>
       <c r="D52" s="8">
@@ -2823,32 +2640,17 @@
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="9"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="O52">
-        <v>104</v>
-      </c>
-      <c r="P52">
-        <v>7517945.1684999997</v>
-      </c>
-      <c r="Q52">
-        <v>4692693.0225999998</v>
-      </c>
-      <c r="R52">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="S52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="7">
+      <c r="C53" s="9">
         <v>104</v>
       </c>
       <c r="D53" s="8">
@@ -2860,33 +2662,18 @@
       <c r="F53" s="8">
         <v>616.38300000000004</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="9"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I53" s="11"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="O53">
-        <v>103</v>
-      </c>
-      <c r="P53">
-        <v>7517926.4434000002</v>
-      </c>
-      <c r="Q53">
-        <v>4692686.6742000002</v>
-      </c>
-      <c r="R53">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="7">
+      <c r="C54" s="9">
         <v>103</v>
       </c>
       <c r="D54" s="8">
@@ -2898,15 +2685,15 @@
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="9"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I54" s="11"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
@@ -2919,7 +2706,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
@@ -2932,7 +2719,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
@@ -2945,7 +2732,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
@@ -2958,146 +2745,146 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="45" t="s">
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="50"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59">
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="60">
         <v>140</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="52"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="53"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+    </row>
+    <row r="71" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
@@ -3115,22 +2902,22 @@
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G73" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I73" s="11"/>
@@ -3143,19 +2930,19 @@
       <c r="C74" s="19">
         <v>101</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="30">
         <v>7517952.1813000003</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="30">
         <v>4692679.7653000001</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="54">
         <v>616.38300000000004</v>
       </c>
-      <c r="G74" s="53" t="s">
+      <c r="G74" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="11"/>
@@ -3168,15 +2955,15 @@
       <c r="C75" s="19">
         <v>2</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="30">
         <v>7517924.0990000004</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="29" t="s">
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="11"/>
@@ -3189,15 +2976,15 @@
       <c r="C76" s="19">
         <v>5</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="30">
         <v>7517928.4419999998</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="30">
         <v>4692673.07</v>
       </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="29" t="s">
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="11"/>
@@ -3210,15 +2997,15 @@
       <c r="C77" s="19">
         <v>6</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="30">
         <v>7517929.8169999998</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="30">
         <v>4692673.5259999996</v>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="29" t="s">
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="11"/>
@@ -3231,15 +3018,15 @@
       <c r="C78" s="19">
         <v>7</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="30">
         <v>7517929.96</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="30">
         <v>4692673.2819999997</v>
       </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="29" t="s">
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="11"/>
@@ -3252,15 +3039,15 @@
       <c r="C79" s="19">
         <v>8</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="30">
         <v>7517930.2989999996</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="29" t="s">
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I79" s="11"/>
@@ -3273,15 +3060,15 @@
       <c r="C80" s="19">
         <v>9</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="30">
         <v>7517930.7450000001</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="30">
         <v>4692672.7690000003</v>
       </c>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="29" t="s">
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="11"/>
@@ -3294,15 +3081,15 @@
       <c r="C81" s="19">
         <v>10</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="30">
         <v>7517931.2220000001</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="29" t="s">
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="11"/>
@@ -3315,15 +3102,15 @@
       <c r="C82" s="19">
         <v>11</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D82" s="30">
         <v>7517931.6050000004</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="29" t="s">
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="11"/>
@@ -3336,15 +3123,15 @@
       <c r="C83" s="19">
         <v>34</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="30">
         <v>7517953.7189999996</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="30">
         <v>4692687.3470000001</v>
       </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="29" t="s">
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="11"/>
@@ -3357,15 +3144,15 @@
       <c r="C84" s="19">
         <v>35</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="30">
         <v>7517955.8949999996</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="30">
         <v>4692681.023</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="29" t="s">
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="11"/>
@@ -3378,15 +3165,15 @@
       <c r="C85" s="19">
         <v>58</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="30">
         <v>7517951.3300000001</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="29" t="s">
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="11"/>
@@ -3399,15 +3186,15 @@
       <c r="C86" s="19">
         <v>59</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="30">
         <v>7517951.9790000003</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="30">
         <v>4692687.1399999997</v>
       </c>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="29" t="s">
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="11"/>
@@ -3420,15 +3207,15 @@
       <c r="C87" s="19">
         <v>60</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="30">
         <v>7517952.0760000004</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="29" t="s">
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="11"/>
@@ -3441,15 +3228,15 @@
       <c r="C88" s="19">
         <v>61</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="30">
         <v>7517950.1849999996</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="29" t="s">
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="11"/>
@@ -3462,15 +3249,15 @@
       <c r="C89" s="19">
         <v>62</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="30">
         <v>7517949.5559999999</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="29" t="s">
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="11"/>
@@ -3483,15 +3270,15 @@
       <c r="C90" s="19">
         <v>63</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="30">
         <v>7517948.5300000003</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="29" t="s">
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="11"/>
@@ -3504,15 +3291,15 @@
       <c r="C91" s="19">
         <v>105</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="30">
         <v>7517927.7654999997</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="30">
         <v>4692687.1445000004</v>
       </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="29" t="s">
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="11"/>
@@ -3525,15 +3312,15 @@
       <c r="C92" s="19">
         <v>106</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="30">
         <v>7517928.7182999998</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="30">
         <v>4692684.3208999997</v>
       </c>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="29" t="s">
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="11"/>
@@ -3546,15 +3333,15 @@
       <c r="C93" s="19">
         <v>107</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D93" s="30">
         <v>7517927.7045</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="30">
         <v>4692683.9785000002</v>
       </c>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="29" t="s">
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="11"/>
@@ -3567,15 +3354,15 @@
       <c r="C94" s="19">
         <v>108</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D94" s="30">
         <v>7517925.0517999995</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="29" t="s">
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="11"/>
@@ -3588,15 +3375,15 @@
       <c r="C95" s="19">
         <v>109</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="30">
         <v>7517926.6694</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="30">
         <v>4692678.2884999998</v>
       </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="29" t="s">
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="11"/>
@@ -3609,15 +3396,15 @@
       <c r="C96" s="19">
         <v>110</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="30">
         <v>7517928.0525000002</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="30">
         <v>4692678.7551999995</v>
       </c>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="29" t="s">
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="11"/>
@@ -3630,15 +3417,15 @@
       <c r="C97" s="19">
         <v>111</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="30">
         <v>7517929.3223999999</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="30">
         <v>4692679.1836999999</v>
       </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="29" t="s">
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="11"/>
@@ -3651,15 +3438,15 @@
       <c r="C98" s="19">
         <v>112</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="30">
         <v>7517950.6852000002</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="30">
         <v>4692679.26</v>
       </c>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="29" t="s">
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="11"/>
@@ -3672,15 +3459,15 @@
       <c r="C99" s="19">
         <v>113</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="30">
         <v>7517953.2906999998</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="30">
         <v>4692680.1398</v>
       </c>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="29" t="s">
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I99" s="11"/>
@@ -3693,15 +3480,15 @@
       <c r="C100" s="19">
         <v>114</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="30">
         <v>7517948.5182999996</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="30">
         <v>4692685.5575999999</v>
       </c>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="29" t="s">
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="11"/>
@@ -3714,15 +3501,15 @@
       <c r="C101" s="19">
         <v>115</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="30">
         <v>7517951.1238000002</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="30">
         <v>4692686.4374000002</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="29" t="s">
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="11"/>
@@ -3735,15 +3522,15 @@
       <c r="C102" s="19">
         <v>116</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="30">
         <v>7517946.1694999998</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="30">
         <v>4692690.9013999999</v>
       </c>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="29" t="s">
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="11"/>
@@ -3756,15 +3543,15 @@
       <c r="C103" s="19">
         <v>117</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="30">
         <v>7517945.4238999998</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="30">
         <v>4692693.1089000003</v>
       </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="29" t="s">
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I103" s="11"/>
@@ -3777,15 +3564,15 @@
       <c r="C104" s="19">
         <v>118</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="30">
         <v>7517941.9455000004</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="30">
         <v>4692689.4746000003</v>
       </c>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="29" t="s">
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I104" s="11"/>
@@ -3798,15 +3585,15 @@
       <c r="C105" s="19">
         <v>119</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="30">
         <v>7517936.9005000005</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="30">
         <v>4692687.7706000004</v>
       </c>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="29" t="s">
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="11"/>
@@ -3819,15 +3606,15 @@
       <c r="C106" s="19">
         <v>120</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="30">
         <v>7517936.1549000004</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="30">
         <v>4692689.9780000001</v>
       </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="29" t="s">
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="11"/>
@@ -3840,15 +3627,15 @@
       <c r="C107" s="19">
         <v>14</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="30">
         <v>7517930.4069999997</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="30">
         <v>4692671.8150000004</v>
       </c>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="29" t="s">
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I107" s="11"/>
@@ -3861,8 +3648,8 @@
       <c r="C108" s="14"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
       <c r="H108" s="13"/>
       <c r="I108" s="11"/>
       <c r="J108" s="1"/>
@@ -3871,12 +3658,12 @@
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="13"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="65"/>
       <c r="I109" s="11"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -3887,8 +3674,8 @@
       <c r="C110" s="14"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
       <c r="H110" s="13"/>
       <c r="I110" s="11"/>
       <c r="J110" s="1"/>
@@ -3900,8 +3687,8 @@
       <c r="C111" s="14"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
       <c r="H111" s="13"/>
       <c r="I111" s="11"/>
       <c r="J111" s="1"/>
@@ -3913,8 +3700,8 @@
       <c r="C112" s="14"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
       <c r="H112" s="13"/>
       <c r="I112" s="11"/>
       <c r="J112" s="1"/>
@@ -3926,8 +3713,8 @@
       <c r="C113" s="14"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
       <c r="H113" s="13"/>
       <c r="I113" s="11"/>
       <c r="J113" s="1"/>
@@ -3939,8 +3726,8 @@
       <c r="C114" s="14"/>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
       <c r="H114" s="13"/>
       <c r="I114" s="11"/>
       <c r="J114" s="1"/>
@@ -3967,7 +3754,7 @@
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
-      <c r="H116" s="25"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="12"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -3978,8 +3765,8 @@
       <c r="C117" s="14"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
       <c r="H117" s="13"/>
       <c r="I117" s="12"/>
       <c r="J117" s="1"/>
@@ -3991,8 +3778,8 @@
       <c r="C118" s="14"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
       <c r="H118" s="13"/>
       <c r="I118" s="12"/>
       <c r="J118" s="1"/>
@@ -4004,8 +3791,8 @@
       <c r="C119" s="14"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
       <c r="H119" s="13"/>
       <c r="I119" s="12"/>
       <c r="J119" s="1"/>
@@ -4014,26 +3801,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="12"/>
+      <c r="C120" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="12"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -4043,8 +3832,8 @@
       <c r="C122" s="14"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
       <c r="H122" s="13"/>
       <c r="I122" s="12"/>
       <c r="J122" s="1"/>
@@ -4056,8 +3845,8 @@
       <c r="C123" s="14"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
       <c r="H123" s="13"/>
       <c r="I123" s="12"/>
       <c r="J123" s="1"/>
@@ -4069,10 +3858,10 @@
       <c r="C124" s="14"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
       <c r="H124" s="13"/>
-      <c r="I124" s="12"/>
+      <c r="I124" s="25"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
@@ -4082,110 +3871,1243 @@
       <c r="C125" s="14"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
       <c r="H125" s="13"/>
-      <c r="I125" s="12"/>
+      <c r="I125" s="25"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="12"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="25"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="12"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="25"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="44"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="47"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="51"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="A129" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="60">
+        <v>140</v>
+      </c>
+      <c r="F129" s="61"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="52"/>
+      <c r="K129" s="53"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+    </row>
+    <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+    </row>
+    <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+    </row>
+    <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+    </row>
+    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" s="25"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="19">
+        <v>2</v>
+      </c>
+      <c r="D140" s="30">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E140" s="30">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F140" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G140" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="25"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="19">
+        <v>5</v>
+      </c>
+      <c r="D141" s="30">
+        <v>7517928.4419999998</v>
+      </c>
+      <c r="E141" s="30">
+        <v>4692673.07</v>
+      </c>
+      <c r="F141" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G141" s="55"/>
+      <c r="H141" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="25"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="19">
+        <v>6</v>
+      </c>
+      <c r="D142" s="30">
+        <v>7517929.8169999998</v>
+      </c>
+      <c r="E142" s="30">
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F142" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G142" s="55"/>
+      <c r="H142" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="25"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="19">
+        <v>7</v>
+      </c>
+      <c r="D143" s="30">
+        <v>7517929.96</v>
+      </c>
+      <c r="E143" s="30">
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F143" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G143" s="55"/>
+      <c r="H143" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="25"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="19">
+        <v>8</v>
+      </c>
+      <c r="D144" s="30">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E144" s="30">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F144" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G144" s="55"/>
+      <c r="H144" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="25"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="19">
+        <v>9</v>
+      </c>
+      <c r="D145" s="30">
+        <v>7517930.7450000001</v>
+      </c>
+      <c r="E145" s="30">
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F145" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G145" s="55"/>
+      <c r="H145" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="25"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="19">
+        <v>10</v>
+      </c>
+      <c r="D146" s="30">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E146" s="30">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F146" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G146" s="55"/>
+      <c r="H146" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="25"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="19">
+        <v>11</v>
+      </c>
+      <c r="D147" s="30">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E147" s="30">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F147" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G147" s="55"/>
+      <c r="H147" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="25"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="19">
+        <v>34</v>
+      </c>
+      <c r="D148" s="30">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="E148" s="30">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="F148" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G148" s="55"/>
+      <c r="H148" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="25"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="19">
+        <v>35</v>
+      </c>
+      <c r="D149" s="30">
+        <v>7517945.9700999996</v>
+      </c>
+      <c r="E149" s="30">
+        <v>4692677.5620999997</v>
+      </c>
+      <c r="F149" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G149" s="55"/>
+      <c r="H149" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="25"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="19">
+        <v>41</v>
+      </c>
+      <c r="D150" s="30">
+        <v>7517950.0548999999</v>
+      </c>
+      <c r="E150" s="30">
+        <v>4692678.9175000004</v>
+      </c>
+      <c r="F150" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G150" s="55"/>
+      <c r="H150" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="25"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="19">
+        <v>42</v>
+      </c>
+      <c r="D151" s="30">
+        <v>7517950.4249999998</v>
+      </c>
+      <c r="E151" s="30">
+        <v>4692677.8820000002</v>
+      </c>
+      <c r="F151" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G151" s="55"/>
+      <c r="H151" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="25"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="19">
+        <v>43</v>
+      </c>
+      <c r="D152" s="30">
+        <v>7517953.7850000001</v>
+      </c>
+      <c r="E152" s="30">
+        <v>4692679.0829999996</v>
+      </c>
+      <c r="F152" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G152" s="55"/>
+      <c r="H152" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="25"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="19">
+        <v>58</v>
+      </c>
+      <c r="D153" s="30">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E153" s="30">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F153" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G153" s="55"/>
+      <c r="H153" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="25"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="19">
+        <v>59</v>
+      </c>
+      <c r="D154" s="30">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="E154" s="30">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F154" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G154" s="55"/>
+      <c r="H154" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" s="25"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="19">
+        <v>60</v>
+      </c>
+      <c r="D155" s="30">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E155" s="30">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F155" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G155" s="55"/>
+      <c r="H155" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="25"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="19">
+        <v>61</v>
+      </c>
+      <c r="D156" s="30">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E156" s="30">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F156" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G156" s="55"/>
+      <c r="H156" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="25"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="19">
+        <v>62</v>
+      </c>
+      <c r="D157" s="30">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E157" s="30">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F157" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G157" s="55"/>
+      <c r="H157" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="25"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="19">
+        <v>63</v>
+      </c>
+      <c r="D158" s="30">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E158" s="30">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F158" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G158" s="55"/>
+      <c r="H158" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="25"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="19">
+        <v>102</v>
+      </c>
+      <c r="D159" s="30">
+        <v>7517936.4840000002</v>
+      </c>
+      <c r="E159" s="30">
+        <v>4692674.3847000003</v>
+      </c>
+      <c r="F159" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G159" s="55"/>
+      <c r="H159" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="25"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="19">
+        <v>103</v>
+      </c>
+      <c r="D160" s="30">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="E160" s="30">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="F160" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G160" s="55"/>
+      <c r="H160" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="25"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="19">
+        <v>104</v>
+      </c>
+      <c r="D161" s="30">
+        <v>7517941.3384999996</v>
+      </c>
+      <c r="E161" s="30">
+        <v>4692675.6413000003</v>
+      </c>
+      <c r="F161" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G161" s="55"/>
+      <c r="H161" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="25"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="19">
+        <v>135</v>
+      </c>
+      <c r="D162" s="30">
+        <v>7517926.9230000004</v>
+      </c>
+      <c r="E162" s="30">
+        <v>4692677.5713999998</v>
+      </c>
+      <c r="F162" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G162" s="55"/>
+      <c r="H162" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="25"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="19">
+        <v>136</v>
+      </c>
+      <c r="D163" s="30">
+        <v>7517929.3389999997</v>
+      </c>
+      <c r="E163" s="30">
+        <v>4692678.3875000002</v>
+      </c>
+      <c r="F163" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G163" s="55"/>
+      <c r="H163" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="25"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="19">
+        <v>137</v>
+      </c>
+      <c r="D164" s="30">
+        <v>7517927.5005999999</v>
+      </c>
+      <c r="E164" s="30">
+        <v>4692683.8356999997</v>
+      </c>
+      <c r="F164" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G164" s="55"/>
+      <c r="H164" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="25"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="19">
+        <v>138</v>
+      </c>
+      <c r="D165" s="30">
+        <v>7517928.7559000002</v>
+      </c>
+      <c r="E165" s="30">
+        <v>4692684.2597000003</v>
+      </c>
+      <c r="F165" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G165" s="55"/>
+      <c r="H165" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="25"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="19">
+        <v>139</v>
+      </c>
+      <c r="D166" s="30">
+        <v>7517927.7807999998</v>
+      </c>
+      <c r="E166" s="30">
+        <v>4692687.1496000001</v>
+      </c>
+      <c r="F166" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G166" s="55"/>
+      <c r="H166" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="25"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="19">
+        <v>140</v>
+      </c>
+      <c r="D167" s="30">
+        <v>7517941.0358999996</v>
+      </c>
+      <c r="E167" s="30">
+        <v>4692691.6266999999</v>
+      </c>
+      <c r="F167" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G167" s="55"/>
+      <c r="H167" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" s="25"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="19">
+        <v>141</v>
+      </c>
+      <c r="D168" s="30">
+        <v>7517941.8782000002</v>
+      </c>
+      <c r="E168" s="30">
+        <v>4692689.2351000002</v>
+      </c>
+      <c r="F168" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G168" s="55"/>
+      <c r="H168" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="25"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="19">
+        <v>142</v>
+      </c>
+      <c r="D169" s="30">
+        <v>7517946.1831</v>
+      </c>
+      <c r="E169" s="30">
+        <v>4692690.6902999999</v>
+      </c>
+      <c r="F169" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G169" s="55"/>
+      <c r="H169" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="25"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="19">
+        <v>143</v>
+      </c>
+      <c r="D170" s="30">
+        <v>7517945.3410999998</v>
+      </c>
+      <c r="E170" s="30">
+        <v>4692693.0809000004</v>
+      </c>
+      <c r="F170" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G170" s="55"/>
+      <c r="H170" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I170" s="12"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="19">
+        <v>144</v>
+      </c>
+      <c r="D171" s="30">
+        <v>7517947.9436999997</v>
+      </c>
+      <c r="E171" s="30">
+        <v>4692685.3624999998</v>
+      </c>
+      <c r="F171" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G171" s="55"/>
+      <c r="H171" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I171" s="12"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="C172" s="19">
+        <v>145</v>
+      </c>
+      <c r="D172" s="30">
+        <v>7517949.3491000002</v>
+      </c>
+      <c r="E172" s="30">
+        <v>4692681.1283999998</v>
+      </c>
+      <c r="F172" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G172" s="55"/>
+      <c r="H172" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="C173" s="19">
+        <v>146</v>
+      </c>
+      <c r="D173" s="30">
+        <v>7517952.7259999998</v>
+      </c>
+      <c r="E173" s="30">
+        <v>4692682.3354000002</v>
+      </c>
+      <c r="F173" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G173" s="55"/>
+      <c r="H173" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="12"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="19">
+        <v>101</v>
+      </c>
+      <c r="D174" s="30">
+        <v>7517952.4309</v>
+      </c>
+      <c r="E174" s="30">
+        <v>4692678.5990000004</v>
+      </c>
+      <c r="F174" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G174" s="56"/>
+      <c r="H174" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="11"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="42" t="s">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="45" t="s">
+      <c r="F190" s="44"/>
+      <c r="G190" s="45"/>
+      <c r="H190" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I130" s="46"/>
-      <c r="J130" s="49"/>
-      <c r="K130" s="50"/>
-    </row>
-    <row r="131" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="56" t="s">
+      <c r="I190" s="47"/>
+      <c r="J190" s="50"/>
+      <c r="K190" s="51"/>
+    </row>
+    <row r="191" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="59">
+      <c r="B191" s="58"/>
+      <c r="C191" s="58"/>
+      <c r="D191" s="59"/>
+      <c r="E191" s="60">
         <v>140</v>
       </c>
-      <c r="F131" s="60"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="51"/>
-      <c r="K131" s="52"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K135" s="1"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="62"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="49"/>
+      <c r="J191" s="52"/>
+      <c r="K191" s="53"/>
+    </row>
+    <row r="193" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K195" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H130:I131"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="J130:K131"/>
-    <mergeCell ref="B126:H127"/>
+  <mergeCells count="28">
+    <mergeCell ref="A134:K137"/>
+    <mergeCell ref="G140:G174"/>
+    <mergeCell ref="H128:I129"/>
+    <mergeCell ref="J128:K129"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A132:K133"/>
+    <mergeCell ref="H190:I191"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="J190:K191"/>
+    <mergeCell ref="C120:I121"/>
     <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
     <mergeCell ref="A1:K2"/>
@@ -4199,6 +5121,8 @@
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="A66:K67"/>
     <mergeCell ref="A68:K71"/>
+    <mergeCell ref="G36:G54"/>
+    <mergeCell ref="E128:G128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$192</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$263</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="26">
   <si>
     <t>Nr</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>KATI1</t>
+  </si>
+  <si>
+    <t>KATI2</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -598,11 +601,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -685,6 +719,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -712,80 +815,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,6 +1324,841 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231212" y="2122245"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839686</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4894615" y="2152234"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1218964" y="2388945"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 01997-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842998</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>105246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897927" y="2404853"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231212" y="17920138"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839686</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4894615" y="17950127"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1218964" y="18241267"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 01997-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842998</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>105246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897927" y="18257175"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4506239" y="32701076"/>
+          <a:ext cx="859056" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231212" y="35051531"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839686</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4894615" y="35081520"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1218964" y="35372659"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 01997-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842998</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>105246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897927" y="35388567"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1547,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E142" sqref="C139:H174"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A234" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203:H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,111 +2478,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2287,7 +3199,7 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="64" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="30" t="s">
@@ -2311,7 +3223,7 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="63"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="30" t="s">
         <v>8</v>
       </c>
@@ -2333,7 +3245,7 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="63"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="30" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +3267,7 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="63"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="30" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +3289,7 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="63"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="30" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +3311,7 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="63"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="30" t="s">
         <v>8</v>
       </c>
@@ -2421,7 +3333,7 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +3355,7 @@
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="64"/>
       <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
@@ -2465,7 +3377,7 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="63"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="30" t="s">
         <v>8</v>
       </c>
@@ -2488,7 +3400,7 @@
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="63"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="30" t="s">
         <v>8</v>
       </c>
@@ -2511,7 +3423,7 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="63"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="30" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +3444,7 @@
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="63"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="30" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +3463,7 @@
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="63"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="30" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +3484,7 @@
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="63"/>
+      <c r="G49" s="64"/>
       <c r="H49" s="30" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +3507,7 @@
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="63"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="30" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +3530,7 @@
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="63"/>
+      <c r="G51" s="64"/>
       <c r="H51" s="30" t="s">
         <v>8</v>
       </c>
@@ -2640,7 +3552,7 @@
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="63"/>
+      <c r="G52" s="64"/>
       <c r="H52" s="30" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +3574,7 @@
       <c r="F53" s="8">
         <v>616.38300000000004</v>
       </c>
-      <c r="G53" s="63"/>
+      <c r="G53" s="64"/>
       <c r="H53" s="9" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +3597,7 @@
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="64"/>
       <c r="H54" s="9" t="s">
         <v>20</v>
       </c>
@@ -2747,27 +3659,27 @@
     </row>
     <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2777,195 +3689,154 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46" t="s">
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="47"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="51"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47">
         <v>140</v>
       </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="53"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-    </row>
-    <row r="71" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+    </row>
+    <row r="71" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="57"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="11"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="60"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="19">
-        <v>101</v>
-      </c>
-      <c r="D74" s="30">
-        <v>7517952.1813000003</v>
-      </c>
-      <c r="E74" s="30">
-        <v>4692679.7653000001</v>
-      </c>
-      <c r="F74" s="54">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="G74" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="11"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="19">
-        <v>2</v>
-      </c>
-      <c r="D75" s="30">
-        <v>7517924.0990000004</v>
-      </c>
-      <c r="E75" s="30">
-        <v>4692685.9060000004</v>
-      </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="I75" s="11"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -2973,19 +3844,23 @@
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="19">
-        <v>5</v>
-      </c>
-      <c r="D76" s="30">
-        <v>7517928.4419999998</v>
-      </c>
-      <c r="E76" s="30">
-        <v>4692673.07</v>
-      </c>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="30" t="s">
-        <v>8</v>
+      <c r="C76" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="1"/>
@@ -2995,18 +3870,22 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="19">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D77" s="30">
-        <v>7517929.8169999998</v>
+        <v>7517952.1813000003</v>
       </c>
       <c r="E77" s="30">
-        <v>4692673.5259999996</v>
-      </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
+        <v>4692679.7653000001</v>
+      </c>
+      <c r="F77" s="33">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" s="30" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="1"/>
@@ -3016,16 +3895,16 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D78" s="30">
-        <v>7517929.96</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="E78" s="30">
-        <v>4692673.2819999997</v>
-      </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
       <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
@@ -3037,16 +3916,16 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D79" s="30">
-        <v>7517930.2989999996</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="E79" s="30">
-        <v>4692672.9689999996</v>
-      </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
+        <v>4692673.07</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
       <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
@@ -3058,16 +3937,16 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" s="30">
-        <v>7517930.7450000001</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="E80" s="30">
-        <v>4692672.7690000003</v>
-      </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
       <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
@@ -3079,16 +3958,16 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D81" s="30">
-        <v>7517931.2220000001</v>
+        <v>7517929.96</v>
       </c>
       <c r="E81" s="30">
-        <v>4692672.7319999998</v>
-      </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
       <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
@@ -3100,16 +3979,16 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D82" s="30">
-        <v>7517931.6050000004</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="E82" s="30">
-        <v>4692672.7970000003</v>
-      </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
       <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
@@ -3121,16 +4000,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="19">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D83" s="30">
-        <v>7517953.7189999996</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="E83" s="30">
-        <v>4692687.3470000001</v>
-      </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
       <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
@@ -3142,16 +4021,16 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="19">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D84" s="30">
-        <v>7517955.8949999996</v>
+        <v>7517931.2220000001</v>
       </c>
       <c r="E84" s="30">
-        <v>4692681.023</v>
-      </c>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
@@ -3163,16 +4042,16 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="19">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D85" s="30">
-        <v>7517951.3300000001</v>
+        <v>7517931.6050000004</v>
       </c>
       <c r="E85" s="30">
-        <v>4692686.5060000001</v>
-      </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
       <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
@@ -3184,16 +4063,16 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="19">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D86" s="30">
-        <v>7517951.9790000003</v>
+        <v>7517953.7189999996</v>
       </c>
       <c r="E86" s="30">
-        <v>4692687.1399999997</v>
-      </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
@@ -3205,16 +4084,16 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="19">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D87" s="30">
-        <v>7517952.0760000004</v>
+        <v>7517955.8949999996</v>
       </c>
       <c r="E87" s="30">
-        <v>4692688.1239999998</v>
-      </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
+        <v>4692681.023</v>
+      </c>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
       <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
@@ -3226,16 +4105,16 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="19">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D88" s="30">
-        <v>7517950.1849999996</v>
+        <v>7517951.3300000001</v>
       </c>
       <c r="E88" s="30">
-        <v>4692693.4919999996</v>
-      </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
       <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
@@ -3247,16 +4126,16 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="19">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D89" s="30">
-        <v>7517949.5559999999</v>
+        <v>7517951.9790000003</v>
       </c>
       <c r="E89" s="30">
-        <v>4692694.1169999996</v>
-      </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
       <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
@@ -3268,16 +4147,16 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="19">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D90" s="30">
-        <v>7517948.5300000003</v>
+        <v>7517952.0760000004</v>
       </c>
       <c r="E90" s="30">
-        <v>4692694.1579999998</v>
-      </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
       <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
@@ -3289,16 +4168,16 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="19">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D91" s="30">
-        <v>7517927.7654999997</v>
+        <v>7517950.1849999996</v>
       </c>
       <c r="E91" s="30">
-        <v>4692687.1445000004</v>
-      </c>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
       <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
@@ -3310,16 +4189,16 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="19">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D92" s="30">
-        <v>7517928.7182999998</v>
+        <v>7517949.5559999999</v>
       </c>
       <c r="E92" s="30">
-        <v>4692684.3208999997</v>
-      </c>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
       <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
@@ -3331,16 +4210,16 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="19">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D93" s="30">
-        <v>7517927.7045</v>
+        <v>7517948.5300000003</v>
       </c>
       <c r="E93" s="30">
-        <v>4692683.9785000002</v>
-      </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
@@ -3352,16 +4231,16 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="19">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D94" s="30">
-        <v>7517925.0517999995</v>
+        <v>7517927.7654999997</v>
       </c>
       <c r="E94" s="30">
-        <v>4692683.0823999997</v>
-      </c>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
+        <v>4692687.1445000004</v>
+      </c>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
       <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
@@ -3373,16 +4252,16 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="19">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D95" s="30">
-        <v>7517926.6694</v>
+        <v>7517928.7182999998</v>
       </c>
       <c r="E95" s="30">
-        <v>4692678.2884999998</v>
-      </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
+        <v>4692684.3208999997</v>
+      </c>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
       <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
@@ -3394,16 +4273,16 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="19">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D96" s="30">
-        <v>7517928.0525000002</v>
+        <v>7517927.7045</v>
       </c>
       <c r="E96" s="30">
-        <v>4692678.7551999995</v>
-      </c>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
+        <v>4692683.9785000002</v>
+      </c>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
       <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
@@ -3415,16 +4294,16 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="19">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D97" s="30">
-        <v>7517929.3223999999</v>
+        <v>7517925.0517999995</v>
       </c>
       <c r="E97" s="30">
-        <v>4692679.1836999999</v>
-      </c>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
       <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
@@ -3436,16 +4315,16 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="19">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D98" s="30">
-        <v>7517950.6852000002</v>
+        <v>7517926.6694</v>
       </c>
       <c r="E98" s="30">
-        <v>4692679.26</v>
-      </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
+        <v>4692678.2884999998</v>
+      </c>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
       <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
@@ -3457,16 +4336,16 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="19">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D99" s="30">
-        <v>7517953.2906999998</v>
+        <v>7517928.0525000002</v>
       </c>
       <c r="E99" s="30">
-        <v>4692680.1398</v>
-      </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
+        <v>4692678.7551999995</v>
+      </c>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
       <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
@@ -3478,16 +4357,16 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="19">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D100" s="30">
-        <v>7517948.5182999996</v>
+        <v>7517929.3223999999</v>
       </c>
       <c r="E100" s="30">
-        <v>4692685.5575999999</v>
-      </c>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
+        <v>4692679.1836999999</v>
+      </c>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
       <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
@@ -3499,16 +4378,16 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="19">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D101" s="30">
-        <v>7517951.1238000002</v>
+        <v>7517950.6852000002</v>
       </c>
       <c r="E101" s="30">
-        <v>4692686.4374000002</v>
-      </c>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
+        <v>4692679.26</v>
+      </c>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
       <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
@@ -3520,16 +4399,16 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="19">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D102" s="30">
-        <v>7517946.1694999998</v>
+        <v>7517953.2906999998</v>
       </c>
       <c r="E102" s="30">
-        <v>4692690.9013999999</v>
-      </c>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
+        <v>4692680.1398</v>
+      </c>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
       <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
@@ -3541,16 +4420,16 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="19">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D103" s="30">
-        <v>7517945.4238999998</v>
+        <v>7517948.5182999996</v>
       </c>
       <c r="E103" s="30">
-        <v>4692693.1089000003</v>
-      </c>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
+        <v>4692685.5575999999</v>
+      </c>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
       <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
@@ -3562,16 +4441,16 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="19">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D104" s="30">
-        <v>7517941.9455000004</v>
+        <v>7517951.1238000002</v>
       </c>
       <c r="E104" s="30">
-        <v>4692689.4746000003</v>
-      </c>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
+        <v>4692686.4374000002</v>
+      </c>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
       <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
@@ -3583,16 +4462,16 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="19">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D105" s="30">
-        <v>7517936.9005000005</v>
+        <v>7517946.1694999998</v>
       </c>
       <c r="E105" s="30">
-        <v>4692687.7706000004</v>
-      </c>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
+        <v>4692690.9013999999</v>
+      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
       <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
@@ -3604,16 +4483,16 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="19">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D106" s="30">
-        <v>7517936.1549000004</v>
+        <v>7517945.4238999998</v>
       </c>
       <c r="E106" s="30">
-        <v>4692689.9780000001</v>
-      </c>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
+        <v>4692693.1089000003</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
       <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
@@ -3625,16 +4504,16 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="19">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D107" s="30">
-        <v>7517930.4069999997</v>
+        <v>7517941.9455000004</v>
       </c>
       <c r="E107" s="30">
-        <v>4692671.8150000004</v>
-      </c>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
+        <v>4692689.4746000003</v>
+      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
       <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
@@ -3645,12 +4524,20 @@
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="13"/>
+      <c r="C108" s="19">
+        <v>119</v>
+      </c>
+      <c r="D108" s="30">
+        <v>7517936.9005000005</v>
+      </c>
+      <c r="E108" s="30">
+        <v>4692687.7706000004</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I108" s="11"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -3658,12 +4545,20 @@
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="65"/>
+      <c r="C109" s="19">
+        <v>120</v>
+      </c>
+      <c r="D109" s="30">
+        <v>7517936.1549000004</v>
+      </c>
+      <c r="E109" s="30">
+        <v>4692689.9780000001</v>
+      </c>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I109" s="11"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -3671,12 +4566,20 @@
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="13"/>
+      <c r="C110" s="19">
+        <v>14</v>
+      </c>
+      <c r="D110" s="30">
+        <v>7517930.4069999997</v>
+      </c>
+      <c r="E110" s="30">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I110" s="11"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -3801,28 +4704,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -3911,116 +4814,116 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="43" t="s">
+      <c r="E128" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="44"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="46" t="s">
+      <c r="F128" s="52"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="47"/>
-      <c r="J128" s="50"/>
-      <c r="K128" s="51"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="41"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="60">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47">
         <v>140</v>
       </c>
-      <c r="F129" s="61"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="53"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="43"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="42"/>
+      <c r="A132" s="50"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="50"/>
     </row>
     <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
+      <c r="A133" s="50"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="50"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
     </row>
     <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-      <c r="K136" s="41"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
     </row>
     <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-    </row>
-    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+    </row>
+    <row r="138" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="25"/>
@@ -4035,96 +4938,43 @@
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I139" s="25"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="56"/>
+      <c r="I139" s="57"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="19">
-        <v>2</v>
-      </c>
-      <c r="D140" s="30">
-        <v>7517924.0990000004</v>
-      </c>
-      <c r="E140" s="30">
-        <v>4692685.9060000004</v>
-      </c>
-      <c r="F140" s="19">
-        <v>618.84299999999996</v>
-      </c>
-      <c r="G140" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H140" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I140" s="25"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="60"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="19">
-        <v>5</v>
-      </c>
-      <c r="D141" s="30">
-        <v>7517928.4419999998</v>
-      </c>
-      <c r="E141" s="30">
-        <v>4692673.07</v>
-      </c>
-      <c r="F141" s="19">
-        <v>618.84299999999996</v>
-      </c>
-      <c r="G141" s="55"/>
-      <c r="H141" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" s="25"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="63"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="19">
-        <v>6</v>
-      </c>
-      <c r="D142" s="30">
-        <v>7517929.8169999998</v>
-      </c>
-      <c r="E142" s="30">
-        <v>4692673.5259999996</v>
-      </c>
-      <c r="F142" s="19">
-        <v>618.84299999999996</v>
-      </c>
-      <c r="G142" s="55"/>
-      <c r="H142" s="30" t="s">
-        <v>8</v>
-      </c>
       <c r="I142" s="25"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4132,21 +4982,23 @@
     <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="19">
+      <c r="C143" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="30">
-        <v>7517929.96</v>
-      </c>
-      <c r="E143" s="30">
-        <v>4692673.2819999997</v>
-      </c>
-      <c r="F143" s="19">
-        <v>618.84299999999996</v>
-      </c>
-      <c r="G143" s="55"/>
-      <c r="H143" s="30" t="s">
-        <v>8</v>
+      <c r="H143" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="I143" s="25"/>
       <c r="J143" s="1"/>
@@ -4156,18 +5008,20 @@
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144" s="30">
-        <v>7517930.2989999996</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="E144" s="30">
-        <v>4692672.9689999996</v>
+        <v>4692685.9060000004</v>
       </c>
       <c r="F144" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G144" s="55"/>
+      <c r="G144" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="H144" s="30" t="s">
         <v>8</v>
       </c>
@@ -4179,18 +5033,18 @@
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D145" s="30">
-        <v>7517930.7450000001</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="E145" s="30">
-        <v>4692672.7690000003</v>
+        <v>4692673.07</v>
       </c>
       <c r="F145" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G145" s="55"/>
+      <c r="G145" s="34"/>
       <c r="H145" s="30" t="s">
         <v>8</v>
       </c>
@@ -4202,18 +5056,18 @@
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D146" s="30">
-        <v>7517931.2220000001</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="E146" s="30">
-        <v>4692672.7319999998</v>
+        <v>4692673.5259999996</v>
       </c>
       <c r="F146" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G146" s="55"/>
+      <c r="G146" s="34"/>
       <c r="H146" s="30" t="s">
         <v>8</v>
       </c>
@@ -4225,18 +5079,18 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D147" s="30">
-        <v>7517931.6050000004</v>
+        <v>7517929.96</v>
       </c>
       <c r="E147" s="30">
-        <v>4692672.7970000003</v>
+        <v>4692673.2819999997</v>
       </c>
       <c r="F147" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G147" s="55"/>
+      <c r="G147" s="34"/>
       <c r="H147" s="30" t="s">
         <v>8</v>
       </c>
@@ -4248,18 +5102,18 @@
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="19">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D148" s="30">
-        <v>7517945.9960000003</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="E148" s="30">
-        <v>4692677.4869999997</v>
+        <v>4692672.9689999996</v>
       </c>
       <c r="F148" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G148" s="55"/>
+      <c r="G148" s="34"/>
       <c r="H148" s="30" t="s">
         <v>8</v>
       </c>
@@ -4271,18 +5125,18 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="19">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D149" s="30">
-        <v>7517945.9700999996</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="E149" s="30">
-        <v>4692677.5620999997</v>
+        <v>4692672.7690000003</v>
       </c>
       <c r="F149" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G149" s="55"/>
+      <c r="G149" s="34"/>
       <c r="H149" s="30" t="s">
         <v>8</v>
       </c>
@@ -4294,18 +5148,18 @@
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="19">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D150" s="30">
-        <v>7517950.0548999999</v>
+        <v>7517931.2220000001</v>
       </c>
       <c r="E150" s="30">
-        <v>4692678.9175000004</v>
+        <v>4692672.7319999998</v>
       </c>
       <c r="F150" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G150" s="55"/>
+      <c r="G150" s="34"/>
       <c r="H150" s="30" t="s">
         <v>8</v>
       </c>
@@ -4317,18 +5171,18 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="19">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D151" s="30">
-        <v>7517950.4249999998</v>
+        <v>7517931.6050000004</v>
       </c>
       <c r="E151" s="30">
-        <v>4692677.8820000002</v>
+        <v>4692672.7970000003</v>
       </c>
       <c r="F151" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G151" s="55"/>
+      <c r="G151" s="34"/>
       <c r="H151" s="30" t="s">
         <v>8</v>
       </c>
@@ -4340,18 +5194,18 @@
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="19">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D152" s="30">
-        <v>7517953.7850000001</v>
+        <v>7517945.9960000003</v>
       </c>
       <c r="E152" s="30">
-        <v>4692679.0829999996</v>
+        <v>4692677.4869999997</v>
       </c>
       <c r="F152" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G152" s="55"/>
+      <c r="G152" s="34"/>
       <c r="H152" s="30" t="s">
         <v>8</v>
       </c>
@@ -4363,18 +5217,18 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="19">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D153" s="30">
-        <v>7517951.3300000001</v>
+        <v>7517945.9700999996</v>
       </c>
       <c r="E153" s="30">
-        <v>4692686.5060000001</v>
+        <v>4692677.5620999997</v>
       </c>
       <c r="F153" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G153" s="55"/>
+      <c r="G153" s="34"/>
       <c r="H153" s="30" t="s">
         <v>8</v>
       </c>
@@ -4386,18 +5240,18 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="19">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D154" s="30">
-        <v>7517951.9790000003</v>
+        <v>7517950.0548999999</v>
       </c>
       <c r="E154" s="30">
-        <v>4692687.1399999997</v>
+        <v>4692678.9175000004</v>
       </c>
       <c r="F154" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G154" s="55"/>
+      <c r="G154" s="34"/>
       <c r="H154" s="30" t="s">
         <v>8</v>
       </c>
@@ -4409,18 +5263,18 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="19">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D155" s="30">
-        <v>7517952.0760000004</v>
+        <v>7517950.4249999998</v>
       </c>
       <c r="E155" s="30">
-        <v>4692688.1239999998</v>
+        <v>4692677.8820000002</v>
       </c>
       <c r="F155" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G155" s="55"/>
+      <c r="G155" s="34"/>
       <c r="H155" s="30" t="s">
         <v>8</v>
       </c>
@@ -4432,18 +5286,18 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="19">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D156" s="30">
-        <v>7517950.1849999996</v>
+        <v>7517953.7850000001</v>
       </c>
       <c r="E156" s="30">
-        <v>4692693.4919999996</v>
+        <v>4692679.0829999996</v>
       </c>
       <c r="F156" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G156" s="55"/>
+      <c r="G156" s="34"/>
       <c r="H156" s="30" t="s">
         <v>8</v>
       </c>
@@ -4455,18 +5309,18 @@
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="19">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D157" s="30">
-        <v>7517949.5559999999</v>
+        <v>7517951.3300000001</v>
       </c>
       <c r="E157" s="30">
-        <v>4692694.1169999996</v>
+        <v>4692686.5060000001</v>
       </c>
       <c r="F157" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G157" s="55"/>
+      <c r="G157" s="34"/>
       <c r="H157" s="30" t="s">
         <v>8</v>
       </c>
@@ -4478,18 +5332,18 @@
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="19">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D158" s="30">
-        <v>7517948.5300000003</v>
+        <v>7517951.9790000003</v>
       </c>
       <c r="E158" s="30">
-        <v>4692694.1579999998</v>
+        <v>4692687.1399999997</v>
       </c>
       <c r="F158" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G158" s="55"/>
+      <c r="G158" s="34"/>
       <c r="H158" s="30" t="s">
         <v>8</v>
       </c>
@@ -4501,18 +5355,18 @@
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="19">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D159" s="30">
-        <v>7517936.4840000002</v>
+        <v>7517952.0760000004</v>
       </c>
       <c r="E159" s="30">
-        <v>4692674.3847000003</v>
+        <v>4692688.1239999998</v>
       </c>
       <c r="F159" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G159" s="55"/>
+      <c r="G159" s="34"/>
       <c r="H159" s="30" t="s">
         <v>8</v>
       </c>
@@ -4524,18 +5378,18 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="19">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D160" s="30">
-        <v>7517936.5029999996</v>
+        <v>7517950.1849999996</v>
       </c>
       <c r="E160" s="30">
-        <v>4692674.3310000002</v>
+        <v>4692693.4919999996</v>
       </c>
       <c r="F160" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G160" s="55"/>
+      <c r="G160" s="34"/>
       <c r="H160" s="30" t="s">
         <v>8</v>
       </c>
@@ -4547,18 +5401,18 @@
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="19">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D161" s="30">
-        <v>7517941.3384999996</v>
+        <v>7517949.5559999999</v>
       </c>
       <c r="E161" s="30">
-        <v>4692675.6413000003</v>
+        <v>4692694.1169999996</v>
       </c>
       <c r="F161" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G161" s="55"/>
+      <c r="G161" s="34"/>
       <c r="H161" s="30" t="s">
         <v>8</v>
       </c>
@@ -4570,18 +5424,18 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="19">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D162" s="30">
-        <v>7517926.9230000004</v>
+        <v>7517948.5300000003</v>
       </c>
       <c r="E162" s="30">
-        <v>4692677.5713999998</v>
+        <v>4692694.1579999998</v>
       </c>
       <c r="F162" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G162" s="55"/>
+      <c r="G162" s="34"/>
       <c r="H162" s="30" t="s">
         <v>8</v>
       </c>
@@ -4593,18 +5447,18 @@
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="19">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D163" s="30">
-        <v>7517929.3389999997</v>
+        <v>7517936.4840000002</v>
       </c>
       <c r="E163" s="30">
-        <v>4692678.3875000002</v>
+        <v>4692674.3847000003</v>
       </c>
       <c r="F163" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G163" s="55"/>
+      <c r="G163" s="34"/>
       <c r="H163" s="30" t="s">
         <v>8</v>
       </c>
@@ -4616,18 +5470,18 @@
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="19">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D164" s="30">
-        <v>7517927.5005999999</v>
+        <v>7517936.5029999996</v>
       </c>
       <c r="E164" s="30">
-        <v>4692683.8356999997</v>
+        <v>4692674.3310000002</v>
       </c>
       <c r="F164" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G164" s="55"/>
+      <c r="G164" s="34"/>
       <c r="H164" s="30" t="s">
         <v>8</v>
       </c>
@@ -4639,18 +5493,18 @@
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="19">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D165" s="30">
-        <v>7517928.7559000002</v>
+        <v>7517941.3384999996</v>
       </c>
       <c r="E165" s="30">
-        <v>4692684.2597000003</v>
+        <v>4692675.6413000003</v>
       </c>
       <c r="F165" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G165" s="55"/>
+      <c r="G165" s="34"/>
       <c r="H165" s="30" t="s">
         <v>8</v>
       </c>
@@ -4662,18 +5516,18 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="19">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D166" s="30">
-        <v>7517927.7807999998</v>
+        <v>7517926.9230000004</v>
       </c>
       <c r="E166" s="30">
-        <v>4692687.1496000001</v>
+        <v>4692677.5713999998</v>
       </c>
       <c r="F166" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G166" s="55"/>
+      <c r="G166" s="34"/>
       <c r="H166" s="30" t="s">
         <v>8</v>
       </c>
@@ -4685,18 +5539,18 @@
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="19">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D167" s="30">
-        <v>7517941.0358999996</v>
+        <v>7517929.3389999997</v>
       </c>
       <c r="E167" s="30">
-        <v>4692691.6266999999</v>
+        <v>4692678.3875000002</v>
       </c>
       <c r="F167" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G167" s="55"/>
+      <c r="G167" s="34"/>
       <c r="H167" s="30" t="s">
         <v>8</v>
       </c>
@@ -4708,18 +5562,18 @@
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="19">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D168" s="30">
-        <v>7517941.8782000002</v>
+        <v>7517927.5005999999</v>
       </c>
       <c r="E168" s="30">
-        <v>4692689.2351000002</v>
+        <v>4692683.8356999997</v>
       </c>
       <c r="F168" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G168" s="55"/>
+      <c r="G168" s="34"/>
       <c r="H168" s="30" t="s">
         <v>8</v>
       </c>
@@ -4731,18 +5585,18 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="19">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D169" s="30">
-        <v>7517946.1831</v>
+        <v>7517928.7559000002</v>
       </c>
       <c r="E169" s="30">
-        <v>4692690.6902999999</v>
+        <v>4692684.2597000003</v>
       </c>
       <c r="F169" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G169" s="55"/>
+      <c r="G169" s="34"/>
       <c r="H169" s="30" t="s">
         <v>8</v>
       </c>
@@ -4754,18 +5608,18 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="19">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D170" s="30">
-        <v>7517945.3410999998</v>
+        <v>7517927.7807999998</v>
       </c>
       <c r="E170" s="30">
-        <v>4692693.0809000004</v>
+        <v>4692687.1496000001</v>
       </c>
       <c r="F170" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G170" s="55"/>
+      <c r="G170" s="34"/>
       <c r="H170" s="30" t="s">
         <v>8</v>
       </c>
@@ -4777,18 +5631,18 @@
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="19">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D171" s="30">
-        <v>7517947.9436999997</v>
+        <v>7517941.0358999996</v>
       </c>
       <c r="E171" s="30">
-        <v>4692685.3624999998</v>
+        <v>4692691.6266999999</v>
       </c>
       <c r="F171" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G171" s="55"/>
+      <c r="G171" s="34"/>
       <c r="H171" s="30" t="s">
         <v>8</v>
       </c>
@@ -4799,18 +5653,18 @@
     <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="C172" s="19">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D172" s="30">
-        <v>7517949.3491000002</v>
+        <v>7517941.8782000002</v>
       </c>
       <c r="E172" s="30">
-        <v>4692681.1283999998</v>
+        <v>4692689.2351000002</v>
       </c>
       <c r="F172" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G172" s="55"/>
+      <c r="G172" s="34"/>
       <c r="H172" s="30" t="s">
         <v>8</v>
       </c>
@@ -4821,18 +5675,18 @@
     <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="C173" s="19">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D173" s="30">
-        <v>7517952.7259999998</v>
+        <v>7517946.1831</v>
       </c>
       <c r="E173" s="30">
-        <v>4692682.3354000002</v>
+        <v>4692690.6902999999</v>
       </c>
       <c r="F173" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G173" s="55"/>
+      <c r="G173" s="34"/>
       <c r="H173" s="30" t="s">
         <v>8</v>
       </c>
@@ -4844,20 +5698,20 @@
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="19">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D174" s="30">
-        <v>7517952.4309</v>
+        <v>7517945.3410999998</v>
       </c>
       <c r="E174" s="30">
-        <v>4692678.5990000004</v>
+        <v>4692693.0809000004</v>
       </c>
       <c r="F174" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G174" s="56"/>
+      <c r="G174" s="34"/>
       <c r="H174" s="30" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="1"/>
@@ -4866,12 +5720,22 @@
     <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="13"/>
+      <c r="C175" s="19">
+        <v>144</v>
+      </c>
+      <c r="D175" s="30">
+        <v>7517947.9436999997</v>
+      </c>
+      <c r="E175" s="30">
+        <v>4692685.3624999998</v>
+      </c>
+      <c r="F175" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G175" s="34"/>
+      <c r="H175" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I175" s="25"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -4879,12 +5743,22 @@
     <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="13"/>
+      <c r="C176" s="19">
+        <v>145</v>
+      </c>
+      <c r="D176" s="30">
+        <v>7517949.3491000002</v>
+      </c>
+      <c r="E176" s="30">
+        <v>4692681.1283999998</v>
+      </c>
+      <c r="F176" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G176" s="34"/>
+      <c r="H176" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I176" s="25"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -4892,12 +5766,22 @@
     <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="13"/>
+      <c r="C177" s="19">
+        <v>146</v>
+      </c>
+      <c r="D177" s="30">
+        <v>7517952.7259999998</v>
+      </c>
+      <c r="E177" s="30">
+        <v>4692682.3354000002</v>
+      </c>
+      <c r="F177" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G177" s="34"/>
+      <c r="H177" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I177" s="25"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -4905,12 +5789,22 @@
     <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="13"/>
+      <c r="C178" s="19">
+        <v>101</v>
+      </c>
+      <c r="D178" s="30">
+        <v>7517952.4309</v>
+      </c>
+      <c r="E178" s="30">
+        <v>4692678.5990000004</v>
+      </c>
+      <c r="F178" s="19">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G178" s="35"/>
+      <c r="H178" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="I178" s="25"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -4957,26 +5851,28 @@
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="25"/>
+      <c r="C182" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="54"/>
+      <c r="E182" s="54"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="54"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="25"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="54"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="54"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
@@ -5015,7 +5911,7 @@
       <c r="F186" s="27"/>
       <c r="G186" s="27"/>
       <c r="H186" s="13"/>
-      <c r="I186" s="25"/>
+      <c r="I186" s="31"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
@@ -5028,7 +5924,7 @@
       <c r="F187" s="27"/>
       <c r="G187" s="27"/>
       <c r="H187" s="13"/>
-      <c r="I187" s="25"/>
+      <c r="I187" s="31"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
@@ -5041,72 +5937,1433 @@
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
       <c r="H188" s="13"/>
-      <c r="I188" s="25"/>
+      <c r="I188" s="31"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="31"/>
+      <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="43" t="s">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F190" s="44"/>
-      <c r="G190" s="45"/>
-      <c r="H190" s="46" t="s">
+      <c r="F192" s="52"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I190" s="47"/>
-      <c r="J190" s="50"/>
-      <c r="K190" s="51"/>
-    </row>
-    <row r="191" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="57" t="s">
+      <c r="I192" s="37"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="41"/>
+    </row>
+    <row r="193" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
-      <c r="D191" s="59"/>
-      <c r="E191" s="60">
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="47">
         <v>140</v>
       </c>
-      <c r="F191" s="61"/>
-      <c r="G191" s="62"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="49"/>
-      <c r="J191" s="52"/>
-      <c r="K191" s="53"/>
-    </row>
-    <row r="193" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K193" s="1"/>
-    </row>
-    <row r="194" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K195" s="1"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="39"/>
+      <c r="J193" s="42"/>
+      <c r="K193" s="43"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="50"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+    </row>
+    <row r="195" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="50"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
+      <c r="I195" s="50"/>
+      <c r="J195" s="50"/>
+      <c r="K195" s="50"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
+      <c r="J196" s="32"/>
+      <c r="K196" s="32"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="32"/>
+      <c r="K197" s="32"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
+      <c r="J198" s="32"/>
+      <c r="K198" s="32"/>
+    </row>
+    <row r="199" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
+      <c r="J199" s="32"/>
+      <c r="K199" s="32"/>
+    </row>
+    <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="C200" s="55"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="56"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="C201" s="58"/>
+      <c r="D201" s="59"/>
+      <c r="E201" s="59"/>
+      <c r="F201" s="59"/>
+      <c r="G201" s="59"/>
+      <c r="H201" s="59"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1"/>
+      <c r="C202" s="58"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="59"/>
+      <c r="I202" s="63"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H203" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I203" s="31"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="75">
+        <v>26</v>
+      </c>
+      <c r="D204" s="30">
+        <v>7517929.8310000002</v>
+      </c>
+      <c r="E204" s="30">
+        <v>4692673.5029999996</v>
+      </c>
+      <c r="F204" s="66">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="G204" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="31"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="75">
+        <v>27</v>
+      </c>
+      <c r="D205" s="30">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E205" s="30">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="31"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="75">
+        <v>28</v>
+      </c>
+      <c r="D206" s="30">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E206" s="30">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F206" s="66"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="31"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="75">
+        <v>29</v>
+      </c>
+      <c r="D207" s="30">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E207" s="30">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="31"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="75">
+        <v>30</v>
+      </c>
+      <c r="D208" s="30">
+        <v>7517936.4819999998</v>
+      </c>
+      <c r="E208" s="30">
+        <v>4692674.3839999996</v>
+      </c>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="31"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="75">
+        <v>52</v>
+      </c>
+      <c r="D209" s="30">
+        <v>7517945.9759999998</v>
+      </c>
+      <c r="E209" s="30">
+        <v>4692677.5640000002</v>
+      </c>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="31"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="75">
+        <v>53</v>
+      </c>
+      <c r="D210" s="30">
+        <v>7517950.3880000003</v>
+      </c>
+      <c r="E210" s="30">
+        <v>4692679.0279999999</v>
+      </c>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="31"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="75">
+        <v>54</v>
+      </c>
+      <c r="D211" s="30">
+        <v>7517949.9369999999</v>
+      </c>
+      <c r="E211" s="30">
+        <v>4692680.25</v>
+      </c>
+      <c r="F211" s="66"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="31"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="75">
+        <v>21</v>
+      </c>
+      <c r="D212" s="30">
+        <v>7517928.4314999999</v>
+      </c>
+      <c r="E212" s="30">
+        <v>4692673.0663999999</v>
+      </c>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="31"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="75">
+        <v>22</v>
+      </c>
+      <c r="D213" s="30">
+        <v>7517936.0539999995</v>
+      </c>
+      <c r="E213" s="30">
+        <v>4692675.5999999996</v>
+      </c>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="31"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="75">
+        <v>23</v>
+      </c>
+      <c r="D214" s="30">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="E214" s="30">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="F214" s="66"/>
+      <c r="G214" s="66"/>
+      <c r="H214" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="31"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="75">
+        <v>24</v>
+      </c>
+      <c r="D215" s="30">
+        <v>7517941</v>
+      </c>
+      <c r="E215" s="30">
+        <v>4692675.5310000004</v>
+      </c>
+      <c r="F215" s="66"/>
+      <c r="G215" s="66"/>
+      <c r="H215" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I215" s="31"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="75">
+        <v>25</v>
+      </c>
+      <c r="D216" s="30">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E216" s="30">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F216" s="66"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I216" s="31"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="75">
+        <v>44</v>
+      </c>
+      <c r="D217" s="30">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="E217" s="30">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="F217" s="66"/>
+      <c r="G217" s="66"/>
+      <c r="H217" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="31"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="75">
+        <v>45</v>
+      </c>
+      <c r="D218" s="30">
+        <v>7517945.5499999998</v>
+      </c>
+      <c r="E218" s="30">
+        <v>4692678.7819999997</v>
+      </c>
+      <c r="F218" s="66"/>
+      <c r="G218" s="66"/>
+      <c r="H218" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="31"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="75">
+        <v>46</v>
+      </c>
+      <c r="D219" s="30">
+        <v>7517953.0659999996</v>
+      </c>
+      <c r="E219" s="30">
+        <v>4692681.2970000003</v>
+      </c>
+      <c r="F219" s="66"/>
+      <c r="G219" s="66"/>
+      <c r="H219" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="31"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="75">
+        <v>47</v>
+      </c>
+      <c r="D220" s="30">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E220" s="30">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F220" s="66"/>
+      <c r="G220" s="66"/>
+      <c r="H220" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="31"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="75">
+        <v>48</v>
+      </c>
+      <c r="D221" s="30">
+        <v>7517951.9978</v>
+      </c>
+      <c r="E221" s="30">
+        <v>4692687.1791000003</v>
+      </c>
+      <c r="F221" s="66"/>
+      <c r="G221" s="66"/>
+      <c r="H221" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="31"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="75">
+        <v>49</v>
+      </c>
+      <c r="D222" s="30">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E222" s="30">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F222" s="66"/>
+      <c r="G222" s="66"/>
+      <c r="H222" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="31"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="75">
+        <v>50</v>
+      </c>
+      <c r="D223" s="30">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E223" s="30">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F223" s="66"/>
+      <c r="G223" s="66"/>
+      <c r="H223" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="31"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="75">
+        <v>51</v>
+      </c>
+      <c r="D224" s="30">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E224" s="30">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F224" s="66"/>
+      <c r="G224" s="66"/>
+      <c r="H224" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="31"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="75">
+        <v>106</v>
+      </c>
+      <c r="D225" s="30">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E225" s="30">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F225" s="66"/>
+      <c r="G225" s="66"/>
+      <c r="H225" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="31"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="75">
+        <v>148</v>
+      </c>
+      <c r="D226" s="30">
+        <v>7517925.0517999995</v>
+      </c>
+      <c r="E226" s="30">
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="F226" s="66"/>
+      <c r="G226" s="66"/>
+      <c r="H226" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="31"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="75">
+        <v>149</v>
+      </c>
+      <c r="D227" s="30">
+        <v>7517927.7045</v>
+      </c>
+      <c r="E227" s="30">
+        <v>4692683.9784000004</v>
+      </c>
+      <c r="F227" s="66"/>
+      <c r="G227" s="66"/>
+      <c r="H227" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="31"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="75">
+        <v>150</v>
+      </c>
+      <c r="D228" s="30">
+        <v>7517928.8554999996</v>
+      </c>
+      <c r="E228" s="30">
+        <v>4692680.5674000001</v>
+      </c>
+      <c r="F228" s="66"/>
+      <c r="G228" s="66"/>
+      <c r="H228" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="31"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="75">
+        <v>151</v>
+      </c>
+      <c r="D229" s="30">
+        <v>7517926.2028000001</v>
+      </c>
+      <c r="E229" s="30">
+        <v>4692679.6714000003</v>
+      </c>
+      <c r="F229" s="66"/>
+      <c r="G229" s="66"/>
+      <c r="H229" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="31"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="75">
+        <v>152</v>
+      </c>
+      <c r="D230" s="30">
+        <v>7517928.7461000001</v>
+      </c>
+      <c r="E230" s="30">
+        <v>4692687.4755999995</v>
+      </c>
+      <c r="F230" s="66"/>
+      <c r="G230" s="66"/>
+      <c r="H230" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="31"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="75">
+        <v>153</v>
+      </c>
+      <c r="D231" s="30">
+        <v>7517930.8498</v>
+      </c>
+      <c r="E231" s="30">
+        <v>4692681.2410000004</v>
+      </c>
+      <c r="F231" s="66"/>
+      <c r="G231" s="66"/>
+      <c r="H231" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="31"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="75">
+        <v>154</v>
+      </c>
+      <c r="D232" s="30">
+        <v>7517933.8152000001</v>
+      </c>
+      <c r="E232" s="30">
+        <v>4692682.2426000005</v>
+      </c>
+      <c r="F232" s="66"/>
+      <c r="G232" s="66"/>
+      <c r="H232" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="31"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="75">
+        <v>155</v>
+      </c>
+      <c r="D233" s="30">
+        <v>7517931.7115000002</v>
+      </c>
+      <c r="E233" s="30">
+        <v>4692688.4773000004</v>
+      </c>
+      <c r="F233" s="66"/>
+      <c r="G233" s="66"/>
+      <c r="H233" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="31"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="75">
+        <v>156</v>
+      </c>
+      <c r="D234" s="30">
+        <v>7517936.1928000003</v>
+      </c>
+      <c r="E234" s="30">
+        <v>4692689.9908999996</v>
+      </c>
+      <c r="F234" s="66"/>
+      <c r="G234" s="66"/>
+      <c r="H234" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="31"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="75">
+        <v>157</v>
+      </c>
+      <c r="D235" s="30">
+        <v>7517938.2965000002</v>
+      </c>
+      <c r="E235" s="30">
+        <v>4692683.7561999997</v>
+      </c>
+      <c r="F235" s="66"/>
+      <c r="G235" s="66"/>
+      <c r="H235" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="31"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="75">
+        <v>158</v>
+      </c>
+      <c r="D236" s="30">
+        <v>7517943.0431000004</v>
+      </c>
+      <c r="E236" s="30">
+        <v>4692685.3595000003</v>
+      </c>
+      <c r="F236" s="66"/>
+      <c r="G236" s="66"/>
+      <c r="H236" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="31"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="75">
+        <v>159</v>
+      </c>
+      <c r="D237" s="30">
+        <v>7517940.9392999997</v>
+      </c>
+      <c r="E237" s="30">
+        <v>4692691.5941000003</v>
+      </c>
+      <c r="F237" s="66"/>
+      <c r="G237" s="66"/>
+      <c r="H237" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="31"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="75">
+        <v>160</v>
+      </c>
+      <c r="D238" s="30">
+        <v>7517945.3353000004</v>
+      </c>
+      <c r="E238" s="30">
+        <v>4692693.0789000001</v>
+      </c>
+      <c r="F238" s="66"/>
+      <c r="G238" s="66"/>
+      <c r="H238" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="31"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="75">
+        <v>161</v>
+      </c>
+      <c r="D239" s="30">
+        <v>7517947.4391000001</v>
+      </c>
+      <c r="E239" s="30">
+        <v>4692686.8443</v>
+      </c>
+      <c r="F239" s="66"/>
+      <c r="G239" s="66"/>
+      <c r="H239" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="31"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="75">
+        <v>162</v>
+      </c>
+      <c r="D240" s="30">
+        <v>7517949.1664000005</v>
+      </c>
+      <c r="E240" s="30">
+        <v>4692689.7762000002</v>
+      </c>
+      <c r="F240" s="66"/>
+      <c r="G240" s="66"/>
+      <c r="H240" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I240" s="31"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="75">
+        <v>163</v>
+      </c>
+      <c r="D241" s="30">
+        <v>7517949.8777999999</v>
+      </c>
+      <c r="E241" s="30">
+        <v>4692687.6679999996</v>
+      </c>
+      <c r="F241" s="66"/>
+      <c r="G241" s="66"/>
+      <c r="H241" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I241" s="31"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="75">
+        <v>164</v>
+      </c>
+      <c r="D242" s="30">
+        <v>7517951.2465000004</v>
+      </c>
+      <c r="E242" s="30">
+        <v>4692690.4787999997</v>
+      </c>
+      <c r="F242" s="66"/>
+      <c r="G242" s="66"/>
+      <c r="H242" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="31"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="75">
+        <v>165</v>
+      </c>
+      <c r="D243" s="30">
+        <v>7517951.9857999999</v>
+      </c>
+      <c r="E243" s="30">
+        <v>4692688.38</v>
+      </c>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
+      <c r="H243" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="31"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="75">
+        <v>166</v>
+      </c>
+      <c r="D244" s="30">
+        <v>7517948.4309</v>
+      </c>
+      <c r="E244" s="30">
+        <v>4692685.5033</v>
+      </c>
+      <c r="F244" s="66"/>
+      <c r="G244" s="66"/>
+      <c r="H244" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="31"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="75">
+        <v>167</v>
+      </c>
+      <c r="D245" s="30">
+        <v>7517951.3397000004</v>
+      </c>
+      <c r="E245" s="30">
+        <v>4692686.4769000001</v>
+      </c>
+      <c r="F245" s="66"/>
+      <c r="G245" s="66"/>
+      <c r="H245" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="31"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="75">
+        <v>168</v>
+      </c>
+      <c r="D246" s="30">
+        <v>7517950.1739999996</v>
+      </c>
+      <c r="E246" s="30">
+        <v>4692680.3293000003</v>
+      </c>
+      <c r="F246" s="66"/>
+      <c r="G246" s="66"/>
+      <c r="H246" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="31"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="75">
+        <v>169</v>
+      </c>
+      <c r="D247" s="30">
+        <v>7517948.2850000001</v>
+      </c>
+      <c r="E247" s="30">
+        <v>4692685.9365999997</v>
+      </c>
+      <c r="F247" s="66"/>
+      <c r="G247" s="66"/>
+      <c r="H247" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="31"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="75">
+        <v>170</v>
+      </c>
+      <c r="D248" s="30">
+        <v>7517943.4051000001</v>
+      </c>
+      <c r="E248" s="30">
+        <v>4692684.2878</v>
+      </c>
+      <c r="F248" s="66"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="31"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="75">
+        <v>171</v>
+      </c>
+      <c r="D249" s="30">
+        <v>7517945.7363</v>
+      </c>
+      <c r="E249" s="30">
+        <v>4692677.3678000001</v>
+      </c>
+      <c r="F249" s="66"/>
+      <c r="G249" s="66"/>
+      <c r="H249" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="31"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="75">
+        <v>172</v>
+      </c>
+      <c r="D250" s="30">
+        <v>7517941.0617000004</v>
+      </c>
+      <c r="E250" s="30">
+        <v>4692675.551</v>
+      </c>
+      <c r="F250" s="66"/>
+      <c r="G250" s="66"/>
+      <c r="H250" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="31"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="75">
+        <v>173</v>
+      </c>
+      <c r="D251" s="30">
+        <v>7517938.6586999996</v>
+      </c>
+      <c r="E251" s="30">
+        <v>4692682.6838999996</v>
+      </c>
+      <c r="F251" s="66"/>
+      <c r="G251" s="66"/>
+      <c r="H251" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="31"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="75">
+        <v>174</v>
+      </c>
+      <c r="D252" s="30">
+        <v>7517934.1776000001</v>
+      </c>
+      <c r="E252" s="30">
+        <v>4692681.1698000003</v>
+      </c>
+      <c r="F252" s="66"/>
+      <c r="G252" s="66"/>
+      <c r="H252" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="31"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C253" s="75">
+        <v>175</v>
+      </c>
+      <c r="D253" s="30">
+        <v>7517929.3355999999</v>
+      </c>
+      <c r="E253" s="30">
+        <v>4692679.5367999999</v>
+      </c>
+      <c r="F253" s="66"/>
+      <c r="G253" s="66"/>
+      <c r="H253" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C254" s="75">
+        <v>176</v>
+      </c>
+      <c r="D254" s="30">
+        <v>7517926.5643999996</v>
+      </c>
+      <c r="E254" s="30">
+        <v>4692678.6008000001</v>
+      </c>
+      <c r="F254" s="66"/>
+      <c r="G254" s="66"/>
+      <c r="H254" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="75">
+        <v>177</v>
+      </c>
+      <c r="D255" s="30">
+        <v>7517931.2073999997</v>
+      </c>
+      <c r="E255" s="30">
+        <v>4692673.9884000001</v>
+      </c>
+      <c r="F255" s="66"/>
+      <c r="G255" s="66"/>
+      <c r="H255" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="31"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="77">
+        <v>101</v>
+      </c>
+      <c r="D256" s="78">
+        <v>7517929.1179</v>
+      </c>
+      <c r="E256" s="78">
+        <v>4692673.2940999996</v>
+      </c>
+      <c r="F256" s="79"/>
+      <c r="G256" s="79"/>
+      <c r="H256" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" s="31"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="3"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="69"/>
+      <c r="G257" s="70"/>
+      <c r="H257" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I257" s="37"/>
+      <c r="J257" s="40"/>
+      <c r="K257" s="41"/>
+    </row>
+    <row r="258" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="45"/>
+      <c r="C258" s="45"/>
+      <c r="D258" s="46"/>
+      <c r="E258" s="47">
+        <v>140</v>
+      </c>
+      <c r="F258" s="48"/>
+      <c r="G258" s="49"/>
+      <c r="H258" s="38"/>
+      <c r="I258" s="39"/>
+      <c r="J258" s="42"/>
+      <c r="K258" s="43"/>
+    </row>
+    <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="27"/>
+      <c r="G259" s="27"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="25"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="65"/>
+      <c r="C260" s="65"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="25"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="65"/>
+      <c r="C261" s="65"/>
+      <c r="D261" s="65"/>
+      <c r="E261" s="65"/>
+      <c r="F261" s="65"/>
+      <c r="G261" s="65"/>
+      <c r="H261" s="65"/>
+      <c r="I261" s="25"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K262" s="1"/>
+    </row>
+    <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K268" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A134:K137"/>
-    <mergeCell ref="G140:G174"/>
-    <mergeCell ref="H128:I129"/>
-    <mergeCell ref="J128:K129"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="H190:I191"/>
-    <mergeCell ref="E190:G190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="J190:K191"/>
+  <mergeCells count="41">
+    <mergeCell ref="A194:K195"/>
+    <mergeCell ref="A196:K199"/>
+    <mergeCell ref="C200:I202"/>
+    <mergeCell ref="G204:G256"/>
+    <mergeCell ref="F204:F256"/>
+    <mergeCell ref="C182:I183"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:I193"/>
+    <mergeCell ref="J192:K193"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="E193:G193"/>
     <mergeCell ref="C120:I121"/>
     <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
@@ -5115,14 +7372,28 @@
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="H64:I65"/>
     <mergeCell ref="J64:K65"/>
-    <mergeCell ref="F74:F107"/>
-    <mergeCell ref="G74:G107"/>
+    <mergeCell ref="F77:F110"/>
+    <mergeCell ref="G77:G110"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="A66:K67"/>
     <mergeCell ref="A68:K71"/>
     <mergeCell ref="G36:G54"/>
+    <mergeCell ref="C72:I74"/>
+    <mergeCell ref="H257:I258"/>
+    <mergeCell ref="E257:G257"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="J257:K258"/>
+    <mergeCell ref="A134:K137"/>
+    <mergeCell ref="G144:G178"/>
+    <mergeCell ref="H128:I129"/>
+    <mergeCell ref="J128:K129"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A132:K133"/>
     <mergeCell ref="E128:G128"/>
+    <mergeCell ref="C139:I141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$263</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$317</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="29">
   <si>
     <t>Nr</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>KATI2</t>
+  </si>
+  <si>
+    <t>KATI3-TERASA</t>
+  </si>
+  <si>
+    <t>KATI3</t>
+  </si>
+  <si>
+    <t>H1</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -719,17 +728,84 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,58 +849,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,35 +879,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2159,6 +2186,325 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4506239" y="48716683"/>
+          <a:ext cx="859056" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231212" y="50522852"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839686</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4894615" y="50552841"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1218964" y="50843981"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 01997-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842998</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>105246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897927" y="50859889"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2459,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:U317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A234" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203:H256"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A264" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D274" sqref="C270:H307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,111 +2824,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3199,7 +3545,7 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="78" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="30" t="s">
@@ -3223,7 +3569,7 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="64"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="30" t="s">
         <v>8</v>
       </c>
@@ -3245,7 +3591,7 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="64"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="30" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +3613,7 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="64"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="30" t="s">
         <v>8</v>
       </c>
@@ -3289,7 +3635,7 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="64"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="30" t="s">
         <v>8</v>
       </c>
@@ -3311,7 +3657,7 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="64"/>
+      <c r="G41" s="78"/>
       <c r="H41" s="30" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3679,7 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="64"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
@@ -3355,7 +3701,7 @@
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="64"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
@@ -3377,7 +3723,7 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="64"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="30" t="s">
         <v>8</v>
       </c>
@@ -3400,7 +3746,7 @@
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="64"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="30" t="s">
         <v>8</v>
       </c>
@@ -3423,7 +3769,7 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="64"/>
+      <c r="G46" s="78"/>
       <c r="H46" s="30" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3790,7 @@
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="64"/>
+      <c r="G47" s="78"/>
       <c r="H47" s="30" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3809,7 @@
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="64"/>
+      <c r="G48" s="78"/>
       <c r="H48" s="30" t="s">
         <v>8</v>
       </c>
@@ -3484,7 +3830,7 @@
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="64"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="30" t="s">
         <v>8</v>
       </c>
@@ -3507,7 +3853,7 @@
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="64"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="30" t="s">
         <v>8</v>
       </c>
@@ -3530,7 +3876,7 @@
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="64"/>
+      <c r="G51" s="78"/>
       <c r="H51" s="30" t="s">
         <v>8</v>
       </c>
@@ -3552,7 +3898,7 @@
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="64"/>
+      <c r="G52" s="78"/>
       <c r="H52" s="30" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3920,7 @@
       <c r="F53" s="8">
         <v>616.38300000000004</v>
       </c>
-      <c r="G53" s="64"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="9" t="s">
         <v>20</v>
       </c>
@@ -3597,7 +3943,7 @@
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="64"/>
+      <c r="G54" s="78"/>
       <c r="H54" s="9" t="s">
         <v>20</v>
       </c>
@@ -3659,27 +4005,27 @@
     </row>
     <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3689,148 +4035,148 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="36" t="s">
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="37"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47">
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70">
         <v>140</v>
       </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="43"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="66"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="71" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="57"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="48"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="60"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="63"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="52"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
@@ -3878,10 +4224,10 @@
       <c r="E77" s="30">
         <v>4692679.7653000001</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="75">
         <v>616.38300000000004</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="75" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="30" t="s">
@@ -3903,8 +4249,8 @@
       <c r="E78" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
       <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4270,8 @@
       <c r="E79" s="30">
         <v>4692673.07</v>
       </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
       <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
@@ -3945,8 +4291,8 @@
       <c r="E80" s="30">
         <v>4692673.5259999996</v>
       </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
@@ -3966,8 +4312,8 @@
       <c r="E81" s="30">
         <v>4692673.2819999997</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
@@ -3987,8 +4333,8 @@
       <c r="E82" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
@@ -4008,8 +4354,8 @@
       <c r="E83" s="30">
         <v>4692672.7690000003</v>
       </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
       <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
@@ -4029,8 +4375,8 @@
       <c r="E84" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
       <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
@@ -4050,8 +4396,8 @@
       <c r="E85" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
       <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
@@ -4071,8 +4417,8 @@
       <c r="E86" s="30">
         <v>4692687.3470000001</v>
       </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
       <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
@@ -4092,8 +4438,8 @@
       <c r="E87" s="30">
         <v>4692681.023</v>
       </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
@@ -4113,8 +4459,8 @@
       <c r="E88" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
@@ -4134,8 +4480,8 @@
       <c r="E89" s="30">
         <v>4692687.1399999997</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
       <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
@@ -4155,8 +4501,8 @@
       <c r="E90" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
@@ -4176,8 +4522,8 @@
       <c r="E91" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
       <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
@@ -4197,8 +4543,8 @@
       <c r="E92" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
       <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
@@ -4218,8 +4564,8 @@
       <c r="E93" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
       <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
@@ -4239,8 +4585,8 @@
       <c r="E94" s="30">
         <v>4692687.1445000004</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
       <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
@@ -4260,8 +4606,8 @@
       <c r="E95" s="30">
         <v>4692684.3208999997</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
       <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
@@ -4281,8 +4627,8 @@
       <c r="E96" s="30">
         <v>4692683.9785000002</v>
       </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
@@ -4302,8 +4648,8 @@
       <c r="E97" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
       <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
@@ -4323,8 +4669,8 @@
       <c r="E98" s="30">
         <v>4692678.2884999998</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
       <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
@@ -4344,8 +4690,8 @@
       <c r="E99" s="30">
         <v>4692678.7551999995</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
       <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
@@ -4365,8 +4711,8 @@
       <c r="E100" s="30">
         <v>4692679.1836999999</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
       <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
@@ -4386,8 +4732,8 @@
       <c r="E101" s="30">
         <v>4692679.26</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
       <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
@@ -4407,8 +4753,8 @@
       <c r="E102" s="30">
         <v>4692680.1398</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
@@ -4428,8 +4774,8 @@
       <c r="E103" s="30">
         <v>4692685.5575999999</v>
       </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
       <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
@@ -4449,8 +4795,8 @@
       <c r="E104" s="30">
         <v>4692686.4374000002</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
@@ -4470,8 +4816,8 @@
       <c r="E105" s="30">
         <v>4692690.9013999999</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
       <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
@@ -4491,8 +4837,8 @@
       <c r="E106" s="30">
         <v>4692693.1089000003</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
       <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
@@ -4512,8 +4858,8 @@
       <c r="E107" s="30">
         <v>4692689.4746000003</v>
       </c>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
       <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
@@ -4533,8 +4879,8 @@
       <c r="E108" s="30">
         <v>4692687.7706000004</v>
       </c>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
       <c r="H108" s="30" t="s">
         <v>8</v>
       </c>
@@ -4554,8 +4900,8 @@
       <c r="E109" s="30">
         <v>4692689.9780000001</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
       <c r="H109" s="30" t="s">
         <v>8</v>
       </c>
@@ -4575,8 +4921,8 @@
       <c r="E110" s="30">
         <v>4692671.8150000004</v>
       </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="30" t="s">
         <v>8</v>
       </c>
@@ -4704,28 +5050,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="54" t="s">
+      <c r="C120" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -4814,114 +5160,114 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="51" t="s">
+      <c r="E128" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="52"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="36" t="s">
+      <c r="F128" s="57"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="37"/>
-      <c r="J128" s="40"/>
-      <c r="K128" s="41"/>
+      <c r="I128" s="60"/>
+      <c r="J128" s="63"/>
+      <c r="K128" s="64"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="44" t="s">
+      <c r="A129" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="47">
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="70">
         <v>140</v>
       </c>
-      <c r="F129" s="48"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="43"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="66"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="50"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="44"/>
+      <c r="K132" s="44"/>
     </row>
     <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="50"/>
-      <c r="K133" s="50"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44"/>
+      <c r="K133" s="44"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="45"/>
+      <c r="K134" s="45"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="45"/>
+      <c r="K135" s="45"/>
     </row>
     <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="32"/>
-      <c r="K136" s="32"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="45"/>
     </row>
     <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
     </row>
     <row r="138" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -4938,37 +5284,37 @@
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="C139" s="55"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="57"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="48"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59"/>
-      <c r="H140" s="59"/>
-      <c r="I140" s="60"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="51"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
-      <c r="C141" s="61"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="63"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="74"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="52"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
@@ -5019,7 +5365,7 @@
       <c r="F144" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="75" t="s">
         <v>24</v>
       </c>
       <c r="H144" s="30" t="s">
@@ -5044,7 +5390,7 @@
       <c r="F145" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G145" s="34"/>
+      <c r="G145" s="76"/>
       <c r="H145" s="30" t="s">
         <v>8</v>
       </c>
@@ -5067,7 +5413,7 @@
       <c r="F146" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G146" s="34"/>
+      <c r="G146" s="76"/>
       <c r="H146" s="30" t="s">
         <v>8</v>
       </c>
@@ -5090,7 +5436,7 @@
       <c r="F147" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G147" s="34"/>
+      <c r="G147" s="76"/>
       <c r="H147" s="30" t="s">
         <v>8</v>
       </c>
@@ -5113,7 +5459,7 @@
       <c r="F148" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G148" s="34"/>
+      <c r="G148" s="76"/>
       <c r="H148" s="30" t="s">
         <v>8</v>
       </c>
@@ -5136,7 +5482,7 @@
       <c r="F149" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G149" s="34"/>
+      <c r="G149" s="76"/>
       <c r="H149" s="30" t="s">
         <v>8</v>
       </c>
@@ -5159,7 +5505,7 @@
       <c r="F150" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G150" s="34"/>
+      <c r="G150" s="76"/>
       <c r="H150" s="30" t="s">
         <v>8</v>
       </c>
@@ -5182,7 +5528,7 @@
       <c r="F151" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G151" s="34"/>
+      <c r="G151" s="76"/>
       <c r="H151" s="30" t="s">
         <v>8</v>
       </c>
@@ -5205,7 +5551,7 @@
       <c r="F152" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G152" s="34"/>
+      <c r="G152" s="76"/>
       <c r="H152" s="30" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5574,7 @@
       <c r="F153" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G153" s="34"/>
+      <c r="G153" s="76"/>
       <c r="H153" s="30" t="s">
         <v>8</v>
       </c>
@@ -5251,7 +5597,7 @@
       <c r="F154" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G154" s="34"/>
+      <c r="G154" s="76"/>
       <c r="H154" s="30" t="s">
         <v>8</v>
       </c>
@@ -5274,7 +5620,7 @@
       <c r="F155" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G155" s="34"/>
+      <c r="G155" s="76"/>
       <c r="H155" s="30" t="s">
         <v>8</v>
       </c>
@@ -5297,7 +5643,7 @@
       <c r="F156" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G156" s="34"/>
+      <c r="G156" s="76"/>
       <c r="H156" s="30" t="s">
         <v>8</v>
       </c>
@@ -5320,7 +5666,7 @@
       <c r="F157" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G157" s="34"/>
+      <c r="G157" s="76"/>
       <c r="H157" s="30" t="s">
         <v>8</v>
       </c>
@@ -5343,7 +5689,7 @@
       <c r="F158" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G158" s="34"/>
+      <c r="G158" s="76"/>
       <c r="H158" s="30" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +5712,7 @@
       <c r="F159" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G159" s="34"/>
+      <c r="G159" s="76"/>
       <c r="H159" s="30" t="s">
         <v>8</v>
       </c>
@@ -5389,7 +5735,7 @@
       <c r="F160" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G160" s="34"/>
+      <c r="G160" s="76"/>
       <c r="H160" s="30" t="s">
         <v>8</v>
       </c>
@@ -5412,7 +5758,7 @@
       <c r="F161" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G161" s="34"/>
+      <c r="G161" s="76"/>
       <c r="H161" s="30" t="s">
         <v>8</v>
       </c>
@@ -5435,7 +5781,7 @@
       <c r="F162" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G162" s="34"/>
+      <c r="G162" s="76"/>
       <c r="H162" s="30" t="s">
         <v>8</v>
       </c>
@@ -5458,7 +5804,7 @@
       <c r="F163" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G163" s="34"/>
+      <c r="G163" s="76"/>
       <c r="H163" s="30" t="s">
         <v>8</v>
       </c>
@@ -5481,7 +5827,7 @@
       <c r="F164" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G164" s="34"/>
+      <c r="G164" s="76"/>
       <c r="H164" s="30" t="s">
         <v>8</v>
       </c>
@@ -5504,7 +5850,7 @@
       <c r="F165" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G165" s="34"/>
+      <c r="G165" s="76"/>
       <c r="H165" s="30" t="s">
         <v>8</v>
       </c>
@@ -5527,7 +5873,7 @@
       <c r="F166" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G166" s="34"/>
+      <c r="G166" s="76"/>
       <c r="H166" s="30" t="s">
         <v>8</v>
       </c>
@@ -5550,7 +5896,7 @@
       <c r="F167" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G167" s="34"/>
+      <c r="G167" s="76"/>
       <c r="H167" s="30" t="s">
         <v>8</v>
       </c>
@@ -5573,7 +5919,7 @@
       <c r="F168" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G168" s="34"/>
+      <c r="G168" s="76"/>
       <c r="H168" s="30" t="s">
         <v>8</v>
       </c>
@@ -5596,7 +5942,7 @@
       <c r="F169" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G169" s="34"/>
+      <c r="G169" s="76"/>
       <c r="H169" s="30" t="s">
         <v>8</v>
       </c>
@@ -5619,7 +5965,7 @@
       <c r="F170" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G170" s="34"/>
+      <c r="G170" s="76"/>
       <c r="H170" s="30" t="s">
         <v>8</v>
       </c>
@@ -5642,7 +5988,7 @@
       <c r="F171" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G171" s="34"/>
+      <c r="G171" s="76"/>
       <c r="H171" s="30" t="s">
         <v>8</v>
       </c>
@@ -5664,7 +6010,7 @@
       <c r="F172" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G172" s="34"/>
+      <c r="G172" s="76"/>
       <c r="H172" s="30" t="s">
         <v>8</v>
       </c>
@@ -5686,7 +6032,7 @@
       <c r="F173" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G173" s="34"/>
+      <c r="G173" s="76"/>
       <c r="H173" s="30" t="s">
         <v>8</v>
       </c>
@@ -5709,7 +6055,7 @@
       <c r="F174" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G174" s="34"/>
+      <c r="G174" s="76"/>
       <c r="H174" s="30" t="s">
         <v>8</v>
       </c>
@@ -5732,7 +6078,7 @@
       <c r="F175" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G175" s="34"/>
+      <c r="G175" s="76"/>
       <c r="H175" s="30" t="s">
         <v>8</v>
       </c>
@@ -5755,7 +6101,7 @@
       <c r="F176" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G176" s="34"/>
+      <c r="G176" s="76"/>
       <c r="H176" s="30" t="s">
         <v>8</v>
       </c>
@@ -5778,7 +6124,7 @@
       <c r="F177" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G177" s="34"/>
+      <c r="G177" s="76"/>
       <c r="H177" s="30" t="s">
         <v>8</v>
       </c>
@@ -5801,7 +6147,7 @@
       <c r="F178" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G178" s="35"/>
+      <c r="G178" s="77"/>
       <c r="H178" s="30" t="s">
         <v>20</v>
       </c>
@@ -5851,28 +6197,28 @@
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="54"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
@@ -5987,180 +6333,180 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="51" t="s">
+      <c r="E192" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F192" s="52"/>
-      <c r="G192" s="53"/>
-      <c r="H192" s="36" t="s">
+      <c r="F192" s="57"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I192" s="37"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="41"/>
-    </row>
-    <row r="193" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="44" t="s">
+      <c r="I192" s="60"/>
+      <c r="J192" s="63"/>
+      <c r="K192" s="64"/>
+    </row>
+    <row r="193" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="45"/>
-      <c r="C193" s="45"/>
-      <c r="D193" s="46"/>
-      <c r="E193" s="47">
+      <c r="B193" s="68"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="69"/>
+      <c r="E193" s="70">
         <v>140</v>
       </c>
-      <c r="F193" s="48"/>
-      <c r="G193" s="49"/>
-      <c r="H193" s="38"/>
-      <c r="I193" s="39"/>
-      <c r="J193" s="42"/>
-      <c r="K193" s="43"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="50"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
-      <c r="I194" s="50"/>
-      <c r="J194" s="50"/>
-      <c r="K194" s="50"/>
-    </row>
-    <row r="195" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="50"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="50"/>
-      <c r="H195" s="50"/>
-      <c r="I195" s="50"/>
-      <c r="J195" s="50"/>
-      <c r="K195" s="50"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
+      <c r="F193" s="71"/>
+      <c r="G193" s="72"/>
+      <c r="H193" s="61"/>
+      <c r="I193" s="62"/>
+      <c r="J193" s="65"/>
+      <c r="K193" s="66"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="44"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="44"/>
+      <c r="I194" s="44"/>
+      <c r="J194" s="44"/>
+      <c r="K194" s="44"/>
+    </row>
+    <row r="195" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="44"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="44"/>
+      <c r="I195" s="44"/>
+      <c r="J195" s="44"/>
+      <c r="K195" s="44"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
-      <c r="J196" s="32"/>
-      <c r="K196" s="32"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
-      <c r="J197" s="32"/>
-      <c r="K197" s="32"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="32"/>
-      <c r="J198" s="32"/>
-      <c r="K198" s="32"/>
-    </row>
-    <row r="199" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="32"/>
-      <c r="I199" s="32"/>
-      <c r="J199" s="32"/>
-      <c r="K199" s="32"/>
-    </row>
-    <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="45"/>
+      <c r="I196" s="45"/>
+      <c r="J196" s="45"/>
+      <c r="K196" s="45"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="45"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="45"/>
+      <c r="J198" s="45"/>
+      <c r="K198" s="45"/>
+    </row>
+    <row r="199" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="45"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="45"/>
+      <c r="H199" s="45"/>
+      <c r="I199" s="45"/>
+      <c r="J199" s="45"/>
+      <c r="K199" s="45"/>
+    </row>
+    <row r="200" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="C200" s="55"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="57"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="47"/>
+      <c r="E200" s="47"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="47"/>
+      <c r="H200" s="47"/>
+      <c r="I200" s="48"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="60"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="51"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
-      <c r="C202" s="58"/>
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="63"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="52"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="72" t="s">
+      <c r="C203" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D203" s="73" t="s">
+      <c r="D203" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E203" s="73" t="s">
+      <c r="E203" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F203" s="73" t="s">
+      <c r="F203" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G203" s="73" t="s">
+      <c r="G203" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H203" s="74" t="s">
+      <c r="H203" s="38" t="s">
         <v>3</v>
       </c>
       <c r="I203" s="31"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="75">
+      <c r="C204" s="39">
         <v>26</v>
       </c>
       <c r="D204" s="30">
@@ -6169,23 +6515,38 @@
       <c r="E204" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F204" s="66">
+      <c r="F204" s="53">
         <v>622.86300000000006</v>
       </c>
-      <c r="G204" s="66" t="s">
+      <c r="G204" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H204" s="76" t="s">
+      <c r="H204" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I204" s="31"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q204">
+        <v>26</v>
+      </c>
+      <c r="R204">
+        <v>7517929.8310000002</v>
+      </c>
+      <c r="S204">
+        <v>4692673.5029999996</v>
+      </c>
+      <c r="T204">
+        <v>625.72</v>
+      </c>
+      <c r="U204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
-      <c r="C205" s="75">
+      <c r="C205" s="39">
         <v>27</v>
       </c>
       <c r="D205" s="30">
@@ -6194,19 +6555,34 @@
       <c r="E205" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="76" t="s">
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I205" s="31"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q205">
+        <v>27</v>
+      </c>
+      <c r="R205">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="S205">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="T205">
+        <v>625.72</v>
+      </c>
+      <c r="U205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="75">
+      <c r="C206" s="39">
         <v>28</v>
       </c>
       <c r="D206" s="30">
@@ -6215,19 +6591,34 @@
       <c r="E206" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F206" s="66"/>
-      <c r="G206" s="66"/>
-      <c r="H206" s="76" t="s">
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I206" s="31"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q206">
+        <v>28</v>
+      </c>
+      <c r="R206">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="S206">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="T206">
+        <v>625.72</v>
+      </c>
+      <c r="U206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="75">
+      <c r="C207" s="39">
         <v>29</v>
       </c>
       <c r="D207" s="30">
@@ -6236,19 +6627,34 @@
       <c r="E207" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="76" t="s">
+      <c r="F207" s="53"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I207" s="31"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q207">
+        <v>29</v>
+      </c>
+      <c r="R207">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="S207">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="T207">
+        <v>625.72</v>
+      </c>
+      <c r="U207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="75">
+      <c r="C208" s="39">
         <v>30</v>
       </c>
       <c r="D208" s="30">
@@ -6257,19 +6663,34 @@
       <c r="E208" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="76" t="s">
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I208" s="31"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q208">
+        <v>30</v>
+      </c>
+      <c r="R208">
+        <v>7517936.4819999998</v>
+      </c>
+      <c r="S208">
+        <v>4692674.3839999996</v>
+      </c>
+      <c r="T208">
+        <v>625.72</v>
+      </c>
+      <c r="U208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="75">
+      <c r="C209" s="39">
         <v>52</v>
       </c>
       <c r="D209" s="30">
@@ -6278,19 +6699,34 @@
       <c r="E209" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="76" t="s">
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I209" s="31"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q209">
+        <v>52</v>
+      </c>
+      <c r="R209">
+        <v>7517945.9759999998</v>
+      </c>
+      <c r="S209">
+        <v>4692677.5640000002</v>
+      </c>
+      <c r="T209">
+        <v>625.72</v>
+      </c>
+      <c r="U209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="75">
+      <c r="C210" s="39">
         <v>53</v>
       </c>
       <c r="D210" s="30">
@@ -6299,19 +6735,34 @@
       <c r="E210" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F210" s="66"/>
-      <c r="G210" s="66"/>
-      <c r="H210" s="76" t="s">
+      <c r="F210" s="53"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I210" s="31"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
-    </row>
-    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q210">
+        <v>53</v>
+      </c>
+      <c r="R210">
+        <v>7517950.3880000003</v>
+      </c>
+      <c r="S210">
+        <v>4692679.0279999999</v>
+      </c>
+      <c r="T210">
+        <v>625.72</v>
+      </c>
+      <c r="U210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="75">
+      <c r="C211" s="39">
         <v>54</v>
       </c>
       <c r="D211" s="30">
@@ -6320,19 +6771,34 @@
       <c r="E211" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="76" t="s">
+      <c r="F211" s="53"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I211" s="31"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q211">
+        <v>54</v>
+      </c>
+      <c r="R211">
+        <v>7517949.9369999999</v>
+      </c>
+      <c r="S211">
+        <v>4692680.25</v>
+      </c>
+      <c r="T211">
+        <v>625.72</v>
+      </c>
+      <c r="U211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="75">
+      <c r="C212" s="39">
         <v>21</v>
       </c>
       <c r="D212" s="30">
@@ -6341,19 +6807,34 @@
       <c r="E212" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="76" t="s">
+      <c r="F212" s="53"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I212" s="31"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q212">
+        <v>21</v>
+      </c>
+      <c r="R212">
+        <v>7517928.4314999999</v>
+      </c>
+      <c r="S212">
+        <v>4692673.0663999999</v>
+      </c>
+      <c r="T212">
+        <v>625.72</v>
+      </c>
+      <c r="U212" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="75">
+      <c r="C213" s="39">
         <v>22</v>
       </c>
       <c r="D213" s="30">
@@ -6362,19 +6843,34 @@
       <c r="E213" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="76" t="s">
+      <c r="F213" s="53"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I213" s="31"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q213">
+        <v>22</v>
+      </c>
+      <c r="R213">
+        <v>7517936.0539999995</v>
+      </c>
+      <c r="S213">
+        <v>4692675.5999999996</v>
+      </c>
+      <c r="T213">
+        <v>625.72</v>
+      </c>
+      <c r="U213" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="75">
+      <c r="C214" s="39">
         <v>23</v>
       </c>
       <c r="D214" s="30">
@@ -6383,19 +6879,34 @@
       <c r="E214" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F214" s="66"/>
-      <c r="G214" s="66"/>
-      <c r="H214" s="76" t="s">
+      <c r="F214" s="53"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I214" s="31"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q214">
+        <v>23</v>
+      </c>
+      <c r="R214">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="S214">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="T214">
+        <v>625.72</v>
+      </c>
+      <c r="U214" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="75">
+      <c r="C215" s="39">
         <v>24</v>
       </c>
       <c r="D215" s="30">
@@ -6404,19 +6915,34 @@
       <c r="E215" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="76" t="s">
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I215" s="31"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q215">
+        <v>24</v>
+      </c>
+      <c r="R215">
+        <v>7517941</v>
+      </c>
+      <c r="S215">
+        <v>4692675.5310000004</v>
+      </c>
+      <c r="T215">
+        <v>625.72</v>
+      </c>
+      <c r="U215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="75">
+      <c r="C216" s="39">
         <v>25</v>
       </c>
       <c r="D216" s="30">
@@ -6425,19 +6951,34 @@
       <c r="E216" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F216" s="66"/>
-      <c r="G216" s="66"/>
-      <c r="H216" s="76" t="s">
+      <c r="F216" s="53"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I216" s="31"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q216">
+        <v>25</v>
+      </c>
+      <c r="R216">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="S216">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="T216">
+        <v>625.72</v>
+      </c>
+      <c r="U216" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="75">
+      <c r="C217" s="39">
         <v>44</v>
       </c>
       <c r="D217" s="30">
@@ -6446,19 +6987,34 @@
       <c r="E217" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F217" s="66"/>
-      <c r="G217" s="66"/>
-      <c r="H217" s="76" t="s">
+      <c r="F217" s="53"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I217" s="31"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q217">
+        <v>44</v>
+      </c>
+      <c r="R217">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="S217">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="T217">
+        <v>625.72</v>
+      </c>
+      <c r="U217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="75">
+      <c r="C218" s="39">
         <v>45</v>
       </c>
       <c r="D218" s="30">
@@ -6467,19 +7023,34 @@
       <c r="E218" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F218" s="66"/>
-      <c r="G218" s="66"/>
-      <c r="H218" s="76" t="s">
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I218" s="31"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q218">
+        <v>45</v>
+      </c>
+      <c r="R218">
+        <v>7517945.5499999998</v>
+      </c>
+      <c r="S218">
+        <v>4692678.7819999997</v>
+      </c>
+      <c r="T218">
+        <v>625.72</v>
+      </c>
+      <c r="U218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="75">
+      <c r="C219" s="39">
         <v>46</v>
       </c>
       <c r="D219" s="30">
@@ -6488,19 +7059,34 @@
       <c r="E219" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F219" s="66"/>
-      <c r="G219" s="66"/>
-      <c r="H219" s="76" t="s">
+      <c r="F219" s="53"/>
+      <c r="G219" s="53"/>
+      <c r="H219" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I219" s="31"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q219">
+        <v>46</v>
+      </c>
+      <c r="R219">
+        <v>7517953.0659999996</v>
+      </c>
+      <c r="S219">
+        <v>4692681.2970000003</v>
+      </c>
+      <c r="T219">
+        <v>625.72</v>
+      </c>
+      <c r="U219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="75">
+      <c r="C220" s="39">
         <v>47</v>
       </c>
       <c r="D220" s="30">
@@ -6509,19 +7095,34 @@
       <c r="E220" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F220" s="66"/>
-      <c r="G220" s="66"/>
-      <c r="H220" s="76" t="s">
+      <c r="F220" s="53"/>
+      <c r="G220" s="53"/>
+      <c r="H220" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I220" s="31"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q220">
+        <v>47</v>
+      </c>
+      <c r="R220">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="S220">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="T220">
+        <v>625.72</v>
+      </c>
+      <c r="U220" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="75">
+      <c r="C221" s="39">
         <v>48</v>
       </c>
       <c r="D221" s="30">
@@ -6530,19 +7131,34 @@
       <c r="E221" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F221" s="66"/>
-      <c r="G221" s="66"/>
-      <c r="H221" s="76" t="s">
+      <c r="F221" s="53"/>
+      <c r="G221" s="53"/>
+      <c r="H221" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I221" s="31"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q221">
+        <v>48</v>
+      </c>
+      <c r="R221">
+        <v>7517951.9978</v>
+      </c>
+      <c r="S221">
+        <v>4692687.1791000003</v>
+      </c>
+      <c r="T221">
+        <v>625.72</v>
+      </c>
+      <c r="U221" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
-      <c r="C222" s="75">
+      <c r="C222" s="39">
         <v>49</v>
       </c>
       <c r="D222" s="30">
@@ -6551,19 +7167,34 @@
       <c r="E222" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F222" s="66"/>
-      <c r="G222" s="66"/>
-      <c r="H222" s="76" t="s">
+      <c r="F222" s="53"/>
+      <c r="G222" s="53"/>
+      <c r="H222" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I222" s="31"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q222">
+        <v>49</v>
+      </c>
+      <c r="R222">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="S222">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="T222">
+        <v>625.72</v>
+      </c>
+      <c r="U222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="75">
+      <c r="C223" s="39">
         <v>50</v>
       </c>
       <c r="D223" s="30">
@@ -6572,19 +7203,34 @@
       <c r="E223" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F223" s="66"/>
-      <c r="G223" s="66"/>
-      <c r="H223" s="76" t="s">
+      <c r="F223" s="53"/>
+      <c r="G223" s="53"/>
+      <c r="H223" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I223" s="31"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q223">
+        <v>50</v>
+      </c>
+      <c r="R223">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="S223">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="T223">
+        <v>625.72</v>
+      </c>
+      <c r="U223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="75">
+      <c r="C224" s="39">
         <v>51</v>
       </c>
       <c r="D224" s="30">
@@ -6593,19 +7239,34 @@
       <c r="E224" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="76" t="s">
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
+      <c r="H224" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I224" s="31"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q224">
+        <v>51</v>
+      </c>
+      <c r="R224">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="S224">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="T224">
+        <v>625.72</v>
+      </c>
+      <c r="U224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
-      <c r="C225" s="75">
+      <c r="C225" s="39">
         <v>106</v>
       </c>
       <c r="D225" s="30">
@@ -6614,19 +7275,34 @@
       <c r="E225" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F225" s="66"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="76" t="s">
+      <c r="F225" s="53"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I225" s="31"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q225">
+        <v>106</v>
+      </c>
+      <c r="R225">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="S225">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="T225">
+        <v>625.72</v>
+      </c>
+      <c r="U225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="75">
+      <c r="C226" s="39">
         <v>148</v>
       </c>
       <c r="D226" s="30">
@@ -6635,19 +7311,34 @@
       <c r="E226" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F226" s="66"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="76" t="s">
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I226" s="31"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q226">
+        <v>179</v>
+      </c>
+      <c r="R226">
+        <v>7517936.1931999996</v>
+      </c>
+      <c r="S226">
+        <v>4692689.9910000004</v>
+      </c>
+      <c r="T226">
+        <v>625.72</v>
+      </c>
+      <c r="U226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="75">
+      <c r="C227" s="39">
         <v>149</v>
       </c>
       <c r="D227" s="30">
@@ -6656,19 +7347,34 @@
       <c r="E227" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="76" t="s">
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I227" s="31"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q227">
+        <v>180</v>
+      </c>
+      <c r="R227">
+        <v>7517940.9392999997</v>
+      </c>
+      <c r="S227">
+        <v>4692691.5941000003</v>
+      </c>
+      <c r="T227">
+        <v>625.72</v>
+      </c>
+      <c r="U227" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="75">
+      <c r="C228" s="39">
         <v>150</v>
       </c>
       <c r="D228" s="30">
@@ -6677,19 +7383,34 @@
       <c r="E228" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F228" s="66"/>
-      <c r="G228" s="66"/>
-      <c r="H228" s="76" t="s">
+      <c r="F228" s="53"/>
+      <c r="G228" s="53"/>
+      <c r="H228" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I228" s="31"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q228">
+        <v>181</v>
+      </c>
+      <c r="R228">
+        <v>7517943.0431000004</v>
+      </c>
+      <c r="S228">
+        <v>4692685.3595000003</v>
+      </c>
+      <c r="T228">
+        <v>625.72</v>
+      </c>
+      <c r="U228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="75">
+      <c r="C229" s="39">
         <v>151</v>
       </c>
       <c r="D229" s="30">
@@ -6698,19 +7419,34 @@
       <c r="E229" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F229" s="66"/>
-      <c r="G229" s="66"/>
-      <c r="H229" s="76" t="s">
+      <c r="F229" s="53"/>
+      <c r="G229" s="53"/>
+      <c r="H229" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I229" s="31"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q229">
+        <v>182</v>
+      </c>
+      <c r="R229">
+        <v>7517938.2966</v>
+      </c>
+      <c r="S229">
+        <v>4692683.7562999995</v>
+      </c>
+      <c r="T229">
+        <v>625.72</v>
+      </c>
+      <c r="U229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="75">
+      <c r="C230" s="39">
         <v>152</v>
       </c>
       <c r="D230" s="30">
@@ -6719,19 +7455,34 @@
       <c r="E230" s="30">
         <v>4692687.4755999995</v>
       </c>
-      <c r="F230" s="66"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="76" t="s">
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
+      <c r="H230" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I230" s="31"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q230">
+        <v>183</v>
+      </c>
+      <c r="R230">
+        <v>7517928.8554999996</v>
+      </c>
+      <c r="S230">
+        <v>4692680.5674000001</v>
+      </c>
+      <c r="T230">
+        <v>625.72</v>
+      </c>
+      <c r="U230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="75">
+      <c r="C231" s="39">
         <v>153</v>
       </c>
       <c r="D231" s="30">
@@ -6740,19 +7491,34 @@
       <c r="E231" s="30">
         <v>4692681.2410000004</v>
       </c>
-      <c r="F231" s="66"/>
-      <c r="G231" s="66"/>
-      <c r="H231" s="76" t="s">
+      <c r="F231" s="53"/>
+      <c r="G231" s="53"/>
+      <c r="H231" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I231" s="31"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q231">
+        <v>184</v>
+      </c>
+      <c r="R231">
+        <v>7517927.7045</v>
+      </c>
+      <c r="S231">
+        <v>4692683.9784000004</v>
+      </c>
+      <c r="T231">
+        <v>625.72</v>
+      </c>
+      <c r="U231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="75">
+      <c r="C232" s="39">
         <v>154</v>
       </c>
       <c r="D232" s="30">
@@ -6761,19 +7527,34 @@
       <c r="E232" s="30">
         <v>4692682.2426000005</v>
       </c>
-      <c r="F232" s="66"/>
-      <c r="G232" s="66"/>
-      <c r="H232" s="76" t="s">
+      <c r="F232" s="53"/>
+      <c r="G232" s="53"/>
+      <c r="H232" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I232" s="31"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q232">
+        <v>185</v>
+      </c>
+      <c r="R232">
+        <v>7517925.0517999995</v>
+      </c>
+      <c r="S232">
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="T232">
+        <v>625.72</v>
+      </c>
+      <c r="U232" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="75">
+      <c r="C233" s="39">
         <v>155</v>
       </c>
       <c r="D233" s="30">
@@ -6782,19 +7563,34 @@
       <c r="E233" s="30">
         <v>4692688.4773000004</v>
       </c>
-      <c r="F233" s="66"/>
-      <c r="G233" s="66"/>
-      <c r="H233" s="76" t="s">
+      <c r="F233" s="53"/>
+      <c r="G233" s="53"/>
+      <c r="H233" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I233" s="31"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q233">
+        <v>186</v>
+      </c>
+      <c r="R233">
+        <v>7517926.2028000001</v>
+      </c>
+      <c r="S233">
+        <v>4692679.6714000003</v>
+      </c>
+      <c r="T233">
+        <v>625.72</v>
+      </c>
+      <c r="U233" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="75">
+      <c r="C234" s="39">
         <v>156</v>
       </c>
       <c r="D234" s="30">
@@ -6803,19 +7599,34 @@
       <c r="E234" s="30">
         <v>4692689.9908999996</v>
       </c>
-      <c r="F234" s="66"/>
-      <c r="G234" s="66"/>
-      <c r="H234" s="76" t="s">
+      <c r="F234" s="53"/>
+      <c r="G234" s="53"/>
+      <c r="H234" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I234" s="31"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q234">
+        <v>187</v>
+      </c>
+      <c r="R234">
+        <v>7517926.6858000001</v>
+      </c>
+      <c r="S234">
+        <v>4692678.2399000004</v>
+      </c>
+      <c r="T234">
+        <v>625.72</v>
+      </c>
+      <c r="U234" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="75">
+      <c r="C235" s="39">
         <v>157</v>
       </c>
       <c r="D235" s="30">
@@ -6824,19 +7635,34 @@
       <c r="E235" s="30">
         <v>4692683.7561999997</v>
       </c>
-      <c r="F235" s="66"/>
-      <c r="G235" s="66"/>
-      <c r="H235" s="76" t="s">
+      <c r="F235" s="53"/>
+      <c r="G235" s="53"/>
+      <c r="H235" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I235" s="31"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q235">
+        <v>188</v>
+      </c>
+      <c r="R235">
+        <v>7517938.7796999998</v>
+      </c>
+      <c r="S235">
+        <v>4692682.3244000003</v>
+      </c>
+      <c r="T235">
+        <v>625.72</v>
+      </c>
+      <c r="U235" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="75">
+      <c r="C236" s="39">
         <v>158</v>
       </c>
       <c r="D236" s="30">
@@ -6845,19 +7671,34 @@
       <c r="E236" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F236" s="66"/>
-      <c r="G236" s="66"/>
-      <c r="H236" s="76" t="s">
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
+      <c r="H236" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I236" s="31"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q236">
+        <v>189</v>
+      </c>
+      <c r="R236">
+        <v>7517943.5663000001</v>
+      </c>
+      <c r="S236">
+        <v>4692683.8091000002</v>
+      </c>
+      <c r="T236">
+        <v>625.72</v>
+      </c>
+      <c r="U236" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="75">
+      <c r="C237" s="39">
         <v>159</v>
       </c>
       <c r="D237" s="30">
@@ -6866,19 +7707,34 @@
       <c r="E237" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F237" s="66"/>
-      <c r="G237" s="66"/>
-      <c r="H237" s="76" t="s">
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
+      <c r="H237" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I237" s="31"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
-    </row>
-    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q237">
+        <v>190</v>
+      </c>
+      <c r="R237">
+        <v>7517943.5263</v>
+      </c>
+      <c r="S237">
+        <v>4692683.9275000002</v>
+      </c>
+      <c r="T237">
+        <v>625.72</v>
+      </c>
+      <c r="U237" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="75">
+      <c r="C238" s="39">
         <v>160</v>
       </c>
       <c r="D238" s="30">
@@ -6887,19 +7743,34 @@
       <c r="E238" s="30">
         <v>4692693.0789000001</v>
       </c>
-      <c r="F238" s="66"/>
-      <c r="G238" s="66"/>
-      <c r="H238" s="76" t="s">
+      <c r="F238" s="53"/>
+      <c r="G238" s="53"/>
+      <c r="H238" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I238" s="31"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q238">
+        <v>191</v>
+      </c>
+      <c r="R238">
+        <v>7517951.3524000002</v>
+      </c>
+      <c r="S238">
+        <v>4692686.4386999998</v>
+      </c>
+      <c r="T238">
+        <v>625.72</v>
+      </c>
+      <c r="U238" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="75">
+      <c r="C239" s="39">
         <v>161</v>
       </c>
       <c r="D239" s="30">
@@ -6908,19 +7779,34 @@
       <c r="E239" s="30">
         <v>4692686.8443</v>
       </c>
-      <c r="F239" s="66"/>
-      <c r="G239" s="66"/>
-      <c r="H239" s="76" t="s">
+      <c r="F239" s="53"/>
+      <c r="G239" s="53"/>
+      <c r="H239" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I239" s="31"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
-    </row>
-    <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q239">
+        <v>192</v>
+      </c>
+      <c r="R239">
+        <v>7517941.0645000003</v>
+      </c>
+      <c r="S239">
+        <v>4692675.5519000003</v>
+      </c>
+      <c r="T239">
+        <v>625.72</v>
+      </c>
+      <c r="U239" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="75">
+      <c r="C240" s="39">
         <v>162</v>
       </c>
       <c r="D240" s="30">
@@ -6929,19 +7815,34 @@
       <c r="E240" s="30">
         <v>4692689.7762000002</v>
       </c>
-      <c r="F240" s="66"/>
-      <c r="G240" s="66"/>
-      <c r="H240" s="76" t="s">
+      <c r="F240" s="53"/>
+      <c r="G240" s="53"/>
+      <c r="H240" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I240" s="31"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
+      <c r="Q240">
+        <v>101</v>
+      </c>
+      <c r="R240">
+        <v>7517929.1179</v>
+      </c>
+      <c r="S240">
+        <v>4692673.2940999996</v>
+      </c>
+      <c r="T240">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="U240" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="75">
+      <c r="C241" s="39">
         <v>163</v>
       </c>
       <c r="D241" s="30">
@@ -6950,9 +7851,9 @@
       <c r="E241" s="30">
         <v>4692687.6679999996</v>
       </c>
-      <c r="F241" s="66"/>
-      <c r="G241" s="66"/>
-      <c r="H241" s="76" t="s">
+      <c r="F241" s="53"/>
+      <c r="G241" s="53"/>
+      <c r="H241" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I241" s="31"/>
@@ -6962,7 +7863,7 @@
     <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="75">
+      <c r="C242" s="39">
         <v>164</v>
       </c>
       <c r="D242" s="30">
@@ -6971,9 +7872,9 @@
       <c r="E242" s="30">
         <v>4692690.4787999997</v>
       </c>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="76" t="s">
+      <c r="F242" s="53"/>
+      <c r="G242" s="53"/>
+      <c r="H242" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I242" s="31"/>
@@ -6983,7 +7884,7 @@
     <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="75">
+      <c r="C243" s="39">
         <v>165</v>
       </c>
       <c r="D243" s="30">
@@ -6992,9 +7893,9 @@
       <c r="E243" s="30">
         <v>4692688.38</v>
       </c>
-      <c r="F243" s="66"/>
-      <c r="G243" s="66"/>
-      <c r="H243" s="76" t="s">
+      <c r="F243" s="53"/>
+      <c r="G243" s="53"/>
+      <c r="H243" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I243" s="31"/>
@@ -7004,7 +7905,7 @@
     <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="75">
+      <c r="C244" s="39">
         <v>166</v>
       </c>
       <c r="D244" s="30">
@@ -7013,9 +7914,9 @@
       <c r="E244" s="30">
         <v>4692685.5033</v>
       </c>
-      <c r="F244" s="66"/>
-      <c r="G244" s="66"/>
-      <c r="H244" s="76" t="s">
+      <c r="F244" s="53"/>
+      <c r="G244" s="53"/>
+      <c r="H244" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I244" s="31"/>
@@ -7025,7 +7926,7 @@
     <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
-      <c r="C245" s="75">
+      <c r="C245" s="39">
         <v>167</v>
       </c>
       <c r="D245" s="30">
@@ -7034,9 +7935,9 @@
       <c r="E245" s="30">
         <v>4692686.4769000001</v>
       </c>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="76" t="s">
+      <c r="F245" s="53"/>
+      <c r="G245" s="53"/>
+      <c r="H245" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I245" s="31"/>
@@ -7046,7 +7947,7 @@
     <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="75">
+      <c r="C246" s="39">
         <v>168</v>
       </c>
       <c r="D246" s="30">
@@ -7055,9 +7956,9 @@
       <c r="E246" s="30">
         <v>4692680.3293000003</v>
       </c>
-      <c r="F246" s="66"/>
-      <c r="G246" s="66"/>
-      <c r="H246" s="76" t="s">
+      <c r="F246" s="53"/>
+      <c r="G246" s="53"/>
+      <c r="H246" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I246" s="31"/>
@@ -7067,7 +7968,7 @@
     <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="75">
+      <c r="C247" s="39">
         <v>169</v>
       </c>
       <c r="D247" s="30">
@@ -7076,9 +7977,9 @@
       <c r="E247" s="30">
         <v>4692685.9365999997</v>
       </c>
-      <c r="F247" s="66"/>
-      <c r="G247" s="66"/>
-      <c r="H247" s="76" t="s">
+      <c r="F247" s="53"/>
+      <c r="G247" s="53"/>
+      <c r="H247" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I247" s="31"/>
@@ -7088,7 +7989,7 @@
     <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="75">
+      <c r="C248" s="39">
         <v>170</v>
       </c>
       <c r="D248" s="30">
@@ -7097,9 +7998,9 @@
       <c r="E248" s="30">
         <v>4692684.2878</v>
       </c>
-      <c r="F248" s="66"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="76" t="s">
+      <c r="F248" s="53"/>
+      <c r="G248" s="53"/>
+      <c r="H248" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I248" s="31"/>
@@ -7109,7 +8010,7 @@
     <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="75">
+      <c r="C249" s="39">
         <v>171</v>
       </c>
       <c r="D249" s="30">
@@ -7118,9 +8019,9 @@
       <c r="E249" s="30">
         <v>4692677.3678000001</v>
       </c>
-      <c r="F249" s="66"/>
-      <c r="G249" s="66"/>
-      <c r="H249" s="76" t="s">
+      <c r="F249" s="53"/>
+      <c r="G249" s="53"/>
+      <c r="H249" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I249" s="31"/>
@@ -7130,7 +8031,7 @@
     <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="75">
+      <c r="C250" s="39">
         <v>172</v>
       </c>
       <c r="D250" s="30">
@@ -7139,9 +8040,9 @@
       <c r="E250" s="30">
         <v>4692675.551</v>
       </c>
-      <c r="F250" s="66"/>
-      <c r="G250" s="66"/>
-      <c r="H250" s="76" t="s">
+      <c r="F250" s="53"/>
+      <c r="G250" s="53"/>
+      <c r="H250" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I250" s="31"/>
@@ -7151,7 +8052,7 @@
     <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="75">
+      <c r="C251" s="39">
         <v>173</v>
       </c>
       <c r="D251" s="30">
@@ -7160,9 +8061,9 @@
       <c r="E251" s="30">
         <v>4692682.6838999996</v>
       </c>
-      <c r="F251" s="66"/>
-      <c r="G251" s="66"/>
-      <c r="H251" s="76" t="s">
+      <c r="F251" s="53"/>
+      <c r="G251" s="53"/>
+      <c r="H251" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I251" s="31"/>
@@ -7172,7 +8073,7 @@
     <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="75">
+      <c r="C252" s="39">
         <v>174</v>
       </c>
       <c r="D252" s="30">
@@ -7181,9 +8082,9 @@
       <c r="E252" s="30">
         <v>4692681.1698000003</v>
       </c>
-      <c r="F252" s="66"/>
-      <c r="G252" s="66"/>
-      <c r="H252" s="76" t="s">
+      <c r="F252" s="53"/>
+      <c r="G252" s="53"/>
+      <c r="H252" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I252" s="31"/>
@@ -7191,7 +8092,7 @@
       <c r="K252" s="1"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C253" s="75">
+      <c r="C253" s="39">
         <v>175</v>
       </c>
       <c r="D253" s="30">
@@ -7200,14 +8101,14 @@
       <c r="E253" s="30">
         <v>4692679.5367999999</v>
       </c>
-      <c r="F253" s="66"/>
-      <c r="G253" s="66"/>
-      <c r="H253" s="76" t="s">
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
+      <c r="H253" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C254" s="75">
+      <c r="C254" s="39">
         <v>176</v>
       </c>
       <c r="D254" s="30">
@@ -7216,16 +8117,16 @@
       <c r="E254" s="30">
         <v>4692678.6008000001</v>
       </c>
-      <c r="F254" s="66"/>
-      <c r="G254" s="66"/>
-      <c r="H254" s="76" t="s">
+      <c r="F254" s="53"/>
+      <c r="G254" s="53"/>
+      <c r="H254" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="75">
+      <c r="C255" s="39">
         <v>177</v>
       </c>
       <c r="D255" s="30">
@@ -7234,9 +8135,9 @@
       <c r="E255" s="30">
         <v>4692673.9884000001</v>
       </c>
-      <c r="F255" s="66"/>
-      <c r="G255" s="66"/>
-      <c r="H255" s="76" t="s">
+      <c r="F255" s="53"/>
+      <c r="G255" s="53"/>
+      <c r="H255" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I255" s="31"/>
@@ -7246,18 +8147,18 @@
     <row r="256" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="77">
+      <c r="C256" s="41">
         <v>101</v>
       </c>
-      <c r="D256" s="78">
+      <c r="D256" s="42">
         <v>7517929.1179</v>
       </c>
-      <c r="E256" s="78">
+      <c r="E256" s="42">
         <v>4692673.2940999996</v>
       </c>
-      <c r="F256" s="79"/>
-      <c r="G256" s="79"/>
-      <c r="H256" s="80" t="s">
+      <c r="F256" s="54"/>
+      <c r="G256" s="54"/>
+      <c r="H256" s="43" t="s">
         <v>20</v>
       </c>
       <c r="I256" s="31"/>
@@ -7269,36 +8170,36 @@
         <v>4</v>
       </c>
       <c r="B257" s="3"/>
-      <c r="C257" s="67"/>
-      <c r="D257" s="67"/>
-      <c r="E257" s="68" t="s">
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F257" s="69"/>
-      <c r="G257" s="70"/>
-      <c r="H257" s="71" t="s">
+      <c r="F257" s="81"/>
+      <c r="G257" s="82"/>
+      <c r="H257" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I257" s="37"/>
-      <c r="J257" s="40"/>
-      <c r="K257" s="41"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="64"/>
     </row>
     <row r="258" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="44" t="s">
+      <c r="A258" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="45"/>
-      <c r="C258" s="45"/>
-      <c r="D258" s="46"/>
-      <c r="E258" s="47">
+      <c r="B258" s="68"/>
+      <c r="C258" s="68"/>
+      <c r="D258" s="69"/>
+      <c r="E258" s="70">
         <v>140</v>
       </c>
-      <c r="F258" s="48"/>
-      <c r="G258" s="49"/>
-      <c r="H258" s="38"/>
-      <c r="I258" s="39"/>
-      <c r="J258" s="42"/>
-      <c r="K258" s="43"/>
+      <c r="F258" s="71"/>
+      <c r="G258" s="72"/>
+      <c r="H258" s="61"/>
+      <c r="I258" s="62"/>
+      <c r="J258" s="65"/>
+      <c r="K258" s="66"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
@@ -7313,57 +8214,1112 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-      <c r="B260" s="65"/>
-      <c r="C260" s="65"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="65"/>
-      <c r="F260" s="65"/>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="25"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-    </row>
-    <row r="261" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-      <c r="B261" s="65"/>
-      <c r="C261" s="65"/>
-      <c r="D261" s="65"/>
-      <c r="E261" s="65"/>
-      <c r="F261" s="65"/>
-      <c r="G261" s="65"/>
-      <c r="H261" s="65"/>
-      <c r="I261" s="25"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K262" s="1"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="44"/>
+      <c r="B260" s="44"/>
+      <c r="C260" s="44"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44"/>
+      <c r="F260" s="44"/>
+      <c r="G260" s="44"/>
+      <c r="H260" s="44"/>
+      <c r="I260" s="44"/>
+      <c r="J260" s="44"/>
+      <c r="K260" s="44"/>
+    </row>
+    <row r="261" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="44"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="44"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="44"/>
+      <c r="F261" s="44"/>
+      <c r="G261" s="44"/>
+      <c r="H261" s="44"/>
+      <c r="I261" s="44"/>
+      <c r="J261" s="44"/>
+      <c r="K261" s="44"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="45"/>
+      <c r="C262" s="45"/>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="45"/>
+      <c r="G262" s="45"/>
+      <c r="H262" s="45"/>
+      <c r="I262" s="45"/>
+      <c r="J262" s="45"/>
+      <c r="K262" s="45"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="45"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="45"/>
+      <c r="E263" s="45"/>
+      <c r="F263" s="45"/>
+      <c r="G263" s="45"/>
+      <c r="H263" s="45"/>
+      <c r="I263" s="45"/>
+      <c r="J263" s="45"/>
+      <c r="K263" s="45"/>
+    </row>
+    <row r="264" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="45"/>
+      <c r="B264" s="45"/>
+      <c r="C264" s="45"/>
+      <c r="D264" s="45"/>
+      <c r="E264" s="45"/>
+      <c r="F264" s="45"/>
+      <c r="G264" s="45"/>
+      <c r="H264" s="45"/>
+      <c r="I264" s="45"/>
+      <c r="J264" s="45"/>
+      <c r="K264" s="45"/>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="45"/>
+      <c r="B265" s="45"/>
+      <c r="C265" s="45"/>
+      <c r="D265" s="45"/>
+      <c r="E265" s="45"/>
+      <c r="F265" s="45"/>
+      <c r="G265" s="45"/>
+      <c r="H265" s="45"/>
+      <c r="I265" s="45"/>
+      <c r="J265" s="45"/>
+      <c r="K265" s="45"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="C266" s="46"/>
+      <c r="D266" s="47"/>
+      <c r="E266" s="47"/>
+      <c r="F266" s="47"/>
+      <c r="G266" s="47"/>
+      <c r="H266" s="47"/>
+      <c r="I266" s="48"/>
+      <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="C267" s="49"/>
+      <c r="D267" s="50"/>
+      <c r="E267" s="50"/>
+      <c r="F267" s="50"/>
+      <c r="G267" s="50"/>
+      <c r="H267" s="50"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1"/>
+      <c r="C268" s="73"/>
+      <c r="D268" s="74"/>
+      <c r="E268" s="74"/>
+      <c r="F268" s="74"/>
+      <c r="G268" s="74"/>
+      <c r="H268" s="74"/>
+      <c r="I268" s="52"/>
+      <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
+    <row r="269" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="32"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F270" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H270" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I270" s="32"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="34">
+        <v>26</v>
+      </c>
+      <c r="D271" s="30">
+        <v>7517929.8310000002</v>
+      </c>
+      <c r="E271" s="30">
+        <v>4692673.5029999996</v>
+      </c>
+      <c r="F271" s="75">
+        <v>625.72</v>
+      </c>
+      <c r="G271" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H271" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I271" s="32"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="34">
+        <v>27</v>
+      </c>
+      <c r="D272" s="30">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E272" s="30">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F272" s="76"/>
+      <c r="G272" s="85"/>
+      <c r="H272" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I272" s="32"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="34">
+        <v>28</v>
+      </c>
+      <c r="D273" s="30">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E273" s="30">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F273" s="76"/>
+      <c r="G273" s="85"/>
+      <c r="H273" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="32"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34">
+        <v>29</v>
+      </c>
+      <c r="D274" s="30">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E274" s="30">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F274" s="76"/>
+      <c r="G274" s="85"/>
+      <c r="H274" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="32"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="34">
+        <v>30</v>
+      </c>
+      <c r="D275" s="30">
+        <v>7517936.4819999998</v>
+      </c>
+      <c r="E275" s="30">
+        <v>4692674.3839999996</v>
+      </c>
+      <c r="F275" s="76"/>
+      <c r="G275" s="85"/>
+      <c r="H275" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="32"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="34">
+        <v>52</v>
+      </c>
+      <c r="D276" s="30">
+        <v>7517945.9759999998</v>
+      </c>
+      <c r="E276" s="30">
+        <v>4692677.5640000002</v>
+      </c>
+      <c r="F276" s="76"/>
+      <c r="G276" s="85"/>
+      <c r="H276" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="32"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="34">
+        <v>53</v>
+      </c>
+      <c r="D277" s="30">
+        <v>7517950.3880000003</v>
+      </c>
+      <c r="E277" s="30">
+        <v>4692679.0279999999</v>
+      </c>
+      <c r="F277" s="76"/>
+      <c r="G277" s="85"/>
+      <c r="H277" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="32"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="34">
+        <v>54</v>
+      </c>
+      <c r="D278" s="30">
+        <v>7517949.9369999999</v>
+      </c>
+      <c r="E278" s="30">
+        <v>4692680.25</v>
+      </c>
+      <c r="F278" s="76"/>
+      <c r="G278" s="85"/>
+      <c r="H278" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="32"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="34">
+        <v>21</v>
+      </c>
+      <c r="D279" s="30">
+        <v>7517928.4314999999</v>
+      </c>
+      <c r="E279" s="30">
+        <v>4692673.0663999999</v>
+      </c>
+      <c r="F279" s="76"/>
+      <c r="G279" s="85"/>
+      <c r="H279" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="32"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="34">
+        <v>22</v>
+      </c>
+      <c r="D280" s="30">
+        <v>7517936.0539999995</v>
+      </c>
+      <c r="E280" s="30">
+        <v>4692675.5999999996</v>
+      </c>
+      <c r="F280" s="76"/>
+      <c r="G280" s="85"/>
+      <c r="H280" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="32"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="34">
+        <v>23</v>
+      </c>
+      <c r="D281" s="30">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="E281" s="30">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="F281" s="76"/>
+      <c r="G281" s="85"/>
+      <c r="H281" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="32"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34">
+        <v>24</v>
+      </c>
+      <c r="D282" s="30">
+        <v>7517941</v>
+      </c>
+      <c r="E282" s="30">
+        <v>4692675.5310000004</v>
+      </c>
+      <c r="F282" s="76"/>
+      <c r="G282" s="85"/>
+      <c r="H282" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="32"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="34">
+        <v>25</v>
+      </c>
+      <c r="D283" s="30">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E283" s="30">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F283" s="76"/>
+      <c r="G283" s="85"/>
+      <c r="H283" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="32"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="34">
+        <v>44</v>
+      </c>
+      <c r="D284" s="30">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="E284" s="30">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="F284" s="76"/>
+      <c r="G284" s="85"/>
+      <c r="H284" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I284" s="32"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="34">
+        <v>45</v>
+      </c>
+      <c r="D285" s="30">
+        <v>7517945.5499999998</v>
+      </c>
+      <c r="E285" s="30">
+        <v>4692678.7819999997</v>
+      </c>
+      <c r="F285" s="76"/>
+      <c r="G285" s="85"/>
+      <c r="H285" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I285" s="32"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="34">
+        <v>46</v>
+      </c>
+      <c r="D286" s="30">
+        <v>7517953.0659999996</v>
+      </c>
+      <c r="E286" s="30">
+        <v>4692681.2970000003</v>
+      </c>
+      <c r="F286" s="76"/>
+      <c r="G286" s="85"/>
+      <c r="H286" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="32"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34">
+        <v>47</v>
+      </c>
+      <c r="D287" s="30">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E287" s="30">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F287" s="76"/>
+      <c r="G287" s="85"/>
+      <c r="H287" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="32"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+    </row>
+    <row r="288" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="33"/>
+      <c r="C288" s="34">
+        <v>48</v>
+      </c>
+      <c r="D288" s="30">
+        <v>7517951.9978</v>
+      </c>
+      <c r="E288" s="30">
+        <v>4692687.1791000003</v>
+      </c>
+      <c r="F288" s="76"/>
+      <c r="G288" s="85"/>
+      <c r="H288" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="32"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+    </row>
+    <row r="289" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="33"/>
+      <c r="C289" s="34">
+        <v>49</v>
+      </c>
+      <c r="D289" s="30">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E289" s="30">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F289" s="76"/>
+      <c r="G289" s="85"/>
+      <c r="H289" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="32"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="33"/>
+      <c r="C290" s="34">
+        <v>50</v>
+      </c>
+      <c r="D290" s="30">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E290" s="30">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F290" s="76"/>
+      <c r="G290" s="85"/>
+      <c r="H290" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="32"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="291" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="33"/>
+      <c r="C291" s="34">
+        <v>51</v>
+      </c>
+      <c r="D291" s="30">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E291" s="30">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F291" s="76"/>
+      <c r="G291" s="85"/>
+      <c r="H291" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="32"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+    </row>
+    <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="34">
+        <v>106</v>
+      </c>
+      <c r="D292" s="30">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E292" s="30">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F292" s="76"/>
+      <c r="G292" s="85"/>
+      <c r="H292" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="32"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="33"/>
+      <c r="C293" s="34">
+        <v>179</v>
+      </c>
+      <c r="D293" s="30">
+        <v>7517936.1931999996</v>
+      </c>
+      <c r="E293" s="30">
+        <v>4692689.9910000004</v>
+      </c>
+      <c r="F293" s="76"/>
+      <c r="G293" s="85"/>
+      <c r="H293" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="32"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+    </row>
+    <row r="294" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34">
+        <v>180</v>
+      </c>
+      <c r="D294" s="30">
+        <v>7517940.9392999997</v>
+      </c>
+      <c r="E294" s="30">
+        <v>4692691.5941000003</v>
+      </c>
+      <c r="F294" s="76"/>
+      <c r="G294" s="85"/>
+      <c r="H294" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="32"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+    </row>
+    <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="33"/>
+      <c r="C295" s="34">
+        <v>181</v>
+      </c>
+      <c r="D295" s="30">
+        <v>7517943.0431000004</v>
+      </c>
+      <c r="E295" s="30">
+        <v>4692685.3595000003</v>
+      </c>
+      <c r="F295" s="76"/>
+      <c r="G295" s="85"/>
+      <c r="H295" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="32"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="33"/>
+      <c r="C296" s="34">
+        <v>182</v>
+      </c>
+      <c r="D296" s="30">
+        <v>7517938.2966</v>
+      </c>
+      <c r="E296" s="30">
+        <v>4692683.7562999995</v>
+      </c>
+      <c r="F296" s="76"/>
+      <c r="G296" s="85"/>
+      <c r="H296" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="32"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="33"/>
+      <c r="C297" s="34">
+        <v>183</v>
+      </c>
+      <c r="D297" s="30">
+        <v>7517928.8554999996</v>
+      </c>
+      <c r="E297" s="30">
+        <v>4692680.5674000001</v>
+      </c>
+      <c r="F297" s="76"/>
+      <c r="G297" s="85"/>
+      <c r="H297" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="32"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="34">
+        <v>184</v>
+      </c>
+      <c r="D298" s="30">
+        <v>7517927.7045</v>
+      </c>
+      <c r="E298" s="30">
+        <v>4692683.9784000004</v>
+      </c>
+      <c r="F298" s="76"/>
+      <c r="G298" s="85"/>
+      <c r="H298" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="32"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+    </row>
+    <row r="299" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="33"/>
+      <c r="C299" s="34">
+        <v>185</v>
+      </c>
+      <c r="D299" s="30">
+        <v>7517925.0517999995</v>
+      </c>
+      <c r="E299" s="30">
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="F299" s="76"/>
+      <c r="G299" s="85"/>
+      <c r="H299" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="32"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+    </row>
+    <row r="300" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="33"/>
+      <c r="C300" s="34">
+        <v>186</v>
+      </c>
+      <c r="D300" s="30">
+        <v>7517926.2028000001</v>
+      </c>
+      <c r="E300" s="30">
+        <v>4692679.6714000003</v>
+      </c>
+      <c r="F300" s="76"/>
+      <c r="G300" s="85"/>
+      <c r="H300" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="32"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+    </row>
+    <row r="301" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34">
+        <v>187</v>
+      </c>
+      <c r="D301" s="30">
+        <v>7517926.6858000001</v>
+      </c>
+      <c r="E301" s="30">
+        <v>4692678.2399000004</v>
+      </c>
+      <c r="F301" s="76"/>
+      <c r="G301" s="85"/>
+      <c r="H301" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="32"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+    </row>
+    <row r="302" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="33"/>
+      <c r="C302" s="34">
+        <v>188</v>
+      </c>
+      <c r="D302" s="30">
+        <v>7517938.7796999998</v>
+      </c>
+      <c r="E302" s="30">
+        <v>4692682.3244000003</v>
+      </c>
+      <c r="F302" s="76"/>
+      <c r="G302" s="85"/>
+      <c r="H302" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="32"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+    </row>
+    <row r="303" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="34">
+        <v>189</v>
+      </c>
+      <c r="D303" s="30">
+        <v>7517943.5663000001</v>
+      </c>
+      <c r="E303" s="30">
+        <v>4692683.8091000002</v>
+      </c>
+      <c r="F303" s="76"/>
+      <c r="G303" s="85"/>
+      <c r="H303" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="32"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+    </row>
+    <row r="304" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="33"/>
+      <c r="C304" s="34">
+        <v>190</v>
+      </c>
+      <c r="D304" s="30">
+        <v>7517943.5263</v>
+      </c>
+      <c r="E304" s="30">
+        <v>4692683.9275000002</v>
+      </c>
+      <c r="F304" s="76"/>
+      <c r="G304" s="85"/>
+      <c r="H304" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="32"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+    </row>
+    <row r="305" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="33"/>
+      <c r="C305" s="34">
+        <v>191</v>
+      </c>
+      <c r="D305" s="30">
+        <v>7517951.3524000002</v>
+      </c>
+      <c r="E305" s="30">
+        <v>4692686.4386999998</v>
+      </c>
+      <c r="F305" s="76"/>
+      <c r="G305" s="85"/>
+      <c r="H305" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="32"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+    </row>
+    <row r="306" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="33"/>
+      <c r="C306" s="34">
+        <v>192</v>
+      </c>
+      <c r="D306" s="30">
+        <v>7517941.0645000003</v>
+      </c>
+      <c r="E306" s="30">
+        <v>4692675.5519000003</v>
+      </c>
+      <c r="F306" s="77"/>
+      <c r="G306" s="85"/>
+      <c r="H306" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="32"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+    </row>
+    <row r="307" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="34">
+        <v>101</v>
+      </c>
+      <c r="D307" s="30">
+        <v>7517929.1179</v>
+      </c>
+      <c r="E307" s="30">
+        <v>4692673.2940999996</v>
+      </c>
+      <c r="F307" s="34">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G307" s="86"/>
+      <c r="H307" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I307" s="32"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+    </row>
+    <row r="308" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="33"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="33"/>
+      <c r="F308" s="33"/>
+      <c r="G308" s="33"/>
+      <c r="H308" s="33"/>
+      <c r="I308" s="32"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+    </row>
+    <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="33"/>
+      <c r="C309" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="55"/>
+      <c r="E309" s="55"/>
+      <c r="F309" s="55"/>
+      <c r="G309" s="55"/>
+      <c r="H309" s="55"/>
+      <c r="I309" s="55"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+    </row>
+    <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="33"/>
+      <c r="C310" s="55"/>
+      <c r="D310" s="55"/>
+      <c r="E310" s="55"/>
+      <c r="F310" s="55"/>
+      <c r="G310" s="55"/>
+      <c r="H310" s="55"/>
+      <c r="I310" s="55"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+    </row>
+    <row r="311" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="33"/>
+      <c r="C311" s="33"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="33"/>
+      <c r="F311" s="33"/>
+      <c r="G311" s="33"/>
+      <c r="H311" s="33"/>
+      <c r="I311" s="32"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+    </row>
+    <row r="312" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="33"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="33"/>
+      <c r="F312" s="33"/>
+      <c r="G312" s="33"/>
+      <c r="H312" s="33"/>
+      <c r="I312" s="32"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+    </row>
+    <row r="313" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="33"/>
+      <c r="C313" s="33"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="33"/>
+      <c r="G313" s="33"/>
+      <c r="H313" s="33"/>
+      <c r="I313" s="32"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+    </row>
+    <row r="314" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A314" s="1"/>
+      <c r="B314" s="33"/>
+      <c r="C314" s="33"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="33"/>
+      <c r="G314" s="33"/>
+      <c r="H314" s="33"/>
+      <c r="I314" s="32"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="315" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="33"/>
+      <c r="D315" s="33"/>
+      <c r="E315" s="33"/>
+      <c r="F315" s="33"/>
+      <c r="G315" s="33"/>
+      <c r="H315" s="33"/>
+      <c r="I315" s="32"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+    </row>
+    <row r="316" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F316" s="57"/>
+      <c r="G316" s="58"/>
+      <c r="H316" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I316" s="60"/>
+      <c r="J316" s="63"/>
+      <c r="K316" s="64"/>
+    </row>
+    <row r="317" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="68"/>
+      <c r="C317" s="68"/>
+      <c r="D317" s="69"/>
+      <c r="E317" s="70">
+        <v>140</v>
+      </c>
+      <c r="F317" s="71"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="61"/>
+      <c r="I317" s="62"/>
+      <c r="J317" s="65"/>
+      <c r="K317" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A194:K195"/>
-    <mergeCell ref="A196:K199"/>
-    <mergeCell ref="C200:I202"/>
-    <mergeCell ref="G204:G256"/>
-    <mergeCell ref="F204:F256"/>
-    <mergeCell ref="C182:I183"/>
-    <mergeCell ref="E192:G192"/>
-    <mergeCell ref="H192:I193"/>
-    <mergeCell ref="J192:K193"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="E193:G193"/>
+  <mergeCells count="52">
+    <mergeCell ref="A260:K261"/>
+    <mergeCell ref="A262:K265"/>
+    <mergeCell ref="C266:I268"/>
+    <mergeCell ref="C309:I310"/>
+    <mergeCell ref="G271:G307"/>
+    <mergeCell ref="F271:F306"/>
+    <mergeCell ref="E316:G316"/>
+    <mergeCell ref="H316:I317"/>
+    <mergeCell ref="J316:K317"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="E317:G317"/>
+    <mergeCell ref="A134:K137"/>
+    <mergeCell ref="G144:G178"/>
+    <mergeCell ref="H128:I129"/>
+    <mergeCell ref="J128:K129"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A132:K133"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="C139:I141"/>
+    <mergeCell ref="H257:I258"/>
+    <mergeCell ref="E257:G257"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="J257:K258"/>
     <mergeCell ref="C120:I121"/>
     <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
@@ -7380,20 +9336,17 @@
     <mergeCell ref="A68:K71"/>
     <mergeCell ref="G36:G54"/>
     <mergeCell ref="C72:I74"/>
-    <mergeCell ref="H257:I258"/>
-    <mergeCell ref="E257:G257"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="E258:G258"/>
-    <mergeCell ref="J257:K258"/>
-    <mergeCell ref="A134:K137"/>
-    <mergeCell ref="G144:G178"/>
-    <mergeCell ref="H128:I129"/>
-    <mergeCell ref="J128:K129"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="C139:I141"/>
+    <mergeCell ref="C182:I183"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:I193"/>
+    <mergeCell ref="J192:K193"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="A194:K195"/>
+    <mergeCell ref="A196:K199"/>
+    <mergeCell ref="C200:I202"/>
+    <mergeCell ref="G204:G256"/>
+    <mergeCell ref="F204:F256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="29">
   <si>
     <t>Nr</t>
   </si>
@@ -118,13 +118,13 @@
     <t>KATI2</t>
   </si>
   <si>
-    <t>KATI3-TERASA</t>
-  </si>
-  <si>
     <t>KATI3</t>
   </si>
   <si>
-    <t>H1</t>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -762,6 +762,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,17 +792,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,24 +873,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,16 +885,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2805,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U317"/>
+  <dimension ref="A1:S317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A264" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D274" sqref="C270:H307"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H52" sqref="C35:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,111 +2827,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="52"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3467,7 +3470,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="21">
@@ -3494,7 +3497,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -3506,22 +3509,22 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="44" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="16" t="s">
@@ -3530,7 +3533,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="9">
@@ -3545,7 +3548,7 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G36" s="85" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="30" t="s">
@@ -3553,8 +3556,23 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>7517924.1610000003</v>
+      </c>
+      <c r="Q36">
+        <v>4692685.9009999996</v>
+      </c>
+      <c r="R36">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="9">
@@ -3569,14 +3587,29 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>7517926.7680000002</v>
+      </c>
+      <c r="Q37">
+        <v>4692678.1229999997</v>
+      </c>
+      <c r="R37">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9">
@@ -3591,14 +3624,29 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="78"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>7517929.4824999999</v>
+      </c>
+      <c r="Q38">
+        <v>4692679.0022999998</v>
+      </c>
+      <c r="R38">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9">
@@ -3613,14 +3661,29 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39">
+        <v>7517931.1023000004</v>
+      </c>
+      <c r="Q39">
+        <v>4692674.0017999997</v>
+      </c>
+      <c r="R39">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9">
@@ -3635,14 +3698,29 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>56</v>
+      </c>
+      <c r="P40">
+        <v>7517948.5199999996</v>
+      </c>
+      <c r="Q40">
+        <v>4692694.1529999999</v>
+      </c>
+      <c r="R40">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9">
@@ -3657,14 +3735,29 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="78"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>57</v>
+      </c>
+      <c r="P41">
+        <v>7517952.9117999999</v>
+      </c>
+      <c r="Q41">
+        <v>4692681.6829000004</v>
+      </c>
+      <c r="R41">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="9">
@@ -3679,36 +3772,66 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="78"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>122</v>
+      </c>
+      <c r="P42">
+        <v>7517949.3603999997</v>
+      </c>
+      <c r="Q42">
+        <v>4692691.7666999996</v>
+      </c>
+      <c r="R42">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="9">
         <v>123</v>
       </c>
       <c r="D43" s="8">
-        <v>7517951.3054</v>
+        <v>7517951.3173000002</v>
       </c>
       <c r="E43" s="8">
-        <v>4692686.2441999996</v>
+        <v>4692686.2103000004</v>
       </c>
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="78"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>123</v>
+      </c>
+      <c r="P43">
+        <v>7517951.3173000002</v>
+      </c>
+      <c r="Q43">
+        <v>4692686.2103000004</v>
+      </c>
+      <c r="R43">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="9">
@@ -3723,38 +3846,68 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>124</v>
+      </c>
+      <c r="P44">
+        <v>7517950.0350000001</v>
+      </c>
+      <c r="Q44">
+        <v>4692680.6697000004</v>
+      </c>
+      <c r="R44">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="9">
         <v>125</v>
       </c>
       <c r="D45" s="8">
-        <v>7517948.4286000002</v>
+        <v>7517948.4406000003</v>
       </c>
       <c r="E45" s="8">
-        <v>4692685.2309999997</v>
+        <v>4692685.1972000003</v>
       </c>
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="85"/>
       <c r="H45" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>125</v>
+      </c>
+      <c r="P45">
+        <v>7517948.4406000003</v>
+      </c>
+      <c r="Q45">
+        <v>4692685.1972000003</v>
+      </c>
+      <c r="R45">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="9">
@@ -3769,202 +3922,362 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="78"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>126</v>
+      </c>
+      <c r="P46">
+        <v>7517946.4715</v>
+      </c>
+      <c r="Q46">
+        <v>4692690.7879999997</v>
+      </c>
+      <c r="R46">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="9">
         <v>127</v>
       </c>
       <c r="D47" s="8">
-        <v>7517941.8687000005</v>
+        <v>7517942.0581</v>
       </c>
       <c r="E47" s="8">
-        <v>4692689.2286999999</v>
+        <v>4692689.2928999998</v>
       </c>
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="78"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>127</v>
+      </c>
+      <c r="P47">
+        <v>7517942.0581</v>
+      </c>
+      <c r="Q47">
+        <v>4692689.2928999998</v>
+      </c>
+      <c r="R47">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="9">
         <v>128</v>
       </c>
       <c r="D48" s="8">
-        <v>7517941.0272000004</v>
+        <v>7517941.2176000001</v>
       </c>
       <c r="E48" s="8">
-        <v>4692691.6179</v>
+        <v>4692691.6792000001</v>
       </c>
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="78"/>
+      <c r="G48" s="85"/>
       <c r="H48" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>128</v>
+      </c>
+      <c r="P48">
+        <v>7517941.2176000001</v>
+      </c>
+      <c r="Q48">
+        <v>4692691.6792000001</v>
+      </c>
+      <c r="R48">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="9">
         <v>129</v>
       </c>
       <c r="D49" s="8">
-        <v>7517926.9834000003</v>
+        <v>7517926.9426999995</v>
       </c>
       <c r="E49" s="8">
-        <v>4692686.8570999997</v>
+        <v>4692686.8432999998</v>
       </c>
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="78"/>
+      <c r="G49" s="85"/>
       <c r="H49" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>129</v>
+      </c>
+      <c r="P49">
+        <v>7517926.9426999995</v>
+      </c>
+      <c r="Q49">
+        <v>4692686.8432999998</v>
+      </c>
+      <c r="R49">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="9">
         <v>130</v>
       </c>
       <c r="D50" s="8">
-        <v>7517925.7034</v>
+        <v>7517924.6376999998</v>
       </c>
       <c r="E50" s="8">
-        <v>4692686.4281000001</v>
+        <v>4692684.4787999997</v>
       </c>
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="78"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>130</v>
+      </c>
+      <c r="P50">
+        <v>7517924.6376999998</v>
+      </c>
+      <c r="Q50">
+        <v>4692684.4787999997</v>
+      </c>
+      <c r="R50">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="9">
         <v>131</v>
       </c>
       <c r="D51" s="8">
-        <v>7517927.4121000003</v>
+        <v>7517927.4254000001</v>
       </c>
       <c r="E51" s="8">
-        <v>4692681.3301999997</v>
+        <v>4692681.2265999997</v>
       </c>
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="78"/>
+      <c r="G51" s="85"/>
       <c r="H51" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>131</v>
+      </c>
+      <c r="P51">
+        <v>7517927.4254000001</v>
+      </c>
+      <c r="Q51">
+        <v>4692681.2265999997</v>
+      </c>
+      <c r="R51">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="9">
         <v>132</v>
       </c>
       <c r="D52" s="8">
-        <v>7517928.6359000001</v>
+        <v>7517928.6299000001</v>
       </c>
       <c r="E52" s="8">
-        <v>4692681.7456999999</v>
+        <v>4692681.6346000005</v>
       </c>
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="85"/>
       <c r="H52" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>132</v>
+      </c>
+      <c r="P52">
+        <v>7517928.6299000001</v>
+      </c>
+      <c r="Q52">
+        <v>4692681.6346000005</v>
+      </c>
+      <c r="R52">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="9">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D53" s="8">
-        <v>7517945.1684999997</v>
+        <v>7517945.6312999995</v>
       </c>
       <c r="E53" s="8">
-        <v>4692693.0225999998</v>
+        <v>4692693.1743999999</v>
       </c>
       <c r="F53" s="8">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="G53" s="78"/>
-      <c r="H53" s="9" t="s">
-        <v>20</v>
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G53" s="85"/>
+      <c r="H53" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>133</v>
+      </c>
+      <c r="P53">
+        <v>7517945.6312999995</v>
+      </c>
+      <c r="Q53">
+        <v>4692693.1743999999</v>
+      </c>
+      <c r="R53">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" s="8">
-        <v>7517926.4434000002</v>
+        <v>7517945.1684999997</v>
       </c>
       <c r="E54" s="8">
-        <v>4692686.6742000002</v>
+        <v>4692693.0225999998</v>
       </c>
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="78"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>104</v>
+      </c>
+      <c r="P54">
+        <v>7517945.1684999997</v>
+      </c>
+      <c r="Q54">
+        <v>4692693.0225999998</v>
+      </c>
+      <c r="R54">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="9">
+        <v>103</v>
+      </c>
+      <c r="D55" s="8">
+        <v>7517926.4434000002</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4692686.6742000002</v>
+      </c>
+      <c r="F55" s="8">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="G55" s="85"/>
+      <c r="H55" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>103</v>
+      </c>
+      <c r="P55">
+        <v>7517926.4434000002</v>
+      </c>
+      <c r="Q55">
+        <v>4692686.6742000002</v>
+      </c>
+      <c r="R55">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="S55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
@@ -3977,7 +4290,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
@@ -3990,7 +4303,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
@@ -4003,180 +4316,180 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59" t="s">
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="60"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="64"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="72"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70">
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78">
         <v>140</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="66"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="53"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="52"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="56"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
@@ -4224,10 +4537,10 @@
       <c r="E77" s="30">
         <v>4692679.7653000001</v>
       </c>
-      <c r="F77" s="75">
+      <c r="F77" s="61">
         <v>616.38300000000004</v>
       </c>
-      <c r="G77" s="75" t="s">
+      <c r="G77" s="61" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="30" t="s">
@@ -4249,8 +4562,8 @@
       <c r="E78" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
       <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
@@ -4270,8 +4583,8 @@
       <c r="E79" s="30">
         <v>4692673.07</v>
       </c>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
       <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
@@ -4291,8 +4604,8 @@
       <c r="E80" s="30">
         <v>4692673.5259999996</v>
       </c>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
       <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
@@ -4312,8 +4625,8 @@
       <c r="E81" s="30">
         <v>4692673.2819999997</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
@@ -4333,8 +4646,8 @@
       <c r="E82" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
       <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
@@ -4354,8 +4667,8 @@
       <c r="E83" s="30">
         <v>4692672.7690000003</v>
       </c>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
@@ -4375,8 +4688,8 @@
       <c r="E84" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
       <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
@@ -4396,8 +4709,8 @@
       <c r="E85" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
       <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
@@ -4417,8 +4730,8 @@
       <c r="E86" s="30">
         <v>4692687.3470000001</v>
       </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
       <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
@@ -4438,8 +4751,8 @@
       <c r="E87" s="30">
         <v>4692681.023</v>
       </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
       <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
@@ -4459,8 +4772,8 @@
       <c r="E88" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
       <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
@@ -4480,8 +4793,8 @@
       <c r="E89" s="30">
         <v>4692687.1399999997</v>
       </c>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
@@ -4501,8 +4814,8 @@
       <c r="E90" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
       <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
@@ -4522,8 +4835,8 @@
       <c r="E91" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
@@ -4543,8 +4856,8 @@
       <c r="E92" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
       <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
@@ -4564,8 +4877,8 @@
       <c r="E93" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
@@ -4585,8 +4898,8 @@
       <c r="E94" s="30">
         <v>4692687.1445000004</v>
       </c>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
       <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
@@ -4606,8 +4919,8 @@
       <c r="E95" s="30">
         <v>4692684.3208999997</v>
       </c>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
@@ -4627,8 +4940,8 @@
       <c r="E96" s="30">
         <v>4692683.9785000002</v>
       </c>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
       <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
@@ -4648,8 +4961,8 @@
       <c r="E97" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
@@ -4669,8 +4982,8 @@
       <c r="E98" s="30">
         <v>4692678.2884999998</v>
       </c>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
       <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
@@ -4690,8 +5003,8 @@
       <c r="E99" s="30">
         <v>4692678.7551999995</v>
       </c>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
       <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +5024,8 @@
       <c r="E100" s="30">
         <v>4692679.1836999999</v>
       </c>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
       <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
@@ -4732,8 +5045,8 @@
       <c r="E101" s="30">
         <v>4692679.26</v>
       </c>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
@@ -4753,8 +5066,8 @@
       <c r="E102" s="30">
         <v>4692680.1398</v>
       </c>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
       <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
@@ -4774,8 +5087,8 @@
       <c r="E103" s="30">
         <v>4692685.5575999999</v>
       </c>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
@@ -4795,8 +5108,8 @@
       <c r="E104" s="30">
         <v>4692686.4374000002</v>
       </c>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
       <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
@@ -4816,8 +5129,8 @@
       <c r="E105" s="30">
         <v>4692690.9013999999</v>
       </c>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
@@ -4837,8 +5150,8 @@
       <c r="E106" s="30">
         <v>4692693.1089000003</v>
       </c>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
       <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
@@ -4858,8 +5171,8 @@
       <c r="E107" s="30">
         <v>4692689.4746000003</v>
       </c>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
@@ -4879,8 +5192,8 @@
       <c r="E108" s="30">
         <v>4692687.7706000004</v>
       </c>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
       <c r="H108" s="30" t="s">
         <v>8</v>
       </c>
@@ -4900,8 +5213,8 @@
       <c r="E109" s="30">
         <v>4692689.9780000001</v>
       </c>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="30" t="s">
         <v>8</v>
       </c>
@@ -4921,8 +5234,8 @@
       <c r="E110" s="30">
         <v>4692671.8150000004</v>
       </c>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="30" t="s">
         <v>8</v>
       </c>
@@ -5050,28 +5363,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="55" t="s">
+      <c r="C120" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -5160,114 +5473,114 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="56" t="s">
+      <c r="E128" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="57"/>
-      <c r="G128" s="58"/>
-      <c r="H128" s="59" t="s">
+      <c r="F128" s="65"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="60"/>
-      <c r="J128" s="63"/>
-      <c r="K128" s="64"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="72"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="67" t="s">
+      <c r="A129" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="68"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="70">
+      <c r="B129" s="76"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="78">
         <v>140</v>
       </c>
-      <c r="F129" s="71"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="66"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="73"/>
+      <c r="K129" s="74"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="44"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="46"/>
     </row>
     <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="44"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
+      <c r="J133" s="46"/>
+      <c r="K133" s="46"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="45" t="s">
+      <c r="A134" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="45"/>
-      <c r="K134" s="45"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="45"/>
-      <c r="K135" s="45"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
     </row>
     <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="45"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
     </row>
     <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="45"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="47"/>
     </row>
     <row r="138" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -5284,37 +5597,37 @@
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="50"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="53"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
-      <c r="C141" s="73"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="52"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="56"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
@@ -5365,7 +5678,7 @@
       <c r="F144" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G144" s="75" t="s">
+      <c r="G144" s="61" t="s">
         <v>24</v>
       </c>
       <c r="H144" s="30" t="s">
@@ -5390,7 +5703,7 @@
       <c r="F145" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G145" s="76"/>
+      <c r="G145" s="62"/>
       <c r="H145" s="30" t="s">
         <v>8</v>
       </c>
@@ -5413,7 +5726,7 @@
       <c r="F146" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G146" s="76"/>
+      <c r="G146" s="62"/>
       <c r="H146" s="30" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5749,7 @@
       <c r="F147" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G147" s="76"/>
+      <c r="G147" s="62"/>
       <c r="H147" s="30" t="s">
         <v>8</v>
       </c>
@@ -5459,7 +5772,7 @@
       <c r="F148" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G148" s="76"/>
+      <c r="G148" s="62"/>
       <c r="H148" s="30" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5795,7 @@
       <c r="F149" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G149" s="76"/>
+      <c r="G149" s="62"/>
       <c r="H149" s="30" t="s">
         <v>8</v>
       </c>
@@ -5505,7 +5818,7 @@
       <c r="F150" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G150" s="76"/>
+      <c r="G150" s="62"/>
       <c r="H150" s="30" t="s">
         <v>8</v>
       </c>
@@ -5528,7 +5841,7 @@
       <c r="F151" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G151" s="76"/>
+      <c r="G151" s="62"/>
       <c r="H151" s="30" t="s">
         <v>8</v>
       </c>
@@ -5551,7 +5864,7 @@
       <c r="F152" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G152" s="76"/>
+      <c r="G152" s="62"/>
       <c r="H152" s="30" t="s">
         <v>8</v>
       </c>
@@ -5574,7 +5887,7 @@
       <c r="F153" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G153" s="76"/>
+      <c r="G153" s="62"/>
       <c r="H153" s="30" t="s">
         <v>8</v>
       </c>
@@ -5597,7 +5910,7 @@
       <c r="F154" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G154" s="76"/>
+      <c r="G154" s="62"/>
       <c r="H154" s="30" t="s">
         <v>8</v>
       </c>
@@ -5620,7 +5933,7 @@
       <c r="F155" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G155" s="76"/>
+      <c r="G155" s="62"/>
       <c r="H155" s="30" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +5956,7 @@
       <c r="F156" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G156" s="76"/>
+      <c r="G156" s="62"/>
       <c r="H156" s="30" t="s">
         <v>8</v>
       </c>
@@ -5666,7 +5979,7 @@
       <c r="F157" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G157" s="76"/>
+      <c r="G157" s="62"/>
       <c r="H157" s="30" t="s">
         <v>8</v>
       </c>
@@ -5689,7 +6002,7 @@
       <c r="F158" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G158" s="76"/>
+      <c r="G158" s="62"/>
       <c r="H158" s="30" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +6025,7 @@
       <c r="F159" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G159" s="76"/>
+      <c r="G159" s="62"/>
       <c r="H159" s="30" t="s">
         <v>8</v>
       </c>
@@ -5735,7 +6048,7 @@
       <c r="F160" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G160" s="76"/>
+      <c r="G160" s="62"/>
       <c r="H160" s="30" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +6071,7 @@
       <c r="F161" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G161" s="76"/>
+      <c r="G161" s="62"/>
       <c r="H161" s="30" t="s">
         <v>8</v>
       </c>
@@ -5781,7 +6094,7 @@
       <c r="F162" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G162" s="76"/>
+      <c r="G162" s="62"/>
       <c r="H162" s="30" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +6117,7 @@
       <c r="F163" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G163" s="76"/>
+      <c r="G163" s="62"/>
       <c r="H163" s="30" t="s">
         <v>8</v>
       </c>
@@ -5827,7 +6140,7 @@
       <c r="F164" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G164" s="76"/>
+      <c r="G164" s="62"/>
       <c r="H164" s="30" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +6163,7 @@
       <c r="F165" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G165" s="76"/>
+      <c r="G165" s="62"/>
       <c r="H165" s="30" t="s">
         <v>8</v>
       </c>
@@ -5873,7 +6186,7 @@
       <c r="F166" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G166" s="76"/>
+      <c r="G166" s="62"/>
       <c r="H166" s="30" t="s">
         <v>8</v>
       </c>
@@ -5896,7 +6209,7 @@
       <c r="F167" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G167" s="76"/>
+      <c r="G167" s="62"/>
       <c r="H167" s="30" t="s">
         <v>8</v>
       </c>
@@ -5919,7 +6232,7 @@
       <c r="F168" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G168" s="76"/>
+      <c r="G168" s="62"/>
       <c r="H168" s="30" t="s">
         <v>8</v>
       </c>
@@ -5942,7 +6255,7 @@
       <c r="F169" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G169" s="76"/>
+      <c r="G169" s="62"/>
       <c r="H169" s="30" t="s">
         <v>8</v>
       </c>
@@ -5965,7 +6278,7 @@
       <c r="F170" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G170" s="76"/>
+      <c r="G170" s="62"/>
       <c r="H170" s="30" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +6301,7 @@
       <c r="F171" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G171" s="76"/>
+      <c r="G171" s="62"/>
       <c r="H171" s="30" t="s">
         <v>8</v>
       </c>
@@ -6010,7 +6323,7 @@
       <c r="F172" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G172" s="76"/>
+      <c r="G172" s="62"/>
       <c r="H172" s="30" t="s">
         <v>8</v>
       </c>
@@ -6032,7 +6345,7 @@
       <c r="F173" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G173" s="76"/>
+      <c r="G173" s="62"/>
       <c r="H173" s="30" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +6368,7 @@
       <c r="F174" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G174" s="76"/>
+      <c r="G174" s="62"/>
       <c r="H174" s="30" t="s">
         <v>8</v>
       </c>
@@ -6078,7 +6391,7 @@
       <c r="F175" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G175" s="76"/>
+      <c r="G175" s="62"/>
       <c r="H175" s="30" t="s">
         <v>8</v>
       </c>
@@ -6101,7 +6414,7 @@
       <c r="F176" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G176" s="76"/>
+      <c r="G176" s="62"/>
       <c r="H176" s="30" t="s">
         <v>8</v>
       </c>
@@ -6124,7 +6437,7 @@
       <c r="F177" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G177" s="76"/>
+      <c r="G177" s="62"/>
       <c r="H177" s="30" t="s">
         <v>8</v>
       </c>
@@ -6147,7 +6460,7 @@
       <c r="F178" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G178" s="77"/>
+      <c r="G178" s="63"/>
       <c r="H178" s="30" t="s">
         <v>20</v>
       </c>
@@ -6197,28 +6510,28 @@
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="55" t="s">
+      <c r="C182" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
@@ -6333,152 +6646,152 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="56" t="s">
+      <c r="E192" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F192" s="57"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="59" t="s">
+      <c r="F192" s="65"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I192" s="60"/>
-      <c r="J192" s="63"/>
-      <c r="K192" s="64"/>
-    </row>
-    <row r="193" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="67" t="s">
+      <c r="I192" s="68"/>
+      <c r="J192" s="71"/>
+      <c r="K192" s="72"/>
+    </row>
+    <row r="193" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="68"/>
-      <c r="C193" s="68"/>
-      <c r="D193" s="69"/>
-      <c r="E193" s="70">
+      <c r="B193" s="76"/>
+      <c r="C193" s="76"/>
+      <c r="D193" s="77"/>
+      <c r="E193" s="78">
         <v>140</v>
       </c>
-      <c r="F193" s="71"/>
-      <c r="G193" s="72"/>
-      <c r="H193" s="61"/>
-      <c r="I193" s="62"/>
-      <c r="J193" s="65"/>
-      <c r="K193" s="66"/>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
-      <c r="B194" s="44"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="44"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="44"/>
-      <c r="I194" s="44"/>
-      <c r="J194" s="44"/>
-      <c r="K194" s="44"/>
-    </row>
-    <row r="195" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
-      <c r="B195" s="44"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="44"/>
-      <c r="I195" s="44"/>
-      <c r="J195" s="44"/>
-      <c r="K195" s="44"/>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A196" s="45" t="s">
+      <c r="F193" s="79"/>
+      <c r="G193" s="80"/>
+      <c r="H193" s="69"/>
+      <c r="I193" s="70"/>
+      <c r="J193" s="73"/>
+      <c r="K193" s="74"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="46"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="46"/>
+      <c r="J194" s="46"/>
+      <c r="K194" s="46"/>
+    </row>
+    <row r="195" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="46"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="46"/>
+      <c r="J195" s="46"/>
+      <c r="K195" s="46"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="45"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="45"/>
-      <c r="H196" s="45"/>
-      <c r="I196" s="45"/>
-      <c r="J196" s="45"/>
-      <c r="K196" s="45"/>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A197" s="45"/>
-      <c r="B197" s="45"/>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="45"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A198" s="45"/>
-      <c r="B198" s="45"/>
-      <c r="C198" s="45"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="45"/>
-      <c r="H198" s="45"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="45"/>
-    </row>
-    <row r="199" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="45"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="45"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="45"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="45"/>
-      <c r="H199" s="45"/>
-      <c r="I199" s="45"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
-    </row>
-    <row r="200" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B196" s="47"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="47"/>
+      <c r="I196" s="47"/>
+      <c r="J196" s="47"/>
+      <c r="K196" s="47"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="47"/>
+      <c r="I197" s="47"/>
+      <c r="J197" s="47"/>
+      <c r="K197" s="47"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="47"/>
+      <c r="F198" s="47"/>
+      <c r="G198" s="47"/>
+      <c r="H198" s="47"/>
+      <c r="I198" s="47"/>
+      <c r="J198" s="47"/>
+      <c r="K198" s="47"/>
+    </row>
+    <row r="199" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="47"/>
+      <c r="D199" s="47"/>
+      <c r="E199" s="47"/>
+      <c r="F199" s="47"/>
+      <c r="G199" s="47"/>
+      <c r="H199" s="47"/>
+      <c r="I199" s="47"/>
+      <c r="J199" s="47"/>
+      <c r="K199" s="47"/>
+    </row>
+    <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="C200" s="46"/>
-      <c r="D200" s="47"/>
-      <c r="E200" s="47"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="48"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="49"/>
+      <c r="H200" s="49"/>
+      <c r="I200" s="50"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="C201" s="49"/>
-      <c r="D201" s="50"/>
-      <c r="E201" s="50"/>
-      <c r="F201" s="50"/>
-      <c r="G201" s="50"/>
-      <c r="H201" s="50"/>
-      <c r="I201" s="51"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="52"/>
+      <c r="I201" s="53"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
-      <c r="C202" s="49"/>
-      <c r="D202" s="50"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
-      <c r="H202" s="50"/>
-      <c r="I202" s="52"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
+      <c r="H202" s="52"/>
+      <c r="I202" s="56"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="36" t="s">
@@ -6503,7 +6816,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="39">
@@ -6515,10 +6828,10 @@
       <c r="E204" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F204" s="53">
+      <c r="F204" s="86">
         <v>622.86300000000006</v>
       </c>
-      <c r="G204" s="53" t="s">
+      <c r="G204" s="86" t="s">
         <v>25</v>
       </c>
       <c r="H204" s="40" t="s">
@@ -6527,23 +6840,8 @@
       <c r="I204" s="31"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
-      <c r="Q204">
-        <v>26</v>
-      </c>
-      <c r="R204">
-        <v>7517929.8310000002</v>
-      </c>
-      <c r="S204">
-        <v>4692673.5029999996</v>
-      </c>
-      <c r="T204">
-        <v>625.72</v>
-      </c>
-      <c r="U204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="39">
@@ -6555,31 +6853,16 @@
       <c r="E205" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F205" s="53"/>
-      <c r="G205" s="53"/>
+      <c r="F205" s="86"/>
+      <c r="G205" s="86"/>
       <c r="H205" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I205" s="31"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
-      <c r="Q205">
-        <v>27</v>
-      </c>
-      <c r="R205">
-        <v>7517930.2989999996</v>
-      </c>
-      <c r="S205">
-        <v>4692672.9689999996</v>
-      </c>
-      <c r="T205">
-        <v>625.72</v>
-      </c>
-      <c r="U205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="39">
@@ -6591,31 +6874,16 @@
       <c r="E206" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F206" s="53"/>
-      <c r="G206" s="53"/>
+      <c r="F206" s="86"/>
+      <c r="G206" s="86"/>
       <c r="H206" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I206" s="31"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
-      <c r="Q206">
-        <v>28</v>
-      </c>
-      <c r="R206">
-        <v>7517931.2220000001</v>
-      </c>
-      <c r="S206">
-        <v>4692672.7319999998</v>
-      </c>
-      <c r="T206">
-        <v>625.72</v>
-      </c>
-      <c r="U206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="39">
@@ -6627,31 +6895,16 @@
       <c r="E207" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F207" s="53"/>
-      <c r="G207" s="53"/>
+      <c r="F207" s="86"/>
+      <c r="G207" s="86"/>
       <c r="H207" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I207" s="31"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
-      <c r="Q207">
-        <v>29</v>
-      </c>
-      <c r="R207">
-        <v>7517931.6050000004</v>
-      </c>
-      <c r="S207">
-        <v>4692672.7970000003</v>
-      </c>
-      <c r="T207">
-        <v>625.72</v>
-      </c>
-      <c r="U207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="39">
@@ -6663,31 +6916,16 @@
       <c r="E208" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
+      <c r="F208" s="86"/>
+      <c r="G208" s="86"/>
       <c r="H208" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I208" s="31"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
-      <c r="Q208">
-        <v>30</v>
-      </c>
-      <c r="R208">
-        <v>7517936.4819999998</v>
-      </c>
-      <c r="S208">
-        <v>4692674.3839999996</v>
-      </c>
-      <c r="T208">
-        <v>625.72</v>
-      </c>
-      <c r="U208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="39">
@@ -6699,31 +6937,16 @@
       <c r="E209" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F209" s="53"/>
-      <c r="G209" s="53"/>
+      <c r="F209" s="86"/>
+      <c r="G209" s="86"/>
       <c r="H209" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I209" s="31"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
-      <c r="Q209">
-        <v>52</v>
-      </c>
-      <c r="R209">
-        <v>7517945.9759999998</v>
-      </c>
-      <c r="S209">
-        <v>4692677.5640000002</v>
-      </c>
-      <c r="T209">
-        <v>625.72</v>
-      </c>
-      <c r="U209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="39">
@@ -6735,31 +6958,16 @@
       <c r="E210" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F210" s="53"/>
-      <c r="G210" s="53"/>
+      <c r="F210" s="86"/>
+      <c r="G210" s="86"/>
       <c r="H210" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I210" s="31"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
-      <c r="Q210">
-        <v>53</v>
-      </c>
-      <c r="R210">
-        <v>7517950.3880000003</v>
-      </c>
-      <c r="S210">
-        <v>4692679.0279999999</v>
-      </c>
-      <c r="T210">
-        <v>625.72</v>
-      </c>
-      <c r="U210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="39">
@@ -6771,31 +6979,16 @@
       <c r="E211" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F211" s="53"/>
-      <c r="G211" s="53"/>
+      <c r="F211" s="86"/>
+      <c r="G211" s="86"/>
       <c r="H211" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I211" s="31"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
-      <c r="Q211">
-        <v>54</v>
-      </c>
-      <c r="R211">
-        <v>7517949.9369999999</v>
-      </c>
-      <c r="S211">
-        <v>4692680.25</v>
-      </c>
-      <c r="T211">
-        <v>625.72</v>
-      </c>
-      <c r="U211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="39">
@@ -6807,31 +7000,16 @@
       <c r="E212" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F212" s="53"/>
-      <c r="G212" s="53"/>
+      <c r="F212" s="86"/>
+      <c r="G212" s="86"/>
       <c r="H212" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I212" s="31"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
-      <c r="Q212">
-        <v>21</v>
-      </c>
-      <c r="R212">
-        <v>7517928.4314999999</v>
-      </c>
-      <c r="S212">
-        <v>4692673.0663999999</v>
-      </c>
-      <c r="T212">
-        <v>625.72</v>
-      </c>
-      <c r="U212" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="39">
@@ -6843,31 +7021,16 @@
       <c r="E213" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F213" s="53"/>
-      <c r="G213" s="53"/>
+      <c r="F213" s="86"/>
+      <c r="G213" s="86"/>
       <c r="H213" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I213" s="31"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
-      <c r="Q213">
-        <v>22</v>
-      </c>
-      <c r="R213">
-        <v>7517936.0539999995</v>
-      </c>
-      <c r="S213">
-        <v>4692675.5999999996</v>
-      </c>
-      <c r="T213">
-        <v>625.72</v>
-      </c>
-      <c r="U213" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="39">
@@ -6879,31 +7042,16 @@
       <c r="E214" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F214" s="53"/>
-      <c r="G214" s="53"/>
+      <c r="F214" s="86"/>
+      <c r="G214" s="86"/>
       <c r="H214" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I214" s="31"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
-      <c r="Q214">
-        <v>23</v>
-      </c>
-      <c r="R214">
-        <v>7517936.5029999996</v>
-      </c>
-      <c r="S214">
-        <v>4692674.3310000002</v>
-      </c>
-      <c r="T214">
-        <v>625.72</v>
-      </c>
-      <c r="U214" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="39">
@@ -6915,31 +7063,16 @@
       <c r="E215" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F215" s="53"/>
-      <c r="G215" s="53"/>
+      <c r="F215" s="86"/>
+      <c r="G215" s="86"/>
       <c r="H215" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I215" s="31"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
-      <c r="Q215">
-        <v>24</v>
-      </c>
-      <c r="R215">
-        <v>7517941</v>
-      </c>
-      <c r="S215">
-        <v>4692675.5310000004</v>
-      </c>
-      <c r="T215">
-        <v>625.72</v>
-      </c>
-      <c r="U215" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="39">
@@ -6951,31 +7084,16 @@
       <c r="E216" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F216" s="53"/>
-      <c r="G216" s="53"/>
+      <c r="F216" s="86"/>
+      <c r="G216" s="86"/>
       <c r="H216" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I216" s="31"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
-      <c r="Q216">
-        <v>25</v>
-      </c>
-      <c r="R216">
-        <v>7517924.0990000004</v>
-      </c>
-      <c r="S216">
-        <v>4692685.9060000004</v>
-      </c>
-      <c r="T216">
-        <v>625.72</v>
-      </c>
-      <c r="U216" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="39">
@@ -6987,31 +7105,16 @@
       <c r="E217" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F217" s="53"/>
-      <c r="G217" s="53"/>
+      <c r="F217" s="86"/>
+      <c r="G217" s="86"/>
       <c r="H217" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I217" s="31"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
-      <c r="Q217">
-        <v>44</v>
-      </c>
-      <c r="R217">
-        <v>7517945.9960000003</v>
-      </c>
-      <c r="S217">
-        <v>4692677.4869999997</v>
-      </c>
-      <c r="T217">
-        <v>625.72</v>
-      </c>
-      <c r="U217" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="39">
@@ -7023,31 +7126,16 @@
       <c r="E218" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F218" s="53"/>
-      <c r="G218" s="53"/>
+      <c r="F218" s="86"/>
+      <c r="G218" s="86"/>
       <c r="H218" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I218" s="31"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
-      <c r="Q218">
-        <v>45</v>
-      </c>
-      <c r="R218">
-        <v>7517945.5499999998</v>
-      </c>
-      <c r="S218">
-        <v>4692678.7819999997</v>
-      </c>
-      <c r="T218">
-        <v>625.72</v>
-      </c>
-      <c r="U218" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="39">
@@ -7059,31 +7147,16 @@
       <c r="E219" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F219" s="53"/>
-      <c r="G219" s="53"/>
+      <c r="F219" s="86"/>
+      <c r="G219" s="86"/>
       <c r="H219" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I219" s="31"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
-      <c r="Q219">
-        <v>46</v>
-      </c>
-      <c r="R219">
-        <v>7517953.0659999996</v>
-      </c>
-      <c r="S219">
-        <v>4692681.2970000003</v>
-      </c>
-      <c r="T219">
-        <v>625.72</v>
-      </c>
-      <c r="U219" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="39">
@@ -7095,31 +7168,16 @@
       <c r="E220" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F220" s="53"/>
-      <c r="G220" s="53"/>
+      <c r="F220" s="86"/>
+      <c r="G220" s="86"/>
       <c r="H220" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I220" s="31"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
-      <c r="Q220">
-        <v>47</v>
-      </c>
-      <c r="R220">
-        <v>7517951.3300000001</v>
-      </c>
-      <c r="S220">
-        <v>4692686.5060000001</v>
-      </c>
-      <c r="T220">
-        <v>625.72</v>
-      </c>
-      <c r="U220" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="39">
@@ -7131,31 +7189,16 @@
       <c r="E221" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F221" s="53"/>
-      <c r="G221" s="53"/>
+      <c r="F221" s="86"/>
+      <c r="G221" s="86"/>
       <c r="H221" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I221" s="31"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
-      <c r="Q221">
-        <v>48</v>
-      </c>
-      <c r="R221">
-        <v>7517951.9978</v>
-      </c>
-      <c r="S221">
-        <v>4692687.1791000003</v>
-      </c>
-      <c r="T221">
-        <v>625.72</v>
-      </c>
-      <c r="U221" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="39">
@@ -7167,31 +7210,16 @@
       <c r="E222" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F222" s="53"/>
-      <c r="G222" s="53"/>
+      <c r="F222" s="86"/>
+      <c r="G222" s="86"/>
       <c r="H222" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I222" s="31"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
-      <c r="Q222">
-        <v>49</v>
-      </c>
-      <c r="R222">
-        <v>7517952.0760000004</v>
-      </c>
-      <c r="S222">
-        <v>4692688.1239999998</v>
-      </c>
-      <c r="T222">
-        <v>625.72</v>
-      </c>
-      <c r="U222" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="39">
@@ -7203,31 +7231,16 @@
       <c r="E223" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F223" s="53"/>
-      <c r="G223" s="53"/>
+      <c r="F223" s="86"/>
+      <c r="G223" s="86"/>
       <c r="H223" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I223" s="31"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
-      <c r="Q223">
-        <v>50</v>
-      </c>
-      <c r="R223">
-        <v>7517949.5559999999</v>
-      </c>
-      <c r="S223">
-        <v>4692694.1169999996</v>
-      </c>
-      <c r="T223">
-        <v>625.72</v>
-      </c>
-      <c r="U223" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="39">
@@ -7239,31 +7252,16 @@
       <c r="E224" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F224" s="53"/>
-      <c r="G224" s="53"/>
+      <c r="F224" s="86"/>
+      <c r="G224" s="86"/>
       <c r="H224" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I224" s="31"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
-      <c r="Q224">
-        <v>51</v>
-      </c>
-      <c r="R224">
-        <v>7517950.1849999996</v>
-      </c>
-      <c r="S224">
-        <v>4692693.4919999996</v>
-      </c>
-      <c r="T224">
-        <v>625.72</v>
-      </c>
-      <c r="U224" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="39">
@@ -7275,31 +7273,16 @@
       <c r="E225" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F225" s="53"/>
-      <c r="G225" s="53"/>
+      <c r="F225" s="86"/>
+      <c r="G225" s="86"/>
       <c r="H225" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I225" s="31"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
-      <c r="Q225">
-        <v>106</v>
-      </c>
-      <c r="R225">
-        <v>7517948.5300000003</v>
-      </c>
-      <c r="S225">
-        <v>4692694.1579999998</v>
-      </c>
-      <c r="T225">
-        <v>625.72</v>
-      </c>
-      <c r="U225" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="39">
@@ -7311,31 +7294,16 @@
       <c r="E226" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F226" s="53"/>
-      <c r="G226" s="53"/>
+      <c r="F226" s="86"/>
+      <c r="G226" s="86"/>
       <c r="H226" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I226" s="31"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
-      <c r="Q226">
-        <v>179</v>
-      </c>
-      <c r="R226">
-        <v>7517936.1931999996</v>
-      </c>
-      <c r="S226">
-        <v>4692689.9910000004</v>
-      </c>
-      <c r="T226">
-        <v>625.72</v>
-      </c>
-      <c r="U226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="39">
@@ -7347,31 +7315,16 @@
       <c r="E227" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F227" s="53"/>
-      <c r="G227" s="53"/>
+      <c r="F227" s="86"/>
+      <c r="G227" s="86"/>
       <c r="H227" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I227" s="31"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
-      <c r="Q227">
-        <v>180</v>
-      </c>
-      <c r="R227">
-        <v>7517940.9392999997</v>
-      </c>
-      <c r="S227">
-        <v>4692691.5941000003</v>
-      </c>
-      <c r="T227">
-        <v>625.72</v>
-      </c>
-      <c r="U227" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="39">
@@ -7383,31 +7336,16 @@
       <c r="E228" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F228" s="53"/>
-      <c r="G228" s="53"/>
+      <c r="F228" s="86"/>
+      <c r="G228" s="86"/>
       <c r="H228" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I228" s="31"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
-      <c r="Q228">
-        <v>181</v>
-      </c>
-      <c r="R228">
-        <v>7517943.0431000004</v>
-      </c>
-      <c r="S228">
-        <v>4692685.3595000003</v>
-      </c>
-      <c r="T228">
-        <v>625.72</v>
-      </c>
-      <c r="U228" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="39">
@@ -7419,31 +7357,16 @@
       <c r="E229" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F229" s="53"/>
-      <c r="G229" s="53"/>
+      <c r="F229" s="86"/>
+      <c r="G229" s="86"/>
       <c r="H229" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I229" s="31"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-      <c r="Q229">
-        <v>182</v>
-      </c>
-      <c r="R229">
-        <v>7517938.2966</v>
-      </c>
-      <c r="S229">
-        <v>4692683.7562999995</v>
-      </c>
-      <c r="T229">
-        <v>625.72</v>
-      </c>
-      <c r="U229" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="39">
@@ -7455,31 +7378,16 @@
       <c r="E230" s="30">
         <v>4692687.4755999995</v>
       </c>
-      <c r="F230" s="53"/>
-      <c r="G230" s="53"/>
+      <c r="F230" s="86"/>
+      <c r="G230" s="86"/>
       <c r="H230" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I230" s="31"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
-      <c r="Q230">
-        <v>183</v>
-      </c>
-      <c r="R230">
-        <v>7517928.8554999996</v>
-      </c>
-      <c r="S230">
-        <v>4692680.5674000001</v>
-      </c>
-      <c r="T230">
-        <v>625.72</v>
-      </c>
-      <c r="U230" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="39">
@@ -7491,31 +7399,16 @@
       <c r="E231" s="30">
         <v>4692681.2410000004</v>
       </c>
-      <c r="F231" s="53"/>
-      <c r="G231" s="53"/>
+      <c r="F231" s="86"/>
+      <c r="G231" s="86"/>
       <c r="H231" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I231" s="31"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
-      <c r="Q231">
-        <v>184</v>
-      </c>
-      <c r="R231">
-        <v>7517927.7045</v>
-      </c>
-      <c r="S231">
-        <v>4692683.9784000004</v>
-      </c>
-      <c r="T231">
-        <v>625.72</v>
-      </c>
-      <c r="U231" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="39">
@@ -7527,31 +7420,16 @@
       <c r="E232" s="30">
         <v>4692682.2426000005</v>
       </c>
-      <c r="F232" s="53"/>
-      <c r="G232" s="53"/>
+      <c r="F232" s="86"/>
+      <c r="G232" s="86"/>
       <c r="H232" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I232" s="31"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
-      <c r="Q232">
-        <v>185</v>
-      </c>
-      <c r="R232">
-        <v>7517925.0517999995</v>
-      </c>
-      <c r="S232">
-        <v>4692683.0823999997</v>
-      </c>
-      <c r="T232">
-        <v>625.72</v>
-      </c>
-      <c r="U232" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="39">
@@ -7563,31 +7441,16 @@
       <c r="E233" s="30">
         <v>4692688.4773000004</v>
       </c>
-      <c r="F233" s="53"/>
-      <c r="G233" s="53"/>
+      <c r="F233" s="86"/>
+      <c r="G233" s="86"/>
       <c r="H233" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I233" s="31"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-      <c r="Q233">
-        <v>186</v>
-      </c>
-      <c r="R233">
-        <v>7517926.2028000001</v>
-      </c>
-      <c r="S233">
-        <v>4692679.6714000003</v>
-      </c>
-      <c r="T233">
-        <v>625.72</v>
-      </c>
-      <c r="U233" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="39">
@@ -7599,31 +7462,16 @@
       <c r="E234" s="30">
         <v>4692689.9908999996</v>
       </c>
-      <c r="F234" s="53"/>
-      <c r="G234" s="53"/>
+      <c r="F234" s="86"/>
+      <c r="G234" s="86"/>
       <c r="H234" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I234" s="31"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
-      <c r="Q234">
-        <v>187</v>
-      </c>
-      <c r="R234">
-        <v>7517926.6858000001</v>
-      </c>
-      <c r="S234">
-        <v>4692678.2399000004</v>
-      </c>
-      <c r="T234">
-        <v>625.72</v>
-      </c>
-      <c r="U234" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="39">
@@ -7635,31 +7483,16 @@
       <c r="E235" s="30">
         <v>4692683.7561999997</v>
       </c>
-      <c r="F235" s="53"/>
-      <c r="G235" s="53"/>
+      <c r="F235" s="86"/>
+      <c r="G235" s="86"/>
       <c r="H235" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I235" s="31"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
-      <c r="Q235">
-        <v>188</v>
-      </c>
-      <c r="R235">
-        <v>7517938.7796999998</v>
-      </c>
-      <c r="S235">
-        <v>4692682.3244000003</v>
-      </c>
-      <c r="T235">
-        <v>625.72</v>
-      </c>
-      <c r="U235" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="39">
@@ -7671,31 +7504,16 @@
       <c r="E236" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F236" s="53"/>
-      <c r="G236" s="53"/>
+      <c r="F236" s="86"/>
+      <c r="G236" s="86"/>
       <c r="H236" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I236" s="31"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
-      <c r="Q236">
-        <v>189</v>
-      </c>
-      <c r="R236">
-        <v>7517943.5663000001</v>
-      </c>
-      <c r="S236">
-        <v>4692683.8091000002</v>
-      </c>
-      <c r="T236">
-        <v>625.72</v>
-      </c>
-      <c r="U236" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="39">
@@ -7707,31 +7525,16 @@
       <c r="E237" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F237" s="53"/>
-      <c r="G237" s="53"/>
+      <c r="F237" s="86"/>
+      <c r="G237" s="86"/>
       <c r="H237" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I237" s="31"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
-      <c r="Q237">
-        <v>190</v>
-      </c>
-      <c r="R237">
-        <v>7517943.5263</v>
-      </c>
-      <c r="S237">
-        <v>4692683.9275000002</v>
-      </c>
-      <c r="T237">
-        <v>625.72</v>
-      </c>
-      <c r="U237" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="238" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="39">
@@ -7743,31 +7546,16 @@
       <c r="E238" s="30">
         <v>4692693.0789000001</v>
       </c>
-      <c r="F238" s="53"/>
-      <c r="G238" s="53"/>
+      <c r="F238" s="86"/>
+      <c r="G238" s="86"/>
       <c r="H238" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I238" s="31"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
-      <c r="Q238">
-        <v>191</v>
-      </c>
-      <c r="R238">
-        <v>7517951.3524000002</v>
-      </c>
-      <c r="S238">
-        <v>4692686.4386999998</v>
-      </c>
-      <c r="T238">
-        <v>625.72</v>
-      </c>
-      <c r="U238" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="239" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="39">
@@ -7779,31 +7567,16 @@
       <c r="E239" s="30">
         <v>4692686.8443</v>
       </c>
-      <c r="F239" s="53"/>
-      <c r="G239" s="53"/>
+      <c r="F239" s="86"/>
+      <c r="G239" s="86"/>
       <c r="H239" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I239" s="31"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
-      <c r="Q239">
-        <v>192</v>
-      </c>
-      <c r="R239">
-        <v>7517941.0645000003</v>
-      </c>
-      <c r="S239">
-        <v>4692675.5519000003</v>
-      </c>
-      <c r="T239">
-        <v>625.72</v>
-      </c>
-      <c r="U239" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="39">
@@ -7815,29 +7588,14 @@
       <c r="E240" s="30">
         <v>4692689.7762000002</v>
       </c>
-      <c r="F240" s="53"/>
-      <c r="G240" s="53"/>
+      <c r="F240" s="86"/>
+      <c r="G240" s="86"/>
       <c r="H240" s="40" t="s">
         <v>8</v>
       </c>
       <c r="I240" s="31"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
-      <c r="Q240">
-        <v>101</v>
-      </c>
-      <c r="R240">
-        <v>7517929.1179</v>
-      </c>
-      <c r="S240">
-        <v>4692673.2940999996</v>
-      </c>
-      <c r="T240">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="U240" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
@@ -7851,8 +7609,8 @@
       <c r="E241" s="30">
         <v>4692687.6679999996</v>
       </c>
-      <c r="F241" s="53"/>
-      <c r="G241" s="53"/>
+      <c r="F241" s="86"/>
+      <c r="G241" s="86"/>
       <c r="H241" s="40" t="s">
         <v>8</v>
       </c>
@@ -7872,8 +7630,8 @@
       <c r="E242" s="30">
         <v>4692690.4787999997</v>
       </c>
-      <c r="F242" s="53"/>
-      <c r="G242" s="53"/>
+      <c r="F242" s="86"/>
+      <c r="G242" s="86"/>
       <c r="H242" s="40" t="s">
         <v>8</v>
       </c>
@@ -7893,8 +7651,8 @@
       <c r="E243" s="30">
         <v>4692688.38</v>
       </c>
-      <c r="F243" s="53"/>
-      <c r="G243" s="53"/>
+      <c r="F243" s="86"/>
+      <c r="G243" s="86"/>
       <c r="H243" s="40" t="s">
         <v>8</v>
       </c>
@@ -7914,8 +7672,8 @@
       <c r="E244" s="30">
         <v>4692685.5033</v>
       </c>
-      <c r="F244" s="53"/>
-      <c r="G244" s="53"/>
+      <c r="F244" s="86"/>
+      <c r="G244" s="86"/>
       <c r="H244" s="40" t="s">
         <v>8</v>
       </c>
@@ -7935,8 +7693,8 @@
       <c r="E245" s="30">
         <v>4692686.4769000001</v>
       </c>
-      <c r="F245" s="53"/>
-      <c r="G245" s="53"/>
+      <c r="F245" s="86"/>
+      <c r="G245" s="86"/>
       <c r="H245" s="40" t="s">
         <v>8</v>
       </c>
@@ -7956,8 +7714,8 @@
       <c r="E246" s="30">
         <v>4692680.3293000003</v>
       </c>
-      <c r="F246" s="53"/>
-      <c r="G246" s="53"/>
+      <c r="F246" s="86"/>
+      <c r="G246" s="86"/>
       <c r="H246" s="40" t="s">
         <v>8</v>
       </c>
@@ -7977,8 +7735,8 @@
       <c r="E247" s="30">
         <v>4692685.9365999997</v>
       </c>
-      <c r="F247" s="53"/>
-      <c r="G247" s="53"/>
+      <c r="F247" s="86"/>
+      <c r="G247" s="86"/>
       <c r="H247" s="40" t="s">
         <v>8</v>
       </c>
@@ -7998,8 +7756,8 @@
       <c r="E248" s="30">
         <v>4692684.2878</v>
       </c>
-      <c r="F248" s="53"/>
-      <c r="G248" s="53"/>
+      <c r="F248" s="86"/>
+      <c r="G248" s="86"/>
       <c r="H248" s="40" t="s">
         <v>8</v>
       </c>
@@ -8019,8 +7777,8 @@
       <c r="E249" s="30">
         <v>4692677.3678000001</v>
       </c>
-      <c r="F249" s="53"/>
-      <c r="G249" s="53"/>
+      <c r="F249" s="86"/>
+      <c r="G249" s="86"/>
       <c r="H249" s="40" t="s">
         <v>8</v>
       </c>
@@ -8040,8 +7798,8 @@
       <c r="E250" s="30">
         <v>4692675.551</v>
       </c>
-      <c r="F250" s="53"/>
-      <c r="G250" s="53"/>
+      <c r="F250" s="86"/>
+      <c r="G250" s="86"/>
       <c r="H250" s="40" t="s">
         <v>8</v>
       </c>
@@ -8061,8 +7819,8 @@
       <c r="E251" s="30">
         <v>4692682.6838999996</v>
       </c>
-      <c r="F251" s="53"/>
-      <c r="G251" s="53"/>
+      <c r="F251" s="86"/>
+      <c r="G251" s="86"/>
       <c r="H251" s="40" t="s">
         <v>8</v>
       </c>
@@ -8082,8 +7840,8 @@
       <c r="E252" s="30">
         <v>4692681.1698000003</v>
       </c>
-      <c r="F252" s="53"/>
-      <c r="G252" s="53"/>
+      <c r="F252" s="86"/>
+      <c r="G252" s="86"/>
       <c r="H252" s="40" t="s">
         <v>8</v>
       </c>
@@ -8101,8 +7859,8 @@
       <c r="E253" s="30">
         <v>4692679.5367999999</v>
       </c>
-      <c r="F253" s="53"/>
-      <c r="G253" s="53"/>
+      <c r="F253" s="86"/>
+      <c r="G253" s="86"/>
       <c r="H253" s="40" t="s">
         <v>8</v>
       </c>
@@ -8117,8 +7875,8 @@
       <c r="E254" s="30">
         <v>4692678.6008000001</v>
       </c>
-      <c r="F254" s="53"/>
-      <c r="G254" s="53"/>
+      <c r="F254" s="86"/>
+      <c r="G254" s="86"/>
       <c r="H254" s="40" t="s">
         <v>8</v>
       </c>
@@ -8135,8 +7893,8 @@
       <c r="E255" s="30">
         <v>4692673.9884000001</v>
       </c>
-      <c r="F255" s="53"/>
-      <c r="G255" s="53"/>
+      <c r="F255" s="86"/>
+      <c r="G255" s="86"/>
       <c r="H255" s="40" t="s">
         <v>8</v>
       </c>
@@ -8156,8 +7914,8 @@
       <c r="E256" s="42">
         <v>4692673.2940999996</v>
       </c>
-      <c r="F256" s="54"/>
-      <c r="G256" s="54"/>
+      <c r="F256" s="87"/>
+      <c r="G256" s="87"/>
       <c r="H256" s="43" t="s">
         <v>20</v>
       </c>
@@ -8172,34 +7930,34 @@
       <c r="B257" s="3"/>
       <c r="C257" s="35"/>
       <c r="D257" s="35"/>
-      <c r="E257" s="80" t="s">
+      <c r="E257" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F257" s="81"/>
-      <c r="G257" s="82"/>
-      <c r="H257" s="79" t="s">
+      <c r="F257" s="83"/>
+      <c r="G257" s="84"/>
+      <c r="H257" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I257" s="60"/>
-      <c r="J257" s="63"/>
-      <c r="K257" s="64"/>
+      <c r="I257" s="68"/>
+      <c r="J257" s="71"/>
+      <c r="K257" s="72"/>
     </row>
     <row r="258" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="67" t="s">
+      <c r="A258" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="68"/>
-      <c r="C258" s="68"/>
-      <c r="D258" s="69"/>
-      <c r="E258" s="70">
+      <c r="B258" s="76"/>
+      <c r="C258" s="76"/>
+      <c r="D258" s="77"/>
+      <c r="E258" s="78">
         <v>140</v>
       </c>
-      <c r="F258" s="71"/>
-      <c r="G258" s="72"/>
-      <c r="H258" s="61"/>
-      <c r="I258" s="62"/>
-      <c r="J258" s="65"/>
-      <c r="K258" s="66"/>
+      <c r="F258" s="79"/>
+      <c r="G258" s="80"/>
+      <c r="H258" s="69"/>
+      <c r="I258" s="70"/>
+      <c r="J258" s="73"/>
+      <c r="K258" s="74"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
@@ -8215,118 +7973,118 @@
       <c r="K259" s="1"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="44"/>
-      <c r="B260" s="44"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="44"/>
-      <c r="E260" s="44"/>
-      <c r="F260" s="44"/>
-      <c r="G260" s="44"/>
-      <c r="H260" s="44"/>
-      <c r="I260" s="44"/>
-      <c r="J260" s="44"/>
-      <c r="K260" s="44"/>
+      <c r="A260" s="46"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="46"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="46"/>
+      <c r="F260" s="46"/>
+      <c r="G260" s="46"/>
+      <c r="H260" s="46"/>
+      <c r="I260" s="46"/>
+      <c r="J260" s="46"/>
+      <c r="K260" s="46"/>
     </row>
     <row r="261" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="44"/>
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="44"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="44"/>
-      <c r="G261" s="44"/>
-      <c r="H261" s="44"/>
-      <c r="I261" s="44"/>
-      <c r="J261" s="44"/>
-      <c r="K261" s="44"/>
+      <c r="A261" s="46"/>
+      <c r="B261" s="46"/>
+      <c r="C261" s="46"/>
+      <c r="D261" s="46"/>
+      <c r="E261" s="46"/>
+      <c r="F261" s="46"/>
+      <c r="G261" s="46"/>
+      <c r="H261" s="46"/>
+      <c r="I261" s="46"/>
+      <c r="J261" s="46"/>
+      <c r="K261" s="46"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="45" t="s">
+      <c r="A262" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B262" s="45"/>
-      <c r="C262" s="45"/>
-      <c r="D262" s="45"/>
-      <c r="E262" s="45"/>
-      <c r="F262" s="45"/>
-      <c r="G262" s="45"/>
-      <c r="H262" s="45"/>
-      <c r="I262" s="45"/>
-      <c r="J262" s="45"/>
-      <c r="K262" s="45"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="47"/>
+      <c r="D262" s="47"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="47"/>
+      <c r="G262" s="47"/>
+      <c r="H262" s="47"/>
+      <c r="I262" s="47"/>
+      <c r="J262" s="47"/>
+      <c r="K262" s="47"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="45"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="45"/>
-      <c r="D263" s="45"/>
-      <c r="E263" s="45"/>
-      <c r="F263" s="45"/>
-      <c r="G263" s="45"/>
-      <c r="H263" s="45"/>
-      <c r="I263" s="45"/>
-      <c r="J263" s="45"/>
-      <c r="K263" s="45"/>
+      <c r="A263" s="47"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="47"/>
+      <c r="D263" s="47"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="47"/>
+      <c r="G263" s="47"/>
+      <c r="H263" s="47"/>
+      <c r="I263" s="47"/>
+      <c r="J263" s="47"/>
+      <c r="K263" s="47"/>
     </row>
     <row r="264" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="45"/>
-      <c r="B264" s="45"/>
-      <c r="C264" s="45"/>
-      <c r="D264" s="45"/>
-      <c r="E264" s="45"/>
-      <c r="F264" s="45"/>
-      <c r="G264" s="45"/>
-      <c r="H264" s="45"/>
-      <c r="I264" s="45"/>
-      <c r="J264" s="45"/>
-      <c r="K264" s="45"/>
+      <c r="A264" s="47"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="47"/>
+      <c r="D264" s="47"/>
+      <c r="E264" s="47"/>
+      <c r="F264" s="47"/>
+      <c r="G264" s="47"/>
+      <c r="H264" s="47"/>
+      <c r="I264" s="47"/>
+      <c r="J264" s="47"/>
+      <c r="K264" s="47"/>
     </row>
     <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="45"/>
-      <c r="B265" s="45"/>
-      <c r="C265" s="45"/>
-      <c r="D265" s="45"/>
-      <c r="E265" s="45"/>
-      <c r="F265" s="45"/>
-      <c r="G265" s="45"/>
-      <c r="H265" s="45"/>
-      <c r="I265" s="45"/>
-      <c r="J265" s="45"/>
-      <c r="K265" s="45"/>
+      <c r="A265" s="47"/>
+      <c r="B265" s="47"/>
+      <c r="C265" s="47"/>
+      <c r="D265" s="47"/>
+      <c r="E265" s="47"/>
+      <c r="F265" s="47"/>
+      <c r="G265" s="47"/>
+      <c r="H265" s="47"/>
+      <c r="I265" s="47"/>
+      <c r="J265" s="47"/>
+      <c r="K265" s="47"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
-      <c r="C266" s="46"/>
-      <c r="D266" s="47"/>
-      <c r="E266" s="47"/>
-      <c r="F266" s="47"/>
-      <c r="G266" s="47"/>
-      <c r="H266" s="47"/>
-      <c r="I266" s="48"/>
+      <c r="C266" s="48"/>
+      <c r="D266" s="49"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="49"/>
+      <c r="G266" s="49"/>
+      <c r="H266" s="49"/>
+      <c r="I266" s="50"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="C267" s="49"/>
-      <c r="D267" s="50"/>
-      <c r="E267" s="50"/>
-      <c r="F267" s="50"/>
-      <c r="G267" s="50"/>
-      <c r="H267" s="50"/>
-      <c r="I267" s="51"/>
+      <c r="C267" s="51"/>
+      <c r="D267" s="52"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
+      <c r="H267" s="52"/>
+      <c r="I267" s="53"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
     <row r="268" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
-      <c r="C268" s="73"/>
-      <c r="D268" s="74"/>
-      <c r="E268" s="74"/>
-      <c r="F268" s="74"/>
-      <c r="G268" s="74"/>
-      <c r="H268" s="74"/>
-      <c r="I268" s="52"/>
+      <c r="C268" s="54"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="56"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
@@ -8380,13 +8138,13 @@
       <c r="E271" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F271" s="75">
+      <c r="F271" s="61">
         <v>625.72</v>
       </c>
-      <c r="G271" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H271" s="83" t="s">
+      <c r="G271" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H271" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I271" s="32"/>
@@ -8405,9 +8163,9 @@
       <c r="E272" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F272" s="76"/>
-      <c r="G272" s="85"/>
-      <c r="H272" s="83" t="s">
+      <c r="F272" s="62"/>
+      <c r="G272" s="59"/>
+      <c r="H272" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I272" s="32"/>
@@ -8426,9 +8184,9 @@
       <c r="E273" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F273" s="76"/>
-      <c r="G273" s="85"/>
-      <c r="H273" s="83" t="s">
+      <c r="F273" s="62"/>
+      <c r="G273" s="59"/>
+      <c r="H273" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I273" s="32"/>
@@ -8447,9 +8205,9 @@
       <c r="E274" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F274" s="76"/>
-      <c r="G274" s="85"/>
-      <c r="H274" s="83" t="s">
+      <c r="F274" s="62"/>
+      <c r="G274" s="59"/>
+      <c r="H274" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I274" s="32"/>
@@ -8468,9 +8226,9 @@
       <c r="E275" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F275" s="76"/>
-      <c r="G275" s="85"/>
-      <c r="H275" s="83" t="s">
+      <c r="F275" s="62"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I275" s="32"/>
@@ -8489,9 +8247,9 @@
       <c r="E276" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F276" s="76"/>
-      <c r="G276" s="85"/>
-      <c r="H276" s="83" t="s">
+      <c r="F276" s="62"/>
+      <c r="G276" s="59"/>
+      <c r="H276" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I276" s="32"/>
@@ -8510,9 +8268,9 @@
       <c r="E277" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F277" s="76"/>
-      <c r="G277" s="85"/>
-      <c r="H277" s="83" t="s">
+      <c r="F277" s="62"/>
+      <c r="G277" s="59"/>
+      <c r="H277" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I277" s="32"/>
@@ -8531,9 +8289,9 @@
       <c r="E278" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F278" s="76"/>
-      <c r="G278" s="85"/>
-      <c r="H278" s="83" t="s">
+      <c r="F278" s="62"/>
+      <c r="G278" s="59"/>
+      <c r="H278" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I278" s="32"/>
@@ -8552,9 +8310,9 @@
       <c r="E279" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F279" s="76"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="83" t="s">
+      <c r="F279" s="62"/>
+      <c r="G279" s="59"/>
+      <c r="H279" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I279" s="32"/>
@@ -8573,9 +8331,9 @@
       <c r="E280" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F280" s="76"/>
-      <c r="G280" s="85"/>
-      <c r="H280" s="83" t="s">
+      <c r="F280" s="62"/>
+      <c r="G280" s="59"/>
+      <c r="H280" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I280" s="32"/>
@@ -8594,9 +8352,9 @@
       <c r="E281" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F281" s="76"/>
-      <c r="G281" s="85"/>
-      <c r="H281" s="83" t="s">
+      <c r="F281" s="62"/>
+      <c r="G281" s="59"/>
+      <c r="H281" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I281" s="32"/>
@@ -8615,9 +8373,9 @@
       <c r="E282" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F282" s="76"/>
-      <c r="G282" s="85"/>
-      <c r="H282" s="83" t="s">
+      <c r="F282" s="62"/>
+      <c r="G282" s="59"/>
+      <c r="H282" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I282" s="32"/>
@@ -8636,9 +8394,9 @@
       <c r="E283" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F283" s="76"/>
-      <c r="G283" s="85"/>
-      <c r="H283" s="83" t="s">
+      <c r="F283" s="62"/>
+      <c r="G283" s="59"/>
+      <c r="H283" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I283" s="32"/>
@@ -8657,9 +8415,9 @@
       <c r="E284" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F284" s="76"/>
-      <c r="G284" s="85"/>
-      <c r="H284" s="83" t="s">
+      <c r="F284" s="62"/>
+      <c r="G284" s="59"/>
+      <c r="H284" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I284" s="32"/>
@@ -8678,9 +8436,9 @@
       <c r="E285" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F285" s="76"/>
-      <c r="G285" s="85"/>
-      <c r="H285" s="83" t="s">
+      <c r="F285" s="62"/>
+      <c r="G285" s="59"/>
+      <c r="H285" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I285" s="32"/>
@@ -8699,9 +8457,9 @@
       <c r="E286" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F286" s="76"/>
-      <c r="G286" s="85"/>
-      <c r="H286" s="83" t="s">
+      <c r="F286" s="62"/>
+      <c r="G286" s="59"/>
+      <c r="H286" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I286" s="32"/>
@@ -8720,9 +8478,9 @@
       <c r="E287" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F287" s="76"/>
-      <c r="G287" s="85"/>
-      <c r="H287" s="83" t="s">
+      <c r="F287" s="62"/>
+      <c r="G287" s="59"/>
+      <c r="H287" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I287" s="32"/>
@@ -8741,9 +8499,9 @@
       <c r="E288" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F288" s="76"/>
-      <c r="G288" s="85"/>
-      <c r="H288" s="83" t="s">
+      <c r="F288" s="62"/>
+      <c r="G288" s="59"/>
+      <c r="H288" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I288" s="32"/>
@@ -8762,9 +8520,9 @@
       <c r="E289" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F289" s="76"/>
-      <c r="G289" s="85"/>
-      <c r="H289" s="83" t="s">
+      <c r="F289" s="62"/>
+      <c r="G289" s="59"/>
+      <c r="H289" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I289" s="32"/>
@@ -8783,9 +8541,9 @@
       <c r="E290" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F290" s="76"/>
-      <c r="G290" s="85"/>
-      <c r="H290" s="83" t="s">
+      <c r="F290" s="62"/>
+      <c r="G290" s="59"/>
+      <c r="H290" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I290" s="32"/>
@@ -8804,9 +8562,9 @@
       <c r="E291" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F291" s="76"/>
-      <c r="G291" s="85"/>
-      <c r="H291" s="83" t="s">
+      <c r="F291" s="62"/>
+      <c r="G291" s="59"/>
+      <c r="H291" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I291" s="32"/>
@@ -8825,9 +8583,9 @@
       <c r="E292" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F292" s="76"/>
-      <c r="G292" s="85"/>
-      <c r="H292" s="83" t="s">
+      <c r="F292" s="62"/>
+      <c r="G292" s="59"/>
+      <c r="H292" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I292" s="32"/>
@@ -8846,9 +8604,9 @@
       <c r="E293" s="30">
         <v>4692689.9910000004</v>
       </c>
-      <c r="F293" s="76"/>
-      <c r="G293" s="85"/>
-      <c r="H293" s="83" t="s">
+      <c r="F293" s="62"/>
+      <c r="G293" s="59"/>
+      <c r="H293" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I293" s="32"/>
@@ -8867,9 +8625,9 @@
       <c r="E294" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F294" s="76"/>
-      <c r="G294" s="85"/>
-      <c r="H294" s="83" t="s">
+      <c r="F294" s="62"/>
+      <c r="G294" s="59"/>
+      <c r="H294" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I294" s="32"/>
@@ -8888,9 +8646,9 @@
       <c r="E295" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F295" s="76"/>
-      <c r="G295" s="85"/>
-      <c r="H295" s="83" t="s">
+      <c r="F295" s="62"/>
+      <c r="G295" s="59"/>
+      <c r="H295" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I295" s="32"/>
@@ -8909,9 +8667,9 @@
       <c r="E296" s="30">
         <v>4692683.7562999995</v>
       </c>
-      <c r="F296" s="76"/>
-      <c r="G296" s="85"/>
-      <c r="H296" s="83" t="s">
+      <c r="F296" s="62"/>
+      <c r="G296" s="59"/>
+      <c r="H296" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I296" s="32"/>
@@ -8930,9 +8688,9 @@
       <c r="E297" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F297" s="76"/>
-      <c r="G297" s="85"/>
-      <c r="H297" s="83" t="s">
+      <c r="F297" s="62"/>
+      <c r="G297" s="59"/>
+      <c r="H297" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I297" s="32"/>
@@ -8951,9 +8709,9 @@
       <c r="E298" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F298" s="76"/>
-      <c r="G298" s="85"/>
-      <c r="H298" s="83" t="s">
+      <c r="F298" s="62"/>
+      <c r="G298" s="59"/>
+      <c r="H298" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I298" s="32"/>
@@ -8972,9 +8730,9 @@
       <c r="E299" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F299" s="76"/>
-      <c r="G299" s="85"/>
-      <c r="H299" s="83" t="s">
+      <c r="F299" s="62"/>
+      <c r="G299" s="59"/>
+      <c r="H299" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I299" s="32"/>
@@ -8993,9 +8751,9 @@
       <c r="E300" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F300" s="76"/>
-      <c r="G300" s="85"/>
-      <c r="H300" s="83" t="s">
+      <c r="F300" s="62"/>
+      <c r="G300" s="59"/>
+      <c r="H300" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I300" s="32"/>
@@ -9014,9 +8772,9 @@
       <c r="E301" s="30">
         <v>4692678.2399000004</v>
       </c>
-      <c r="F301" s="76"/>
-      <c r="G301" s="85"/>
-      <c r="H301" s="83" t="s">
+      <c r="F301" s="62"/>
+      <c r="G301" s="59"/>
+      <c r="H301" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I301" s="32"/>
@@ -9035,9 +8793,9 @@
       <c r="E302" s="30">
         <v>4692682.3244000003</v>
       </c>
-      <c r="F302" s="76"/>
-      <c r="G302" s="85"/>
-      <c r="H302" s="83" t="s">
+      <c r="F302" s="62"/>
+      <c r="G302" s="59"/>
+      <c r="H302" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I302" s="32"/>
@@ -9056,9 +8814,9 @@
       <c r="E303" s="30">
         <v>4692683.8091000002</v>
       </c>
-      <c r="F303" s="76"/>
-      <c r="G303" s="85"/>
-      <c r="H303" s="83" t="s">
+      <c r="F303" s="62"/>
+      <c r="G303" s="59"/>
+      <c r="H303" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I303" s="32"/>
@@ -9077,9 +8835,9 @@
       <c r="E304" s="30">
         <v>4692683.9275000002</v>
       </c>
-      <c r="F304" s="76"/>
-      <c r="G304" s="85"/>
-      <c r="H304" s="83" t="s">
+      <c r="F304" s="62"/>
+      <c r="G304" s="59"/>
+      <c r="H304" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I304" s="32"/>
@@ -9098,9 +8856,9 @@
       <c r="E305" s="30">
         <v>4692686.4386999998</v>
       </c>
-      <c r="F305" s="76"/>
-      <c r="G305" s="85"/>
-      <c r="H305" s="83" t="s">
+      <c r="F305" s="62"/>
+      <c r="G305" s="59"/>
+      <c r="H305" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I305" s="32"/>
@@ -9119,9 +8877,9 @@
       <c r="E306" s="30">
         <v>4692675.5519000003</v>
       </c>
-      <c r="F306" s="77"/>
-      <c r="G306" s="85"/>
-      <c r="H306" s="83" t="s">
+      <c r="F306" s="63"/>
+      <c r="G306" s="59"/>
+      <c r="H306" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I306" s="32"/>
@@ -9143,8 +8901,8 @@
       <c r="F307" s="34">
         <v>616.38300000000004</v>
       </c>
-      <c r="G307" s="86"/>
-      <c r="H307" s="83" t="s">
+      <c r="G307" s="60"/>
+      <c r="H307" s="45" t="s">
         <v>20</v>
       </c>
       <c r="I307" s="32"/>
@@ -9167,28 +8925,28 @@
     <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
-      <c r="C309" s="55" t="s">
+      <c r="C309" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D309" s="55"/>
-      <c r="E309" s="55"/>
-      <c r="F309" s="55"/>
-      <c r="G309" s="55"/>
-      <c r="H309" s="55"/>
-      <c r="I309" s="55"/>
+      <c r="D309" s="57"/>
+      <c r="E309" s="57"/>
+      <c r="F309" s="57"/>
+      <c r="G309" s="57"/>
+      <c r="H309" s="57"/>
+      <c r="I309" s="57"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
     <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
-      <c r="C310" s="55"/>
-      <c r="D310" s="55"/>
-      <c r="E310" s="55"/>
-      <c r="F310" s="55"/>
-      <c r="G310" s="55"/>
-      <c r="H310" s="55"/>
-      <c r="I310" s="55"/>
+      <c r="C310" s="57"/>
+      <c r="D310" s="57"/>
+      <c r="E310" s="57"/>
+      <c r="F310" s="57"/>
+      <c r="G310" s="57"/>
+      <c r="H310" s="57"/>
+      <c r="I310" s="57"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
@@ -9264,62 +9022,49 @@
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="56" t="s">
+      <c r="E316" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F316" s="57"/>
-      <c r="G316" s="58"/>
-      <c r="H316" s="59" t="s">
+      <c r="F316" s="65"/>
+      <c r="G316" s="66"/>
+      <c r="H316" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I316" s="60"/>
-      <c r="J316" s="63"/>
-      <c r="K316" s="64"/>
+      <c r="I316" s="68"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="72"/>
     </row>
     <row r="317" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="67" t="s">
+      <c r="A317" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="68"/>
-      <c r="C317" s="68"/>
-      <c r="D317" s="69"/>
-      <c r="E317" s="70">
+      <c r="B317" s="76"/>
+      <c r="C317" s="76"/>
+      <c r="D317" s="77"/>
+      <c r="E317" s="78">
         <v>140</v>
       </c>
-      <c r="F317" s="71"/>
-      <c r="G317" s="72"/>
-      <c r="H317" s="61"/>
-      <c r="I317" s="62"/>
-      <c r="J317" s="65"/>
-      <c r="K317" s="66"/>
+      <c r="F317" s="79"/>
+      <c r="G317" s="80"/>
+      <c r="H317" s="69"/>
+      <c r="I317" s="70"/>
+      <c r="J317" s="73"/>
+      <c r="K317" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A260:K261"/>
-    <mergeCell ref="A262:K265"/>
-    <mergeCell ref="C266:I268"/>
-    <mergeCell ref="C309:I310"/>
-    <mergeCell ref="G271:G307"/>
-    <mergeCell ref="F271:F306"/>
-    <mergeCell ref="E316:G316"/>
-    <mergeCell ref="H316:I317"/>
-    <mergeCell ref="J316:K317"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="E317:G317"/>
-    <mergeCell ref="A134:K137"/>
-    <mergeCell ref="G144:G178"/>
-    <mergeCell ref="H128:I129"/>
-    <mergeCell ref="J128:K129"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="C139:I141"/>
-    <mergeCell ref="H257:I258"/>
-    <mergeCell ref="E257:G257"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="E258:G258"/>
-    <mergeCell ref="J257:K258"/>
+    <mergeCell ref="G36:G55"/>
+    <mergeCell ref="A194:K195"/>
+    <mergeCell ref="A196:K199"/>
+    <mergeCell ref="C200:I202"/>
+    <mergeCell ref="G204:G256"/>
+    <mergeCell ref="F204:F256"/>
+    <mergeCell ref="C182:I183"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:I193"/>
+    <mergeCell ref="J192:K193"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="E193:G193"/>
     <mergeCell ref="C120:I121"/>
     <mergeCell ref="C7:I9"/>
     <mergeCell ref="A3:K6"/>
@@ -9334,19 +9079,32 @@
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="A66:K67"/>
     <mergeCell ref="A68:K71"/>
-    <mergeCell ref="G36:G54"/>
     <mergeCell ref="C72:I74"/>
-    <mergeCell ref="C182:I183"/>
-    <mergeCell ref="E192:G192"/>
-    <mergeCell ref="H192:I193"/>
-    <mergeCell ref="J192:K193"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="E193:G193"/>
-    <mergeCell ref="A194:K195"/>
-    <mergeCell ref="A196:K199"/>
-    <mergeCell ref="C200:I202"/>
-    <mergeCell ref="G204:G256"/>
-    <mergeCell ref="F204:F256"/>
+    <mergeCell ref="H257:I258"/>
+    <mergeCell ref="E257:G257"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="J257:K258"/>
+    <mergeCell ref="A134:K137"/>
+    <mergeCell ref="G144:G178"/>
+    <mergeCell ref="H128:I129"/>
+    <mergeCell ref="J128:K129"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A132:K133"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="C139:I141"/>
+    <mergeCell ref="E316:G316"/>
+    <mergeCell ref="H316:I317"/>
+    <mergeCell ref="J316:K317"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="E317:G317"/>
+    <mergeCell ref="A260:K261"/>
+    <mergeCell ref="A262:K265"/>
+    <mergeCell ref="C266:I268"/>
+    <mergeCell ref="C309:I310"/>
+    <mergeCell ref="G271:G307"/>
+    <mergeCell ref="F271:F306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="26">
   <si>
     <t>Nr</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Hyrje</t>
   </si>
   <si>
-    <t>Htrje</t>
-  </si>
-  <si>
     <t>Përdhesa</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
   </si>
   <si>
     <t>KATI3</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
   </si>
 </sst>
 </file>
@@ -645,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -768,6 +759,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,35 +789,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,6 +852,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,13 +879,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2808,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S317"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H52" sqref="C35:H55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A260" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D84" sqref="C76:H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,110 +2821,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3470,7 +3464,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="21">
@@ -3497,7 +3491,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -3509,7 +3503,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="44" t="s">
@@ -3533,7 +3527,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="9">
@@ -3548,31 +3542,16 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="85" t="s">
-        <v>23</v>
+      <c r="G36" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>7517924.1610000003</v>
-      </c>
-      <c r="Q36">
-        <v>4692685.9009999996</v>
-      </c>
-      <c r="R36">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="9">
@@ -3587,29 +3566,14 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="85"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="P37">
-        <v>7517926.7680000002</v>
-      </c>
-      <c r="Q37">
-        <v>4692678.1229999997</v>
-      </c>
-      <c r="R37">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="9">
@@ -3624,29 +3588,14 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="85"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>7517929.4824999999</v>
-      </c>
-      <c r="Q38">
-        <v>4692679.0022999998</v>
-      </c>
-      <c r="R38">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="9">
@@ -3661,29 +3610,14 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="85"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="O39">
-        <v>12</v>
-      </c>
-      <c r="P39">
-        <v>7517931.1023000004</v>
-      </c>
-      <c r="Q39">
-        <v>4692674.0017999997</v>
-      </c>
-      <c r="R39">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="9">
@@ -3698,29 +3632,14 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="85"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="O40">
-        <v>56</v>
-      </c>
-      <c r="P40">
-        <v>7517948.5199999996</v>
-      </c>
-      <c r="Q40">
-        <v>4692694.1529999999</v>
-      </c>
-      <c r="R40">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="9">
@@ -3735,29 +3654,14 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="O41">
-        <v>57</v>
-      </c>
-      <c r="P41">
-        <v>7517952.9117999999</v>
-      </c>
-      <c r="Q41">
-        <v>4692681.6829000004</v>
-      </c>
-      <c r="R41">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="9">
@@ -3772,29 +3676,14 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="85"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="O42">
-        <v>122</v>
-      </c>
-      <c r="P42">
-        <v>7517949.3603999997</v>
-      </c>
-      <c r="Q42">
-        <v>4692691.7666999996</v>
-      </c>
-      <c r="R42">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="9">
@@ -3809,29 +3698,14 @@
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="85"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="O43">
-        <v>123</v>
-      </c>
-      <c r="P43">
-        <v>7517951.3173000002</v>
-      </c>
-      <c r="Q43">
-        <v>4692686.2103000004</v>
-      </c>
-      <c r="R43">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="9">
@@ -3846,30 +3720,15 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="O44">
-        <v>124</v>
-      </c>
-      <c r="P44">
-        <v>7517950.0350000001</v>
-      </c>
-      <c r="Q44">
-        <v>4692680.6697000004</v>
-      </c>
-      <c r="R44">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="9">
@@ -3884,30 +3743,15 @@
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="85"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="O45">
-        <v>125</v>
-      </c>
-      <c r="P45">
-        <v>7517948.4406000003</v>
-      </c>
-      <c r="Q45">
-        <v>4692685.1972000003</v>
-      </c>
-      <c r="R45">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="9">
@@ -3922,30 +3766,15 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="85"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="O46">
-        <v>126</v>
-      </c>
-      <c r="P46">
-        <v>7517946.4715</v>
-      </c>
-      <c r="Q46">
-        <v>4692690.7879999997</v>
-      </c>
-      <c r="R46">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="9">
         <v>127</v>
       </c>
@@ -3958,28 +3787,13 @@
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="85"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="O47">
-        <v>127</v>
-      </c>
-      <c r="P47">
-        <v>7517942.0581</v>
-      </c>
-      <c r="Q47">
-        <v>4692689.2928999998</v>
-      </c>
-      <c r="R47">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="9">
         <v>128</v>
       </c>
@@ -3992,28 +3806,13 @@
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="85"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="1"/>
-      <c r="O48">
-        <v>128</v>
-      </c>
-      <c r="P48">
-        <v>7517941.2176000001</v>
-      </c>
-      <c r="Q48">
-        <v>4692691.6792000001</v>
-      </c>
-      <c r="R48">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="9">
@@ -4028,30 +3827,15 @@
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="85"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="O49">
-        <v>129</v>
-      </c>
-      <c r="P49">
-        <v>7517926.9426999995</v>
-      </c>
-      <c r="Q49">
-        <v>4692686.8432999998</v>
-      </c>
-      <c r="R49">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="9">
@@ -4066,30 +3850,15 @@
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="85"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="O50">
-        <v>130</v>
-      </c>
-      <c r="P50">
-        <v>7517924.6376999998</v>
-      </c>
-      <c r="Q50">
-        <v>4692684.4787999997</v>
-      </c>
-      <c r="R50">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="9">
@@ -4104,29 +3873,14 @@
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="85"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="O51">
-        <v>131</v>
-      </c>
-      <c r="P51">
-        <v>7517927.4254000001</v>
-      </c>
-      <c r="Q51">
-        <v>4692681.2265999997</v>
-      </c>
-      <c r="R51">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="9">
@@ -4141,29 +3895,14 @@
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="85"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="O52">
-        <v>132</v>
-      </c>
-      <c r="P52">
-        <v>7517928.6299000001</v>
-      </c>
-      <c r="Q52">
-        <v>4692681.6346000005</v>
-      </c>
-      <c r="R52">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="9">
@@ -4178,30 +3917,15 @@
       <c r="F53" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="O53">
-        <v>133</v>
-      </c>
-      <c r="P53">
-        <v>7517945.6312999995</v>
-      </c>
-      <c r="Q53">
-        <v>4692693.1743999999</v>
-      </c>
-      <c r="R53">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="9">
@@ -4216,30 +3940,15 @@
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="85"/>
+      <c r="G54" s="47"/>
       <c r="H54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="O54">
-        <v>104</v>
-      </c>
-      <c r="P54">
-        <v>7517945.1684999997</v>
-      </c>
-      <c r="Q54">
-        <v>4692693.0225999998</v>
-      </c>
-      <c r="R54">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="S54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="9">
@@ -4254,30 +3963,15 @@
       <c r="F55" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G55" s="85"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="O55">
-        <v>103</v>
-      </c>
-      <c r="P55">
-        <v>7517926.4434000002</v>
-      </c>
-      <c r="Q55">
-        <v>4692686.6742000002</v>
-      </c>
-      <c r="R55">
-        <v>611.86699999999996</v>
-      </c>
-      <c r="S55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
@@ -4290,7 +3984,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
@@ -4303,7 +3997,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
@@ -4316,179 +4010,179 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="64" t="s">
+      <c r="E64" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="67" t="s">
+      <c r="F64" s="61"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="72"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="68"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78">
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74">
         <v>140</v>
       </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="74"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="70"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
     </row>
     <row r="71" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="52"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="55"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
       <c r="I74" s="56"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4503,22 +4197,22 @@
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="28" t="s">
+      <c r="G76" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I76" s="11"/>
@@ -4528,23 +4222,23 @@
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="19">
-        <v>101</v>
+      <c r="C77" s="46">
+        <v>14</v>
       </c>
       <c r="D77" s="30">
-        <v>7517952.1813000003</v>
+        <v>7517930.4069999997</v>
       </c>
       <c r="E77" s="30">
-        <v>4692679.7653000001</v>
-      </c>
-      <c r="F77" s="61">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="F77" s="79">
         <v>616.38300000000004</v>
       </c>
-      <c r="G77" s="61" t="s">
-        <v>22</v>
+      <c r="G77" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="1"/>
@@ -4553,17 +4247,17 @@
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="19">
-        <v>2</v>
+      <c r="C78" s="46">
+        <v>15</v>
       </c>
       <c r="D78" s="30">
-        <v>7517924.0990000004</v>
+        <v>7517928.9910000004</v>
       </c>
       <c r="E78" s="30">
-        <v>4692685.9060000004</v>
-      </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+        <v>4692671.3689999999</v>
+      </c>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
       <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
@@ -4574,17 +4268,17 @@
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="19">
-        <v>5</v>
+      <c r="C79" s="46">
+        <v>2</v>
       </c>
       <c r="D79" s="30">
-        <v>7517928.4419999998</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="E79" s="30">
-        <v>4692673.07</v>
-      </c>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
       <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
@@ -4595,17 +4289,17 @@
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="19">
-        <v>6</v>
+      <c r="C80" s="46">
+        <v>5</v>
       </c>
       <c r="D80" s="30">
-        <v>7517929.8169999998</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="E80" s="30">
-        <v>4692673.5259999996</v>
-      </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
+        <v>4692673.07</v>
+      </c>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
@@ -4616,17 +4310,17 @@
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="19">
-        <v>7</v>
+      <c r="C81" s="46">
+        <v>6</v>
       </c>
       <c r="D81" s="30">
-        <v>7517929.96</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="E81" s="30">
-        <v>4692673.2819999997</v>
-      </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
@@ -4637,17 +4331,17 @@
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="19">
-        <v>8</v>
+      <c r="C82" s="46">
+        <v>7</v>
       </c>
       <c r="D82" s="30">
-        <v>7517930.2989999996</v>
+        <v>7517929.96</v>
       </c>
       <c r="E82" s="30">
-        <v>4692672.9689999996</v>
-      </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
@@ -4658,17 +4352,17 @@
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="19">
-        <v>9</v>
+      <c r="C83" s="46">
+        <v>8</v>
       </c>
       <c r="D83" s="30">
-        <v>7517930.7450000001</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="E83" s="30">
-        <v>4692672.7690000003</v>
-      </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
@@ -4679,17 +4373,17 @@
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="19">
-        <v>10</v>
+      <c r="C84" s="46">
+        <v>9</v>
       </c>
       <c r="D84" s="30">
-        <v>7517931.2220000001</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="E84" s="30">
-        <v>4692672.7319999998</v>
-      </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
       <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
@@ -4700,17 +4394,17 @@
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="19">
-        <v>11</v>
+      <c r="C85" s="46">
+        <v>10</v>
       </c>
       <c r="D85" s="30">
-        <v>7517931.6050000004</v>
+        <v>7517931.2220000001</v>
       </c>
       <c r="E85" s="30">
-        <v>4692672.7970000003</v>
-      </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
@@ -4721,17 +4415,17 @@
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="19">
-        <v>34</v>
+      <c r="C86" s="46">
+        <v>11</v>
       </c>
       <c r="D86" s="30">
-        <v>7517953.7189999996</v>
+        <v>7517931.6050000004</v>
       </c>
       <c r="E86" s="30">
-        <v>4692687.3470000001</v>
-      </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
       <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
@@ -4742,17 +4436,17 @@
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="19">
-        <v>35</v>
+      <c r="C87" s="46">
+        <v>34</v>
       </c>
       <c r="D87" s="30">
-        <v>7517955.8949999996</v>
+        <v>7517953.7189999996</v>
       </c>
       <c r="E87" s="30">
-        <v>4692681.023</v>
-      </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
       <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
@@ -4763,17 +4457,17 @@
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="19">
-        <v>58</v>
+      <c r="C88" s="46">
+        <v>35</v>
       </c>
       <c r="D88" s="30">
-        <v>7517951.3300000001</v>
+        <v>7517955.8949999996</v>
       </c>
       <c r="E88" s="30">
-        <v>4692686.5060000001</v>
-      </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
+        <v>4692681.023</v>
+      </c>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
       <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
@@ -4784,17 +4478,17 @@
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="19">
-        <v>59</v>
+      <c r="C89" s="46">
+        <v>58</v>
       </c>
       <c r="D89" s="30">
-        <v>7517951.9790000003</v>
+        <v>7517951.3300000001</v>
       </c>
       <c r="E89" s="30">
-        <v>4692687.1399999997</v>
-      </c>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
       <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
@@ -4805,17 +4499,17 @@
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="19">
-        <v>60</v>
+      <c r="C90" s="46">
+        <v>59</v>
       </c>
       <c r="D90" s="30">
-        <v>7517952.0760000004</v>
+        <v>7517951.9790000003</v>
       </c>
       <c r="E90" s="30">
-        <v>4692688.1239999998</v>
-      </c>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
@@ -4826,17 +4520,17 @@
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="19">
-        <v>61</v>
+      <c r="C91" s="46">
+        <v>60</v>
       </c>
       <c r="D91" s="30">
-        <v>7517950.1849999996</v>
+        <v>7517952.0760000004</v>
       </c>
       <c r="E91" s="30">
-        <v>4692693.4919999996</v>
-      </c>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
       <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
@@ -4847,17 +4541,17 @@
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="19">
-        <v>62</v>
+      <c r="C92" s="46">
+        <v>61</v>
       </c>
       <c r="D92" s="30">
-        <v>7517949.5559999999</v>
+        <v>7517950.1849999996</v>
       </c>
       <c r="E92" s="30">
-        <v>4692694.1169999996</v>
-      </c>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
       <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
@@ -4868,17 +4562,17 @@
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="19">
-        <v>63</v>
+      <c r="C93" s="46">
+        <v>62</v>
       </c>
       <c r="D93" s="30">
-        <v>7517948.5300000003</v>
+        <v>7517949.5559999999</v>
       </c>
       <c r="E93" s="30">
-        <v>4692694.1579999998</v>
-      </c>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
       <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
@@ -4889,17 +4583,17 @@
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="19">
-        <v>105</v>
+      <c r="C94" s="46">
+        <v>63</v>
       </c>
       <c r="D94" s="30">
-        <v>7517927.7654999997</v>
+        <v>7517948.5300000003</v>
       </c>
       <c r="E94" s="30">
-        <v>4692687.1445000004</v>
-      </c>
-      <c r="F94" s="62"/>
-      <c r="G94" s="62"/>
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F94" s="80"/>
+      <c r="G94" s="80"/>
       <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
@@ -4910,17 +4604,17 @@
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="19">
-        <v>106</v>
+      <c r="C95" s="46">
+        <v>105</v>
       </c>
       <c r="D95" s="30">
-        <v>7517928.7182999998</v>
+        <v>7517927.7654999997</v>
       </c>
       <c r="E95" s="30">
-        <v>4692684.3208999997</v>
-      </c>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
+        <v>4692687.1445000004</v>
+      </c>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
       <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
@@ -4931,17 +4625,17 @@
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="19">
-        <v>107</v>
+      <c r="C96" s="46">
+        <v>106</v>
       </c>
       <c r="D96" s="30">
-        <v>7517927.7045</v>
+        <v>7517928.7182999998</v>
       </c>
       <c r="E96" s="30">
-        <v>4692683.9785000002</v>
-      </c>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
+        <v>4692684.3208999997</v>
+      </c>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
@@ -4952,17 +4646,17 @@
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="19">
-        <v>108</v>
+      <c r="C97" s="46">
+        <v>107</v>
       </c>
       <c r="D97" s="30">
-        <v>7517925.0517999995</v>
+        <v>7517927.7045</v>
       </c>
       <c r="E97" s="30">
-        <v>4692683.0823999997</v>
-      </c>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
+        <v>4692683.9785000002</v>
+      </c>
+      <c r="F97" s="80"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
@@ -4973,17 +4667,17 @@
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="19">
-        <v>109</v>
+      <c r="C98" s="46">
+        <v>108</v>
       </c>
       <c r="D98" s="30">
-        <v>7517926.6694</v>
+        <v>7517925.0517999995</v>
       </c>
       <c r="E98" s="30">
-        <v>4692678.2884999998</v>
-      </c>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
+        <v>4692683.0823999997</v>
+      </c>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
       <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
@@ -4994,17 +4688,17 @@
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="19">
-        <v>110</v>
+      <c r="C99" s="46">
+        <v>109</v>
       </c>
       <c r="D99" s="30">
-        <v>7517928.0525000002</v>
+        <v>7517926.6694</v>
       </c>
       <c r="E99" s="30">
-        <v>4692678.7551999995</v>
-      </c>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
+        <v>4692678.2884999998</v>
+      </c>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
@@ -5015,17 +4709,17 @@
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="19">
-        <v>111</v>
+      <c r="C100" s="46">
+        <v>110</v>
       </c>
       <c r="D100" s="30">
-        <v>7517929.3223999999</v>
+        <v>7517928.0525000002</v>
       </c>
       <c r="E100" s="30">
-        <v>4692679.1836999999</v>
-      </c>
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
+        <v>4692678.7551999995</v>
+      </c>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
       <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
@@ -5036,17 +4730,17 @@
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="19">
-        <v>112</v>
+      <c r="C101" s="46">
+        <v>111</v>
       </c>
       <c r="D101" s="30">
-        <v>7517950.6852000002</v>
+        <v>7517929.3223999999</v>
       </c>
       <c r="E101" s="30">
-        <v>4692679.26</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
+        <v>4692679.1836999999</v>
+      </c>
+      <c r="F101" s="80"/>
+      <c r="G101" s="80"/>
       <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
@@ -5057,17 +4751,17 @@
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="19">
-        <v>113</v>
+      <c r="C102" s="46">
+        <v>112</v>
       </c>
       <c r="D102" s="30">
-        <v>7517953.2906999998</v>
+        <v>7517950.6852000002</v>
       </c>
       <c r="E102" s="30">
-        <v>4692680.1398</v>
-      </c>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
+        <v>4692679.26</v>
+      </c>
+      <c r="F102" s="80"/>
+      <c r="G102" s="80"/>
       <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
@@ -5078,17 +4772,17 @@
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="19">
-        <v>114</v>
+      <c r="C103" s="46">
+        <v>113</v>
       </c>
       <c r="D103" s="30">
-        <v>7517948.5182999996</v>
+        <v>7517953.2906999998</v>
       </c>
       <c r="E103" s="30">
-        <v>4692685.5575999999</v>
-      </c>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
+        <v>4692680.1398</v>
+      </c>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
       <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
@@ -5099,17 +4793,17 @@
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="19">
-        <v>115</v>
+      <c r="C104" s="46">
+        <v>114</v>
       </c>
       <c r="D104" s="30">
-        <v>7517951.1238000002</v>
+        <v>7517948.5182999996</v>
       </c>
       <c r="E104" s="30">
-        <v>4692686.4374000002</v>
-      </c>
-      <c r="F104" s="62"/>
-      <c r="G104" s="62"/>
+        <v>4692685.5575999999</v>
+      </c>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
@@ -5120,17 +4814,17 @@
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="19">
-        <v>116</v>
+      <c r="C105" s="46">
+        <v>115</v>
       </c>
       <c r="D105" s="30">
-        <v>7517946.1694999998</v>
+        <v>7517951.1238000002</v>
       </c>
       <c r="E105" s="30">
-        <v>4692690.9013999999</v>
-      </c>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
+        <v>4692686.4374000002</v>
+      </c>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
       <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
@@ -5141,17 +4835,17 @@
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="19">
-        <v>117</v>
+      <c r="C106" s="46">
+        <v>116</v>
       </c>
       <c r="D106" s="30">
-        <v>7517945.4238999998</v>
+        <v>7517946.1694999998</v>
       </c>
       <c r="E106" s="30">
-        <v>4692693.1089000003</v>
-      </c>
-      <c r="F106" s="62"/>
-      <c r="G106" s="62"/>
+        <v>4692690.9013999999</v>
+      </c>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
       <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
@@ -5162,17 +4856,17 @@
     <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="19">
-        <v>118</v>
+      <c r="C107" s="46">
+        <v>117</v>
       </c>
       <c r="D107" s="30">
-        <v>7517941.9455000004</v>
+        <v>7517945.4238999998</v>
       </c>
       <c r="E107" s="30">
-        <v>4692689.4746000003</v>
-      </c>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
+        <v>4692693.1089000003</v>
+      </c>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
       <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
@@ -5183,17 +4877,17 @@
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="19">
-        <v>119</v>
+      <c r="C108" s="46">
+        <v>118</v>
       </c>
       <c r="D108" s="30">
-        <v>7517936.9005000005</v>
+        <v>7517941.8033999996</v>
       </c>
       <c r="E108" s="30">
-        <v>4692687.7706000004</v>
-      </c>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
+        <v>4692689.4265999999</v>
+      </c>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
       <c r="H108" s="30" t="s">
         <v>8</v>
       </c>
@@ -5204,17 +4898,17 @@
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="19">
-        <v>120</v>
+      <c r="C109" s="46">
+        <v>119</v>
       </c>
       <c r="D109" s="30">
-        <v>7517936.1549000004</v>
+        <v>7517936.9404999996</v>
       </c>
       <c r="E109" s="30">
-        <v>4692689.9780000001</v>
-      </c>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
+        <v>4692687.6520999996</v>
+      </c>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
       <c r="H109" s="30" t="s">
         <v>8</v>
       </c>
@@ -5225,17 +4919,17 @@
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="19">
-        <v>14</v>
+      <c r="C110" s="46">
+        <v>120</v>
       </c>
       <c r="D110" s="30">
-        <v>7517930.4069999997</v>
+        <v>7517936.1549000004</v>
       </c>
       <c r="E110" s="30">
-        <v>4692671.8150000004</v>
-      </c>
-      <c r="F110" s="63"/>
-      <c r="G110" s="63"/>
+        <v>4692689.9780000001</v>
+      </c>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="30" t="s">
         <v>8</v>
       </c>
@@ -5246,12 +4940,20 @@
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="13"/>
+      <c r="C111" s="46">
+        <v>121</v>
+      </c>
+      <c r="D111" s="30">
+        <v>7517941.8433999997</v>
+      </c>
+      <c r="E111" s="30">
+        <v>4692689.3081999999</v>
+      </c>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I111" s="11"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -5259,12 +4961,20 @@
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="13"/>
+      <c r="C112" s="46">
+        <v>101</v>
+      </c>
+      <c r="D112" s="30">
+        <v>7517952.1813000003</v>
+      </c>
+      <c r="E112" s="30">
+        <v>4692679.7653000001</v>
+      </c>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="I112" s="11"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -5363,28 +5073,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="57" t="s">
+      <c r="C120" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="57"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="59"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -5473,114 +5183,114 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="64" t="s">
+      <c r="E128" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="65"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="67" t="s">
+      <c r="F128" s="61"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="68"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="72"/>
+      <c r="I128" s="64"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="68"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="75" t="s">
+      <c r="A129" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="76"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78">
+      <c r="B129" s="72"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="74">
         <v>140</v>
       </c>
-      <c r="F129" s="79"/>
-      <c r="G129" s="80"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="70"/>
-      <c r="J129" s="73"/>
-      <c r="K129" s="74"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="70"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="48"/>
     </row>
     <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="46"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="48"/>
+      <c r="K133" s="48"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="47"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="49"/>
+      <c r="K134" s="49"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="47"/>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="47"/>
-      <c r="K135" s="47"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="49"/>
     </row>
     <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="47"/>
+      <c r="A136" s="49"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
+      <c r="K136" s="49"/>
     </row>
     <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="47"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="49"/>
+      <c r="K137" s="49"/>
     </row>
     <row r="138" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -5597,36 +5307,36 @@
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="52"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="55"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="55"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+      <c r="H141" s="78"/>
       <c r="I141" s="56"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -5678,8 +5388,8 @@
       <c r="F144" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G144" s="61" t="s">
-        <v>24</v>
+      <c r="G144" s="79" t="s">
+        <v>23</v>
       </c>
       <c r="H144" s="30" t="s">
         <v>8</v>
@@ -5703,7 +5413,7 @@
       <c r="F145" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G145" s="62"/>
+      <c r="G145" s="80"/>
       <c r="H145" s="30" t="s">
         <v>8</v>
       </c>
@@ -5726,7 +5436,7 @@
       <c r="F146" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G146" s="62"/>
+      <c r="G146" s="80"/>
       <c r="H146" s="30" t="s">
         <v>8</v>
       </c>
@@ -5749,7 +5459,7 @@
       <c r="F147" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G147" s="62"/>
+      <c r="G147" s="80"/>
       <c r="H147" s="30" t="s">
         <v>8</v>
       </c>
@@ -5772,7 +5482,7 @@
       <c r="F148" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G148" s="62"/>
+      <c r="G148" s="80"/>
       <c r="H148" s="30" t="s">
         <v>8</v>
       </c>
@@ -5795,7 +5505,7 @@
       <c r="F149" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G149" s="62"/>
+      <c r="G149" s="80"/>
       <c r="H149" s="30" t="s">
         <v>8</v>
       </c>
@@ -5818,7 +5528,7 @@
       <c r="F150" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G150" s="62"/>
+      <c r="G150" s="80"/>
       <c r="H150" s="30" t="s">
         <v>8</v>
       </c>
@@ -5841,7 +5551,7 @@
       <c r="F151" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G151" s="62"/>
+      <c r="G151" s="80"/>
       <c r="H151" s="30" t="s">
         <v>8</v>
       </c>
@@ -5864,7 +5574,7 @@
       <c r="F152" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G152" s="62"/>
+      <c r="G152" s="80"/>
       <c r="H152" s="30" t="s">
         <v>8</v>
       </c>
@@ -5887,7 +5597,7 @@
       <c r="F153" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G153" s="62"/>
+      <c r="G153" s="80"/>
       <c r="H153" s="30" t="s">
         <v>8</v>
       </c>
@@ -5910,7 +5620,7 @@
       <c r="F154" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G154" s="62"/>
+      <c r="G154" s="80"/>
       <c r="H154" s="30" t="s">
         <v>8</v>
       </c>
@@ -5933,7 +5643,7 @@
       <c r="F155" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G155" s="62"/>
+      <c r="G155" s="80"/>
       <c r="H155" s="30" t="s">
         <v>8</v>
       </c>
@@ -5956,7 +5666,7 @@
       <c r="F156" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G156" s="62"/>
+      <c r="G156" s="80"/>
       <c r="H156" s="30" t="s">
         <v>8</v>
       </c>
@@ -5979,7 +5689,7 @@
       <c r="F157" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G157" s="62"/>
+      <c r="G157" s="80"/>
       <c r="H157" s="30" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +5712,7 @@
       <c r="F158" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G158" s="62"/>
+      <c r="G158" s="80"/>
       <c r="H158" s="30" t="s">
         <v>8</v>
       </c>
@@ -6025,7 +5735,7 @@
       <c r="F159" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G159" s="62"/>
+      <c r="G159" s="80"/>
       <c r="H159" s="30" t="s">
         <v>8</v>
       </c>
@@ -6048,7 +5758,7 @@
       <c r="F160" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G160" s="62"/>
+      <c r="G160" s="80"/>
       <c r="H160" s="30" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +5781,7 @@
       <c r="F161" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G161" s="62"/>
+      <c r="G161" s="80"/>
       <c r="H161" s="30" t="s">
         <v>8</v>
       </c>
@@ -6094,7 +5804,7 @@
       <c r="F162" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G162" s="62"/>
+      <c r="G162" s="80"/>
       <c r="H162" s="30" t="s">
         <v>8</v>
       </c>
@@ -6117,7 +5827,7 @@
       <c r="F163" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G163" s="62"/>
+      <c r="G163" s="80"/>
       <c r="H163" s="30" t="s">
         <v>8</v>
       </c>
@@ -6140,7 +5850,7 @@
       <c r="F164" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G164" s="62"/>
+      <c r="G164" s="80"/>
       <c r="H164" s="30" t="s">
         <v>8</v>
       </c>
@@ -6163,7 +5873,7 @@
       <c r="F165" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G165" s="62"/>
+      <c r="G165" s="80"/>
       <c r="H165" s="30" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +5896,7 @@
       <c r="F166" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G166" s="62"/>
+      <c r="G166" s="80"/>
       <c r="H166" s="30" t="s">
         <v>8</v>
       </c>
@@ -6209,7 +5919,7 @@
       <c r="F167" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G167" s="62"/>
+      <c r="G167" s="80"/>
       <c r="H167" s="30" t="s">
         <v>8</v>
       </c>
@@ -6232,7 +5942,7 @@
       <c r="F168" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G168" s="62"/>
+      <c r="G168" s="80"/>
       <c r="H168" s="30" t="s">
         <v>8</v>
       </c>
@@ -6255,7 +5965,7 @@
       <c r="F169" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G169" s="62"/>
+      <c r="G169" s="80"/>
       <c r="H169" s="30" t="s">
         <v>8</v>
       </c>
@@ -6278,7 +5988,7 @@
       <c r="F170" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G170" s="62"/>
+      <c r="G170" s="80"/>
       <c r="H170" s="30" t="s">
         <v>8</v>
       </c>
@@ -6301,7 +6011,7 @@
       <c r="F171" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G171" s="62"/>
+      <c r="G171" s="80"/>
       <c r="H171" s="30" t="s">
         <v>8</v>
       </c>
@@ -6323,7 +6033,7 @@
       <c r="F172" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G172" s="62"/>
+      <c r="G172" s="80"/>
       <c r="H172" s="30" t="s">
         <v>8</v>
       </c>
@@ -6345,7 +6055,7 @@
       <c r="F173" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G173" s="62"/>
+      <c r="G173" s="80"/>
       <c r="H173" s="30" t="s">
         <v>8</v>
       </c>
@@ -6368,7 +6078,7 @@
       <c r="F174" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G174" s="62"/>
+      <c r="G174" s="80"/>
       <c r="H174" s="30" t="s">
         <v>8</v>
       </c>
@@ -6391,7 +6101,7 @@
       <c r="F175" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G175" s="62"/>
+      <c r="G175" s="80"/>
       <c r="H175" s="30" t="s">
         <v>8</v>
       </c>
@@ -6414,7 +6124,7 @@
       <c r="F176" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G176" s="62"/>
+      <c r="G176" s="80"/>
       <c r="H176" s="30" t="s">
         <v>8</v>
       </c>
@@ -6437,7 +6147,7 @@
       <c r="F177" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G177" s="62"/>
+      <c r="G177" s="80"/>
       <c r="H177" s="30" t="s">
         <v>8</v>
       </c>
@@ -6458,9 +6168,9 @@
         <v>4692678.5990000004</v>
       </c>
       <c r="F178" s="19">
-        <v>618.84299999999996</v>
-      </c>
-      <c r="G178" s="63"/>
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G178" s="81"/>
       <c r="H178" s="30" t="s">
         <v>20</v>
       </c>
@@ -6510,28 +6220,28 @@
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="57" t="s">
+      <c r="C182" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
+      <c r="D182" s="59"/>
+      <c r="E182" s="59"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="59"/>
+      <c r="I182" s="59"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
@@ -6646,147 +6356,147 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="64" t="s">
+      <c r="E192" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F192" s="65"/>
-      <c r="G192" s="66"/>
-      <c r="H192" s="67" t="s">
+      <c r="F192" s="61"/>
+      <c r="G192" s="62"/>
+      <c r="H192" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I192" s="68"/>
-      <c r="J192" s="71"/>
-      <c r="K192" s="72"/>
+      <c r="I192" s="64"/>
+      <c r="J192" s="67"/>
+      <c r="K192" s="68"/>
     </row>
     <row r="193" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="75" t="s">
+      <c r="A193" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="76"/>
-      <c r="C193" s="76"/>
-      <c r="D193" s="77"/>
-      <c r="E193" s="78">
+      <c r="B193" s="72"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="73"/>
+      <c r="E193" s="74">
         <v>140</v>
       </c>
-      <c r="F193" s="79"/>
-      <c r="G193" s="80"/>
-      <c r="H193" s="69"/>
-      <c r="I193" s="70"/>
-      <c r="J193" s="73"/>
-      <c r="K193" s="74"/>
+      <c r="F193" s="75"/>
+      <c r="G193" s="76"/>
+      <c r="H193" s="65"/>
+      <c r="I193" s="66"/>
+      <c r="J193" s="69"/>
+      <c r="K193" s="70"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="46"/>
-      <c r="B194" s="46"/>
-      <c r="C194" s="46"/>
-      <c r="D194" s="46"/>
-      <c r="E194" s="46"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="46"/>
-      <c r="J194" s="46"/>
-      <c r="K194" s="46"/>
+      <c r="A194" s="48"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="48"/>
     </row>
     <row r="195" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="46"/>
-      <c r="B195" s="46"/>
-      <c r="C195" s="46"/>
-      <c r="D195" s="46"/>
-      <c r="E195" s="46"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="46"/>
-      <c r="J195" s="46"/>
-      <c r="K195" s="46"/>
+      <c r="A195" s="48"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="48"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="47" t="s">
+      <c r="A196" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="47"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="47"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="47"/>
-      <c r="H196" s="47"/>
-      <c r="I196" s="47"/>
-      <c r="J196" s="47"/>
-      <c r="K196" s="47"/>
+      <c r="B196" s="49"/>
+      <c r="C196" s="49"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="49"/>
+      <c r="I196" s="49"/>
+      <c r="J196" s="49"/>
+      <c r="K196" s="49"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="47"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="47"/>
-      <c r="H197" s="47"/>
-      <c r="I197" s="47"/>
-      <c r="J197" s="47"/>
-      <c r="K197" s="47"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="49"/>
+      <c r="G197" s="49"/>
+      <c r="H197" s="49"/>
+      <c r="I197" s="49"/>
+      <c r="J197" s="49"/>
+      <c r="K197" s="49"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
-      <c r="C198" s="47"/>
-      <c r="D198" s="47"/>
-      <c r="E198" s="47"/>
-      <c r="F198" s="47"/>
-      <c r="G198" s="47"/>
-      <c r="H198" s="47"/>
-      <c r="I198" s="47"/>
-      <c r="J198" s="47"/>
-      <c r="K198" s="47"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="49"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="49"/>
+      <c r="G198" s="49"/>
+      <c r="H198" s="49"/>
+      <c r="I198" s="49"/>
+      <c r="J198" s="49"/>
+      <c r="K198" s="49"/>
     </row>
     <row r="199" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
-      <c r="C199" s="47"/>
-      <c r="D199" s="47"/>
-      <c r="E199" s="47"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="47"/>
-      <c r="H199" s="47"/>
-      <c r="I199" s="47"/>
-      <c r="J199" s="47"/>
-      <c r="K199" s="47"/>
+      <c r="A199" s="49"/>
+      <c r="B199" s="49"/>
+      <c r="C199" s="49"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="49"/>
+      <c r="F199" s="49"/>
+      <c r="G199" s="49"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="49"/>
+      <c r="J199" s="49"/>
+      <c r="K199" s="49"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="49"/>
-      <c r="E200" s="49"/>
-      <c r="F200" s="49"/>
-      <c r="G200" s="49"/>
-      <c r="H200" s="49"/>
-      <c r="I200" s="50"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="51"/>
+      <c r="E200" s="51"/>
+      <c r="F200" s="51"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+      <c r="I200" s="52"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
     <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="52"/>
-      <c r="E201" s="52"/>
-      <c r="F201" s="52"/>
-      <c r="G201" s="52"/>
-      <c r="H201" s="52"/>
-      <c r="I201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="55"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="52"/>
-      <c r="E202" s="52"/>
-      <c r="F202" s="52"/>
-      <c r="G202" s="52"/>
-      <c r="H202" s="52"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="54"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
       <c r="I202" s="56"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -6828,11 +6538,11 @@
       <c r="E204" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F204" s="86">
+      <c r="F204" s="57">
         <v>622.86300000000006</v>
       </c>
-      <c r="G204" s="86" t="s">
-        <v>25</v>
+      <c r="G204" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="H204" s="40" t="s">
         <v>8</v>
@@ -6853,8 +6563,8 @@
       <c r="E205" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F205" s="86"/>
-      <c r="G205" s="86"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
       <c r="H205" s="40" t="s">
         <v>8</v>
       </c>
@@ -6874,8 +6584,8 @@
       <c r="E206" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F206" s="86"/>
-      <c r="G206" s="86"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
       <c r="H206" s="40" t="s">
         <v>8</v>
       </c>
@@ -6895,8 +6605,8 @@
       <c r="E207" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F207" s="86"/>
-      <c r="G207" s="86"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
       <c r="H207" s="40" t="s">
         <v>8</v>
       </c>
@@ -6916,8 +6626,8 @@
       <c r="E208" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F208" s="86"/>
-      <c r="G208" s="86"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
       <c r="H208" s="40" t="s">
         <v>8</v>
       </c>
@@ -6937,8 +6647,8 @@
       <c r="E209" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F209" s="86"/>
-      <c r="G209" s="86"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
       <c r="H209" s="40" t="s">
         <v>8</v>
       </c>
@@ -6958,8 +6668,8 @@
       <c r="E210" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F210" s="86"/>
-      <c r="G210" s="86"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
       <c r="H210" s="40" t="s">
         <v>8</v>
       </c>
@@ -6979,8 +6689,8 @@
       <c r="E211" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F211" s="86"/>
-      <c r="G211" s="86"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
       <c r="H211" s="40" t="s">
         <v>8</v>
       </c>
@@ -7000,8 +6710,8 @@
       <c r="E212" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F212" s="86"/>
-      <c r="G212" s="86"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
       <c r="H212" s="40" t="s">
         <v>8</v>
       </c>
@@ -7021,8 +6731,8 @@
       <c r="E213" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F213" s="86"/>
-      <c r="G213" s="86"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="57"/>
       <c r="H213" s="40" t="s">
         <v>8</v>
       </c>
@@ -7042,8 +6752,8 @@
       <c r="E214" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F214" s="86"/>
-      <c r="G214" s="86"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="57"/>
       <c r="H214" s="40" t="s">
         <v>8</v>
       </c>
@@ -7063,8 +6773,8 @@
       <c r="E215" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F215" s="86"/>
-      <c r="G215" s="86"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
       <c r="H215" s="40" t="s">
         <v>8</v>
       </c>
@@ -7084,8 +6794,8 @@
       <c r="E216" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F216" s="86"/>
-      <c r="G216" s="86"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="57"/>
       <c r="H216" s="40" t="s">
         <v>8</v>
       </c>
@@ -7105,8 +6815,8 @@
       <c r="E217" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F217" s="86"/>
-      <c r="G217" s="86"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="57"/>
       <c r="H217" s="40" t="s">
         <v>8</v>
       </c>
@@ -7126,8 +6836,8 @@
       <c r="E218" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F218" s="86"/>
-      <c r="G218" s="86"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="57"/>
       <c r="H218" s="40" t="s">
         <v>8</v>
       </c>
@@ -7147,8 +6857,8 @@
       <c r="E219" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F219" s="86"/>
-      <c r="G219" s="86"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="57"/>
       <c r="H219" s="40" t="s">
         <v>8</v>
       </c>
@@ -7168,8 +6878,8 @@
       <c r="E220" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F220" s="86"/>
-      <c r="G220" s="86"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="57"/>
       <c r="H220" s="40" t="s">
         <v>8</v>
       </c>
@@ -7189,8 +6899,8 @@
       <c r="E221" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F221" s="86"/>
-      <c r="G221" s="86"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="57"/>
       <c r="H221" s="40" t="s">
         <v>8</v>
       </c>
@@ -7210,8 +6920,8 @@
       <c r="E222" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F222" s="86"/>
-      <c r="G222" s="86"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="57"/>
       <c r="H222" s="40" t="s">
         <v>8</v>
       </c>
@@ -7231,8 +6941,8 @@
       <c r="E223" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F223" s="86"/>
-      <c r="G223" s="86"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="57"/>
       <c r="H223" s="40" t="s">
         <v>8</v>
       </c>
@@ -7252,8 +6962,8 @@
       <c r="E224" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F224" s="86"/>
-      <c r="G224" s="86"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="57"/>
       <c r="H224" s="40" t="s">
         <v>8</v>
       </c>
@@ -7273,8 +6983,8 @@
       <c r="E225" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F225" s="86"/>
-      <c r="G225" s="86"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="57"/>
       <c r="H225" s="40" t="s">
         <v>8</v>
       </c>
@@ -7294,8 +7004,8 @@
       <c r="E226" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F226" s="86"/>
-      <c r="G226" s="86"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
       <c r="H226" s="40" t="s">
         <v>8</v>
       </c>
@@ -7315,8 +7025,8 @@
       <c r="E227" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F227" s="86"/>
-      <c r="G227" s="86"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="57"/>
       <c r="H227" s="40" t="s">
         <v>8</v>
       </c>
@@ -7336,8 +7046,8 @@
       <c r="E228" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F228" s="86"/>
-      <c r="G228" s="86"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="57"/>
       <c r="H228" s="40" t="s">
         <v>8</v>
       </c>
@@ -7357,8 +7067,8 @@
       <c r="E229" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F229" s="86"/>
-      <c r="G229" s="86"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="57"/>
       <c r="H229" s="40" t="s">
         <v>8</v>
       </c>
@@ -7378,8 +7088,8 @@
       <c r="E230" s="30">
         <v>4692687.4755999995</v>
       </c>
-      <c r="F230" s="86"/>
-      <c r="G230" s="86"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="57"/>
       <c r="H230" s="40" t="s">
         <v>8</v>
       </c>
@@ -7399,8 +7109,8 @@
       <c r="E231" s="30">
         <v>4692681.2410000004</v>
       </c>
-      <c r="F231" s="86"/>
-      <c r="G231" s="86"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
       <c r="H231" s="40" t="s">
         <v>8</v>
       </c>
@@ -7420,8 +7130,8 @@
       <c r="E232" s="30">
         <v>4692682.2426000005</v>
       </c>
-      <c r="F232" s="86"/>
-      <c r="G232" s="86"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="57"/>
       <c r="H232" s="40" t="s">
         <v>8</v>
       </c>
@@ -7441,8 +7151,8 @@
       <c r="E233" s="30">
         <v>4692688.4773000004</v>
       </c>
-      <c r="F233" s="86"/>
-      <c r="G233" s="86"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57"/>
       <c r="H233" s="40" t="s">
         <v>8</v>
       </c>
@@ -7462,8 +7172,8 @@
       <c r="E234" s="30">
         <v>4692689.9908999996</v>
       </c>
-      <c r="F234" s="86"/>
-      <c r="G234" s="86"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="57"/>
       <c r="H234" s="40" t="s">
         <v>8</v>
       </c>
@@ -7483,8 +7193,8 @@
       <c r="E235" s="30">
         <v>4692683.7561999997</v>
       </c>
-      <c r="F235" s="86"/>
-      <c r="G235" s="86"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="57"/>
       <c r="H235" s="40" t="s">
         <v>8</v>
       </c>
@@ -7504,8 +7214,8 @@
       <c r="E236" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F236" s="86"/>
-      <c r="G236" s="86"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="57"/>
       <c r="H236" s="40" t="s">
         <v>8</v>
       </c>
@@ -7525,8 +7235,8 @@
       <c r="E237" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F237" s="86"/>
-      <c r="G237" s="86"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="57"/>
       <c r="H237" s="40" t="s">
         <v>8</v>
       </c>
@@ -7546,8 +7256,8 @@
       <c r="E238" s="30">
         <v>4692693.0789000001</v>
       </c>
-      <c r="F238" s="86"/>
-      <c r="G238" s="86"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="57"/>
       <c r="H238" s="40" t="s">
         <v>8</v>
       </c>
@@ -7567,8 +7277,8 @@
       <c r="E239" s="30">
         <v>4692686.8443</v>
       </c>
-      <c r="F239" s="86"/>
-      <c r="G239" s="86"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="57"/>
       <c r="H239" s="40" t="s">
         <v>8</v>
       </c>
@@ -7588,8 +7298,8 @@
       <c r="E240" s="30">
         <v>4692689.7762000002</v>
       </c>
-      <c r="F240" s="86"/>
-      <c r="G240" s="86"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="57"/>
       <c r="H240" s="40" t="s">
         <v>8</v>
       </c>
@@ -7609,8 +7319,8 @@
       <c r="E241" s="30">
         <v>4692687.6679999996</v>
       </c>
-      <c r="F241" s="86"/>
-      <c r="G241" s="86"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="57"/>
       <c r="H241" s="40" t="s">
         <v>8</v>
       </c>
@@ -7630,8 +7340,8 @@
       <c r="E242" s="30">
         <v>4692690.4787999997</v>
       </c>
-      <c r="F242" s="86"/>
-      <c r="G242" s="86"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="57"/>
       <c r="H242" s="40" t="s">
         <v>8</v>
       </c>
@@ -7651,8 +7361,8 @@
       <c r="E243" s="30">
         <v>4692688.38</v>
       </c>
-      <c r="F243" s="86"/>
-      <c r="G243" s="86"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="57"/>
       <c r="H243" s="40" t="s">
         <v>8</v>
       </c>
@@ -7672,8 +7382,8 @@
       <c r="E244" s="30">
         <v>4692685.5033</v>
       </c>
-      <c r="F244" s="86"/>
-      <c r="G244" s="86"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="57"/>
       <c r="H244" s="40" t="s">
         <v>8</v>
       </c>
@@ -7693,8 +7403,8 @@
       <c r="E245" s="30">
         <v>4692686.4769000001</v>
       </c>
-      <c r="F245" s="86"/>
-      <c r="G245" s="86"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
       <c r="H245" s="40" t="s">
         <v>8</v>
       </c>
@@ -7714,8 +7424,8 @@
       <c r="E246" s="30">
         <v>4692680.3293000003</v>
       </c>
-      <c r="F246" s="86"/>
-      <c r="G246" s="86"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
       <c r="H246" s="40" t="s">
         <v>8</v>
       </c>
@@ -7735,8 +7445,8 @@
       <c r="E247" s="30">
         <v>4692685.9365999997</v>
       </c>
-      <c r="F247" s="86"/>
-      <c r="G247" s="86"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="57"/>
       <c r="H247" s="40" t="s">
         <v>8</v>
       </c>
@@ -7756,8 +7466,8 @@
       <c r="E248" s="30">
         <v>4692684.2878</v>
       </c>
-      <c r="F248" s="86"/>
-      <c r="G248" s="86"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="57"/>
       <c r="H248" s="40" t="s">
         <v>8</v>
       </c>
@@ -7777,8 +7487,8 @@
       <c r="E249" s="30">
         <v>4692677.3678000001</v>
       </c>
-      <c r="F249" s="86"/>
-      <c r="G249" s="86"/>
+      <c r="F249" s="57"/>
+      <c r="G249" s="57"/>
       <c r="H249" s="40" t="s">
         <v>8</v>
       </c>
@@ -7798,8 +7508,8 @@
       <c r="E250" s="30">
         <v>4692675.551</v>
       </c>
-      <c r="F250" s="86"/>
-      <c r="G250" s="86"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="57"/>
       <c r="H250" s="40" t="s">
         <v>8</v>
       </c>
@@ -7819,8 +7529,8 @@
       <c r="E251" s="30">
         <v>4692682.6838999996</v>
       </c>
-      <c r="F251" s="86"/>
-      <c r="G251" s="86"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="57"/>
       <c r="H251" s="40" t="s">
         <v>8</v>
       </c>
@@ -7840,8 +7550,8 @@
       <c r="E252" s="30">
         <v>4692681.1698000003</v>
       </c>
-      <c r="F252" s="86"/>
-      <c r="G252" s="86"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="57"/>
       <c r="H252" s="40" t="s">
         <v>8</v>
       </c>
@@ -7859,8 +7569,8 @@
       <c r="E253" s="30">
         <v>4692679.5367999999</v>
       </c>
-      <c r="F253" s="86"/>
-      <c r="G253" s="86"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="57"/>
       <c r="H253" s="40" t="s">
         <v>8</v>
       </c>
@@ -7875,8 +7585,8 @@
       <c r="E254" s="30">
         <v>4692678.6008000001</v>
       </c>
-      <c r="F254" s="86"/>
-      <c r="G254" s="86"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
       <c r="H254" s="40" t="s">
         <v>8</v>
       </c>
@@ -7893,8 +7603,8 @@
       <c r="E255" s="30">
         <v>4692673.9884000001</v>
       </c>
-      <c r="F255" s="86"/>
-      <c r="G255" s="86"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="57"/>
       <c r="H255" s="40" t="s">
         <v>8</v>
       </c>
@@ -7914,8 +7624,8 @@
       <c r="E256" s="42">
         <v>4692673.2940999996</v>
       </c>
-      <c r="F256" s="87"/>
-      <c r="G256" s="87"/>
+      <c r="F256" s="58"/>
+      <c r="G256" s="58"/>
       <c r="H256" s="43" t="s">
         <v>20</v>
       </c>
@@ -7930,34 +7640,34 @@
       <c r="B257" s="3"/>
       <c r="C257" s="35"/>
       <c r="D257" s="35"/>
-      <c r="E257" s="82" t="s">
+      <c r="E257" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F257" s="83"/>
-      <c r="G257" s="84"/>
-      <c r="H257" s="81" t="s">
+      <c r="F257" s="84"/>
+      <c r="G257" s="85"/>
+      <c r="H257" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I257" s="68"/>
-      <c r="J257" s="71"/>
-      <c r="K257" s="72"/>
+      <c r="I257" s="64"/>
+      <c r="J257" s="67"/>
+      <c r="K257" s="68"/>
     </row>
     <row r="258" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="75" t="s">
+      <c r="A258" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="76"/>
-      <c r="C258" s="76"/>
-      <c r="D258" s="77"/>
-      <c r="E258" s="78">
+      <c r="B258" s="72"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="73"/>
+      <c r="E258" s="74">
         <v>140</v>
       </c>
-      <c r="F258" s="79"/>
-      <c r="G258" s="80"/>
-      <c r="H258" s="69"/>
-      <c r="I258" s="70"/>
-      <c r="J258" s="73"/>
-      <c r="K258" s="74"/>
+      <c r="F258" s="75"/>
+      <c r="G258" s="76"/>
+      <c r="H258" s="65"/>
+      <c r="I258" s="66"/>
+      <c r="J258" s="69"/>
+      <c r="K258" s="70"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
@@ -7973,117 +7683,117 @@
       <c r="K259" s="1"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="46"/>
-      <c r="B260" s="46"/>
-      <c r="C260" s="46"/>
-      <c r="D260" s="46"/>
-      <c r="E260" s="46"/>
-      <c r="F260" s="46"/>
-      <c r="G260" s="46"/>
-      <c r="H260" s="46"/>
-      <c r="I260" s="46"/>
-      <c r="J260" s="46"/>
-      <c r="K260" s="46"/>
+      <c r="A260" s="48"/>
+      <c r="B260" s="48"/>
+      <c r="C260" s="48"/>
+      <c r="D260" s="48"/>
+      <c r="E260" s="48"/>
+      <c r="F260" s="48"/>
+      <c r="G260" s="48"/>
+      <c r="H260" s="48"/>
+      <c r="I260" s="48"/>
+      <c r="J260" s="48"/>
+      <c r="K260" s="48"/>
     </row>
     <row r="261" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="46"/>
-      <c r="B261" s="46"/>
-      <c r="C261" s="46"/>
-      <c r="D261" s="46"/>
-      <c r="E261" s="46"/>
-      <c r="F261" s="46"/>
-      <c r="G261" s="46"/>
-      <c r="H261" s="46"/>
-      <c r="I261" s="46"/>
-      <c r="J261" s="46"/>
-      <c r="K261" s="46"/>
+      <c r="A261" s="48"/>
+      <c r="B261" s="48"/>
+      <c r="C261" s="48"/>
+      <c r="D261" s="48"/>
+      <c r="E261" s="48"/>
+      <c r="F261" s="48"/>
+      <c r="G261" s="48"/>
+      <c r="H261" s="48"/>
+      <c r="I261" s="48"/>
+      <c r="J261" s="48"/>
+      <c r="K261" s="48"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="47" t="s">
+      <c r="A262" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B262" s="47"/>
-      <c r="C262" s="47"/>
-      <c r="D262" s="47"/>
-      <c r="E262" s="47"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="47"/>
-      <c r="I262" s="47"/>
-      <c r="J262" s="47"/>
-      <c r="K262" s="47"/>
+      <c r="B262" s="49"/>
+      <c r="C262" s="49"/>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="49"/>
+      <c r="H262" s="49"/>
+      <c r="I262" s="49"/>
+      <c r="J262" s="49"/>
+      <c r="K262" s="49"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="47"/>
-      <c r="B263" s="47"/>
-      <c r="C263" s="47"/>
-      <c r="D263" s="47"/>
-      <c r="E263" s="47"/>
-      <c r="F263" s="47"/>
-      <c r="G263" s="47"/>
-      <c r="H263" s="47"/>
-      <c r="I263" s="47"/>
-      <c r="J263" s="47"/>
-      <c r="K263" s="47"/>
+      <c r="A263" s="49"/>
+      <c r="B263" s="49"/>
+      <c r="C263" s="49"/>
+      <c r="D263" s="49"/>
+      <c r="E263" s="49"/>
+      <c r="F263" s="49"/>
+      <c r="G263" s="49"/>
+      <c r="H263" s="49"/>
+      <c r="I263" s="49"/>
+      <c r="J263" s="49"/>
+      <c r="K263" s="49"/>
     </row>
     <row r="264" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="47"/>
-      <c r="B264" s="47"/>
-      <c r="C264" s="47"/>
-      <c r="D264" s="47"/>
-      <c r="E264" s="47"/>
-      <c r="F264" s="47"/>
-      <c r="G264" s="47"/>
-      <c r="H264" s="47"/>
-      <c r="I264" s="47"/>
-      <c r="J264" s="47"/>
-      <c r="K264" s="47"/>
+      <c r="A264" s="49"/>
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="49"/>
+      <c r="E264" s="49"/>
+      <c r="F264" s="49"/>
+      <c r="G264" s="49"/>
+      <c r="H264" s="49"/>
+      <c r="I264" s="49"/>
+      <c r="J264" s="49"/>
+      <c r="K264" s="49"/>
     </row>
     <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="47"/>
-      <c r="B265" s="47"/>
-      <c r="C265" s="47"/>
-      <c r="D265" s="47"/>
-      <c r="E265" s="47"/>
-      <c r="F265" s="47"/>
-      <c r="G265" s="47"/>
-      <c r="H265" s="47"/>
-      <c r="I265" s="47"/>
-      <c r="J265" s="47"/>
-      <c r="K265" s="47"/>
+      <c r="A265" s="49"/>
+      <c r="B265" s="49"/>
+      <c r="C265" s="49"/>
+      <c r="D265" s="49"/>
+      <c r="E265" s="49"/>
+      <c r="F265" s="49"/>
+      <c r="G265" s="49"/>
+      <c r="H265" s="49"/>
+      <c r="I265" s="49"/>
+      <c r="J265" s="49"/>
+      <c r="K265" s="49"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
-      <c r="C266" s="48"/>
-      <c r="D266" s="49"/>
-      <c r="E266" s="49"/>
-      <c r="F266" s="49"/>
-      <c r="G266" s="49"/>
-      <c r="H266" s="49"/>
-      <c r="I266" s="50"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="51"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
+      <c r="G266" s="51"/>
+      <c r="H266" s="51"/>
+      <c r="I266" s="52"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="C267" s="51"/>
-      <c r="D267" s="52"/>
-      <c r="E267" s="52"/>
-      <c r="F267" s="52"/>
-      <c r="G267" s="52"/>
-      <c r="H267" s="52"/>
-      <c r="I267" s="53"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="54"/>
+      <c r="G267" s="54"/>
+      <c r="H267" s="54"/>
+      <c r="I267" s="55"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
     <row r="268" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
-      <c r="C268" s="54"/>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
+      <c r="C268" s="77"/>
+      <c r="D268" s="78"/>
+      <c r="E268" s="78"/>
+      <c r="F268" s="78"/>
+      <c r="G268" s="78"/>
+      <c r="H268" s="78"/>
       <c r="I268" s="56"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -8138,11 +7848,11 @@
       <c r="E271" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F271" s="61">
+      <c r="F271" s="79">
         <v>625.72</v>
       </c>
-      <c r="G271" s="58" t="s">
-        <v>26</v>
+      <c r="G271" s="86" t="s">
+        <v>25</v>
       </c>
       <c r="H271" s="45" t="s">
         <v>8</v>
@@ -8163,8 +7873,8 @@
       <c r="E272" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F272" s="62"/>
-      <c r="G272" s="59"/>
+      <c r="F272" s="80"/>
+      <c r="G272" s="87"/>
       <c r="H272" s="45" t="s">
         <v>8</v>
       </c>
@@ -8184,8 +7894,8 @@
       <c r="E273" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F273" s="62"/>
-      <c r="G273" s="59"/>
+      <c r="F273" s="80"/>
+      <c r="G273" s="87"/>
       <c r="H273" s="45" t="s">
         <v>8</v>
       </c>
@@ -8205,8 +7915,8 @@
       <c r="E274" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F274" s="62"/>
-      <c r="G274" s="59"/>
+      <c r="F274" s="80"/>
+      <c r="G274" s="87"/>
       <c r="H274" s="45" t="s">
         <v>8</v>
       </c>
@@ -8226,8 +7936,8 @@
       <c r="E275" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F275" s="62"/>
-      <c r="G275" s="59"/>
+      <c r="F275" s="80"/>
+      <c r="G275" s="87"/>
       <c r="H275" s="45" t="s">
         <v>8</v>
       </c>
@@ -8247,8 +7957,8 @@
       <c r="E276" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F276" s="62"/>
-      <c r="G276" s="59"/>
+      <c r="F276" s="80"/>
+      <c r="G276" s="87"/>
       <c r="H276" s="45" t="s">
         <v>8</v>
       </c>
@@ -8268,8 +7978,8 @@
       <c r="E277" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F277" s="62"/>
-      <c r="G277" s="59"/>
+      <c r="F277" s="80"/>
+      <c r="G277" s="87"/>
       <c r="H277" s="45" t="s">
         <v>8</v>
       </c>
@@ -8289,8 +7999,8 @@
       <c r="E278" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F278" s="62"/>
-      <c r="G278" s="59"/>
+      <c r="F278" s="80"/>
+      <c r="G278" s="87"/>
       <c r="H278" s="45" t="s">
         <v>8</v>
       </c>
@@ -8310,8 +8020,8 @@
       <c r="E279" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F279" s="62"/>
-      <c r="G279" s="59"/>
+      <c r="F279" s="80"/>
+      <c r="G279" s="87"/>
       <c r="H279" s="45" t="s">
         <v>8</v>
       </c>
@@ -8331,8 +8041,8 @@
       <c r="E280" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F280" s="62"/>
-      <c r="G280" s="59"/>
+      <c r="F280" s="80"/>
+      <c r="G280" s="87"/>
       <c r="H280" s="45" t="s">
         <v>8</v>
       </c>
@@ -8352,8 +8062,8 @@
       <c r="E281" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F281" s="62"/>
-      <c r="G281" s="59"/>
+      <c r="F281" s="80"/>
+      <c r="G281" s="87"/>
       <c r="H281" s="45" t="s">
         <v>8</v>
       </c>
@@ -8373,8 +8083,8 @@
       <c r="E282" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F282" s="62"/>
-      <c r="G282" s="59"/>
+      <c r="F282" s="80"/>
+      <c r="G282" s="87"/>
       <c r="H282" s="45" t="s">
         <v>8</v>
       </c>
@@ -8394,8 +8104,8 @@
       <c r="E283" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F283" s="62"/>
-      <c r="G283" s="59"/>
+      <c r="F283" s="80"/>
+      <c r="G283" s="87"/>
       <c r="H283" s="45" t="s">
         <v>8</v>
       </c>
@@ -8415,8 +8125,8 @@
       <c r="E284" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F284" s="62"/>
-      <c r="G284" s="59"/>
+      <c r="F284" s="80"/>
+      <c r="G284" s="87"/>
       <c r="H284" s="45" t="s">
         <v>8</v>
       </c>
@@ -8436,8 +8146,8 @@
       <c r="E285" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F285" s="62"/>
-      <c r="G285" s="59"/>
+      <c r="F285" s="80"/>
+      <c r="G285" s="87"/>
       <c r="H285" s="45" t="s">
         <v>8</v>
       </c>
@@ -8457,8 +8167,8 @@
       <c r="E286" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F286" s="62"/>
-      <c r="G286" s="59"/>
+      <c r="F286" s="80"/>
+      <c r="G286" s="87"/>
       <c r="H286" s="45" t="s">
         <v>8</v>
       </c>
@@ -8478,8 +8188,8 @@
       <c r="E287" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F287" s="62"/>
-      <c r="G287" s="59"/>
+      <c r="F287" s="80"/>
+      <c r="G287" s="87"/>
       <c r="H287" s="45" t="s">
         <v>8</v>
       </c>
@@ -8499,8 +8209,8 @@
       <c r="E288" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F288" s="62"/>
-      <c r="G288" s="59"/>
+      <c r="F288" s="80"/>
+      <c r="G288" s="87"/>
       <c r="H288" s="45" t="s">
         <v>8</v>
       </c>
@@ -8520,8 +8230,8 @@
       <c r="E289" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F289" s="62"/>
-      <c r="G289" s="59"/>
+      <c r="F289" s="80"/>
+      <c r="G289" s="87"/>
       <c r="H289" s="45" t="s">
         <v>8</v>
       </c>
@@ -8541,8 +8251,8 @@
       <c r="E290" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F290" s="62"/>
-      <c r="G290" s="59"/>
+      <c r="F290" s="80"/>
+      <c r="G290" s="87"/>
       <c r="H290" s="45" t="s">
         <v>8</v>
       </c>
@@ -8562,8 +8272,8 @@
       <c r="E291" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F291" s="62"/>
-      <c r="G291" s="59"/>
+      <c r="F291" s="80"/>
+      <c r="G291" s="87"/>
       <c r="H291" s="45" t="s">
         <v>8</v>
       </c>
@@ -8583,8 +8293,8 @@
       <c r="E292" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F292" s="62"/>
-      <c r="G292" s="59"/>
+      <c r="F292" s="80"/>
+      <c r="G292" s="87"/>
       <c r="H292" s="45" t="s">
         <v>8</v>
       </c>
@@ -8604,8 +8314,8 @@
       <c r="E293" s="30">
         <v>4692689.9910000004</v>
       </c>
-      <c r="F293" s="62"/>
-      <c r="G293" s="59"/>
+      <c r="F293" s="80"/>
+      <c r="G293" s="87"/>
       <c r="H293" s="45" t="s">
         <v>8</v>
       </c>
@@ -8625,8 +8335,8 @@
       <c r="E294" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F294" s="62"/>
-      <c r="G294" s="59"/>
+      <c r="F294" s="80"/>
+      <c r="G294" s="87"/>
       <c r="H294" s="45" t="s">
         <v>8</v>
       </c>
@@ -8646,8 +8356,8 @@
       <c r="E295" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F295" s="62"/>
-      <c r="G295" s="59"/>
+      <c r="F295" s="80"/>
+      <c r="G295" s="87"/>
       <c r="H295" s="45" t="s">
         <v>8</v>
       </c>
@@ -8667,8 +8377,8 @@
       <c r="E296" s="30">
         <v>4692683.7562999995</v>
       </c>
-      <c r="F296" s="62"/>
-      <c r="G296" s="59"/>
+      <c r="F296" s="80"/>
+      <c r="G296" s="87"/>
       <c r="H296" s="45" t="s">
         <v>8</v>
       </c>
@@ -8688,8 +8398,8 @@
       <c r="E297" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F297" s="62"/>
-      <c r="G297" s="59"/>
+      <c r="F297" s="80"/>
+      <c r="G297" s="87"/>
       <c r="H297" s="45" t="s">
         <v>8</v>
       </c>
@@ -8709,8 +8419,8 @@
       <c r="E298" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F298" s="62"/>
-      <c r="G298" s="59"/>
+      <c r="F298" s="80"/>
+      <c r="G298" s="87"/>
       <c r="H298" s="45" t="s">
         <v>8</v>
       </c>
@@ -8730,8 +8440,8 @@
       <c r="E299" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F299" s="62"/>
-      <c r="G299" s="59"/>
+      <c r="F299" s="80"/>
+      <c r="G299" s="87"/>
       <c r="H299" s="45" t="s">
         <v>8</v>
       </c>
@@ -8751,8 +8461,8 @@
       <c r="E300" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F300" s="62"/>
-      <c r="G300" s="59"/>
+      <c r="F300" s="80"/>
+      <c r="G300" s="87"/>
       <c r="H300" s="45" t="s">
         <v>8</v>
       </c>
@@ -8772,8 +8482,8 @@
       <c r="E301" s="30">
         <v>4692678.2399000004</v>
       </c>
-      <c r="F301" s="62"/>
-      <c r="G301" s="59"/>
+      <c r="F301" s="80"/>
+      <c r="G301" s="87"/>
       <c r="H301" s="45" t="s">
         <v>8</v>
       </c>
@@ -8793,8 +8503,8 @@
       <c r="E302" s="30">
         <v>4692682.3244000003</v>
       </c>
-      <c r="F302" s="62"/>
-      <c r="G302" s="59"/>
+      <c r="F302" s="80"/>
+      <c r="G302" s="87"/>
       <c r="H302" s="45" t="s">
         <v>8</v>
       </c>
@@ -8814,8 +8524,8 @@
       <c r="E303" s="30">
         <v>4692683.8091000002</v>
       </c>
-      <c r="F303" s="62"/>
-      <c r="G303" s="59"/>
+      <c r="F303" s="80"/>
+      <c r="G303" s="87"/>
       <c r="H303" s="45" t="s">
         <v>8</v>
       </c>
@@ -8835,8 +8545,8 @@
       <c r="E304" s="30">
         <v>4692683.9275000002</v>
       </c>
-      <c r="F304" s="62"/>
-      <c r="G304" s="59"/>
+      <c r="F304" s="80"/>
+      <c r="G304" s="87"/>
       <c r="H304" s="45" t="s">
         <v>8</v>
       </c>
@@ -8856,8 +8566,8 @@
       <c r="E305" s="30">
         <v>4692686.4386999998</v>
       </c>
-      <c r="F305" s="62"/>
-      <c r="G305" s="59"/>
+      <c r="F305" s="80"/>
+      <c r="G305" s="87"/>
       <c r="H305" s="45" t="s">
         <v>8</v>
       </c>
@@ -8877,8 +8587,8 @@
       <c r="E306" s="30">
         <v>4692675.5519000003</v>
       </c>
-      <c r="F306" s="63"/>
-      <c r="G306" s="59"/>
+      <c r="F306" s="81"/>
+      <c r="G306" s="87"/>
       <c r="H306" s="45" t="s">
         <v>8</v>
       </c>
@@ -8901,7 +8611,7 @@
       <c r="F307" s="34">
         <v>616.38300000000004</v>
       </c>
-      <c r="G307" s="60"/>
+      <c r="G307" s="88"/>
       <c r="H307" s="45" t="s">
         <v>20</v>
       </c>
@@ -8925,28 +8635,28 @@
     <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
-      <c r="C309" s="57" t="s">
+      <c r="C309" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D309" s="57"/>
-      <c r="E309" s="57"/>
-      <c r="F309" s="57"/>
-      <c r="G309" s="57"/>
-      <c r="H309" s="57"/>
-      <c r="I309" s="57"/>
+      <c r="D309" s="59"/>
+      <c r="E309" s="59"/>
+      <c r="F309" s="59"/>
+      <c r="G309" s="59"/>
+      <c r="H309" s="59"/>
+      <c r="I309" s="59"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
     <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
-      <c r="C310" s="57"/>
-      <c r="D310" s="57"/>
-      <c r="E310" s="57"/>
-      <c r="F310" s="57"/>
-      <c r="G310" s="57"/>
-      <c r="H310" s="57"/>
-      <c r="I310" s="57"/>
+      <c r="C310" s="59"/>
+      <c r="D310" s="59"/>
+      <c r="E310" s="59"/>
+      <c r="F310" s="59"/>
+      <c r="G310" s="59"/>
+      <c r="H310" s="59"/>
+      <c r="I310" s="59"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
@@ -9022,62 +8732,50 @@
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="64" t="s">
+      <c r="E316" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F316" s="65"/>
-      <c r="G316" s="66"/>
-      <c r="H316" s="67" t="s">
+      <c r="F316" s="61"/>
+      <c r="G316" s="62"/>
+      <c r="H316" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I316" s="68"/>
-      <c r="J316" s="71"/>
-      <c r="K316" s="72"/>
+      <c r="I316" s="64"/>
+      <c r="J316" s="67"/>
+      <c r="K316" s="68"/>
     </row>
     <row r="317" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="75" t="s">
+      <c r="A317" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="76"/>
-      <c r="C317" s="76"/>
-      <c r="D317" s="77"/>
-      <c r="E317" s="78">
+      <c r="B317" s="72"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="73"/>
+      <c r="E317" s="74">
         <v>140</v>
       </c>
-      <c r="F317" s="79"/>
-      <c r="G317" s="80"/>
-      <c r="H317" s="69"/>
-      <c r="I317" s="70"/>
-      <c r="J317" s="73"/>
-      <c r="K317" s="74"/>
+      <c r="F317" s="75"/>
+      <c r="G317" s="76"/>
+      <c r="H317" s="65"/>
+      <c r="I317" s="66"/>
+      <c r="J317" s="69"/>
+      <c r="K317" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G36:G55"/>
-    <mergeCell ref="A194:K195"/>
-    <mergeCell ref="A196:K199"/>
-    <mergeCell ref="C200:I202"/>
-    <mergeCell ref="G204:G256"/>
-    <mergeCell ref="F204:F256"/>
-    <mergeCell ref="C182:I183"/>
-    <mergeCell ref="E192:G192"/>
-    <mergeCell ref="H192:I193"/>
-    <mergeCell ref="J192:K193"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="E193:G193"/>
-    <mergeCell ref="C120:I121"/>
-    <mergeCell ref="C7:I9"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I65"/>
-    <mergeCell ref="J64:K65"/>
-    <mergeCell ref="F77:F110"/>
-    <mergeCell ref="G77:G110"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="A66:K67"/>
+    <mergeCell ref="G77:G112"/>
+    <mergeCell ref="F77:F112"/>
+    <mergeCell ref="A260:K261"/>
+    <mergeCell ref="A262:K265"/>
+    <mergeCell ref="C266:I268"/>
+    <mergeCell ref="C309:I310"/>
+    <mergeCell ref="G271:G307"/>
+    <mergeCell ref="F271:F306"/>
+    <mergeCell ref="E316:G316"/>
+    <mergeCell ref="H316:I317"/>
+    <mergeCell ref="J316:K317"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="E317:G317"/>
     <mergeCell ref="A68:K71"/>
     <mergeCell ref="C72:I74"/>
     <mergeCell ref="H257:I258"/>
@@ -9094,17 +8792,29 @@
     <mergeCell ref="A132:K133"/>
     <mergeCell ref="E128:G128"/>
     <mergeCell ref="C139:I141"/>
-    <mergeCell ref="E316:G316"/>
-    <mergeCell ref="H316:I317"/>
-    <mergeCell ref="J316:K317"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="E317:G317"/>
-    <mergeCell ref="A260:K261"/>
-    <mergeCell ref="A262:K265"/>
-    <mergeCell ref="C266:I268"/>
-    <mergeCell ref="C309:I310"/>
-    <mergeCell ref="G271:G307"/>
-    <mergeCell ref="F271:F306"/>
+    <mergeCell ref="C7:I9"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I65"/>
+    <mergeCell ref="J64:K65"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="G36:G55"/>
+    <mergeCell ref="A194:K195"/>
+    <mergeCell ref="A196:K199"/>
+    <mergeCell ref="C200:I202"/>
+    <mergeCell ref="G204:G256"/>
+    <mergeCell ref="F204:F256"/>
+    <mergeCell ref="C182:I183"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:I193"/>
+    <mergeCell ref="J192:K193"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="C120:I121"/>
+    <mergeCell ref="A66:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
+++ b/5-Njësite-banesore/regjistri/22-Koordinatat-për-pjesë-të-ndertesës.xlsx-Dior.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
   <si>
     <t>Nr</t>
   </si>
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -762,7 +762,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -789,17 +798,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,21 +870,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,13 +882,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A260" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D84" sqref="C76:H112"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A130" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D145" sqref="C143:H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,111 +2824,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -3542,7 +3545,7 @@
       <c r="F36" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="87" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="30" t="s">
@@ -3566,7 +3569,7 @@
       <c r="F37" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G37" s="47"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="30" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="F38" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="30" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3613,7 @@
       <c r="F39" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="30" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3635,7 @@
       <c r="F40" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="87"/>
       <c r="H40" s="30" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="F41" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="87"/>
       <c r="H41" s="30" t="s">
         <v>8</v>
       </c>
@@ -3676,7 +3679,7 @@
       <c r="F42" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="87"/>
       <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
@@ -3698,7 +3701,7 @@
       <c r="F43" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="87"/>
       <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="F44" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="30" t="s">
         <v>8</v>
       </c>
@@ -3743,7 +3746,7 @@
       <c r="F45" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="87"/>
       <c r="H45" s="30" t="s">
         <v>8</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="F46" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="87"/>
       <c r="H46" s="30" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3790,7 @@
       <c r="F47" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="87"/>
       <c r="H47" s="30" t="s">
         <v>8</v>
       </c>
@@ -3806,7 +3809,7 @@
       <c r="F48" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="87"/>
       <c r="H48" s="30" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +3830,7 @@
       <c r="F49" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G49" s="47"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="30" t="s">
         <v>8</v>
       </c>
@@ -3850,7 +3853,7 @@
       <c r="F50" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="87"/>
       <c r="H50" s="30" t="s">
         <v>8</v>
       </c>
@@ -3873,7 +3876,7 @@
       <c r="F51" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G51" s="47"/>
+      <c r="G51" s="87"/>
       <c r="H51" s="30" t="s">
         <v>8</v>
       </c>
@@ -3895,7 +3898,7 @@
       <c r="F52" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G52" s="47"/>
+      <c r="G52" s="87"/>
       <c r="H52" s="30" t="s">
         <v>8</v>
       </c>
@@ -3917,7 +3920,7 @@
       <c r="F53" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G53" s="47"/>
+      <c r="G53" s="87"/>
       <c r="H53" s="30" t="s">
         <v>8</v>
       </c>
@@ -3940,7 +3943,7 @@
       <c r="F54" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G54" s="47"/>
+      <c r="G54" s="87"/>
       <c r="H54" s="9" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +3966,7 @@
       <c r="F55" s="8">
         <v>611.86699999999996</v>
       </c>
-      <c r="G55" s="47"/>
+      <c r="G55" s="87"/>
       <c r="H55" s="9" t="s">
         <v>20</v>
       </c>
@@ -4012,27 +4015,27 @@
     </row>
     <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="11"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4042,148 +4045,148 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="60" t="s">
+      <c r="E64" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63" t="s">
+      <c r="F64" s="67"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="64"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="68"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74">
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80">
         <v>140</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="70"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="76"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
     </row>
     <row r="67" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
     </row>
     <row r="71" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="55"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="55"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="58"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="56"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="61"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
@@ -4231,10 +4234,10 @@
       <c r="E77" s="30">
         <v>4692671.8150000004</v>
       </c>
-      <c r="F77" s="79">
+      <c r="F77" s="48">
         <v>616.38300000000004</v>
       </c>
-      <c r="G77" s="79" t="s">
+      <c r="G77" s="48" t="s">
         <v>21</v>
       </c>
       <c r="H77" s="30" t="s">
@@ -4256,8 +4259,8 @@
       <c r="E78" s="30">
         <v>4692671.3689999999</v>
       </c>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
       <c r="H78" s="30" t="s">
         <v>8</v>
       </c>
@@ -4277,8 +4280,8 @@
       <c r="E79" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
       <c r="H79" s="30" t="s">
         <v>8</v>
       </c>
@@ -4298,8 +4301,8 @@
       <c r="E80" s="30">
         <v>4692673.07</v>
       </c>
-      <c r="F80" s="80"/>
-      <c r="G80" s="80"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
       <c r="H80" s="30" t="s">
         <v>8</v>
       </c>
@@ -4319,8 +4322,8 @@
       <c r="E81" s="30">
         <v>4692673.5259999996</v>
       </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
       <c r="H81" s="30" t="s">
         <v>8</v>
       </c>
@@ -4340,8 +4343,8 @@
       <c r="E82" s="30">
         <v>4692673.2819999997</v>
       </c>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
       <c r="H82" s="30" t="s">
         <v>8</v>
       </c>
@@ -4361,8 +4364,8 @@
       <c r="E83" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
       <c r="H83" s="30" t="s">
         <v>8</v>
       </c>
@@ -4382,8 +4385,8 @@
       <c r="E84" s="30">
         <v>4692672.7690000003</v>
       </c>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
       <c r="H84" s="30" t="s">
         <v>8</v>
       </c>
@@ -4403,8 +4406,8 @@
       <c r="E85" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
       <c r="H85" s="30" t="s">
         <v>8</v>
       </c>
@@ -4424,8 +4427,8 @@
       <c r="E86" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
       <c r="H86" s="30" t="s">
         <v>8</v>
       </c>
@@ -4445,8 +4448,8 @@
       <c r="E87" s="30">
         <v>4692687.3470000001</v>
       </c>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
       <c r="H87" s="30" t="s">
         <v>8</v>
       </c>
@@ -4466,8 +4469,8 @@
       <c r="E88" s="30">
         <v>4692681.023</v>
       </c>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
       <c r="H88" s="30" t="s">
         <v>8</v>
       </c>
@@ -4487,8 +4490,8 @@
       <c r="E89" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
       <c r="H89" s="30" t="s">
         <v>8</v>
       </c>
@@ -4508,8 +4511,8 @@
       <c r="E90" s="30">
         <v>4692687.1399999997</v>
       </c>
-      <c r="F90" s="80"/>
-      <c r="G90" s="80"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
       <c r="H90" s="30" t="s">
         <v>8</v>
       </c>
@@ -4529,8 +4532,8 @@
       <c r="E91" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
       <c r="H91" s="30" t="s">
         <v>8</v>
       </c>
@@ -4550,8 +4553,8 @@
       <c r="E92" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
       <c r="H92" s="30" t="s">
         <v>8</v>
       </c>
@@ -4571,8 +4574,8 @@
       <c r="E93" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
       <c r="H93" s="30" t="s">
         <v>8</v>
       </c>
@@ -4592,8 +4595,8 @@
       <c r="E94" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F94" s="80"/>
-      <c r="G94" s="80"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
       <c r="H94" s="30" t="s">
         <v>8</v>
       </c>
@@ -4613,8 +4616,8 @@
       <c r="E95" s="30">
         <v>4692687.1445000004</v>
       </c>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
       <c r="H95" s="30" t="s">
         <v>8</v>
       </c>
@@ -4634,8 +4637,8 @@
       <c r="E96" s="30">
         <v>4692684.3208999997</v>
       </c>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
       <c r="H96" s="30" t="s">
         <v>8</v>
       </c>
@@ -4655,8 +4658,8 @@
       <c r="E97" s="30">
         <v>4692683.9785000002</v>
       </c>
-      <c r="F97" s="80"/>
-      <c r="G97" s="80"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
       <c r="H97" s="30" t="s">
         <v>8</v>
       </c>
@@ -4676,8 +4679,8 @@
       <c r="E98" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F98" s="80"/>
-      <c r="G98" s="80"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
       <c r="H98" s="30" t="s">
         <v>8</v>
       </c>
@@ -4697,8 +4700,8 @@
       <c r="E99" s="30">
         <v>4692678.2884999998</v>
       </c>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
       <c r="H99" s="30" t="s">
         <v>8</v>
       </c>
@@ -4718,8 +4721,8 @@
       <c r="E100" s="30">
         <v>4692678.7551999995</v>
       </c>
-      <c r="F100" s="80"/>
-      <c r="G100" s="80"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
       <c r="H100" s="30" t="s">
         <v>8</v>
       </c>
@@ -4739,8 +4742,8 @@
       <c r="E101" s="30">
         <v>4692679.1836999999</v>
       </c>
-      <c r="F101" s="80"/>
-      <c r="G101" s="80"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
       <c r="H101" s="30" t="s">
         <v>8</v>
       </c>
@@ -4760,8 +4763,8 @@
       <c r="E102" s="30">
         <v>4692679.26</v>
       </c>
-      <c r="F102" s="80"/>
-      <c r="G102" s="80"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
       <c r="H102" s="30" t="s">
         <v>8</v>
       </c>
@@ -4781,8 +4784,8 @@
       <c r="E103" s="30">
         <v>4692680.1398</v>
       </c>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
       <c r="H103" s="30" t="s">
         <v>8</v>
       </c>
@@ -4802,8 +4805,8 @@
       <c r="E104" s="30">
         <v>4692685.5575999999</v>
       </c>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
       <c r="H104" s="30" t="s">
         <v>8</v>
       </c>
@@ -4823,8 +4826,8 @@
       <c r="E105" s="30">
         <v>4692686.4374000002</v>
       </c>
-      <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
       <c r="H105" s="30" t="s">
         <v>8</v>
       </c>
@@ -4844,8 +4847,8 @@
       <c r="E106" s="30">
         <v>4692690.9013999999</v>
       </c>
-      <c r="F106" s="80"/>
-      <c r="G106" s="80"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
       <c r="H106" s="30" t="s">
         <v>8</v>
       </c>
@@ -4865,8 +4868,8 @@
       <c r="E107" s="30">
         <v>4692693.1089000003</v>
       </c>
-      <c r="F107" s="80"/>
-      <c r="G107" s="80"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
       <c r="H107" s="30" t="s">
         <v>8</v>
       </c>
@@ -4886,8 +4889,8 @@
       <c r="E108" s="30">
         <v>4692689.4265999999</v>
       </c>
-      <c r="F108" s="80"/>
-      <c r="G108" s="80"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
       <c r="H108" s="30" t="s">
         <v>8</v>
       </c>
@@ -4907,8 +4910,8 @@
       <c r="E109" s="30">
         <v>4692687.6520999996</v>
       </c>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
       <c r="H109" s="30" t="s">
         <v>8</v>
       </c>
@@ -4928,8 +4931,8 @@
       <c r="E110" s="30">
         <v>4692689.9780000001</v>
       </c>
-      <c r="F110" s="80"/>
-      <c r="G110" s="80"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
       <c r="H110" s="30" t="s">
         <v>8</v>
       </c>
@@ -4949,8 +4952,8 @@
       <c r="E111" s="30">
         <v>4692689.3081999999</v>
       </c>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
       <c r="H111" s="30" t="s">
         <v>8</v>
       </c>
@@ -4970,8 +4973,8 @@
       <c r="E112" s="30">
         <v>4692679.7653000001</v>
       </c>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
       <c r="H112" s="30" t="s">
         <v>20</v>
       </c>
@@ -5073,28 +5076,28 @@
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="59" t="s">
+      <c r="C120" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="59"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="59"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="62"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="62"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
@@ -5183,114 +5186,114 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="60" t="s">
+      <c r="E128" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="61"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="63" t="s">
+      <c r="F128" s="67"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I128" s="64"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="68"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="73"/>
+      <c r="K128" s="74"/>
     </row>
     <row r="129" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="71" t="s">
+      <c r="A129" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="72"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="74">
+      <c r="B129" s="78"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="80">
         <v>140</v>
       </c>
-      <c r="F129" s="75"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="70"/>
+      <c r="F129" s="81"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="76"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="48"/>
-      <c r="J132" s="48"/>
-      <c r="K132" s="48"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
     </row>
     <row r="133" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="48"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="51"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="49"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="49"/>
-      <c r="K134" s="49"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="52"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
-      <c r="K135" s="49"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="52"/>
     </row>
     <row r="136" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
-      <c r="B136" s="49"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
-      <c r="K136" s="49"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="52"/>
     </row>
     <row r="137" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="49"/>
-      <c r="K137" s="49"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="52"/>
+      <c r="J137" s="52"/>
+      <c r="K137" s="52"/>
     </row>
     <row r="138" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
@@ -5307,37 +5310,37 @@
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="51"/>
-      <c r="I139" s="52"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="55"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="55"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="58"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
-      <c r="H141" s="78"/>
-      <c r="I141" s="56"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="61"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
@@ -5388,7 +5391,7 @@
       <c r="F144" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G144" s="79" t="s">
+      <c r="G144" s="88" t="s">
         <v>23</v>
       </c>
       <c r="H144" s="30" t="s">
@@ -5413,7 +5416,7 @@
       <c r="F145" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G145" s="80"/>
+      <c r="G145" s="88"/>
       <c r="H145" s="30" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5439,7 @@
       <c r="F146" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G146" s="80"/>
+      <c r="G146" s="88"/>
       <c r="H146" s="30" t="s">
         <v>8</v>
       </c>
@@ -5459,7 +5462,7 @@
       <c r="F147" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G147" s="80"/>
+      <c r="G147" s="88"/>
       <c r="H147" s="30" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5485,7 @@
       <c r="F148" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G148" s="80"/>
+      <c r="G148" s="88"/>
       <c r="H148" s="30" t="s">
         <v>8</v>
       </c>
@@ -5505,7 +5508,7 @@
       <c r="F149" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G149" s="80"/>
+      <c r="G149" s="88"/>
       <c r="H149" s="30" t="s">
         <v>8</v>
       </c>
@@ -5528,7 +5531,7 @@
       <c r="F150" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G150" s="80"/>
+      <c r="G150" s="88"/>
       <c r="H150" s="30" t="s">
         <v>8</v>
       </c>
@@ -5551,7 +5554,7 @@
       <c r="F151" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G151" s="80"/>
+      <c r="G151" s="88"/>
       <c r="H151" s="30" t="s">
         <v>8</v>
       </c>
@@ -5574,7 +5577,7 @@
       <c r="F152" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G152" s="80"/>
+      <c r="G152" s="88"/>
       <c r="H152" s="30" t="s">
         <v>8</v>
       </c>
@@ -5597,7 +5600,7 @@
       <c r="F153" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G153" s="80"/>
+      <c r="G153" s="88"/>
       <c r="H153" s="30" t="s">
         <v>8</v>
       </c>
@@ -5620,7 +5623,7 @@
       <c r="F154" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G154" s="80"/>
+      <c r="G154" s="88"/>
       <c r="H154" s="30" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +5646,7 @@
       <c r="F155" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G155" s="80"/>
+      <c r="G155" s="88"/>
       <c r="H155" s="30" t="s">
         <v>8</v>
       </c>
@@ -5666,7 +5669,7 @@
       <c r="F156" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G156" s="80"/>
+      <c r="G156" s="88"/>
       <c r="H156" s="30" t="s">
         <v>8</v>
       </c>
@@ -5689,7 +5692,7 @@
       <c r="F157" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G157" s="80"/>
+      <c r="G157" s="88"/>
       <c r="H157" s="30" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +5715,7 @@
       <c r="F158" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G158" s="80"/>
+      <c r="G158" s="88"/>
       <c r="H158" s="30" t="s">
         <v>8</v>
       </c>
@@ -5735,7 +5738,7 @@
       <c r="F159" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G159" s="80"/>
+      <c r="G159" s="88"/>
       <c r="H159" s="30" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +5761,7 @@
       <c r="F160" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G160" s="80"/>
+      <c r="G160" s="88"/>
       <c r="H160" s="30" t="s">
         <v>8</v>
       </c>
@@ -5781,7 +5784,7 @@
       <c r="F161" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G161" s="80"/>
+      <c r="G161" s="88"/>
       <c r="H161" s="30" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +5807,7 @@
       <c r="F162" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G162" s="80"/>
+      <c r="G162" s="88"/>
       <c r="H162" s="30" t="s">
         <v>8</v>
       </c>
@@ -5827,7 +5830,7 @@
       <c r="F163" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G163" s="80"/>
+      <c r="G163" s="88"/>
       <c r="H163" s="30" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +5853,7 @@
       <c r="F164" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G164" s="80"/>
+      <c r="G164" s="88"/>
       <c r="H164" s="30" t="s">
         <v>8</v>
       </c>
@@ -5873,7 +5876,7 @@
       <c r="F165" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G165" s="80"/>
+      <c r="G165" s="88"/>
       <c r="H165" s="30" t="s">
         <v>8</v>
       </c>
@@ -5888,15 +5891,15 @@
         <v>135</v>
       </c>
       <c r="D166" s="30">
-        <v>7517926.9230000004</v>
+        <v>7517926.9447999997</v>
       </c>
       <c r="E166" s="30">
-        <v>4692677.5713999998</v>
+        <v>4692677.4724000003</v>
       </c>
       <c r="F166" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G166" s="80"/>
+      <c r="G166" s="88"/>
       <c r="H166" s="30" t="s">
         <v>8</v>
       </c>
@@ -5911,15 +5914,15 @@
         <v>136</v>
       </c>
       <c r="D167" s="30">
-        <v>7517929.3389999997</v>
+        <v>7517929.5975000001</v>
       </c>
       <c r="E167" s="30">
-        <v>4692678.3875000002</v>
+        <v>4692678.3684</v>
       </c>
       <c r="F167" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G167" s="80"/>
+      <c r="G167" s="88"/>
       <c r="H167" s="30" t="s">
         <v>8</v>
       </c>
@@ -5934,15 +5937,15 @@
         <v>137</v>
       </c>
       <c r="D168" s="30">
-        <v>7517927.5005999999</v>
+        <v>7517927.6245999997</v>
       </c>
       <c r="E168" s="30">
-        <v>4692683.8356999997</v>
+        <v>4692684.2153000003</v>
       </c>
       <c r="F168" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G168" s="80"/>
+      <c r="G168" s="88"/>
       <c r="H168" s="30" t="s">
         <v>8</v>
       </c>
@@ -5957,15 +5960,15 @@
         <v>138</v>
       </c>
       <c r="D169" s="30">
-        <v>7517928.7559000002</v>
+        <v>7517928.6431</v>
       </c>
       <c r="E169" s="30">
-        <v>4692684.2597000003</v>
+        <v>4692684.5592999998</v>
       </c>
       <c r="F169" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G169" s="80"/>
+      <c r="G169" s="88"/>
       <c r="H169" s="30" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +5991,7 @@
       <c r="F170" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G170" s="80"/>
+      <c r="G170" s="88"/>
       <c r="H170" s="30" t="s">
         <v>8</v>
       </c>
@@ -6003,15 +6006,15 @@
         <v>140</v>
       </c>
       <c r="D171" s="30">
-        <v>7517941.0358999996</v>
+        <v>7517940.9913999997</v>
       </c>
       <c r="E171" s="30">
-        <v>4692691.6266999999</v>
+        <v>4692691.6117000002</v>
       </c>
       <c r="F171" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G171" s="80"/>
+      <c r="G171" s="88"/>
       <c r="H171" s="30" t="s">
         <v>8</v>
       </c>
@@ -6025,15 +6028,15 @@
         <v>141</v>
       </c>
       <c r="D172" s="30">
-        <v>7517941.8782000002</v>
+        <v>7517941.8485000003</v>
       </c>
       <c r="E172" s="30">
-        <v>4692689.2351000002</v>
+        <v>4692689.1782</v>
       </c>
       <c r="F172" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G172" s="80"/>
+      <c r="G172" s="88"/>
       <c r="H172" s="30" t="s">
         <v>8</v>
       </c>
@@ -6047,15 +6050,15 @@
         <v>142</v>
       </c>
       <c r="D173" s="30">
-        <v>7517946.1831</v>
+        <v>7517946.4798999997</v>
       </c>
       <c r="E173" s="30">
-        <v>4692690.6902999999</v>
+        <v>4692690.7472000001</v>
       </c>
       <c r="F173" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G173" s="80"/>
+      <c r="G173" s="88"/>
       <c r="H173" s="30" t="s">
         <v>8</v>
       </c>
@@ -6070,15 +6073,15 @@
         <v>143</v>
       </c>
       <c r="D174" s="30">
-        <v>7517945.3410999998</v>
+        <v>7517945.6243000003</v>
       </c>
       <c r="E174" s="30">
-        <v>4692693.0809000004</v>
+        <v>4692693.1765999999</v>
       </c>
       <c r="F174" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G174" s="80"/>
+      <c r="G174" s="88"/>
       <c r="H174" s="30" t="s">
         <v>8</v>
       </c>
@@ -6093,15 +6096,15 @@
         <v>144</v>
       </c>
       <c r="D175" s="30">
-        <v>7517947.9436999997</v>
+        <v>7517948.4293</v>
       </c>
       <c r="E175" s="30">
-        <v>4692685.3624999998</v>
+        <v>4692685.7846999997</v>
       </c>
       <c r="F175" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G175" s="80"/>
+      <c r="G175" s="88"/>
       <c r="H175" s="30" t="s">
         <v>8</v>
       </c>
@@ -6116,15 +6119,15 @@
         <v>145</v>
       </c>
       <c r="D176" s="30">
-        <v>7517949.3491000002</v>
+        <v>7517949.9928000001</v>
       </c>
       <c r="E176" s="30">
-        <v>4692681.1283999998</v>
+        <v>4692681.0932</v>
       </c>
       <c r="F176" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G176" s="80"/>
+      <c r="G176" s="88"/>
       <c r="H176" s="30" t="s">
         <v>8</v>
       </c>
@@ -6139,15 +6142,15 @@
         <v>146</v>
       </c>
       <c r="D177" s="30">
-        <v>7517952.7259999998</v>
+        <v>7517952.7995999996</v>
       </c>
       <c r="E177" s="30">
-        <v>4692682.3354000002</v>
+        <v>4692682.0964000002</v>
       </c>
       <c r="F177" s="19">
         <v>618.84299999999996</v>
       </c>
-      <c r="G177" s="80"/>
+      <c r="G177" s="88"/>
       <c r="H177" s="30" t="s">
         <v>8</v>
       </c>
@@ -6159,20 +6162,20 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="19">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D178" s="30">
-        <v>7517952.4309</v>
+        <v>7517949.4227</v>
       </c>
       <c r="E178" s="30">
-        <v>4692678.5990000004</v>
+        <v>4692680.8893999998</v>
       </c>
       <c r="F178" s="19">
-        <v>616.38300000000004</v>
-      </c>
-      <c r="G178" s="81"/>
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G178" s="88"/>
       <c r="H178" s="30" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I178" s="25"/>
       <c r="J178" s="1"/>
@@ -6181,12 +6184,22 @@
     <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="13"/>
+      <c r="C179" s="47">
+        <v>148</v>
+      </c>
+      <c r="D179" s="30">
+        <v>7517951.2527000001</v>
+      </c>
+      <c r="E179" s="30">
+        <v>4692686.7380999997</v>
+      </c>
+      <c r="F179" s="47">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G179" s="88"/>
+      <c r="H179" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I179" s="25"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -6194,12 +6207,22 @@
     <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="13"/>
+      <c r="C180" s="47">
+        <v>149</v>
+      </c>
+      <c r="D180" s="30">
+        <v>7517924.9718000004</v>
+      </c>
+      <c r="E180" s="30">
+        <v>4692683.3192999996</v>
+      </c>
+      <c r="F180" s="47">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="G180" s="88"/>
+      <c r="H180" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I180" s="25"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -6207,12 +6230,22 @@
     <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="13"/>
+      <c r="C181" s="47">
+        <v>101</v>
+      </c>
+      <c r="D181" s="30">
+        <v>7517952.4309</v>
+      </c>
+      <c r="E181" s="30">
+        <v>4692678.5990000004</v>
+      </c>
+      <c r="F181" s="47">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G181" s="88"/>
+      <c r="H181" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="I181" s="25"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -6220,28 +6253,12 @@
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="59"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="59"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
@@ -6287,26 +6304,28 @@
     <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="31"/>
+      <c r="C187" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="62"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="62"/>
+      <c r="G187" s="62"/>
+      <c r="H187" s="62"/>
+      <c r="I187" s="62"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
     <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="31"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="62"/>
+      <c r="F188" s="62"/>
+      <c r="G188" s="62"/>
+      <c r="H188" s="62"/>
+      <c r="I188" s="62"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
@@ -6356,148 +6375,148 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="60" t="s">
+      <c r="E192" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F192" s="61"/>
-      <c r="G192" s="62"/>
-      <c r="H192" s="63" t="s">
+      <c r="F192" s="67"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I192" s="64"/>
-      <c r="J192" s="67"/>
-      <c r="K192" s="68"/>
+      <c r="I192" s="70"/>
+      <c r="J192" s="73"/>
+      <c r="K192" s="74"/>
     </row>
     <row r="193" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="71" t="s">
+      <c r="A193" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="72"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="73"/>
-      <c r="E193" s="74">
+      <c r="B193" s="78"/>
+      <c r="C193" s="78"/>
+      <c r="D193" s="79"/>
+      <c r="E193" s="80">
         <v>140</v>
       </c>
-      <c r="F193" s="75"/>
-      <c r="G193" s="76"/>
-      <c r="H193" s="65"/>
-      <c r="I193" s="66"/>
-      <c r="J193" s="69"/>
-      <c r="K193" s="70"/>
+      <c r="F193" s="81"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="71"/>
+      <c r="I193" s="72"/>
+      <c r="J193" s="75"/>
+      <c r="K193" s="76"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="48"/>
-      <c r="I194" s="48"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="48"/>
+      <c r="A194" s="51"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="51"/>
+      <c r="E194" s="51"/>
+      <c r="F194" s="51"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="51"/>
     </row>
     <row r="195" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
-      <c r="B195" s="48"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="48"/>
-      <c r="I195" s="48"/>
-      <c r="J195" s="48"/>
-      <c r="K195" s="48"/>
+      <c r="A195" s="51"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="51"/>
+      <c r="E195" s="51"/>
+      <c r="F195" s="51"/>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="51"/>
+      <c r="J195" s="51"/>
+      <c r="K195" s="51"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="49" t="s">
+      <c r="A196" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="49"/>
-      <c r="C196" s="49"/>
-      <c r="D196" s="49"/>
-      <c r="E196" s="49"/>
-      <c r="F196" s="49"/>
-      <c r="G196" s="49"/>
-      <c r="H196" s="49"/>
-      <c r="I196" s="49"/>
-      <c r="J196" s="49"/>
-      <c r="K196" s="49"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52"/>
+      <c r="I196" s="52"/>
+      <c r="J196" s="52"/>
+      <c r="K196" s="52"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="49"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="49"/>
-      <c r="F197" s="49"/>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49"/>
-      <c r="I197" s="49"/>
-      <c r="J197" s="49"/>
-      <c r="K197" s="49"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="52"/>
+      <c r="I197" s="52"/>
+      <c r="J197" s="52"/>
+      <c r="K197" s="52"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="49"/>
-      <c r="B198" s="49"/>
-      <c r="C198" s="49"/>
-      <c r="D198" s="49"/>
-      <c r="E198" s="49"/>
-      <c r="F198" s="49"/>
-      <c r="G198" s="49"/>
-      <c r="H198" s="49"/>
-      <c r="I198" s="49"/>
-      <c r="J198" s="49"/>
-      <c r="K198" s="49"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="52"/>
+      <c r="I198" s="52"/>
+      <c r="J198" s="52"/>
+      <c r="K198" s="52"/>
     </row>
     <row r="199" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49"/>
-      <c r="B199" s="49"/>
-      <c r="C199" s="49"/>
-      <c r="D199" s="49"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="49"/>
-      <c r="G199" s="49"/>
-      <c r="H199" s="49"/>
-      <c r="I199" s="49"/>
-      <c r="J199" s="49"/>
-      <c r="K199" s="49"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="52"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="52"/>
+      <c r="I199" s="52"/>
+      <c r="J199" s="52"/>
+      <c r="K199" s="52"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="C200" s="50"/>
-      <c r="D200" s="51"/>
-      <c r="E200" s="51"/>
-      <c r="F200" s="51"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="51"/>
-      <c r="I200" s="52"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="55"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
     <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="C201" s="53"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="55"/>
+      <c r="C201" s="56"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="58"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="56"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="61"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
@@ -6538,10 +6557,10 @@
       <c r="E204" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F204" s="57">
+      <c r="F204" s="88">
         <v>622.86300000000006</v>
       </c>
-      <c r="G204" s="57" t="s">
+      <c r="G204" s="88" t="s">
         <v>24</v>
       </c>
       <c r="H204" s="40" t="s">
@@ -6563,8 +6582,8 @@
       <c r="E205" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
+      <c r="F205" s="88"/>
+      <c r="G205" s="88"/>
       <c r="H205" s="40" t="s">
         <v>8</v>
       </c>
@@ -6584,8 +6603,8 @@
       <c r="E206" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F206" s="57"/>
-      <c r="G206" s="57"/>
+      <c r="F206" s="88"/>
+      <c r="G206" s="88"/>
       <c r="H206" s="40" t="s">
         <v>8</v>
       </c>
@@ -6605,8 +6624,8 @@
       <c r="E207" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F207" s="57"/>
-      <c r="G207" s="57"/>
+      <c r="F207" s="88"/>
+      <c r="G207" s="88"/>
       <c r="H207" s="40" t="s">
         <v>8</v>
       </c>
@@ -6626,8 +6645,8 @@
       <c r="E208" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
+      <c r="F208" s="88"/>
+      <c r="G208" s="88"/>
       <c r="H208" s="40" t="s">
         <v>8</v>
       </c>
@@ -6647,8 +6666,8 @@
       <c r="E209" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
+      <c r="F209" s="88"/>
+      <c r="G209" s="88"/>
       <c r="H209" s="40" t="s">
         <v>8</v>
       </c>
@@ -6668,8 +6687,8 @@
       <c r="E210" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F210" s="57"/>
-      <c r="G210" s="57"/>
+      <c r="F210" s="88"/>
+      <c r="G210" s="88"/>
       <c r="H210" s="40" t="s">
         <v>8</v>
       </c>
@@ -6689,8 +6708,8 @@
       <c r="E211" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F211" s="57"/>
-      <c r="G211" s="57"/>
+      <c r="F211" s="88"/>
+      <c r="G211" s="88"/>
       <c r="H211" s="40" t="s">
         <v>8</v>
       </c>
@@ -6710,8 +6729,8 @@
       <c r="E212" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F212" s="57"/>
-      <c r="G212" s="57"/>
+      <c r="F212" s="88"/>
+      <c r="G212" s="88"/>
       <c r="H212" s="40" t="s">
         <v>8</v>
       </c>
@@ -6731,8 +6750,8 @@
       <c r="E213" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F213" s="57"/>
-      <c r="G213" s="57"/>
+      <c r="F213" s="88"/>
+      <c r="G213" s="88"/>
       <c r="H213" s="40" t="s">
         <v>8</v>
       </c>
@@ -6752,8 +6771,8 @@
       <c r="E214" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F214" s="57"/>
-      <c r="G214" s="57"/>
+      <c r="F214" s="88"/>
+      <c r="G214" s="88"/>
       <c r="H214" s="40" t="s">
         <v>8</v>
       </c>
@@ -6773,8 +6792,8 @@
       <c r="E215" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F215" s="57"/>
-      <c r="G215" s="57"/>
+      <c r="F215" s="88"/>
+      <c r="G215" s="88"/>
       <c r="H215" s="40" t="s">
         <v>8</v>
       </c>
@@ -6794,8 +6813,8 @@
       <c r="E216" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F216" s="57"/>
-      <c r="G216" s="57"/>
+      <c r="F216" s="88"/>
+      <c r="G216" s="88"/>
       <c r="H216" s="40" t="s">
         <v>8</v>
       </c>
@@ -6815,8 +6834,8 @@
       <c r="E217" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F217" s="57"/>
-      <c r="G217" s="57"/>
+      <c r="F217" s="88"/>
+      <c r="G217" s="88"/>
       <c r="H217" s="40" t="s">
         <v>8</v>
       </c>
@@ -6836,8 +6855,8 @@
       <c r="E218" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F218" s="57"/>
-      <c r="G218" s="57"/>
+      <c r="F218" s="88"/>
+      <c r="G218" s="88"/>
       <c r="H218" s="40" t="s">
         <v>8</v>
       </c>
@@ -6857,8 +6876,8 @@
       <c r="E219" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F219" s="57"/>
-      <c r="G219" s="57"/>
+      <c r="F219" s="88"/>
+      <c r="G219" s="88"/>
       <c r="H219" s="40" t="s">
         <v>8</v>
       </c>
@@ -6878,8 +6897,8 @@
       <c r="E220" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F220" s="57"/>
-      <c r="G220" s="57"/>
+      <c r="F220" s="88"/>
+      <c r="G220" s="88"/>
       <c r="H220" s="40" t="s">
         <v>8</v>
       </c>
@@ -6899,8 +6918,8 @@
       <c r="E221" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
+      <c r="F221" s="88"/>
+      <c r="G221" s="88"/>
       <c r="H221" s="40" t="s">
         <v>8</v>
       </c>
@@ -6920,8 +6939,8 @@
       <c r="E222" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57"/>
+      <c r="F222" s="88"/>
+      <c r="G222" s="88"/>
       <c r="H222" s="40" t="s">
         <v>8</v>
       </c>
@@ -6941,8 +6960,8 @@
       <c r="E223" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F223" s="57"/>
-      <c r="G223" s="57"/>
+      <c r="F223" s="88"/>
+      <c r="G223" s="88"/>
       <c r="H223" s="40" t="s">
         <v>8</v>
       </c>
@@ -6962,8 +6981,8 @@
       <c r="E224" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F224" s="57"/>
-      <c r="G224" s="57"/>
+      <c r="F224" s="88"/>
+      <c r="G224" s="88"/>
       <c r="H224" s="40" t="s">
         <v>8</v>
       </c>
@@ -6983,8 +7002,8 @@
       <c r="E225" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57"/>
+      <c r="F225" s="88"/>
+      <c r="G225" s="88"/>
       <c r="H225" s="40" t="s">
         <v>8</v>
       </c>
@@ -7004,8 +7023,8 @@
       <c r="E226" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F226" s="57"/>
-      <c r="G226" s="57"/>
+      <c r="F226" s="88"/>
+      <c r="G226" s="88"/>
       <c r="H226" s="40" t="s">
         <v>8</v>
       </c>
@@ -7025,8 +7044,8 @@
       <c r="E227" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57"/>
+      <c r="F227" s="88"/>
+      <c r="G227" s="88"/>
       <c r="H227" s="40" t="s">
         <v>8</v>
       </c>
@@ -7046,8 +7065,8 @@
       <c r="E228" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F228" s="57"/>
-      <c r="G228" s="57"/>
+      <c r="F228" s="88"/>
+      <c r="G228" s="88"/>
       <c r="H228" s="40" t="s">
         <v>8</v>
       </c>
@@ -7067,8 +7086,8 @@
       <c r="E229" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F229" s="57"/>
-      <c r="G229" s="57"/>
+      <c r="F229" s="88"/>
+      <c r="G229" s="88"/>
       <c r="H229" s="40" t="s">
         <v>8</v>
       </c>
@@ -7088,8 +7107,8 @@
       <c r="E230" s="30">
         <v>4692687.4755999995</v>
       </c>
-      <c r="F230" s="57"/>
-      <c r="G230" s="57"/>
+      <c r="F230" s="88"/>
+      <c r="G230" s="88"/>
       <c r="H230" s="40" t="s">
         <v>8</v>
       </c>
@@ -7109,8 +7128,8 @@
       <c r="E231" s="30">
         <v>4692681.2410000004</v>
       </c>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57"/>
+      <c r="F231" s="88"/>
+      <c r="G231" s="88"/>
       <c r="H231" s="40" t="s">
         <v>8</v>
       </c>
@@ -7130,8 +7149,8 @@
       <c r="E232" s="30">
         <v>4692682.2426000005</v>
       </c>
-      <c r="F232" s="57"/>
-      <c r="G232" s="57"/>
+      <c r="F232" s="88"/>
+      <c r="G232" s="88"/>
       <c r="H232" s="40" t="s">
         <v>8</v>
       </c>
@@ -7151,8 +7170,8 @@
       <c r="E233" s="30">
         <v>4692688.4773000004</v>
       </c>
-      <c r="F233" s="57"/>
-      <c r="G233" s="57"/>
+      <c r="F233" s="88"/>
+      <c r="G233" s="88"/>
       <c r="H233" s="40" t="s">
         <v>8</v>
       </c>
@@ -7172,8 +7191,8 @@
       <c r="E234" s="30">
         <v>4692689.9908999996</v>
       </c>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
+      <c r="F234" s="88"/>
+      <c r="G234" s="88"/>
       <c r="H234" s="40" t="s">
         <v>8</v>
       </c>
@@ -7193,8 +7212,8 @@
       <c r="E235" s="30">
         <v>4692683.7561999997</v>
       </c>
-      <c r="F235" s="57"/>
-      <c r="G235" s="57"/>
+      <c r="F235" s="88"/>
+      <c r="G235" s="88"/>
       <c r="H235" s="40" t="s">
         <v>8</v>
       </c>
@@ -7214,8 +7233,8 @@
       <c r="E236" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F236" s="57"/>
-      <c r="G236" s="57"/>
+      <c r="F236" s="88"/>
+      <c r="G236" s="88"/>
       <c r="H236" s="40" t="s">
         <v>8</v>
       </c>
@@ -7235,8 +7254,8 @@
       <c r="E237" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F237" s="57"/>
-      <c r="G237" s="57"/>
+      <c r="F237" s="88"/>
+      <c r="G237" s="88"/>
       <c r="H237" s="40" t="s">
         <v>8</v>
       </c>
@@ -7256,8 +7275,8 @@
       <c r="E238" s="30">
         <v>4692693.0789000001</v>
       </c>
-      <c r="F238" s="57"/>
-      <c r="G238" s="57"/>
+      <c r="F238" s="88"/>
+      <c r="G238" s="88"/>
       <c r="H238" s="40" t="s">
         <v>8</v>
       </c>
@@ -7277,8 +7296,8 @@
       <c r="E239" s="30">
         <v>4692686.8443</v>
       </c>
-      <c r="F239" s="57"/>
-      <c r="G239" s="57"/>
+      <c r="F239" s="88"/>
+      <c r="G239" s="88"/>
       <c r="H239" s="40" t="s">
         <v>8</v>
       </c>
@@ -7298,8 +7317,8 @@
       <c r="E240" s="30">
         <v>4692689.7762000002</v>
       </c>
-      <c r="F240" s="57"/>
-      <c r="G240" s="57"/>
+      <c r="F240" s="88"/>
+      <c r="G240" s="88"/>
       <c r="H240" s="40" t="s">
         <v>8</v>
       </c>
@@ -7319,8 +7338,8 @@
       <c r="E241" s="30">
         <v>4692687.6679999996</v>
       </c>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
+      <c r="F241" s="88"/>
+      <c r="G241" s="88"/>
       <c r="H241" s="40" t="s">
         <v>8</v>
       </c>
@@ -7340,8 +7359,8 @@
       <c r="E242" s="30">
         <v>4692690.4787999997</v>
       </c>
-      <c r="F242" s="57"/>
-      <c r="G242" s="57"/>
+      <c r="F242" s="88"/>
+      <c r="G242" s="88"/>
       <c r="H242" s="40" t="s">
         <v>8</v>
       </c>
@@ -7361,8 +7380,8 @@
       <c r="E243" s="30">
         <v>4692688.38</v>
       </c>
-      <c r="F243" s="57"/>
-      <c r="G243" s="57"/>
+      <c r="F243" s="88"/>
+      <c r="G243" s="88"/>
       <c r="H243" s="40" t="s">
         <v>8</v>
       </c>
@@ -7382,8 +7401,8 @@
       <c r="E244" s="30">
         <v>4692685.5033</v>
       </c>
-      <c r="F244" s="57"/>
-      <c r="G244" s="57"/>
+      <c r="F244" s="88"/>
+      <c r="G244" s="88"/>
       <c r="H244" s="40" t="s">
         <v>8</v>
       </c>
@@ -7403,8 +7422,8 @@
       <c r="E245" s="30">
         <v>4692686.4769000001</v>
       </c>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
+      <c r="F245" s="88"/>
+      <c r="G245" s="88"/>
       <c r="H245" s="40" t="s">
         <v>8</v>
       </c>
@@ -7424,8 +7443,8 @@
       <c r="E246" s="30">
         <v>4692680.3293000003</v>
       </c>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
+      <c r="F246" s="88"/>
+      <c r="G246" s="88"/>
       <c r="H246" s="40" t="s">
         <v>8</v>
       </c>
@@ -7445,8 +7464,8 @@
       <c r="E247" s="30">
         <v>4692685.9365999997</v>
       </c>
-      <c r="F247" s="57"/>
-      <c r="G247" s="57"/>
+      <c r="F247" s="88"/>
+      <c r="G247" s="88"/>
       <c r="H247" s="40" t="s">
         <v>8</v>
       </c>
@@ -7466,8 +7485,8 @@
       <c r="E248" s="30">
         <v>4692684.2878</v>
       </c>
-      <c r="F248" s="57"/>
-      <c r="G248" s="57"/>
+      <c r="F248" s="88"/>
+      <c r="G248" s="88"/>
       <c r="H248" s="40" t="s">
         <v>8</v>
       </c>
@@ -7487,8 +7506,8 @@
       <c r="E249" s="30">
         <v>4692677.3678000001</v>
       </c>
-      <c r="F249" s="57"/>
-      <c r="G249" s="57"/>
+      <c r="F249" s="88"/>
+      <c r="G249" s="88"/>
       <c r="H249" s="40" t="s">
         <v>8</v>
       </c>
@@ -7508,8 +7527,8 @@
       <c r="E250" s="30">
         <v>4692675.551</v>
       </c>
-      <c r="F250" s="57"/>
-      <c r="G250" s="57"/>
+      <c r="F250" s="88"/>
+      <c r="G250" s="88"/>
       <c r="H250" s="40" t="s">
         <v>8</v>
       </c>
@@ -7529,8 +7548,8 @@
       <c r="E251" s="30">
         <v>4692682.6838999996</v>
       </c>
-      <c r="F251" s="57"/>
-      <c r="G251" s="57"/>
+      <c r="F251" s="88"/>
+      <c r="G251" s="88"/>
       <c r="H251" s="40" t="s">
         <v>8</v>
       </c>
@@ -7550,8 +7569,8 @@
       <c r="E252" s="30">
         <v>4692681.1698000003</v>
       </c>
-      <c r="F252" s="57"/>
-      <c r="G252" s="57"/>
+      <c r="F252" s="88"/>
+      <c r="G252" s="88"/>
       <c r="H252" s="40" t="s">
         <v>8</v>
       </c>
@@ -7569,8 +7588,8 @@
       <c r="E253" s="30">
         <v>4692679.5367999999</v>
       </c>
-      <c r="F253" s="57"/>
-      <c r="G253" s="57"/>
+      <c r="F253" s="88"/>
+      <c r="G253" s="88"/>
       <c r="H253" s="40" t="s">
         <v>8</v>
       </c>
@@ -7585,8 +7604,8 @@
       <c r="E254" s="30">
         <v>4692678.6008000001</v>
       </c>
-      <c r="F254" s="57"/>
-      <c r="G254" s="57"/>
+      <c r="F254" s="88"/>
+      <c r="G254" s="88"/>
       <c r="H254" s="40" t="s">
         <v>8</v>
       </c>
@@ -7603,8 +7622,8 @@
       <c r="E255" s="30">
         <v>4692673.9884000001</v>
       </c>
-      <c r="F255" s="57"/>
-      <c r="G255" s="57"/>
+      <c r="F255" s="88"/>
+      <c r="G255" s="88"/>
       <c r="H255" s="40" t="s">
         <v>8</v>
       </c>
@@ -7624,8 +7643,8 @@
       <c r="E256" s="42">
         <v>4692673.2940999996</v>
       </c>
-      <c r="F256" s="58"/>
-      <c r="G256" s="58"/>
+      <c r="F256" s="89"/>
+      <c r="G256" s="89"/>
       <c r="H256" s="43" t="s">
         <v>20</v>
       </c>
@@ -7640,34 +7659,34 @@
       <c r="B257" s="3"/>
       <c r="C257" s="35"/>
       <c r="D257" s="35"/>
-      <c r="E257" s="83" t="s">
+      <c r="E257" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F257" s="84"/>
-      <c r="G257" s="85"/>
-      <c r="H257" s="82" t="s">
+      <c r="F257" s="85"/>
+      <c r="G257" s="86"/>
+      <c r="H257" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I257" s="64"/>
-      <c r="J257" s="67"/>
-      <c r="K257" s="68"/>
+      <c r="I257" s="70"/>
+      <c r="J257" s="73"/>
+      <c r="K257" s="74"/>
     </row>
     <row r="258" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="71" t="s">
+      <c r="A258" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="72"/>
-      <c r="C258" s="72"/>
-      <c r="D258" s="73"/>
-      <c r="E258" s="74">
+      <c r="B258" s="78"/>
+      <c r="C258" s="78"/>
+      <c r="D258" s="79"/>
+      <c r="E258" s="80">
         <v>140</v>
       </c>
-      <c r="F258" s="75"/>
-      <c r="G258" s="76"/>
-      <c r="H258" s="65"/>
-      <c r="I258" s="66"/>
-      <c r="J258" s="69"/>
-      <c r="K258" s="70"/>
+      <c r="F258" s="81"/>
+      <c r="G258" s="82"/>
+      <c r="H258" s="71"/>
+      <c r="I258" s="72"/>
+      <c r="J258" s="75"/>
+      <c r="K258" s="76"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
@@ -7683,118 +7702,118 @@
       <c r="K259" s="1"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="48"/>
-      <c r="B260" s="48"/>
-      <c r="C260" s="48"/>
-      <c r="D260" s="48"/>
-      <c r="E260" s="48"/>
-      <c r="F260" s="48"/>
-      <c r="G260" s="48"/>
-      <c r="H260" s="48"/>
-      <c r="I260" s="48"/>
-      <c r="J260" s="48"/>
-      <c r="K260" s="48"/>
+      <c r="A260" s="51"/>
+      <c r="B260" s="51"/>
+      <c r="C260" s="51"/>
+      <c r="D260" s="51"/>
+      <c r="E260" s="51"/>
+      <c r="F260" s="51"/>
+      <c r="G260" s="51"/>
+      <c r="H260" s="51"/>
+      <c r="I260" s="51"/>
+      <c r="J260" s="51"/>
+      <c r="K260" s="51"/>
     </row>
     <row r="261" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="48"/>
-      <c r="B261" s="48"/>
-      <c r="C261" s="48"/>
-      <c r="D261" s="48"/>
-      <c r="E261" s="48"/>
-      <c r="F261" s="48"/>
-      <c r="G261" s="48"/>
-      <c r="H261" s="48"/>
-      <c r="I261" s="48"/>
-      <c r="J261" s="48"/>
-      <c r="K261" s="48"/>
+      <c r="A261" s="51"/>
+      <c r="B261" s="51"/>
+      <c r="C261" s="51"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="51"/>
+      <c r="G261" s="51"/>
+      <c r="H261" s="51"/>
+      <c r="I261" s="51"/>
+      <c r="J261" s="51"/>
+      <c r="K261" s="51"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="49" t="s">
+      <c r="A262" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B262" s="49"/>
-      <c r="C262" s="49"/>
-      <c r="D262" s="49"/>
-      <c r="E262" s="49"/>
-      <c r="F262" s="49"/>
-      <c r="G262" s="49"/>
-      <c r="H262" s="49"/>
-      <c r="I262" s="49"/>
-      <c r="J262" s="49"/>
-      <c r="K262" s="49"/>
+      <c r="B262" s="52"/>
+      <c r="C262" s="52"/>
+      <c r="D262" s="52"/>
+      <c r="E262" s="52"/>
+      <c r="F262" s="52"/>
+      <c r="G262" s="52"/>
+      <c r="H262" s="52"/>
+      <c r="I262" s="52"/>
+      <c r="J262" s="52"/>
+      <c r="K262" s="52"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="49"/>
-      <c r="B263" s="49"/>
-      <c r="C263" s="49"/>
-      <c r="D263" s="49"/>
-      <c r="E263" s="49"/>
-      <c r="F263" s="49"/>
-      <c r="G263" s="49"/>
-      <c r="H263" s="49"/>
-      <c r="I263" s="49"/>
-      <c r="J263" s="49"/>
-      <c r="K263" s="49"/>
+      <c r="A263" s="52"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="52"/>
+      <c r="G263" s="52"/>
+      <c r="H263" s="52"/>
+      <c r="I263" s="52"/>
+      <c r="J263" s="52"/>
+      <c r="K263" s="52"/>
     </row>
     <row r="264" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="49"/>
-      <c r="B264" s="49"/>
-      <c r="C264" s="49"/>
-      <c r="D264" s="49"/>
-      <c r="E264" s="49"/>
-      <c r="F264" s="49"/>
-      <c r="G264" s="49"/>
-      <c r="H264" s="49"/>
-      <c r="I264" s="49"/>
-      <c r="J264" s="49"/>
-      <c r="K264" s="49"/>
+      <c r="A264" s="52"/>
+      <c r="B264" s="52"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="52"/>
+      <c r="E264" s="52"/>
+      <c r="F264" s="52"/>
+      <c r="G264" s="52"/>
+      <c r="H264" s="52"/>
+      <c r="I264" s="52"/>
+      <c r="J264" s="52"/>
+      <c r="K264" s="52"/>
     </row>
     <row r="265" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="49"/>
-      <c r="B265" s="49"/>
-      <c r="C265" s="49"/>
-      <c r="D265" s="49"/>
-      <c r="E265" s="49"/>
-      <c r="F265" s="49"/>
-      <c r="G265" s="49"/>
-      <c r="H265" s="49"/>
-      <c r="I265" s="49"/>
-      <c r="J265" s="49"/>
-      <c r="K265" s="49"/>
+      <c r="A265" s="52"/>
+      <c r="B265" s="52"/>
+      <c r="C265" s="52"/>
+      <c r="D265" s="52"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="52"/>
+      <c r="G265" s="52"/>
+      <c r="H265" s="52"/>
+      <c r="I265" s="52"/>
+      <c r="J265" s="52"/>
+      <c r="K265" s="52"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
-      <c r="C266" s="50"/>
-      <c r="D266" s="51"/>
-      <c r="E266" s="51"/>
-      <c r="F266" s="51"/>
-      <c r="G266" s="51"/>
-      <c r="H266" s="51"/>
-      <c r="I266" s="52"/>
+      <c r="C266" s="53"/>
+      <c r="D266" s="54"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="54"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="54"/>
+      <c r="I266" s="55"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="C267" s="53"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="54"/>
-      <c r="I267" s="55"/>
+      <c r="C267" s="56"/>
+      <c r="D267" s="57"/>
+      <c r="E267" s="57"/>
+      <c r="F267" s="57"/>
+      <c r="G267" s="57"/>
+      <c r="H267" s="57"/>
+      <c r="I267" s="58"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
     <row r="268" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="78"/>
-      <c r="E268" s="78"/>
-      <c r="F268" s="78"/>
-      <c r="G268" s="78"/>
-      <c r="H268" s="78"/>
-      <c r="I268" s="56"/>
+      <c r="C268" s="59"/>
+      <c r="D268" s="60"/>
+      <c r="E268" s="60"/>
+      <c r="F268" s="60"/>
+      <c r="G268" s="60"/>
+      <c r="H268" s="60"/>
+      <c r="I268" s="61"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
@@ -7848,10 +7867,10 @@
       <c r="E271" s="30">
         <v>4692673.5029999996</v>
       </c>
-      <c r="F271" s="79">
+      <c r="F271" s="48">
         <v>625.72</v>
       </c>
-      <c r="G271" s="86" t="s">
+      <c r="G271" s="63" t="s">
         <v>25</v>
       </c>
       <c r="H271" s="45" t="s">
@@ -7873,8 +7892,8 @@
       <c r="E272" s="30">
         <v>4692672.9689999996</v>
       </c>
-      <c r="F272" s="80"/>
-      <c r="G272" s="87"/>
+      <c r="F272" s="49"/>
+      <c r="G272" s="64"/>
       <c r="H272" s="45" t="s">
         <v>8</v>
       </c>
@@ -7894,8 +7913,8 @@
       <c r="E273" s="30">
         <v>4692672.7319999998</v>
       </c>
-      <c r="F273" s="80"/>
-      <c r="G273" s="87"/>
+      <c r="F273" s="49"/>
+      <c r="G273" s="64"/>
       <c r="H273" s="45" t="s">
         <v>8</v>
       </c>
@@ -7915,8 +7934,8 @@
       <c r="E274" s="30">
         <v>4692672.7970000003</v>
       </c>
-      <c r="F274" s="80"/>
-      <c r="G274" s="87"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="64"/>
       <c r="H274" s="45" t="s">
         <v>8</v>
       </c>
@@ -7936,8 +7955,8 @@
       <c r="E275" s="30">
         <v>4692674.3839999996</v>
       </c>
-      <c r="F275" s="80"/>
-      <c r="G275" s="87"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="64"/>
       <c r="H275" s="45" t="s">
         <v>8</v>
       </c>
@@ -7957,8 +7976,8 @@
       <c r="E276" s="30">
         <v>4692677.5640000002</v>
       </c>
-      <c r="F276" s="80"/>
-      <c r="G276" s="87"/>
+      <c r="F276" s="49"/>
+      <c r="G276" s="64"/>
       <c r="H276" s="45" t="s">
         <v>8</v>
       </c>
@@ -7978,8 +7997,8 @@
       <c r="E277" s="30">
         <v>4692679.0279999999</v>
       </c>
-      <c r="F277" s="80"/>
-      <c r="G277" s="87"/>
+      <c r="F277" s="49"/>
+      <c r="G277" s="64"/>
       <c r="H277" s="45" t="s">
         <v>8</v>
       </c>
@@ -7999,8 +8018,8 @@
       <c r="E278" s="30">
         <v>4692680.25</v>
       </c>
-      <c r="F278" s="80"/>
-      <c r="G278" s="87"/>
+      <c r="F278" s="49"/>
+      <c r="G278" s="64"/>
       <c r="H278" s="45" t="s">
         <v>8</v>
       </c>
@@ -8020,8 +8039,8 @@
       <c r="E279" s="30">
         <v>4692673.0663999999</v>
       </c>
-      <c r="F279" s="80"/>
-      <c r="G279" s="87"/>
+      <c r="F279" s="49"/>
+      <c r="G279" s="64"/>
       <c r="H279" s="45" t="s">
         <v>8</v>
       </c>
@@ -8041,8 +8060,8 @@
       <c r="E280" s="30">
         <v>4692675.5999999996</v>
       </c>
-      <c r="F280" s="80"/>
-      <c r="G280" s="87"/>
+      <c r="F280" s="49"/>
+      <c r="G280" s="64"/>
       <c r="H280" s="45" t="s">
         <v>8</v>
       </c>
@@ -8062,8 +8081,8 @@
       <c r="E281" s="30">
         <v>4692674.3310000002</v>
       </c>
-      <c r="F281" s="80"/>
-      <c r="G281" s="87"/>
+      <c r="F281" s="49"/>
+      <c r="G281" s="64"/>
       <c r="H281" s="45" t="s">
         <v>8</v>
       </c>
@@ -8083,8 +8102,8 @@
       <c r="E282" s="30">
         <v>4692675.5310000004</v>
       </c>
-      <c r="F282" s="80"/>
-      <c r="G282" s="87"/>
+      <c r="F282" s="49"/>
+      <c r="G282" s="64"/>
       <c r="H282" s="45" t="s">
         <v>8</v>
       </c>
@@ -8104,8 +8123,8 @@
       <c r="E283" s="30">
         <v>4692685.9060000004</v>
       </c>
-      <c r="F283" s="80"/>
-      <c r="G283" s="87"/>
+      <c r="F283" s="49"/>
+      <c r="G283" s="64"/>
       <c r="H283" s="45" t="s">
         <v>8</v>
       </c>
@@ -8125,8 +8144,8 @@
       <c r="E284" s="30">
         <v>4692677.4869999997</v>
       </c>
-      <c r="F284" s="80"/>
-      <c r="G284" s="87"/>
+      <c r="F284" s="49"/>
+      <c r="G284" s="64"/>
       <c r="H284" s="45" t="s">
         <v>8</v>
       </c>
@@ -8146,8 +8165,8 @@
       <c r="E285" s="30">
         <v>4692678.7819999997</v>
       </c>
-      <c r="F285" s="80"/>
-      <c r="G285" s="87"/>
+      <c r="F285" s="49"/>
+      <c r="G285" s="64"/>
       <c r="H285" s="45" t="s">
         <v>8</v>
       </c>
@@ -8167,8 +8186,8 @@
       <c r="E286" s="30">
         <v>4692681.2970000003</v>
       </c>
-      <c r="F286" s="80"/>
-      <c r="G286" s="87"/>
+      <c r="F286" s="49"/>
+      <c r="G286" s="64"/>
       <c r="H286" s="45" t="s">
         <v>8</v>
       </c>
@@ -8188,8 +8207,8 @@
       <c r="E287" s="30">
         <v>4692686.5060000001</v>
       </c>
-      <c r="F287" s="80"/>
-      <c r="G287" s="87"/>
+      <c r="F287" s="49"/>
+      <c r="G287" s="64"/>
       <c r="H287" s="45" t="s">
         <v>8</v>
       </c>
@@ -8209,8 +8228,8 @@
       <c r="E288" s="30">
         <v>4692687.1791000003</v>
       </c>
-      <c r="F288" s="80"/>
-      <c r="G288" s="87"/>
+      <c r="F288" s="49"/>
+      <c r="G288" s="64"/>
       <c r="H288" s="45" t="s">
         <v>8</v>
       </c>
@@ -8230,8 +8249,8 @@
       <c r="E289" s="30">
         <v>4692688.1239999998</v>
       </c>
-      <c r="F289" s="80"/>
-      <c r="G289" s="87"/>
+      <c r="F289" s="49"/>
+      <c r="G289" s="64"/>
       <c r="H289" s="45" t="s">
         <v>8</v>
       </c>
@@ -8251,8 +8270,8 @@
       <c r="E290" s="30">
         <v>4692694.1169999996</v>
       </c>
-      <c r="F290" s="80"/>
-      <c r="G290" s="87"/>
+      <c r="F290" s="49"/>
+      <c r="G290" s="64"/>
       <c r="H290" s="45" t="s">
         <v>8</v>
       </c>
@@ -8272,8 +8291,8 @@
       <c r="E291" s="30">
         <v>4692693.4919999996</v>
       </c>
-      <c r="F291" s="80"/>
-      <c r="G291" s="87"/>
+      <c r="F291" s="49"/>
+      <c r="G291" s="64"/>
       <c r="H291" s="45" t="s">
         <v>8</v>
       </c>
@@ -8293,8 +8312,8 @@
       <c r="E292" s="30">
         <v>4692694.1579999998</v>
       </c>
-      <c r="F292" s="80"/>
-      <c r="G292" s="87"/>
+      <c r="F292" s="49"/>
+      <c r="G292" s="64"/>
       <c r="H292" s="45" t="s">
         <v>8</v>
       </c>
@@ -8314,8 +8333,8 @@
       <c r="E293" s="30">
         <v>4692689.9910000004</v>
       </c>
-      <c r="F293" s="80"/>
-      <c r="G293" s="87"/>
+      <c r="F293" s="49"/>
+      <c r="G293" s="64"/>
       <c r="H293" s="45" t="s">
         <v>8</v>
       </c>
@@ -8335,8 +8354,8 @@
       <c r="E294" s="30">
         <v>4692691.5941000003</v>
       </c>
-      <c r="F294" s="80"/>
-      <c r="G294" s="87"/>
+      <c r="F294" s="49"/>
+      <c r="G294" s="64"/>
       <c r="H294" s="45" t="s">
         <v>8</v>
       </c>
@@ -8356,8 +8375,8 @@
       <c r="E295" s="30">
         <v>4692685.3595000003</v>
       </c>
-      <c r="F295" s="80"/>
-      <c r="G295" s="87"/>
+      <c r="F295" s="49"/>
+      <c r="G295" s="64"/>
       <c r="H295" s="45" t="s">
         <v>8</v>
       </c>
@@ -8377,8 +8396,8 @@
       <c r="E296" s="30">
         <v>4692683.7562999995</v>
       </c>
-      <c r="F296" s="80"/>
-      <c r="G296" s="87"/>
+      <c r="F296" s="49"/>
+      <c r="G296" s="64"/>
       <c r="H296" s="45" t="s">
         <v>8</v>
       </c>
@@ -8398,8 +8417,8 @@
       <c r="E297" s="30">
         <v>4692680.5674000001</v>
       </c>
-      <c r="F297" s="80"/>
-      <c r="G297" s="87"/>
+      <c r="F297" s="49"/>
+      <c r="G297" s="64"/>
       <c r="H297" s="45" t="s">
         <v>8</v>
       </c>
@@ -8419,8 +8438,8 @@
       <c r="E298" s="30">
         <v>4692683.9784000004</v>
       </c>
-      <c r="F298" s="80"/>
-      <c r="G298" s="87"/>
+      <c r="F298" s="49"/>
+      <c r="G298" s="64"/>
       <c r="H298" s="45" t="s">
         <v>8</v>
       </c>
@@ -8440,8 +8459,8 @@
       <c r="E299" s="30">
         <v>4692683.0823999997</v>
       </c>
-      <c r="F299" s="80"/>
-      <c r="G299" s="87"/>
+      <c r="F299" s="49"/>
+      <c r="G299" s="64"/>
       <c r="H299" s="45" t="s">
         <v>8</v>
       </c>
@@ -8461,8 +8480,8 @@
       <c r="E300" s="30">
         <v>4692679.6714000003</v>
       </c>
-      <c r="F300" s="80"/>
-      <c r="G300" s="87"/>
+      <c r="F300" s="49"/>
+      <c r="G300" s="64"/>
       <c r="H300" s="45" t="s">
         <v>8</v>
       </c>
@@ -8482,8 +8501,8 @@
       <c r="E301" s="30">
         <v>4692678.2399000004</v>
       </c>
-      <c r="F301" s="80"/>
-      <c r="G301" s="87"/>
+      <c r="F301" s="49"/>
+      <c r="G301" s="64"/>
       <c r="H301" s="45" t="s">
         <v>8</v>
       </c>
@@ -8503,8 +8522,8 @@
       <c r="E302" s="30">
         <v>4692682.3244000003</v>
       </c>
-      <c r="F302" s="80"/>
-      <c r="G302" s="87"/>
+      <c r="F302" s="49"/>
+      <c r="G302" s="64"/>
       <c r="H302" s="45" t="s">
         <v>8</v>
       </c>
@@ -8524,8 +8543,8 @@
       <c r="E303" s="30">
         <v>4692683.8091000002</v>
       </c>
-      <c r="F303" s="80"/>
-      <c r="G303" s="87"/>
+      <c r="F303" s="49"/>
+      <c r="G303" s="64"/>
       <c r="H303" s="45" t="s">
         <v>8</v>
       </c>
@@ -8545,8 +8564,8 @@
       <c r="E304" s="30">
         <v>4692683.9275000002</v>
       </c>
-      <c r="F304" s="80"/>
-      <c r="G304" s="87"/>
+      <c r="F304" s="49"/>
+      <c r="G304" s="64"/>
       <c r="H304" s="45" t="s">
         <v>8</v>
       </c>
@@ -8566,8 +8585,8 @@
       <c r="E305" s="30">
         <v>4692686.4386999998</v>
       </c>
-      <c r="F305" s="80"/>
-      <c r="G305" s="87"/>
+      <c r="F305" s="49"/>
+      <c r="G305" s="64"/>
       <c r="H305" s="45" t="s">
         <v>8</v>
       </c>
@@ -8587,8 +8606,8 @@
       <c r="E306" s="30">
         <v>4692675.5519000003</v>
       </c>
-      <c r="F306" s="81"/>
-      <c r="G306" s="87"/>
+      <c r="F306" s="50"/>
+      <c r="G306" s="64"/>
       <c r="H306" s="45" t="s">
         <v>8</v>
       </c>
@@ -8611,7 +8630,7 @@
       <c r="F307" s="34">
         <v>616.38300000000004</v>
       </c>
-      <c r="G307" s="88"/>
+      <c r="G307" s="65"/>
       <c r="H307" s="45" t="s">
         <v>20</v>
       </c>
@@ -8635,28 +8654,28 @@
     <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
-      <c r="C309" s="59" t="s">
+      <c r="C309" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D309" s="59"/>
-      <c r="E309" s="59"/>
-      <c r="F309" s="59"/>
-      <c r="G309" s="59"/>
-      <c r="H309" s="59"/>
-      <c r="I309" s="59"/>
+      <c r="D309" s="62"/>
+      <c r="E309" s="62"/>
+      <c r="F309" s="62"/>
+      <c r="G309" s="62"/>
+      <c r="H309" s="62"/>
+      <c r="I309" s="62"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
     <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
-      <c r="C310" s="59"/>
-      <c r="D310" s="59"/>
-      <c r="E310" s="59"/>
-      <c r="F310" s="59"/>
-      <c r="G310" s="59"/>
-      <c r="H310" s="59"/>
-      <c r="I310" s="59"/>
+      <c r="C310" s="62"/>
+      <c r="D310" s="62"/>
+      <c r="E310" s="62"/>
+      <c r="F310" s="62"/>
+      <c r="G310" s="62"/>
+      <c r="H310" s="62"/>
+      <c r="I310" s="62"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
@@ -8732,47 +8751,53 @@
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="60" t="s">
+      <c r="E316" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F316" s="61"/>
-      <c r="G316" s="62"/>
-      <c r="H316" s="63" t="s">
+      <c r="F316" s="67"/>
+      <c r="G316" s="68"/>
+      <c r="H316" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I316" s="64"/>
-      <c r="J316" s="67"/>
-      <c r="K316" s="68"/>
+      <c r="I316" s="70"/>
+      <c r="J316" s="73"/>
+      <c r="K316" s="74"/>
     </row>
     <row r="317" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="71" t="s">
+      <c r="A317" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="72"/>
-      <c r="C317" s="72"/>
-      <c r="D317" s="73"/>
-      <c r="E317" s="74">
+      <c r="B317" s="78"/>
+      <c r="C317" s="78"/>
+      <c r="D317" s="79"/>
+      <c r="E317" s="80">
         <v>140</v>
       </c>
-      <c r="F317" s="75"/>
-      <c r="G317" s="76"/>
-      <c r="H317" s="65"/>
-      <c r="I317" s="66"/>
-      <c r="J317" s="69"/>
-      <c r="K317" s="70"/>
+      <c r="F317" s="81"/>
+      <c r="G317" s="82"/>
+      <c r="H317" s="71"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="75"/>
+      <c r="K317" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G77:G112"/>
-    <mergeCell ref="F77:F112"/>
-    <mergeCell ref="A260:K261"/>
-    <mergeCell ref="A262:K265"/>
-    <mergeCell ref="C266:I268"/>
-    <mergeCell ref="C309:I310"/>
-    <mergeCell ref="G271:G307"/>
-    <mergeCell ref="F271:F306"/>
-    <mergeCell ref="E316:G316"/>
-    <mergeCell ref="H316:I317"/>
+    <mergeCell ref="J192:K193"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="C120:I121"/>
+    <mergeCell ref="A66:K67"/>
+    <mergeCell ref="G144:G181"/>
+    <mergeCell ref="C7:I9"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="B61:H62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I65"/>
+    <mergeCell ref="J64:K65"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="G36:G55"/>
     <mergeCell ref="J316:K317"/>
     <mergeCell ref="A317:D317"/>
     <mergeCell ref="E317:G317"/>
@@ -8784,37 +8809,31 @@
     <mergeCell ref="E258:G258"/>
     <mergeCell ref="J257:K258"/>
     <mergeCell ref="A134:K137"/>
-    <mergeCell ref="G144:G178"/>
     <mergeCell ref="H128:I129"/>
     <mergeCell ref="J128:K129"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="E129:G129"/>
+    <mergeCell ref="C309:I310"/>
+    <mergeCell ref="G271:G307"/>
+    <mergeCell ref="F271:F306"/>
+    <mergeCell ref="E316:G316"/>
+    <mergeCell ref="H316:I317"/>
+    <mergeCell ref="G77:G112"/>
+    <mergeCell ref="F77:F112"/>
+    <mergeCell ref="A260:K261"/>
+    <mergeCell ref="A262:K265"/>
+    <mergeCell ref="C266:I268"/>
     <mergeCell ref="A132:K133"/>
     <mergeCell ref="E128:G128"/>
     <mergeCell ref="C139:I141"/>
-    <mergeCell ref="C7:I9"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="B61:H62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I65"/>
-    <mergeCell ref="J64:K65"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="G36:G55"/>
     <mergeCell ref="A194:K195"/>
     <mergeCell ref="A196:K199"/>
     <mergeCell ref="C200:I202"/>
     <mergeCell ref="G204:G256"/>
     <mergeCell ref="F204:F256"/>
-    <mergeCell ref="C182:I183"/>
+    <mergeCell ref="C187:I188"/>
     <mergeCell ref="E192:G192"/>
     <mergeCell ref="H192:I193"/>
-    <mergeCell ref="J192:K193"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="E193:G193"/>
-    <mergeCell ref="C120:I121"/>
-    <mergeCell ref="A66:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
